--- a/Bases_de_Dados_(2022-2023)/Norway Eliteserien_2023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Norway Eliteserien_2023.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BK17"/>
+  <dimension ref="A1:BK18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1106,7 +1106,7 @@
         <v>0</v>
       </c>
       <c r="AT3" t="n">
-        <v>3</v>
+        <v>1.5</v>
       </c>
       <c r="AU3" t="n">
         <v>0</v>
@@ -4000,6 +4000,209 @@
       </c>
       <c r="BK17" t="n">
         <v>10</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n">
+        <v>17</v>
+      </c>
+      <c r="B18" t="n">
+        <v>4869387</v>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>Norway Eliteserien</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E18" s="2" t="n">
+        <v>45038.54166666666</v>
+      </c>
+      <c r="F18" t="n">
+        <v>3</v>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>Brann</t>
+        </is>
+      </c>
+      <c r="H18" t="inlineStr">
+        <is>
+          <t>Vålerenga</t>
+        </is>
+      </c>
+      <c r="I18" t="n">
+        <v>1</v>
+      </c>
+      <c r="J18" t="n">
+        <v>1</v>
+      </c>
+      <c r="K18" t="n">
+        <v>2</v>
+      </c>
+      <c r="L18" t="n">
+        <v>3</v>
+      </c>
+      <c r="M18" t="n">
+        <v>1</v>
+      </c>
+      <c r="N18" t="n">
+        <v>4</v>
+      </c>
+      <c r="O18" t="inlineStr">
+        <is>
+          <t>['6', '73', '80']</t>
+        </is>
+      </c>
+      <c r="P18" t="inlineStr">
+        <is>
+          <t>['15']</t>
+        </is>
+      </c>
+      <c r="Q18" t="n">
+        <v>8</v>
+      </c>
+      <c r="R18" t="n">
+        <v>4</v>
+      </c>
+      <c r="S18" t="n">
+        <v>12</v>
+      </c>
+      <c r="T18" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="U18" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="V18" t="n">
+        <v>4.8</v>
+      </c>
+      <c r="W18" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="X18" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="Y18" t="n">
+        <v>2.37</v>
+      </c>
+      <c r="Z18" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AA18" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="AB18" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="AC18" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="AD18" t="n">
+        <v>4.3</v>
+      </c>
+      <c r="AE18" t="n">
+        <v>5.75</v>
+      </c>
+      <c r="AF18" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="AG18" t="n">
+        <v>11</v>
+      </c>
+      <c r="AH18" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AI18" t="n">
+        <v>4</v>
+      </c>
+      <c r="AJ18" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="AK18" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="AL18" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="AM18" t="n">
+        <v>2</v>
+      </c>
+      <c r="AN18" t="n">
+        <v>1.16</v>
+      </c>
+      <c r="AO18" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="AP18" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="AQ18" t="n">
+        <v>3</v>
+      </c>
+      <c r="AR18" t="n">
+        <v>3</v>
+      </c>
+      <c r="AS18" t="n">
+        <v>3</v>
+      </c>
+      <c r="AT18" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AU18" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="AV18" t="n">
+        <v>0.9399999999999999</v>
+      </c>
+      <c r="AW18" t="n">
+        <v>2.99</v>
+      </c>
+      <c r="AX18" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="AY18" t="n">
+        <v>9</v>
+      </c>
+      <c r="AZ18" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="BA18" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="BB18" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="BC18" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="BD18" t="n">
+        <v>1.51</v>
+      </c>
+      <c r="BE18" t="n">
+        <v>2</v>
+      </c>
+      <c r="BF18" t="n">
+        <v>7</v>
+      </c>
+      <c r="BG18" t="n">
+        <v>5</v>
+      </c>
+      <c r="BH18" t="n">
+        <v>8</v>
+      </c>
+      <c r="BI18" t="n">
+        <v>0</v>
+      </c>
+      <c r="BJ18" t="n">
+        <v>15</v>
+      </c>
+      <c r="BK18" t="n">
+        <v>5</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2023)/Norway Eliteserien_2023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Norway Eliteserien_2023.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BK18"/>
+  <dimension ref="A1:BK25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -900,10 +900,10 @@
         <v>0</v>
       </c>
       <c r="AS2" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AT2" t="n">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="AU2" t="n">
         <v>0</v>
@@ -1309,7 +1309,7 @@
         <v>3</v>
       </c>
       <c r="AT4" t="n">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="AU4" t="n">
         <v>0</v>
@@ -1509,7 +1509,7 @@
         <v>0</v>
       </c>
       <c r="AS5" t="n">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="AT5" t="n">
         <v>3</v>
@@ -1712,7 +1712,7 @@
         <v>0</v>
       </c>
       <c r="AS6" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AT6" t="n">
         <v>1</v>
@@ -1915,7 +1915,7 @@
         <v>0</v>
       </c>
       <c r="AS7" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AT7" t="n">
         <v>0</v>
@@ -4187,22 +4187,1443 @@
         <v>2</v>
       </c>
       <c r="BF18" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="BG18" t="n">
         <v>5</v>
       </c>
       <c r="BH18" t="n">
+        <v>5</v>
+      </c>
+      <c r="BI18" t="n">
+        <v>1</v>
+      </c>
+      <c r="BJ18" t="n">
+        <v>13</v>
+      </c>
+      <c r="BK18" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="n">
+        <v>18</v>
+      </c>
+      <c r="B19" t="n">
+        <v>4869388</v>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>Norway Eliteserien</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E19" s="2" t="n">
+        <v>45039.5</v>
+      </c>
+      <c r="F19" t="n">
+        <v>3</v>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>Aalesund</t>
+        </is>
+      </c>
+      <c r="H19" t="inlineStr">
+        <is>
+          <t>FK Bodo - Glimt</t>
+        </is>
+      </c>
+      <c r="I19" t="n">
+        <v>0</v>
+      </c>
+      <c r="J19" t="n">
+        <v>2</v>
+      </c>
+      <c r="K19" t="n">
+        <v>2</v>
+      </c>
+      <c r="L19" t="n">
+        <v>0</v>
+      </c>
+      <c r="M19" t="n">
+        <v>3</v>
+      </c>
+      <c r="N19" t="n">
+        <v>3</v>
+      </c>
+      <c r="O19" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P19" t="inlineStr">
+        <is>
+          <t>['6', '17', '59']</t>
+        </is>
+      </c>
+      <c r="Q19" t="n">
+        <v>1</v>
+      </c>
+      <c r="R19" t="n">
+        <v>4</v>
+      </c>
+      <c r="S19" t="n">
+        <v>5</v>
+      </c>
+      <c r="T19" t="n">
+        <v>5.3</v>
+      </c>
+      <c r="U19" t="n">
+        <v>2.37</v>
+      </c>
+      <c r="V19" t="n">
+        <v>2.03</v>
+      </c>
+      <c r="W19" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="X19" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="Y19" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="Z19" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="AA19" t="n">
+        <v>5</v>
+      </c>
+      <c r="AB19" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="AC19" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="AD19" t="n">
+        <v>3.71</v>
+      </c>
+      <c r="AE19" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="AF19" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="AG19" t="n">
+        <v>12</v>
+      </c>
+      <c r="AH19" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="AI19" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="AJ19" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="AK19" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="AL19" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AM19" t="n">
+        <v>1.99</v>
+      </c>
+      <c r="AN19" t="n">
+        <v>2.65</v>
+      </c>
+      <c r="AO19" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="AP19" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AQ19" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR19" t="n">
+        <v>3</v>
+      </c>
+      <c r="AS19" t="n">
+        <v>0</v>
+      </c>
+      <c r="AT19" t="n">
+        <v>3</v>
+      </c>
+      <c r="AU19" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="AV19" t="n">
+        <v>2.09</v>
+      </c>
+      <c r="AW19" t="n">
+        <v>3.32</v>
+      </c>
+      <c r="AX19" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="AY19" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AZ19" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="BA19" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="BB19" t="n">
+        <v>1.49</v>
+      </c>
+      <c r="BC19" t="n">
+        <v>2</v>
+      </c>
+      <c r="BD19" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="BE19" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="BF19" t="n">
+        <v>3</v>
+      </c>
+      <c r="BG19" t="n">
+        <v>7</v>
+      </c>
+      <c r="BH19" t="n">
+        <v>3</v>
+      </c>
+      <c r="BI19" t="n">
+        <v>6</v>
+      </c>
+      <c r="BJ19" t="n">
+        <v>6</v>
+      </c>
+      <c r="BK19" t="n">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n">
+        <v>19</v>
+      </c>
+      <c r="B20" t="n">
+        <v>4869389</v>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>Norway Eliteserien</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E20" s="2" t="n">
+        <v>45039.5</v>
+      </c>
+      <c r="F20" t="n">
+        <v>3</v>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>HamKam</t>
+        </is>
+      </c>
+      <c r="H20" t="inlineStr">
+        <is>
+          <t>Strømsgodset</t>
+        </is>
+      </c>
+      <c r="I20" t="n">
+        <v>0</v>
+      </c>
+      <c r="J20" t="n">
+        <v>0</v>
+      </c>
+      <c r="K20" t="n">
+        <v>0</v>
+      </c>
+      <c r="L20" t="n">
+        <v>2</v>
+      </c>
+      <c r="M20" t="n">
+        <v>0</v>
+      </c>
+      <c r="N20" t="n">
+        <v>2</v>
+      </c>
+      <c r="O20" t="inlineStr">
+        <is>
+          <t>['75', '89']</t>
+        </is>
+      </c>
+      <c r="P20" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q20" t="n">
+        <v>6</v>
+      </c>
+      <c r="R20" t="n">
+        <v>1</v>
+      </c>
+      <c r="S20" t="n">
+        <v>7</v>
+      </c>
+      <c r="T20" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="U20" t="n">
+        <v>2.13</v>
+      </c>
+      <c r="V20" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="W20" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="X20" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="Y20" t="n">
+        <v>2.62</v>
+      </c>
+      <c r="Z20" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="AA20" t="n">
+        <v>6.25</v>
+      </c>
+      <c r="AB20" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="AC20" t="n">
+        <v>1.99</v>
+      </c>
+      <c r="AD20" t="n">
+        <v>3.12</v>
+      </c>
+      <c r="AE20" t="n">
+        <v>2.97</v>
+      </c>
+      <c r="AF20" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="AG20" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AH20" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AI20" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="AJ20" t="n">
+        <v>1.77</v>
+      </c>
+      <c r="AK20" t="n">
+        <v>2.06</v>
+      </c>
+      <c r="AL20" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="AM20" t="n">
+        <v>2.21</v>
+      </c>
+      <c r="AN20" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AO20" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="AP20" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="AQ20" t="n">
+        <v>3</v>
+      </c>
+      <c r="AR20" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS20" t="n">
+        <v>3</v>
+      </c>
+      <c r="AT20" t="n">
+        <v>0</v>
+      </c>
+      <c r="AU20" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="AV20" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="AW20" t="n">
+        <v>2.52</v>
+      </c>
+      <c r="AX20" t="n">
+        <v>1.54</v>
+      </c>
+      <c r="AY20" t="n">
+        <v>6</v>
+      </c>
+      <c r="AZ20" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="BA20" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="BB20" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="BC20" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="BD20" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="BE20" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="BF20" t="n">
+        <v>5</v>
+      </c>
+      <c r="BG20" t="n">
+        <v>3</v>
+      </c>
+      <c r="BH20" t="n">
+        <v>9</v>
+      </c>
+      <c r="BI20" t="n">
+        <v>5</v>
+      </c>
+      <c r="BJ20" t="n">
+        <v>14</v>
+      </c>
+      <c r="BK20" t="n">
         <v>8</v>
       </c>
-      <c r="BI18" t="n">
-        <v>0</v>
-      </c>
-      <c r="BJ18" t="n">
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n">
+        <v>20</v>
+      </c>
+      <c r="B21" t="n">
+        <v>4869390</v>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>Norway Eliteserien</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E21" s="2" t="n">
+        <v>45039.5</v>
+      </c>
+      <c r="F21" t="n">
+        <v>3</v>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>Rosenborg</t>
+        </is>
+      </c>
+      <c r="H21" t="inlineStr">
+        <is>
+          <t>Sandefjord</t>
+        </is>
+      </c>
+      <c r="I21" t="n">
+        <v>0</v>
+      </c>
+      <c r="J21" t="n">
+        <v>1</v>
+      </c>
+      <c r="K21" t="n">
+        <v>1</v>
+      </c>
+      <c r="L21" t="n">
+        <v>1</v>
+      </c>
+      <c r="M21" t="n">
+        <v>1</v>
+      </c>
+      <c r="N21" t="n">
+        <v>2</v>
+      </c>
+      <c r="O21" t="inlineStr">
+        <is>
+          <t>['90+4']</t>
+        </is>
+      </c>
+      <c r="P21" t="inlineStr">
+        <is>
+          <t>['31']</t>
+        </is>
+      </c>
+      <c r="Q21" t="n">
+        <v>7</v>
+      </c>
+      <c r="R21" t="n">
+        <v>3</v>
+      </c>
+      <c r="S21" t="n">
+        <v>10</v>
+      </c>
+      <c r="T21" t="n">
+        <v>1.84</v>
+      </c>
+      <c r="U21" t="n">
+        <v>2.54</v>
+      </c>
+      <c r="V21" t="n">
+        <v>6.1</v>
+      </c>
+      <c r="W21" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="X21" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="Y21" t="n">
+        <v>2.34</v>
+      </c>
+      <c r="Z21" t="n">
+        <v>1.63</v>
+      </c>
+      <c r="AA21" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="AB21" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="AC21" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AD21" t="n">
+        <v>4.34</v>
+      </c>
+      <c r="AE21" t="n">
+        <v>6.31</v>
+      </c>
+      <c r="AF21" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="AG21" t="n">
+        <v>12</v>
+      </c>
+      <c r="AH21" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="AI21" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="AJ21" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="AK21" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="AL21" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="AM21" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AN21" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="AO21" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="AP21" t="n">
+        <v>3.26</v>
+      </c>
+      <c r="AQ21" t="n">
+        <v>3</v>
+      </c>
+      <c r="AR21" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS21" t="n">
+        <v>2</v>
+      </c>
+      <c r="AT21" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="AU21" t="n">
+        <v>0.9399999999999999</v>
+      </c>
+      <c r="AV21" t="n">
+        <v>0.9399999999999999</v>
+      </c>
+      <c r="AW21" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="AX21" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="AY21" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="AZ21" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="BA21" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="BB21" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="BC21" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="BD21" t="n">
+        <v>2</v>
+      </c>
+      <c r="BE21" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="BF21" t="n">
+        <v>6</v>
+      </c>
+      <c r="BG21" t="n">
+        <v>3</v>
+      </c>
+      <c r="BH21" t="n">
+        <v>9</v>
+      </c>
+      <c r="BI21" t="n">
+        <v>3</v>
+      </c>
+      <c r="BJ21" t="n">
         <v>15</v>
       </c>
-      <c r="BK18" t="n">
+      <c r="BK21" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="n">
+        <v>21</v>
+      </c>
+      <c r="B22" t="n">
+        <v>4869391</v>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>Norway Eliteserien</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E22" s="2" t="n">
+        <v>45039.5</v>
+      </c>
+      <c r="F22" t="n">
+        <v>3</v>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>Sarpsborg 08</t>
+        </is>
+      </c>
+      <c r="H22" t="inlineStr">
+        <is>
+          <t>Odd</t>
+        </is>
+      </c>
+      <c r="I22" t="n">
+        <v>0</v>
+      </c>
+      <c r="J22" t="n">
+        <v>0</v>
+      </c>
+      <c r="K22" t="n">
+        <v>0</v>
+      </c>
+      <c r="L22" t="n">
+        <v>0</v>
+      </c>
+      <c r="M22" t="n">
+        <v>0</v>
+      </c>
+      <c r="N22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O22" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P22" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q22" t="n">
+        <v>9</v>
+      </c>
+      <c r="R22" t="n">
+        <v>8</v>
+      </c>
+      <c r="S22" t="n">
+        <v>17</v>
+      </c>
+      <c r="T22" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="U22" t="n">
+        <v>2.32</v>
+      </c>
+      <c r="V22" t="n">
+        <v>3.95</v>
+      </c>
+      <c r="W22" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="X22" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="Y22" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="Z22" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="AA22" t="n">
         <v>5</v>
+      </c>
+      <c r="AB22" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="AC22" t="n">
+        <v>1.79</v>
+      </c>
+      <c r="AD22" t="n">
+        <v>3.29</v>
+      </c>
+      <c r="AE22" t="n">
+        <v>3.37</v>
+      </c>
+      <c r="AF22" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="AG22" t="n">
+        <v>11</v>
+      </c>
+      <c r="AH22" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AI22" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="AJ22" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="AK22" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="AL22" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AM22" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="AN22" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AO22" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AP22" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="AQ22" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR22" t="n">
+        <v>1</v>
+      </c>
+      <c r="AS22" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="AT22" t="n">
+        <v>1</v>
+      </c>
+      <c r="AU22" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AV22" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="AW22" t="n">
+        <v>2.16</v>
+      </c>
+      <c r="AX22" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="AY22" t="n">
+        <v>9</v>
+      </c>
+      <c r="AZ22" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="BA22" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="BB22" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="BC22" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="BD22" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="BE22" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="BF22" t="n">
+        <v>5</v>
+      </c>
+      <c r="BG22" t="n">
+        <v>3</v>
+      </c>
+      <c r="BH22" t="n">
+        <v>6</v>
+      </c>
+      <c r="BI22" t="n">
+        <v>2</v>
+      </c>
+      <c r="BJ22" t="n">
+        <v>11</v>
+      </c>
+      <c r="BK22" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n">
+        <v>22</v>
+      </c>
+      <c r="B23" t="n">
+        <v>4869392</v>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>Norway Eliteserien</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E23" s="2" t="n">
+        <v>45039.5</v>
+      </c>
+      <c r="F23" t="n">
+        <v>3</v>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>Stabæk</t>
+        </is>
+      </c>
+      <c r="H23" t="inlineStr">
+        <is>
+          <t>Haugesund</t>
+        </is>
+      </c>
+      <c r="I23" t="n">
+        <v>1</v>
+      </c>
+      <c r="J23" t="n">
+        <v>0</v>
+      </c>
+      <c r="K23" t="n">
+        <v>1</v>
+      </c>
+      <c r="L23" t="n">
+        <v>3</v>
+      </c>
+      <c r="M23" t="n">
+        <v>0</v>
+      </c>
+      <c r="N23" t="n">
+        <v>3</v>
+      </c>
+      <c r="O23" t="inlineStr">
+        <is>
+          <t>['20', '64', '80']</t>
+        </is>
+      </c>
+      <c r="P23" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q23" t="n">
+        <v>11</v>
+      </c>
+      <c r="R23" t="n">
+        <v>6</v>
+      </c>
+      <c r="S23" t="n">
+        <v>17</v>
+      </c>
+      <c r="T23" t="n">
+        <v>2.69</v>
+      </c>
+      <c r="U23" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="V23" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="W23" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="X23" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="Y23" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="Z23" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="AA23" t="n">
+        <v>7.3</v>
+      </c>
+      <c r="AB23" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="AC23" t="n">
+        <v>2.06</v>
+      </c>
+      <c r="AD23" t="n">
+        <v>3.11</v>
+      </c>
+      <c r="AE23" t="n">
+        <v>2.84</v>
+      </c>
+      <c r="AF23" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="AG23" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AH23" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AI23" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="AJ23" t="n">
+        <v>1.76</v>
+      </c>
+      <c r="AK23" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="AL23" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AM23" t="n">
+        <v>1.99</v>
+      </c>
+      <c r="AN23" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AO23" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="AP23" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="AQ23" t="n">
+        <v>1</v>
+      </c>
+      <c r="AR23" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS23" t="n">
+        <v>2</v>
+      </c>
+      <c r="AT23" t="n">
+        <v>0</v>
+      </c>
+      <c r="AU23" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AV23" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="AW23" t="n">
+        <v>3.14</v>
+      </c>
+      <c r="AX23" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="AY23" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AZ23" t="n">
+        <v>2.65</v>
+      </c>
+      <c r="BA23" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="BB23" t="n">
+        <v>1.49</v>
+      </c>
+      <c r="BC23" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="BD23" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="BE23" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="BF23" t="n">
+        <v>8</v>
+      </c>
+      <c r="BG23" t="n">
+        <v>4</v>
+      </c>
+      <c r="BH23" t="n">
+        <v>8</v>
+      </c>
+      <c r="BI23" t="n">
+        <v>3</v>
+      </c>
+      <c r="BJ23" t="n">
+        <v>16</v>
+      </c>
+      <c r="BK23" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n">
+        <v>23</v>
+      </c>
+      <c r="B24" t="n">
+        <v>4869393</v>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>Norway Eliteserien</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E24" s="2" t="n">
+        <v>45039.5</v>
+      </c>
+      <c r="F24" t="n">
+        <v>3</v>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>Tromsø</t>
+        </is>
+      </c>
+      <c r="H24" t="inlineStr">
+        <is>
+          <t>Viking</t>
+        </is>
+      </c>
+      <c r="I24" t="n">
+        <v>1</v>
+      </c>
+      <c r="J24" t="n">
+        <v>0</v>
+      </c>
+      <c r="K24" t="n">
+        <v>1</v>
+      </c>
+      <c r="L24" t="n">
+        <v>1</v>
+      </c>
+      <c r="M24" t="n">
+        <v>1</v>
+      </c>
+      <c r="N24" t="n">
+        <v>2</v>
+      </c>
+      <c r="O24" t="inlineStr">
+        <is>
+          <t>['30']</t>
+        </is>
+      </c>
+      <c r="P24" t="inlineStr">
+        <is>
+          <t>['70']</t>
+        </is>
+      </c>
+      <c r="Q24" t="n">
+        <v>5</v>
+      </c>
+      <c r="R24" t="n">
+        <v>4</v>
+      </c>
+      <c r="S24" t="n">
+        <v>9</v>
+      </c>
+      <c r="T24" t="n">
+        <v>3</v>
+      </c>
+      <c r="U24" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="V24" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="W24" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="X24" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="Y24" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="Z24" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="AA24" t="n">
+        <v>7.25</v>
+      </c>
+      <c r="AB24" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="AC24" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AD24" t="n">
+        <v>3.12</v>
+      </c>
+      <c r="AE24" t="n">
+        <v>2.76</v>
+      </c>
+      <c r="AF24" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AG24" t="n">
+        <v>11.25</v>
+      </c>
+      <c r="AH24" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="AI24" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="AJ24" t="n">
+        <v>1.71</v>
+      </c>
+      <c r="AK24" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="AL24" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="AM24" t="n">
+        <v>2.11</v>
+      </c>
+      <c r="AN24" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="AO24" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="AP24" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="AQ24" t="n">
+        <v>3</v>
+      </c>
+      <c r="AR24" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS24" t="n">
+        <v>2</v>
+      </c>
+      <c r="AT24" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="AU24" t="n">
+        <v>0.65</v>
+      </c>
+      <c r="AV24" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="AW24" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AX24" t="n">
+        <v>2.17</v>
+      </c>
+      <c r="AY24" t="n">
+        <v>7.6</v>
+      </c>
+      <c r="AZ24" t="n">
+        <v>2</v>
+      </c>
+      <c r="BA24" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="BB24" t="n">
+        <v>1.49</v>
+      </c>
+      <c r="BC24" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="BD24" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="BE24" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="BF24" t="n">
+        <v>6</v>
+      </c>
+      <c r="BG24" t="n">
+        <v>6</v>
+      </c>
+      <c r="BH24" t="n">
+        <v>4</v>
+      </c>
+      <c r="BI24" t="n">
+        <v>4</v>
+      </c>
+      <c r="BJ24" t="n">
+        <v>10</v>
+      </c>
+      <c r="BK24" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="1" t="n">
+        <v>24</v>
+      </c>
+      <c r="B25" t="n">
+        <v>4869394</v>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>Norway Eliteserien</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E25" s="2" t="n">
+        <v>45039.59375</v>
+      </c>
+      <c r="F25" t="n">
+        <v>3</v>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>Lillestrøm</t>
+        </is>
+      </c>
+      <c r="H25" t="inlineStr">
+        <is>
+          <t>Molde</t>
+        </is>
+      </c>
+      <c r="I25" t="n">
+        <v>2</v>
+      </c>
+      <c r="J25" t="n">
+        <v>1</v>
+      </c>
+      <c r="K25" t="n">
+        <v>3</v>
+      </c>
+      <c r="L25" t="n">
+        <v>2</v>
+      </c>
+      <c r="M25" t="n">
+        <v>1</v>
+      </c>
+      <c r="N25" t="n">
+        <v>3</v>
+      </c>
+      <c r="O25" t="inlineStr">
+        <is>
+          <t>['5', '37']</t>
+        </is>
+      </c>
+      <c r="P25" t="inlineStr">
+        <is>
+          <t>['35']</t>
+        </is>
+      </c>
+      <c r="Q25" t="n">
+        <v>11</v>
+      </c>
+      <c r="R25" t="n">
+        <v>9</v>
+      </c>
+      <c r="S25" t="n">
+        <v>20</v>
+      </c>
+      <c r="T25" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="U25" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="V25" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="W25" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="X25" t="n">
+        <v>3</v>
+      </c>
+      <c r="Y25" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="Z25" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="AA25" t="n">
+        <v>6.25</v>
+      </c>
+      <c r="AB25" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="AC25" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="AD25" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="AE25" t="n">
+        <v>1.99</v>
+      </c>
+      <c r="AF25" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="AG25" t="n">
+        <v>11</v>
+      </c>
+      <c r="AH25" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AI25" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="AJ25" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="AK25" t="n">
+        <v>2.12</v>
+      </c>
+      <c r="AL25" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="AM25" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="AN25" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AO25" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AP25" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AQ25" t="n">
+        <v>3</v>
+      </c>
+      <c r="AR25" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS25" t="n">
+        <v>3</v>
+      </c>
+      <c r="AT25" t="n">
+        <v>0</v>
+      </c>
+      <c r="AU25" t="n">
+        <v>2.11</v>
+      </c>
+      <c r="AV25" t="n">
+        <v>1.92</v>
+      </c>
+      <c r="AW25" t="n">
+        <v>4.03</v>
+      </c>
+      <c r="AX25" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="AY25" t="n">
+        <v>6.25</v>
+      </c>
+      <c r="AZ25" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="BA25" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="BB25" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="BC25" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="BD25" t="n">
+        <v>1.49</v>
+      </c>
+      <c r="BE25" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="BF25" t="n">
+        <v>4</v>
+      </c>
+      <c r="BG25" t="n">
+        <v>5</v>
+      </c>
+      <c r="BH25" t="n">
+        <v>5</v>
+      </c>
+      <c r="BI25" t="n">
+        <v>7</v>
+      </c>
+      <c r="BJ25" t="n">
+        <v>9</v>
+      </c>
+      <c r="BK25" t="n">
+        <v>12</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2023)/Norway Eliteserien_2023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Norway Eliteserien_2023.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BK25"/>
+  <dimension ref="A1:BK26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2524,7 +2524,7 @@
         <v>0</v>
       </c>
       <c r="AS10" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AT10" t="n">
         <v>0</v>
@@ -3136,7 +3136,7 @@
         <v>3</v>
       </c>
       <c r="AT13" t="n">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="AU13" t="n">
         <v>0</v>
@@ -5624,6 +5624,209 @@
       </c>
       <c r="BK25" t="n">
         <v>12</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="1" t="n">
+        <v>25</v>
+      </c>
+      <c r="B26" t="n">
+        <v>4869395</v>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>Norway Eliteserien</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E26" s="2" t="n">
+        <v>45045.54166666666</v>
+      </c>
+      <c r="F26" t="n">
+        <v>4</v>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>FK Bodo - Glimt</t>
+        </is>
+      </c>
+      <c r="H26" t="inlineStr">
+        <is>
+          <t>Brann</t>
+        </is>
+      </c>
+      <c r="I26" t="n">
+        <v>0</v>
+      </c>
+      <c r="J26" t="n">
+        <v>2</v>
+      </c>
+      <c r="K26" t="n">
+        <v>2</v>
+      </c>
+      <c r="L26" t="n">
+        <v>2</v>
+      </c>
+      <c r="M26" t="n">
+        <v>2</v>
+      </c>
+      <c r="N26" t="n">
+        <v>4</v>
+      </c>
+      <c r="O26" t="inlineStr">
+        <is>
+          <t>['78', '90+3']</t>
+        </is>
+      </c>
+      <c r="P26" t="inlineStr">
+        <is>
+          <t>['15', '44']</t>
+        </is>
+      </c>
+      <c r="Q26" t="n">
+        <v>7</v>
+      </c>
+      <c r="R26" t="n">
+        <v>3</v>
+      </c>
+      <c r="S26" t="n">
+        <v>10</v>
+      </c>
+      <c r="T26" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="U26" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="V26" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="W26" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="X26" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="Y26" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="Z26" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="AA26" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="AB26" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="AC26" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AD26" t="n">
+        <v>4</v>
+      </c>
+      <c r="AE26" t="n">
+        <v>5.25</v>
+      </c>
+      <c r="AF26" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="AG26" t="n">
+        <v>13</v>
+      </c>
+      <c r="AH26" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="AI26" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="AJ26" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="AK26" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="AL26" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="AM26" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="AN26" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AO26" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AP26" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AQ26" t="n">
+        <v>3</v>
+      </c>
+      <c r="AR26" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS26" t="n">
+        <v>2</v>
+      </c>
+      <c r="AT26" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="AU26" t="n">
+        <v>2.11</v>
+      </c>
+      <c r="AV26" t="n">
+        <v>1.81</v>
+      </c>
+      <c r="AW26" t="n">
+        <v>3.92</v>
+      </c>
+      <c r="AX26" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AY26" t="n">
+        <v>9</v>
+      </c>
+      <c r="AZ26" t="n">
+        <v>3</v>
+      </c>
+      <c r="BA26" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="BB26" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="BC26" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="BD26" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="BE26" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="BF26" t="n">
+        <v>6</v>
+      </c>
+      <c r="BG26" t="n">
+        <v>4</v>
+      </c>
+      <c r="BH26" t="n">
+        <v>5</v>
+      </c>
+      <c r="BI26" t="n">
+        <v>2</v>
+      </c>
+      <c r="BJ26" t="n">
+        <v>11</v>
+      </c>
+      <c r="BK26" t="n">
+        <v>6</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2023)/Norway Eliteserien_2023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Norway Eliteserien_2023.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BK26"/>
+  <dimension ref="A1:BK33"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2324,7 +2324,7 @@
         <v>3</v>
       </c>
       <c r="AT9" t="n">
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="AU9" t="n">
         <v>0</v>
@@ -2527,7 +2527,7 @@
         <v>2</v>
       </c>
       <c r="AT10" t="n">
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="AU10" t="n">
         <v>0</v>
@@ -2727,7 +2727,7 @@
         <v>0</v>
       </c>
       <c r="AS11" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AT11" t="n">
         <v>0</v>
@@ -2930,7 +2930,7 @@
         <v>0</v>
       </c>
       <c r="AS12" t="n">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="AT12" t="n">
         <v>1</v>
@@ -3133,7 +3133,7 @@
         <v>0</v>
       </c>
       <c r="AS13" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AT13" t="n">
         <v>0.5</v>
@@ -3336,10 +3336,10 @@
         <v>0</v>
       </c>
       <c r="AS14" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AT14" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AU14" t="n">
         <v>0</v>
@@ -3539,7 +3539,7 @@
         <v>0</v>
       </c>
       <c r="AS15" t="n">
-        <v>3</v>
+        <v>1.5</v>
       </c>
       <c r="AT15" t="n">
         <v>0</v>
@@ -3745,7 +3745,7 @@
         <v>0</v>
       </c>
       <c r="AT16" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AU16" t="n">
         <v>0</v>
@@ -5827,6 +5827,1427 @@
       </c>
       <c r="BK26" t="n">
         <v>6</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="1" t="n">
+        <v>26</v>
+      </c>
+      <c r="B27" t="n">
+        <v>4869400</v>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>Norway Eliteserien</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E27" s="2" t="n">
+        <v>45046.5</v>
+      </c>
+      <c r="F27" t="n">
+        <v>4</v>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>Viking</t>
+        </is>
+      </c>
+      <c r="H27" t="inlineStr">
+        <is>
+          <t>HamKam</t>
+        </is>
+      </c>
+      <c r="I27" t="n">
+        <v>0</v>
+      </c>
+      <c r="J27" t="n">
+        <v>1</v>
+      </c>
+      <c r="K27" t="n">
+        <v>1</v>
+      </c>
+      <c r="L27" t="n">
+        <v>7</v>
+      </c>
+      <c r="M27" t="n">
+        <v>3</v>
+      </c>
+      <c r="N27" t="n">
+        <v>10</v>
+      </c>
+      <c r="O27" t="inlineStr">
+        <is>
+          <t>['48', '50', '61', '69', '72', '78', '85']</t>
+        </is>
+      </c>
+      <c r="P27" t="inlineStr">
+        <is>
+          <t>['23', '74', '83']</t>
+        </is>
+      </c>
+      <c r="Q27" t="n">
+        <v>10</v>
+      </c>
+      <c r="R27" t="n">
+        <v>2</v>
+      </c>
+      <c r="S27" t="n">
+        <v>12</v>
+      </c>
+      <c r="T27" t="n">
+        <v>2.24</v>
+      </c>
+      <c r="U27" t="n">
+        <v>2.42</v>
+      </c>
+      <c r="V27" t="n">
+        <v>5.51</v>
+      </c>
+      <c r="W27" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="X27" t="n">
+        <v>3.29</v>
+      </c>
+      <c r="Y27" t="n">
+        <v>2.77</v>
+      </c>
+      <c r="Z27" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="AA27" t="n">
+        <v>6.25</v>
+      </c>
+      <c r="AB27" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="AC27" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="AD27" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="AE27" t="n">
+        <v>4.6</v>
+      </c>
+      <c r="AF27" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="AG27" t="n">
+        <v>10</v>
+      </c>
+      <c r="AH27" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AI27" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="AJ27" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AK27" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AL27" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AM27" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AN27" t="n">
+        <v>1.16</v>
+      </c>
+      <c r="AO27" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="AP27" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="AQ27" t="n">
+        <v>3</v>
+      </c>
+      <c r="AR27" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS27" t="n">
+        <v>3</v>
+      </c>
+      <c r="AT27" t="n">
+        <v>0</v>
+      </c>
+      <c r="AU27" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="AV27" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="AW27" t="n">
+        <v>2.97</v>
+      </c>
+      <c r="AX27" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AY27" t="n">
+        <v>7</v>
+      </c>
+      <c r="AZ27" t="n">
+        <v>4.95</v>
+      </c>
+      <c r="BA27" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="BB27" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="BC27" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="BD27" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="BE27" t="n">
+        <v>2.37</v>
+      </c>
+      <c r="BF27" t="n">
+        <v>12</v>
+      </c>
+      <c r="BG27" t="n">
+        <v>7</v>
+      </c>
+      <c r="BH27" t="n">
+        <v>8</v>
+      </c>
+      <c r="BI27" t="n">
+        <v>7</v>
+      </c>
+      <c r="BJ27" t="n">
+        <v>20</v>
+      </c>
+      <c r="BK27" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="1" t="n">
+        <v>27</v>
+      </c>
+      <c r="B28" t="n">
+        <v>4869399</v>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>Norway Eliteserien</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E28" s="2" t="n">
+        <v>45046.5</v>
+      </c>
+      <c r="F28" t="n">
+        <v>4</v>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>Strømsgodset</t>
+        </is>
+      </c>
+      <c r="H28" t="inlineStr">
+        <is>
+          <t>Tromsø</t>
+        </is>
+      </c>
+      <c r="I28" t="n">
+        <v>0</v>
+      </c>
+      <c r="J28" t="n">
+        <v>0</v>
+      </c>
+      <c r="K28" t="n">
+        <v>0</v>
+      </c>
+      <c r="L28" t="n">
+        <v>0</v>
+      </c>
+      <c r="M28" t="n">
+        <v>1</v>
+      </c>
+      <c r="N28" t="n">
+        <v>1</v>
+      </c>
+      <c r="O28" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P28" t="inlineStr">
+        <is>
+          <t>['73']</t>
+        </is>
+      </c>
+      <c r="Q28" t="n">
+        <v>12</v>
+      </c>
+      <c r="R28" t="n">
+        <v>3</v>
+      </c>
+      <c r="S28" t="n">
+        <v>15</v>
+      </c>
+      <c r="T28" t="n">
+        <v>2.99</v>
+      </c>
+      <c r="U28" t="n">
+        <v>2.28</v>
+      </c>
+      <c r="V28" t="n">
+        <v>3.76</v>
+      </c>
+      <c r="W28" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="X28" t="n">
+        <v>3.13</v>
+      </c>
+      <c r="Y28" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="Z28" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="AA28" t="n">
+        <v>7</v>
+      </c>
+      <c r="AB28" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="AC28" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="AD28" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="AE28" t="n">
+        <v>3</v>
+      </c>
+      <c r="AF28" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="AG28" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AH28" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AI28" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="AJ28" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AK28" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="AL28" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="AM28" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="AN28" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="AO28" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="AP28" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="AQ28" t="n">
+        <v>3</v>
+      </c>
+      <c r="AR28" t="n">
+        <v>1</v>
+      </c>
+      <c r="AS28" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AT28" t="n">
+        <v>2</v>
+      </c>
+      <c r="AU28" t="n">
+        <v>1.16</v>
+      </c>
+      <c r="AV28" t="n">
+        <v>0.41</v>
+      </c>
+      <c r="AW28" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="AX28" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AY28" t="n">
+        <v>7.9</v>
+      </c>
+      <c r="AZ28" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="BA28" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="BB28" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="BC28" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="BD28" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="BE28" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="BF28" t="n">
+        <v>4</v>
+      </c>
+      <c r="BG28" t="n">
+        <v>3</v>
+      </c>
+      <c r="BH28" t="n">
+        <v>13</v>
+      </c>
+      <c r="BI28" t="n">
+        <v>4</v>
+      </c>
+      <c r="BJ28" t="n">
+        <v>17</v>
+      </c>
+      <c r="BK28" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="1" t="n">
+        <v>28</v>
+      </c>
+      <c r="B29" t="n">
+        <v>4869396</v>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>Norway Eliteserien</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E29" s="2" t="n">
+        <v>45046.5</v>
+      </c>
+      <c r="F29" t="n">
+        <v>4</v>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>Haugesund</t>
+        </is>
+      </c>
+      <c r="H29" t="inlineStr">
+        <is>
+          <t>Sarpsborg 08</t>
+        </is>
+      </c>
+      <c r="I29" t="n">
+        <v>0</v>
+      </c>
+      <c r="J29" t="n">
+        <v>0</v>
+      </c>
+      <c r="K29" t="n">
+        <v>0</v>
+      </c>
+      <c r="L29" t="n">
+        <v>0</v>
+      </c>
+      <c r="M29" t="n">
+        <v>0</v>
+      </c>
+      <c r="N29" t="n">
+        <v>0</v>
+      </c>
+      <c r="O29" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P29" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q29" t="n">
+        <v>5</v>
+      </c>
+      <c r="R29" t="n">
+        <v>14</v>
+      </c>
+      <c r="S29" t="n">
+        <v>19</v>
+      </c>
+      <c r="T29" t="n">
+        <v>3</v>
+      </c>
+      <c r="U29" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="V29" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="W29" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="X29" t="n">
+        <v>2.95</v>
+      </c>
+      <c r="Y29" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="Z29" t="n">
+        <v>1.46</v>
+      </c>
+      <c r="AA29" t="n">
+        <v>6.25</v>
+      </c>
+      <c r="AB29" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="AC29" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="AD29" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="AE29" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="AF29" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AG29" t="n">
+        <v>9</v>
+      </c>
+      <c r="AH29" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AI29" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="AJ29" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="AK29" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="AL29" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="AM29" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="AN29" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="AO29" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="AP29" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="AQ29" t="n">
+        <v>3</v>
+      </c>
+      <c r="AR29" t="n">
+        <v>3</v>
+      </c>
+      <c r="AS29" t="n">
+        <v>2</v>
+      </c>
+      <c r="AT29" t="n">
+        <v>2</v>
+      </c>
+      <c r="AU29" t="n">
+        <v>1.16</v>
+      </c>
+      <c r="AV29" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="AW29" t="n">
+        <v>2.61</v>
+      </c>
+      <c r="AX29" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="AY29" t="n">
+        <v>6</v>
+      </c>
+      <c r="AZ29" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="BA29" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="BB29" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="BC29" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="BD29" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="BE29" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="BF29" t="n">
+        <v>2</v>
+      </c>
+      <c r="BG29" t="n">
+        <v>10</v>
+      </c>
+      <c r="BH29" t="n">
+        <v>3</v>
+      </c>
+      <c r="BI29" t="n">
+        <v>11</v>
+      </c>
+      <c r="BJ29" t="n">
+        <v>5</v>
+      </c>
+      <c r="BK29" t="n">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="1" t="n">
+        <v>29</v>
+      </c>
+      <c r="B30" t="n">
+        <v>4869397</v>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>Norway Eliteserien</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E30" s="2" t="n">
+        <v>45046.5</v>
+      </c>
+      <c r="F30" t="n">
+        <v>4</v>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>Molde</t>
+        </is>
+      </c>
+      <c r="H30" t="inlineStr">
+        <is>
+          <t>Stabæk</t>
+        </is>
+      </c>
+      <c r="I30" t="n">
+        <v>1</v>
+      </c>
+      <c r="J30" t="n">
+        <v>2</v>
+      </c>
+      <c r="K30" t="n">
+        <v>3</v>
+      </c>
+      <c r="L30" t="n">
+        <v>2</v>
+      </c>
+      <c r="M30" t="n">
+        <v>3</v>
+      </c>
+      <c r="N30" t="n">
+        <v>5</v>
+      </c>
+      <c r="O30" t="inlineStr">
+        <is>
+          <t>['2', '55']</t>
+        </is>
+      </c>
+      <c r="P30" t="inlineStr">
+        <is>
+          <t>['16', '23', '90+5']</t>
+        </is>
+      </c>
+      <c r="Q30" t="n">
+        <v>8</v>
+      </c>
+      <c r="R30" t="n">
+        <v>0</v>
+      </c>
+      <c r="S30" t="n">
+        <v>8</v>
+      </c>
+      <c r="T30" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="U30" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="V30" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="W30" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="X30" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="Y30" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="Z30" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="AA30" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="AB30" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="AC30" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AD30" t="n">
+        <v>5</v>
+      </c>
+      <c r="AE30" t="n">
+        <v>10</v>
+      </c>
+      <c r="AF30" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="AG30" t="n">
+        <v>12</v>
+      </c>
+      <c r="AH30" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="AI30" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="AJ30" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="AK30" t="n">
+        <v>2.43</v>
+      </c>
+      <c r="AL30" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="AM30" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="AN30" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AO30" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="AP30" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="AQ30" t="n">
+        <v>1</v>
+      </c>
+      <c r="AR30" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS30" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="AT30" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AU30" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="AV30" t="n">
+        <v>0.82</v>
+      </c>
+      <c r="AW30" t="n">
+        <v>1.84</v>
+      </c>
+      <c r="AX30" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AY30" t="n">
+        <v>10</v>
+      </c>
+      <c r="AZ30" t="n">
+        <v>4.74</v>
+      </c>
+      <c r="BA30" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="BB30" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="BC30" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="BD30" t="n">
+        <v>2</v>
+      </c>
+      <c r="BE30" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="BF30" t="n">
+        <v>11</v>
+      </c>
+      <c r="BG30" t="n">
+        <v>5</v>
+      </c>
+      <c r="BH30" t="n">
+        <v>5</v>
+      </c>
+      <c r="BI30" t="n">
+        <v>3</v>
+      </c>
+      <c r="BJ30" t="n">
+        <v>16</v>
+      </c>
+      <c r="BK30" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="1" t="n">
+        <v>30</v>
+      </c>
+      <c r="B31" t="n">
+        <v>4869398</v>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>Norway Eliteserien</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E31" s="2" t="n">
+        <v>45046.5</v>
+      </c>
+      <c r="F31" t="n">
+        <v>4</v>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>Sandefjord</t>
+        </is>
+      </c>
+      <c r="H31" t="inlineStr">
+        <is>
+          <t>Aalesund</t>
+        </is>
+      </c>
+      <c r="I31" t="n">
+        <v>2</v>
+      </c>
+      <c r="J31" t="n">
+        <v>0</v>
+      </c>
+      <c r="K31" t="n">
+        <v>2</v>
+      </c>
+      <c r="L31" t="n">
+        <v>4</v>
+      </c>
+      <c r="M31" t="n">
+        <v>0</v>
+      </c>
+      <c r="N31" t="n">
+        <v>4</v>
+      </c>
+      <c r="O31" t="inlineStr">
+        <is>
+          <t>['6', '43', '60', '90+4']</t>
+        </is>
+      </c>
+      <c r="P31" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q31" t="n">
+        <v>12</v>
+      </c>
+      <c r="R31" t="n">
+        <v>4</v>
+      </c>
+      <c r="S31" t="n">
+        <v>16</v>
+      </c>
+      <c r="T31" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="U31" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="V31" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="W31" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="X31" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="Y31" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="Z31" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="AA31" t="n">
+        <v>7.25</v>
+      </c>
+      <c r="AB31" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="AC31" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="AD31" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="AE31" t="n">
+        <v>3</v>
+      </c>
+      <c r="AF31" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AG31" t="n">
+        <v>8</v>
+      </c>
+      <c r="AH31" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AI31" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="AJ31" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="AK31" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AL31" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AM31" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AN31" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="AO31" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AP31" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="AQ31" t="n">
+        <v>1</v>
+      </c>
+      <c r="AR31" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS31" t="n">
+        <v>2</v>
+      </c>
+      <c r="AT31" t="n">
+        <v>0</v>
+      </c>
+      <c r="AU31" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="AV31" t="n">
+        <v>1.16</v>
+      </c>
+      <c r="AW31" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="AX31" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="AY31" t="n">
+        <v>5.75</v>
+      </c>
+      <c r="AZ31" t="n">
+        <v>2.65</v>
+      </c>
+      <c r="BA31" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="BB31" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="BC31" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="BD31" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="BE31" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="BF31" t="n">
+        <v>8</v>
+      </c>
+      <c r="BG31" t="n">
+        <v>2</v>
+      </c>
+      <c r="BH31" t="n">
+        <v>2</v>
+      </c>
+      <c r="BI31" t="n">
+        <v>3</v>
+      </c>
+      <c r="BJ31" t="n">
+        <v>10</v>
+      </c>
+      <c r="BK31" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="1" t="n">
+        <v>31</v>
+      </c>
+      <c r="B32" t="n">
+        <v>4869401</v>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>Norway Eliteserien</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E32" s="2" t="n">
+        <v>45046.59375</v>
+      </c>
+      <c r="F32" t="n">
+        <v>4</v>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>Odd</t>
+        </is>
+      </c>
+      <c r="H32" t="inlineStr">
+        <is>
+          <t>Rosenborg</t>
+        </is>
+      </c>
+      <c r="I32" t="n">
+        <v>0</v>
+      </c>
+      <c r="J32" t="n">
+        <v>0</v>
+      </c>
+      <c r="K32" t="n">
+        <v>0</v>
+      </c>
+      <c r="L32" t="n">
+        <v>0</v>
+      </c>
+      <c r="M32" t="n">
+        <v>0</v>
+      </c>
+      <c r="N32" t="n">
+        <v>0</v>
+      </c>
+      <c r="O32" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P32" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q32" t="n">
+        <v>4</v>
+      </c>
+      <c r="R32" t="n">
+        <v>8</v>
+      </c>
+      <c r="S32" t="n">
+        <v>12</v>
+      </c>
+      <c r="T32" t="n">
+        <v>3.37</v>
+      </c>
+      <c r="U32" t="n">
+        <v>2.29</v>
+      </c>
+      <c r="V32" t="n">
+        <v>3.27</v>
+      </c>
+      <c r="W32" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="X32" t="n">
+        <v>3.16</v>
+      </c>
+      <c r="Y32" t="n">
+        <v>2.87</v>
+      </c>
+      <c r="Z32" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="AA32" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AB32" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="AC32" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="AD32" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="AE32" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="AF32" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AG32" t="n">
+        <v>9</v>
+      </c>
+      <c r="AH32" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AI32" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="AJ32" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="AK32" t="n">
+        <v>2</v>
+      </c>
+      <c r="AL32" t="n">
+        <v>1.63</v>
+      </c>
+      <c r="AM32" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AN32" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AO32" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AP32" t="n">
+        <v>1.46</v>
+      </c>
+      <c r="AQ32" t="n">
+        <v>3</v>
+      </c>
+      <c r="AR32" t="n">
+        <v>1</v>
+      </c>
+      <c r="AS32" t="n">
+        <v>2</v>
+      </c>
+      <c r="AT32" t="n">
+        <v>1</v>
+      </c>
+      <c r="AU32" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AV32" t="n">
+        <v>0.55</v>
+      </c>
+      <c r="AW32" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="AX32" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="AY32" t="n">
+        <v>7.9</v>
+      </c>
+      <c r="AZ32" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="BA32" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="BB32" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="BC32" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="BD32" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="BE32" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="BF32" t="n">
+        <v>2</v>
+      </c>
+      <c r="BG32" t="n">
+        <v>0</v>
+      </c>
+      <c r="BH32" t="n">
+        <v>5</v>
+      </c>
+      <c r="BI32" t="n">
+        <v>5</v>
+      </c>
+      <c r="BJ32" t="n">
+        <v>7</v>
+      </c>
+      <c r="BK32" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="1" t="n">
+        <v>32</v>
+      </c>
+      <c r="B33" t="n">
+        <v>4869402</v>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>Norway Eliteserien</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E33" s="2" t="n">
+        <v>45047.54166666666</v>
+      </c>
+      <c r="F33" t="n">
+        <v>4</v>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>Vålerenga</t>
+        </is>
+      </c>
+      <c r="H33" t="inlineStr">
+        <is>
+          <t>Lillestrøm</t>
+        </is>
+      </c>
+      <c r="I33" t="n">
+        <v>3</v>
+      </c>
+      <c r="J33" t="n">
+        <v>1</v>
+      </c>
+      <c r="K33" t="n">
+        <v>4</v>
+      </c>
+      <c r="L33" t="n">
+        <v>3</v>
+      </c>
+      <c r="M33" t="n">
+        <v>4</v>
+      </c>
+      <c r="N33" t="n">
+        <v>7</v>
+      </c>
+      <c r="O33" t="inlineStr">
+        <is>
+          <t>['7', '27', '30']</t>
+        </is>
+      </c>
+      <c r="P33" t="inlineStr">
+        <is>
+          <t>['17', '46', '89', '90+6']</t>
+        </is>
+      </c>
+      <c r="Q33" t="n">
+        <v>2</v>
+      </c>
+      <c r="R33" t="n">
+        <v>8</v>
+      </c>
+      <c r="S33" t="n">
+        <v>10</v>
+      </c>
+      <c r="T33" t="n">
+        <v>3</v>
+      </c>
+      <c r="U33" t="n">
+        <v>2.28</v>
+      </c>
+      <c r="V33" t="n">
+        <v>3.15</v>
+      </c>
+      <c r="W33" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="X33" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="Y33" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="Z33" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="AA33" t="n">
+        <v>7</v>
+      </c>
+      <c r="AB33" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="AC33" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="AD33" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="AE33" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="AF33" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="AG33" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="AH33" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="AI33" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="AJ33" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="AK33" t="n">
+        <v>2.12</v>
+      </c>
+      <c r="AL33" t="n">
+        <v>1.66</v>
+      </c>
+      <c r="AM33" t="n">
+        <v>2.17</v>
+      </c>
+      <c r="AN33" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AO33" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="AP33" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="AQ33" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR33" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS33" t="n">
+        <v>0</v>
+      </c>
+      <c r="AT33" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AU33" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="AV33" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="AW33" t="n">
+        <v>2.69</v>
+      </c>
+      <c r="AX33" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="AY33" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AZ33" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="BA33" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="BB33" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="BC33" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="BD33" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="BE33" t="n">
+        <v>2.07</v>
+      </c>
+      <c r="BF33" t="n">
+        <v>2</v>
+      </c>
+      <c r="BG33" t="n">
+        <v>6</v>
+      </c>
+      <c r="BH33" t="n">
+        <v>1</v>
+      </c>
+      <c r="BI33" t="n">
+        <v>9</v>
+      </c>
+      <c r="BJ33" t="n">
+        <v>3</v>
+      </c>
+      <c r="BK33" t="n">
+        <v>15</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2023)/Norway Eliteserien_2023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Norway Eliteserien_2023.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BK33"/>
+  <dimension ref="A1:BK36"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -900,7 +900,7 @@
         <v>0</v>
       </c>
       <c r="AS2" t="n">
-        <v>2</v>
+        <v>1.33</v>
       </c>
       <c r="AT2" t="n">
         <v>0.5</v>
@@ -1715,7 +1715,7 @@
         <v>2</v>
       </c>
       <c r="AT6" t="n">
-        <v>1</v>
+        <v>0.67</v>
       </c>
       <c r="AU6" t="n">
         <v>0</v>
@@ -2524,7 +2524,7 @@
         <v>0</v>
       </c>
       <c r="AS10" t="n">
-        <v>2</v>
+        <v>2.33</v>
       </c>
       <c r="AT10" t="n">
         <v>1.5</v>
@@ -2930,7 +2930,7 @@
         <v>0</v>
       </c>
       <c r="AS12" t="n">
-        <v>0.5</v>
+        <v>1.33</v>
       </c>
       <c r="AT12" t="n">
         <v>1</v>
@@ -3136,7 +3136,7 @@
         <v>2</v>
       </c>
       <c r="AT13" t="n">
-        <v>0.5</v>
+        <v>1.33</v>
       </c>
       <c r="AU13" t="n">
         <v>0</v>
@@ -4757,7 +4757,7 @@
         <v>0</v>
       </c>
       <c r="AS21" t="n">
-        <v>2</v>
+        <v>1.33</v>
       </c>
       <c r="AT21" t="n">
         <v>0.5</v>
@@ -4963,7 +4963,7 @@
         <v>0.5</v>
       </c>
       <c r="AT22" t="n">
-        <v>1</v>
+        <v>0.67</v>
       </c>
       <c r="AU22" t="n">
         <v>1.05</v>
@@ -5772,10 +5772,10 @@
         <v>0</v>
       </c>
       <c r="AS26" t="n">
-        <v>2</v>
+        <v>2.33</v>
       </c>
       <c r="AT26" t="n">
-        <v>0.5</v>
+        <v>1.33</v>
       </c>
       <c r="AU26" t="n">
         <v>2.11</v>
@@ -6584,7 +6584,7 @@
         <v>0</v>
       </c>
       <c r="AS30" t="n">
-        <v>0.5</v>
+        <v>1.33</v>
       </c>
       <c r="AT30" t="n">
         <v>1.5</v>
@@ -7232,22 +7232,631 @@
         <v>2.07</v>
       </c>
       <c r="BF33" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="BG33" t="n">
+        <v>9</v>
+      </c>
+      <c r="BH33" t="n">
+        <v>2</v>
+      </c>
+      <c r="BI33" t="n">
+        <v>10</v>
+      </c>
+      <c r="BJ33" t="n">
+        <v>8</v>
+      </c>
+      <c r="BK33" t="n">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="1" t="n">
+        <v>33</v>
+      </c>
+      <c r="B34" t="n">
+        <v>4869510</v>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>Norway Eliteserien</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E34" s="2" t="n">
+        <v>45049.54166666666</v>
+      </c>
+      <c r="F34" t="n">
+        <v>18</v>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>Rosenborg</t>
+        </is>
+      </c>
+      <c r="H34" t="inlineStr">
+        <is>
+          <t>Brann</t>
+        </is>
+      </c>
+      <c r="I34" t="n">
+        <v>0</v>
+      </c>
+      <c r="J34" t="n">
+        <v>1</v>
+      </c>
+      <c r="K34" t="n">
+        <v>1</v>
+      </c>
+      <c r="L34" t="n">
+        <v>0</v>
+      </c>
+      <c r="M34" t="n">
+        <v>2</v>
+      </c>
+      <c r="N34" t="n">
+        <v>2</v>
+      </c>
+      <c r="O34" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P34" t="inlineStr">
+        <is>
+          <t>['23', '78']</t>
+        </is>
+      </c>
+      <c r="Q34" t="n">
+        <v>0</v>
+      </c>
+      <c r="R34" t="n">
+        <v>5</v>
+      </c>
+      <c r="S34" t="n">
+        <v>5</v>
+      </c>
+      <c r="T34" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="U34" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="V34" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="W34" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="X34" t="n">
+        <v>3</v>
+      </c>
+      <c r="Y34" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="Z34" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="AA34" t="n">
         <v>6</v>
       </c>
-      <c r="BH33" t="n">
+      <c r="AB34" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="AC34" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="AD34" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="AE34" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="AF34" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="AG34" t="n">
+        <v>10</v>
+      </c>
+      <c r="AH34" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AI34" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="AJ34" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AK34" t="n">
+        <v>2</v>
+      </c>
+      <c r="AL34" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="AM34" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="AN34" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AO34" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AP34" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="AQ34" t="n">
+        <v>2</v>
+      </c>
+      <c r="AR34" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="AS34" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AT34" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AU34" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="AV34" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="AW34" t="n">
+        <v>2.84</v>
+      </c>
+      <c r="AX34" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="AY34" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AZ34" t="n">
+        <v>1.77</v>
+      </c>
+      <c r="BA34" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="BB34" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="BC34" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="BD34" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="BE34" t="n">
+        <v>2.42</v>
+      </c>
+      <c r="BF34" t="n">
+        <v>5</v>
+      </c>
+      <c r="BG34" t="n">
+        <v>9</v>
+      </c>
+      <c r="BH34" t="n">
+        <v>6</v>
+      </c>
+      <c r="BI34" t="n">
+        <v>11</v>
+      </c>
+      <c r="BJ34" t="n">
+        <v>11</v>
+      </c>
+      <c r="BK34" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="1" t="n">
+        <v>34</v>
+      </c>
+      <c r="B35" t="n">
+        <v>4869508</v>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>Norway Eliteserien</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E35" s="2" t="n">
+        <v>45049.54166666666</v>
+      </c>
+      <c r="F35" t="n">
+        <v>18</v>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>FK Bodo - Glimt</t>
+        </is>
+      </c>
+      <c r="H35" t="inlineStr">
+        <is>
+          <t>Odd</t>
+        </is>
+      </c>
+      <c r="I35" t="n">
+        <v>0</v>
+      </c>
+      <c r="J35" t="n">
+        <v>0</v>
+      </c>
+      <c r="K35" t="n">
+        <v>0</v>
+      </c>
+      <c r="L35" t="n">
+        <v>2</v>
+      </c>
+      <c r="M35" t="n">
+        <v>0</v>
+      </c>
+      <c r="N35" t="n">
+        <v>2</v>
+      </c>
+      <c r="O35" t="inlineStr">
+        <is>
+          <t>['55', '82']</t>
+        </is>
+      </c>
+      <c r="P35" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q35" t="n">
+        <v>0</v>
+      </c>
+      <c r="R35" t="n">
+        <v>2</v>
+      </c>
+      <c r="S35" t="n">
+        <v>2</v>
+      </c>
+      <c r="T35" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="U35" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="V35" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="W35" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="X35" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="Y35" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="Z35" t="n">
+        <v>1.63</v>
+      </c>
+      <c r="AA35" t="n">
+        <v>4.6</v>
+      </c>
+      <c r="AB35" t="n">
+        <v>1.16</v>
+      </c>
+      <c r="AC35" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AD35" t="n">
+        <v>5.25</v>
+      </c>
+      <c r="AE35" t="n">
+        <v>10</v>
+      </c>
+      <c r="AF35" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="AG35" t="n">
+        <v>12</v>
+      </c>
+      <c r="AH35" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="AI35" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="AJ35" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AK35" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="AL35" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="AM35" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="AN35" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="AO35" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="AP35" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="AQ35" t="n">
+        <v>2</v>
+      </c>
+      <c r="AR35" t="n">
         <v>1</v>
       </c>
-      <c r="BI33" t="n">
+      <c r="AS35" t="n">
+        <v>2.33</v>
+      </c>
+      <c r="AT35" t="n">
+        <v>0.67</v>
+      </c>
+      <c r="AU35" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="AV35" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="AW35" t="n">
+        <v>2.87</v>
+      </c>
+      <c r="AX35" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="AY35" t="n">
+        <v>13</v>
+      </c>
+      <c r="AZ35" t="n">
+        <v>11</v>
+      </c>
+      <c r="BA35" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="BB35" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="BC35" t="n">
+        <v>1.49</v>
+      </c>
+      <c r="BD35" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="BE35" t="n">
+        <v>2.27</v>
+      </c>
+      <c r="BF35" t="n">
+        <v>4</v>
+      </c>
+      <c r="BG35" t="n">
+        <v>6</v>
+      </c>
+      <c r="BH35" t="n">
+        <v>5</v>
+      </c>
+      <c r="BI35" t="n">
+        <v>3</v>
+      </c>
+      <c r="BJ35" t="n">
         <v>9</v>
       </c>
-      <c r="BJ33" t="n">
-        <v>3</v>
-      </c>
-      <c r="BK33" t="n">
-        <v>15</v>
+      <c r="BK35" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="1" t="n">
+        <v>35</v>
+      </c>
+      <c r="B36" t="n">
+        <v>4869501</v>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>Norway Eliteserien</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E36" s="2" t="n">
+        <v>45049.54166666666</v>
+      </c>
+      <c r="F36" t="n">
+        <v>17</v>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>Molde</t>
+        </is>
+      </c>
+      <c r="H36" t="inlineStr">
+        <is>
+          <t>Aalesund</t>
+        </is>
+      </c>
+      <c r="I36" t="n">
+        <v>0</v>
+      </c>
+      <c r="J36" t="n">
+        <v>0</v>
+      </c>
+      <c r="K36" t="n">
+        <v>0</v>
+      </c>
+      <c r="L36" t="n">
+        <v>3</v>
+      </c>
+      <c r="M36" t="n">
+        <v>0</v>
+      </c>
+      <c r="N36" t="n">
+        <v>3</v>
+      </c>
+      <c r="O36" t="inlineStr">
+        <is>
+          <t>['58', '69', '90+1']</t>
+        </is>
+      </c>
+      <c r="P36" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q36" t="n">
+        <v>11</v>
+      </c>
+      <c r="R36" t="n">
+        <v>1</v>
+      </c>
+      <c r="S36" t="n">
+        <v>12</v>
+      </c>
+      <c r="T36" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="U36" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="V36" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="W36" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="X36" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="Y36" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="Z36" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="AA36" t="n">
+        <v>5</v>
+      </c>
+      <c r="AB36" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="AC36" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AD36" t="n">
+        <v>5.2</v>
+      </c>
+      <c r="AE36" t="n">
+        <v>10</v>
+      </c>
+      <c r="AF36" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="AG36" t="n">
+        <v>12</v>
+      </c>
+      <c r="AH36" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="AI36" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="AJ36" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="AK36" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="AL36" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="AM36" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="AN36" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="AO36" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="AP36" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="AQ36" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="AR36" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS36" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AT36" t="n">
+        <v>0</v>
+      </c>
+      <c r="AU36" t="n">
+        <v>1.76</v>
+      </c>
+      <c r="AV36" t="n">
+        <v>0.95</v>
+      </c>
+      <c r="AW36" t="n">
+        <v>2.71</v>
+      </c>
+      <c r="AX36" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="AY36" t="n">
+        <v>14</v>
+      </c>
+      <c r="AZ36" t="n">
+        <v>7.9</v>
+      </c>
+      <c r="BA36" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="BB36" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="BC36" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="BD36" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="BE36" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="BF36" t="n">
+        <v>8</v>
+      </c>
+      <c r="BG36" t="n">
+        <v>2</v>
+      </c>
+      <c r="BH36" t="n">
+        <v>4</v>
+      </c>
+      <c r="BI36" t="n">
+        <v>1</v>
+      </c>
+      <c r="BJ36" t="n">
+        <v>12</v>
+      </c>
+      <c r="BK36" t="n">
+        <v>3</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2023)/Norway Eliteserien_2023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Norway Eliteserien_2023.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BK36"/>
+  <dimension ref="A1:BK37"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -900,7 +900,7 @@
         <v>0</v>
       </c>
       <c r="AS2" t="n">
-        <v>1.33</v>
+        <v>1</v>
       </c>
       <c r="AT2" t="n">
         <v>0.5</v>
@@ -1106,7 +1106,7 @@
         <v>0</v>
       </c>
       <c r="AT3" t="n">
-        <v>1.5</v>
+        <v>2</v>
       </c>
       <c r="AU3" t="n">
         <v>0</v>
@@ -4151,7 +4151,7 @@
         <v>3</v>
       </c>
       <c r="AT18" t="n">
-        <v>1.5</v>
+        <v>2</v>
       </c>
       <c r="AU18" t="n">
         <v>2.05</v>
@@ -4757,7 +4757,7 @@
         <v>0</v>
       </c>
       <c r="AS21" t="n">
-        <v>1.33</v>
+        <v>1</v>
       </c>
       <c r="AT21" t="n">
         <v>0.5</v>
@@ -7396,7 +7396,7 @@
         <v>0.5</v>
       </c>
       <c r="AS34" t="n">
-        <v>1.33</v>
+        <v>1</v>
       </c>
       <c r="AT34" t="n">
         <v>1.33</v>
@@ -7857,6 +7857,209 @@
       </c>
       <c r="BK36" t="n">
         <v>3</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="1" t="n">
+        <v>36</v>
+      </c>
+      <c r="B37" t="n">
+        <v>4869403</v>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>Norway Eliteserien</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E37" s="2" t="n">
+        <v>45052.54166666666</v>
+      </c>
+      <c r="F37" t="n">
+        <v>5</v>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>Rosenborg</t>
+        </is>
+      </c>
+      <c r="H37" t="inlineStr">
+        <is>
+          <t>Vålerenga</t>
+        </is>
+      </c>
+      <c r="I37" t="n">
+        <v>0</v>
+      </c>
+      <c r="J37" t="n">
+        <v>1</v>
+      </c>
+      <c r="K37" t="n">
+        <v>1</v>
+      </c>
+      <c r="L37" t="n">
+        <v>1</v>
+      </c>
+      <c r="M37" t="n">
+        <v>3</v>
+      </c>
+      <c r="N37" t="n">
+        <v>4</v>
+      </c>
+      <c r="O37" t="inlineStr">
+        <is>
+          <t>['48']</t>
+        </is>
+      </c>
+      <c r="P37" t="inlineStr">
+        <is>
+          <t>['44', '50', '71']</t>
+        </is>
+      </c>
+      <c r="Q37" t="n">
+        <v>4</v>
+      </c>
+      <c r="R37" t="n">
+        <v>2</v>
+      </c>
+      <c r="S37" t="n">
+        <v>6</v>
+      </c>
+      <c r="T37" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="U37" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="V37" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="W37" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="X37" t="n">
+        <v>3</v>
+      </c>
+      <c r="Y37" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="Z37" t="n">
+        <v>1.46</v>
+      </c>
+      <c r="AA37" t="n">
+        <v>6</v>
+      </c>
+      <c r="AB37" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="AC37" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AD37" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="AE37" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="AF37" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="AG37" t="n">
+        <v>10</v>
+      </c>
+      <c r="AH37" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AI37" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="AJ37" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="AK37" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="AL37" t="n">
+        <v>1.71</v>
+      </c>
+      <c r="AM37" t="n">
+        <v>2</v>
+      </c>
+      <c r="AN37" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AO37" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="AP37" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="AQ37" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AR37" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AS37" t="n">
+        <v>1</v>
+      </c>
+      <c r="AT37" t="n">
+        <v>2</v>
+      </c>
+      <c r="AU37" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AV37" t="n">
+        <v>0.9399999999999999</v>
+      </c>
+      <c r="AW37" t="n">
+        <v>2.34</v>
+      </c>
+      <c r="AX37" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="AY37" t="n">
+        <v>6</v>
+      </c>
+      <c r="AZ37" t="n">
+        <v>3</v>
+      </c>
+      <c r="BA37" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="BB37" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="BC37" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="BD37" t="n">
+        <v>1.86</v>
+      </c>
+      <c r="BE37" t="n">
+        <v>2.28</v>
+      </c>
+      <c r="BF37" t="n">
+        <v>3</v>
+      </c>
+      <c r="BG37" t="n">
+        <v>4</v>
+      </c>
+      <c r="BH37" t="n">
+        <v>5</v>
+      </c>
+      <c r="BI37" t="n">
+        <v>4</v>
+      </c>
+      <c r="BJ37" t="n">
+        <v>8</v>
+      </c>
+      <c r="BK37" t="n">
+        <v>8</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2023)/Norway Eliteserien_2023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Norway Eliteserien_2023.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BK37"/>
+  <dimension ref="A1:BK44"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1103,7 +1103,7 @@
         <v>0</v>
       </c>
       <c r="AS3" t="n">
-        <v>0</v>
+        <v>0.33</v>
       </c>
       <c r="AT3" t="n">
         <v>2</v>
@@ -1306,10 +1306,10 @@
         <v>0</v>
       </c>
       <c r="AS4" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AT4" t="n">
-        <v>0.5</v>
+        <v>0.67</v>
       </c>
       <c r="AU4" t="n">
         <v>0</v>
@@ -1712,10 +1712,10 @@
         <v>0</v>
       </c>
       <c r="AS6" t="n">
-        <v>2</v>
+        <v>1.67</v>
       </c>
       <c r="AT6" t="n">
-        <v>0.67</v>
+        <v>1.25</v>
       </c>
       <c r="AU6" t="n">
         <v>0</v>
@@ -1915,10 +1915,10 @@
         <v>0</v>
       </c>
       <c r="AS7" t="n">
-        <v>2</v>
+        <v>1.33</v>
       </c>
       <c r="AT7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AU7" t="n">
         <v>0</v>
@@ -2118,10 +2118,10 @@
         <v>0</v>
       </c>
       <c r="AS8" t="n">
-        <v>3</v>
+        <v>2.33</v>
       </c>
       <c r="AT8" t="n">
-        <v>0</v>
+        <v>0.33</v>
       </c>
       <c r="AU8" t="n">
         <v>0</v>
@@ -2321,7 +2321,7 @@
         <v>0</v>
       </c>
       <c r="AS9" t="n">
-        <v>3</v>
+        <v>2.33</v>
       </c>
       <c r="AT9" t="n">
         <v>1.5</v>
@@ -3745,7 +3745,7 @@
         <v>0</v>
       </c>
       <c r="AT16" t="n">
-        <v>2</v>
+        <v>1.67</v>
       </c>
       <c r="AU16" t="n">
         <v>0</v>
@@ -3945,10 +3945,10 @@
         <v>0</v>
       </c>
       <c r="AS17" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AT17" t="n">
-        <v>0</v>
+        <v>0.33</v>
       </c>
       <c r="AU17" t="n">
         <v>0</v>
@@ -4148,7 +4148,7 @@
         <v>3</v>
       </c>
       <c r="AS18" t="n">
-        <v>3</v>
+        <v>2.33</v>
       </c>
       <c r="AT18" t="n">
         <v>2</v>
@@ -4351,7 +4351,7 @@
         <v>3</v>
       </c>
       <c r="AS19" t="n">
-        <v>0</v>
+        <v>0.33</v>
       </c>
       <c r="AT19" t="n">
         <v>3</v>
@@ -4554,10 +4554,10 @@
         <v>0</v>
       </c>
       <c r="AS20" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AT20" t="n">
-        <v>0</v>
+        <v>0.33</v>
       </c>
       <c r="AU20" t="n">
         <v>1.35</v>
@@ -4760,7 +4760,7 @@
         <v>1</v>
       </c>
       <c r="AT21" t="n">
-        <v>0.5</v>
+        <v>0.67</v>
       </c>
       <c r="AU21" t="n">
         <v>0.9399999999999999</v>
@@ -4963,7 +4963,7 @@
         <v>0.5</v>
       </c>
       <c r="AT22" t="n">
-        <v>0.67</v>
+        <v>1.25</v>
       </c>
       <c r="AU22" t="n">
         <v>1.05</v>
@@ -5163,10 +5163,10 @@
         <v>0</v>
       </c>
       <c r="AS23" t="n">
-        <v>2</v>
+        <v>1.67</v>
       </c>
       <c r="AT23" t="n">
-        <v>0</v>
+        <v>0.33</v>
       </c>
       <c r="AU23" t="n">
         <v>1.95</v>
@@ -5366,7 +5366,7 @@
         <v>0</v>
       </c>
       <c r="AS24" t="n">
-        <v>2</v>
+        <v>1.33</v>
       </c>
       <c r="AT24" t="n">
         <v>0.5</v>
@@ -5569,10 +5569,10 @@
         <v>0</v>
       </c>
       <c r="AS25" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AT25" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AU25" t="n">
         <v>2.11</v>
@@ -5975,7 +5975,7 @@
         <v>0</v>
       </c>
       <c r="AS27" t="n">
-        <v>3</v>
+        <v>2.33</v>
       </c>
       <c r="AT27" t="n">
         <v>0</v>
@@ -6384,7 +6384,7 @@
         <v>2</v>
       </c>
       <c r="AT29" t="n">
-        <v>2</v>
+        <v>1.67</v>
       </c>
       <c r="AU29" t="n">
         <v>1.16</v>
@@ -7602,7 +7602,7 @@
         <v>2.33</v>
       </c>
       <c r="AT35" t="n">
-        <v>0.67</v>
+        <v>1.25</v>
       </c>
       <c r="AU35" t="n">
         <v>1.83</v>
@@ -8060,6 +8060,1427 @@
       </c>
       <c r="BK37" t="n">
         <v>8</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="1" t="n">
+        <v>37</v>
+      </c>
+      <c r="B38" t="n">
+        <v>4869406</v>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>Norway Eliteserien</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E38" s="2" t="n">
+        <v>45053.5</v>
+      </c>
+      <c r="F38" t="n">
+        <v>5</v>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>Stabæk</t>
+        </is>
+      </c>
+      <c r="H38" t="inlineStr">
+        <is>
+          <t>Sarpsborg 08</t>
+        </is>
+      </c>
+      <c r="I38" t="n">
+        <v>0</v>
+      </c>
+      <c r="J38" t="n">
+        <v>0</v>
+      </c>
+      <c r="K38" t="n">
+        <v>0</v>
+      </c>
+      <c r="L38" t="n">
+        <v>1</v>
+      </c>
+      <c r="M38" t="n">
+        <v>1</v>
+      </c>
+      <c r="N38" t="n">
+        <v>2</v>
+      </c>
+      <c r="O38" t="inlineStr">
+        <is>
+          <t>['90']</t>
+        </is>
+      </c>
+      <c r="P38" t="inlineStr">
+        <is>
+          <t>['87']</t>
+        </is>
+      </c>
+      <c r="Q38" t="n">
+        <v>6</v>
+      </c>
+      <c r="R38" t="n">
+        <v>2</v>
+      </c>
+      <c r="S38" t="n">
+        <v>8</v>
+      </c>
+      <c r="T38" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="U38" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="V38" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="W38" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="X38" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="Y38" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="Z38" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="AA38" t="n">
+        <v>6.25</v>
+      </c>
+      <c r="AB38" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="AC38" t="n">
+        <v>2.85</v>
+      </c>
+      <c r="AD38" t="n">
+        <v>3.55</v>
+      </c>
+      <c r="AE38" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="AF38" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="AG38" t="n">
+        <v>12</v>
+      </c>
+      <c r="AH38" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="AI38" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="AJ38" t="n">
+        <v>1.79</v>
+      </c>
+      <c r="AK38" t="n">
+        <v>2.02</v>
+      </c>
+      <c r="AL38" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="AM38" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="AN38" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="AO38" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AP38" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="AQ38" t="n">
+        <v>2</v>
+      </c>
+      <c r="AR38" t="n">
+        <v>2</v>
+      </c>
+      <c r="AS38" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AT38" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AU38" t="n">
+        <v>2.01</v>
+      </c>
+      <c r="AV38" t="n">
+        <v>2.01</v>
+      </c>
+      <c r="AW38" t="n">
+        <v>4.02</v>
+      </c>
+      <c r="AX38" t="n">
+        <v>2.07</v>
+      </c>
+      <c r="AY38" t="n">
+        <v>9.4</v>
+      </c>
+      <c r="AZ38" t="n">
+        <v>2.01</v>
+      </c>
+      <c r="BA38" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="BB38" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="BC38" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="BD38" t="n">
+        <v>1.92</v>
+      </c>
+      <c r="BE38" t="n">
+        <v>2.47</v>
+      </c>
+      <c r="BF38" t="n">
+        <v>3</v>
+      </c>
+      <c r="BG38" t="n">
+        <v>7</v>
+      </c>
+      <c r="BH38" t="n">
+        <v>11</v>
+      </c>
+      <c r="BI38" t="n">
+        <v>5</v>
+      </c>
+      <c r="BJ38" t="n">
+        <v>14</v>
+      </c>
+      <c r="BK38" t="n">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="1" t="n">
+        <v>38</v>
+      </c>
+      <c r="B39" t="n">
+        <v>4869405</v>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>Norway Eliteserien</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E39" s="2" t="n">
+        <v>45053.5</v>
+      </c>
+      <c r="F39" t="n">
+        <v>5</v>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>HamKam</t>
+        </is>
+      </c>
+      <c r="H39" t="inlineStr">
+        <is>
+          <t>Molde</t>
+        </is>
+      </c>
+      <c r="I39" t="n">
+        <v>0</v>
+      </c>
+      <c r="J39" t="n">
+        <v>1</v>
+      </c>
+      <c r="K39" t="n">
+        <v>1</v>
+      </c>
+      <c r="L39" t="n">
+        <v>0</v>
+      </c>
+      <c r="M39" t="n">
+        <v>4</v>
+      </c>
+      <c r="N39" t="n">
+        <v>4</v>
+      </c>
+      <c r="O39" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P39" t="inlineStr">
+        <is>
+          <t>['7', '53', '56', '61']</t>
+        </is>
+      </c>
+      <c r="Q39" t="n">
+        <v>8</v>
+      </c>
+      <c r="R39" t="n">
+        <v>4</v>
+      </c>
+      <c r="S39" t="n">
+        <v>12</v>
+      </c>
+      <c r="T39" t="n">
+        <v>4.4</v>
+      </c>
+      <c r="U39" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="V39" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="W39" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="X39" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="Y39" t="n">
+        <v>2.37</v>
+      </c>
+      <c r="Z39" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AA39" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="AB39" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="AC39" t="n">
+        <v>4.9</v>
+      </c>
+      <c r="AD39" t="n">
+        <v>3.95</v>
+      </c>
+      <c r="AE39" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AF39" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="AG39" t="n">
+        <v>10</v>
+      </c>
+      <c r="AH39" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AI39" t="n">
+        <v>4</v>
+      </c>
+      <c r="AJ39" t="n">
+        <v>1.64</v>
+      </c>
+      <c r="AK39" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="AL39" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="AM39" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="AN39" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AO39" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="AP39" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AQ39" t="n">
+        <v>3</v>
+      </c>
+      <c r="AR39" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS39" t="n">
+        <v>2</v>
+      </c>
+      <c r="AT39" t="n">
+        <v>1</v>
+      </c>
+      <c r="AU39" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="AV39" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="AW39" t="n">
+        <v>3.23</v>
+      </c>
+      <c r="AX39" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="AY39" t="n">
+        <v>7</v>
+      </c>
+      <c r="AZ39" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="BA39" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="BB39" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="BC39" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="BD39" t="n">
+        <v>1.84</v>
+      </c>
+      <c r="BE39" t="n">
+        <v>2.23</v>
+      </c>
+      <c r="BF39" t="n">
+        <v>2</v>
+      </c>
+      <c r="BG39" t="n">
+        <v>6</v>
+      </c>
+      <c r="BH39" t="n">
+        <v>9</v>
+      </c>
+      <c r="BI39" t="n">
+        <v>3</v>
+      </c>
+      <c r="BJ39" t="n">
+        <v>11</v>
+      </c>
+      <c r="BK39" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="1" t="n">
+        <v>39</v>
+      </c>
+      <c r="B40" t="n">
+        <v>4869404</v>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>Norway Eliteserien</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E40" s="2" t="n">
+        <v>45053.5</v>
+      </c>
+      <c r="F40" t="n">
+        <v>5</v>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>Aalesund</t>
+        </is>
+      </c>
+      <c r="H40" t="inlineStr">
+        <is>
+          <t>Haugesund</t>
+        </is>
+      </c>
+      <c r="I40" t="n">
+        <v>0</v>
+      </c>
+      <c r="J40" t="n">
+        <v>0</v>
+      </c>
+      <c r="K40" t="n">
+        <v>0</v>
+      </c>
+      <c r="L40" t="n">
+        <v>0</v>
+      </c>
+      <c r="M40" t="n">
+        <v>0</v>
+      </c>
+      <c r="N40" t="n">
+        <v>0</v>
+      </c>
+      <c r="O40" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P40" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q40" t="n">
+        <v>6</v>
+      </c>
+      <c r="R40" t="n">
+        <v>3</v>
+      </c>
+      <c r="S40" t="n">
+        <v>9</v>
+      </c>
+      <c r="T40" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="U40" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="V40" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="W40" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="X40" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="Y40" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="Z40" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AA40" t="n">
+        <v>7</v>
+      </c>
+      <c r="AB40" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="AC40" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="AD40" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="AE40" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="AF40" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AG40" t="n">
+        <v>9.25</v>
+      </c>
+      <c r="AH40" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="AI40" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="AJ40" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="AK40" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="AL40" t="n">
+        <v>1.71</v>
+      </c>
+      <c r="AM40" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="AN40" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AO40" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AP40" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="AQ40" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR40" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS40" t="n">
+        <v>0.33</v>
+      </c>
+      <c r="AT40" t="n">
+        <v>0.33</v>
+      </c>
+      <c r="AU40" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="AV40" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="AW40" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AX40" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="AY40" t="n">
+        <v>6</v>
+      </c>
+      <c r="AZ40" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="BA40" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="BB40" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="BC40" t="n">
+        <v>1.56</v>
+      </c>
+      <c r="BD40" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="BE40" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="BF40" t="n">
+        <v>4</v>
+      </c>
+      <c r="BG40" t="n">
+        <v>0</v>
+      </c>
+      <c r="BH40" t="n">
+        <v>5</v>
+      </c>
+      <c r="BI40" t="n">
+        <v>5</v>
+      </c>
+      <c r="BJ40" t="n">
+        <v>9</v>
+      </c>
+      <c r="BK40" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="1" t="n">
+        <v>40</v>
+      </c>
+      <c r="B41" t="n">
+        <v>4869407</v>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>Norway Eliteserien</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E41" s="2" t="n">
+        <v>45053.5</v>
+      </c>
+      <c r="F41" t="n">
+        <v>5</v>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>Tromsø</t>
+        </is>
+      </c>
+      <c r="H41" t="inlineStr">
+        <is>
+          <t>Odd</t>
+        </is>
+      </c>
+      <c r="I41" t="n">
+        <v>0</v>
+      </c>
+      <c r="J41" t="n">
+        <v>0</v>
+      </c>
+      <c r="K41" t="n">
+        <v>0</v>
+      </c>
+      <c r="L41" t="n">
+        <v>0</v>
+      </c>
+      <c r="M41" t="n">
+        <v>1</v>
+      </c>
+      <c r="N41" t="n">
+        <v>1</v>
+      </c>
+      <c r="O41" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P41" t="inlineStr">
+        <is>
+          <t>['80']</t>
+        </is>
+      </c>
+      <c r="Q41" t="n">
+        <v>5</v>
+      </c>
+      <c r="R41" t="n">
+        <v>1</v>
+      </c>
+      <c r="S41" t="n">
+        <v>6</v>
+      </c>
+      <c r="T41" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="U41" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="V41" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="W41" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="X41" t="n">
+        <v>3</v>
+      </c>
+      <c r="Y41" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="Z41" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="AA41" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AB41" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="AC41" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="AD41" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="AE41" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="AF41" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="AG41" t="n">
+        <v>11</v>
+      </c>
+      <c r="AH41" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="AI41" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="AJ41" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="AK41" t="n">
+        <v>1.94</v>
+      </c>
+      <c r="AL41" t="n">
+        <v>1.71</v>
+      </c>
+      <c r="AM41" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="AN41" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="AO41" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="AP41" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AQ41" t="n">
+        <v>2</v>
+      </c>
+      <c r="AR41" t="n">
+        <v>0.67</v>
+      </c>
+      <c r="AS41" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AT41" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AU41" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="AV41" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="AW41" t="n">
+        <v>2.08</v>
+      </c>
+      <c r="AX41" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="AY41" t="n">
+        <v>6</v>
+      </c>
+      <c r="AZ41" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="BA41" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="BB41" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="BC41" t="n">
+        <v>1.71</v>
+      </c>
+      <c r="BD41" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="BE41" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="BF41" t="n">
+        <v>2</v>
+      </c>
+      <c r="BG41" t="n">
+        <v>2</v>
+      </c>
+      <c r="BH41" t="n">
+        <v>7</v>
+      </c>
+      <c r="BI41" t="n">
+        <v>5</v>
+      </c>
+      <c r="BJ41" t="n">
+        <v>9</v>
+      </c>
+      <c r="BK41" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="1" t="n">
+        <v>41</v>
+      </c>
+      <c r="B42" t="n">
+        <v>4869408</v>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>Norway Eliteserien</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E42" s="2" t="n">
+        <v>45053.5</v>
+      </c>
+      <c r="F42" t="n">
+        <v>5</v>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>Viking</t>
+        </is>
+      </c>
+      <c r="H42" t="inlineStr">
+        <is>
+          <t>Strømsgodset</t>
+        </is>
+      </c>
+      <c r="I42" t="n">
+        <v>0</v>
+      </c>
+      <c r="J42" t="n">
+        <v>0</v>
+      </c>
+      <c r="K42" t="n">
+        <v>0</v>
+      </c>
+      <c r="L42" t="n">
+        <v>1</v>
+      </c>
+      <c r="M42" t="n">
+        <v>1</v>
+      </c>
+      <c r="N42" t="n">
+        <v>2</v>
+      </c>
+      <c r="O42" t="inlineStr">
+        <is>
+          <t>['89']</t>
+        </is>
+      </c>
+      <c r="P42" t="inlineStr">
+        <is>
+          <t>['75']</t>
+        </is>
+      </c>
+      <c r="Q42" t="n">
+        <v>6</v>
+      </c>
+      <c r="R42" t="n">
+        <v>6</v>
+      </c>
+      <c r="S42" t="n">
+        <v>12</v>
+      </c>
+      <c r="T42" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="U42" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="V42" t="n">
+        <v>5</v>
+      </c>
+      <c r="W42" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="X42" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="Y42" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="Z42" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="AA42" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="AB42" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="AC42" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="AD42" t="n">
+        <v>4.25</v>
+      </c>
+      <c r="AE42" t="n">
+        <v>5.6</v>
+      </c>
+      <c r="AF42" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="AG42" t="n">
+        <v>17</v>
+      </c>
+      <c r="AH42" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="AI42" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="AJ42" t="n">
+        <v>1.61</v>
+      </c>
+      <c r="AK42" t="n">
+        <v>2.33</v>
+      </c>
+      <c r="AL42" t="n">
+        <v>1.66</v>
+      </c>
+      <c r="AM42" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="AN42" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="AO42" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="AP42" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="AQ42" t="n">
+        <v>3</v>
+      </c>
+      <c r="AR42" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS42" t="n">
+        <v>2.33</v>
+      </c>
+      <c r="AT42" t="n">
+        <v>0.33</v>
+      </c>
+      <c r="AU42" t="n">
+        <v>1.99</v>
+      </c>
+      <c r="AV42" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="AW42" t="n">
+        <v>3.08</v>
+      </c>
+      <c r="AX42" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="AY42" t="n">
+        <v>7.25</v>
+      </c>
+      <c r="AZ42" t="n">
+        <v>5</v>
+      </c>
+      <c r="BA42" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="BB42" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="BC42" t="n">
+        <v>1.51</v>
+      </c>
+      <c r="BD42" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="BE42" t="n">
+        <v>2.18</v>
+      </c>
+      <c r="BF42" t="n">
+        <v>6</v>
+      </c>
+      <c r="BG42" t="n">
+        <v>6</v>
+      </c>
+      <c r="BH42" t="n">
+        <v>10</v>
+      </c>
+      <c r="BI42" t="n">
+        <v>11</v>
+      </c>
+      <c r="BJ42" t="n">
+        <v>16</v>
+      </c>
+      <c r="BK42" t="n">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="1" t="n">
+        <v>42</v>
+      </c>
+      <c r="B43" t="n">
+        <v>4869409</v>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>Norway Eliteserien</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E43" s="2" t="n">
+        <v>45053.59375</v>
+      </c>
+      <c r="F43" t="n">
+        <v>5</v>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>Lillestrøm</t>
+        </is>
+      </c>
+      <c r="H43" t="inlineStr">
+        <is>
+          <t>FK Bodo - Glimt</t>
+        </is>
+      </c>
+      <c r="I43" t="n">
+        <v>0</v>
+      </c>
+      <c r="J43" t="n">
+        <v>0</v>
+      </c>
+      <c r="K43" t="n">
+        <v>0</v>
+      </c>
+      <c r="L43" t="n">
+        <v>1</v>
+      </c>
+      <c r="M43" t="n">
+        <v>2</v>
+      </c>
+      <c r="N43" t="n">
+        <v>3</v>
+      </c>
+      <c r="O43" t="inlineStr">
+        <is>
+          <t>['60']</t>
+        </is>
+      </c>
+      <c r="P43" t="inlineStr">
+        <is>
+          <t>['52', '71']</t>
+        </is>
+      </c>
+      <c r="Q43" t="n">
+        <v>5</v>
+      </c>
+      <c r="R43" t="n">
+        <v>11</v>
+      </c>
+      <c r="S43" t="n">
+        <v>16</v>
+      </c>
+      <c r="T43" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="U43" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="V43" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="W43" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="X43" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="Y43" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="Z43" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="AA43" t="n">
+        <v>5</v>
+      </c>
+      <c r="AB43" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="AC43" t="n">
+        <v>3.15</v>
+      </c>
+      <c r="AD43" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="AE43" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="AF43" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="AG43" t="n">
+        <v>11</v>
+      </c>
+      <c r="AH43" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AI43" t="n">
+        <v>4</v>
+      </c>
+      <c r="AJ43" t="n">
+        <v>1.64</v>
+      </c>
+      <c r="AK43" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="AL43" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="AM43" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="AN43" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="AO43" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AP43" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AQ43" t="n">
+        <v>3</v>
+      </c>
+      <c r="AR43" t="n">
+        <v>3</v>
+      </c>
+      <c r="AS43" t="n">
+        <v>2</v>
+      </c>
+      <c r="AT43" t="n">
+        <v>3</v>
+      </c>
+      <c r="AU43" t="n">
+        <v>1.64</v>
+      </c>
+      <c r="AV43" t="n">
+        <v>1.94</v>
+      </c>
+      <c r="AW43" t="n">
+        <v>3.58</v>
+      </c>
+      <c r="AX43" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="AY43" t="n">
+        <v>6</v>
+      </c>
+      <c r="AZ43" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="BA43" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="BB43" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="BC43" t="n">
+        <v>1.51</v>
+      </c>
+      <c r="BD43" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="BE43" t="n">
+        <v>2.21</v>
+      </c>
+      <c r="BF43" t="n">
+        <v>5</v>
+      </c>
+      <c r="BG43" t="n">
+        <v>6</v>
+      </c>
+      <c r="BH43" t="n">
+        <v>8</v>
+      </c>
+      <c r="BI43" t="n">
+        <v>12</v>
+      </c>
+      <c r="BJ43" t="n">
+        <v>13</v>
+      </c>
+      <c r="BK43" t="n">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="1" t="n">
+        <v>43</v>
+      </c>
+      <c r="B44" t="n">
+        <v>4869410</v>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>Norway Eliteserien</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E44" s="2" t="n">
+        <v>45054.58333333334</v>
+      </c>
+      <c r="F44" t="n">
+        <v>5</v>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>Brann</t>
+        </is>
+      </c>
+      <c r="H44" t="inlineStr">
+        <is>
+          <t>Sandefjord</t>
+        </is>
+      </c>
+      <c r="I44" t="n">
+        <v>0</v>
+      </c>
+      <c r="J44" t="n">
+        <v>0</v>
+      </c>
+      <c r="K44" t="n">
+        <v>0</v>
+      </c>
+      <c r="L44" t="n">
+        <v>0</v>
+      </c>
+      <c r="M44" t="n">
+        <v>0</v>
+      </c>
+      <c r="N44" t="n">
+        <v>0</v>
+      </c>
+      <c r="O44" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P44" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q44" t="n">
+        <v>14</v>
+      </c>
+      <c r="R44" t="n">
+        <v>1</v>
+      </c>
+      <c r="S44" t="n">
+        <v>15</v>
+      </c>
+      <c r="T44" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="U44" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="V44" t="n">
+        <v>7.75</v>
+      </c>
+      <c r="W44" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="X44" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="Y44" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="Z44" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="AA44" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="AB44" t="n">
+        <v>1.16</v>
+      </c>
+      <c r="AC44" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AD44" t="n">
+        <v>6</v>
+      </c>
+      <c r="AE44" t="n">
+        <v>11</v>
+      </c>
+      <c r="AF44" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="AG44" t="n">
+        <v>12</v>
+      </c>
+      <c r="AH44" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="AI44" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="AJ44" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="AK44" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="AL44" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="AM44" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AN44" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="AO44" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="AP44" t="n">
+        <v>4</v>
+      </c>
+      <c r="AQ44" t="n">
+        <v>3</v>
+      </c>
+      <c r="AR44" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="AS44" t="n">
+        <v>2.33</v>
+      </c>
+      <c r="AT44" t="n">
+        <v>0.67</v>
+      </c>
+      <c r="AU44" t="n">
+        <v>1.99</v>
+      </c>
+      <c r="AV44" t="n">
+        <v>0.86</v>
+      </c>
+      <c r="AW44" t="n">
+        <v>2.85</v>
+      </c>
+      <c r="AX44" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="AY44" t="n">
+        <v>16</v>
+      </c>
+      <c r="AZ44" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="BA44" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="BB44" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="BC44" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="BD44" t="n">
+        <v>1.49</v>
+      </c>
+      <c r="BE44" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="BF44" t="n">
+        <v>9</v>
+      </c>
+      <c r="BG44" t="n">
+        <v>3</v>
+      </c>
+      <c r="BH44" t="n">
+        <v>10</v>
+      </c>
+      <c r="BI44" t="n">
+        <v>1</v>
+      </c>
+      <c r="BJ44" t="n">
+        <v>19</v>
+      </c>
+      <c r="BK44" t="n">
+        <v>4</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2023)/Norway Eliteserien_2023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Norway Eliteserien_2023.xlsx
@@ -9465,22 +9465,22 @@
         <v>1.85</v>
       </c>
       <c r="BF44" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="BG44" t="n">
         <v>3</v>
       </c>
       <c r="BH44" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="BI44" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="BJ44" t="n">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="BK44" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2023)/Norway Eliteserien_2023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Norway Eliteserien_2023.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BK44"/>
+  <dimension ref="A1:BK45"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2324,7 +2324,7 @@
         <v>2.33</v>
       </c>
       <c r="AT9" t="n">
-        <v>1.5</v>
+        <v>2</v>
       </c>
       <c r="AU9" t="n">
         <v>0</v>
@@ -3133,7 +3133,7 @@
         <v>0</v>
       </c>
       <c r="AS13" t="n">
-        <v>2</v>
+        <v>1.33</v>
       </c>
       <c r="AT13" t="n">
         <v>1.33</v>
@@ -6990,7 +6990,7 @@
         <v>1</v>
       </c>
       <c r="AS32" t="n">
-        <v>2</v>
+        <v>1.33</v>
       </c>
       <c r="AT32" t="n">
         <v>1</v>
@@ -7196,7 +7196,7 @@
         <v>0</v>
       </c>
       <c r="AT33" t="n">
-        <v>1.5</v>
+        <v>2</v>
       </c>
       <c r="AU33" t="n">
         <v>1.55</v>
@@ -9481,6 +9481,209 @@
       </c>
       <c r="BK44" t="n">
         <v>6</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="1" t="n">
+        <v>44</v>
+      </c>
+      <c r="B45" t="n">
+        <v>4869411</v>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>Norway Eliteserien</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E45" s="2" t="n">
+        <v>45058.58333333334</v>
+      </c>
+      <c r="F45" t="n">
+        <v>6</v>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>Odd</t>
+        </is>
+      </c>
+      <c r="H45" t="inlineStr">
+        <is>
+          <t>Lillestrøm</t>
+        </is>
+      </c>
+      <c r="I45" t="n">
+        <v>0</v>
+      </c>
+      <c r="J45" t="n">
+        <v>0</v>
+      </c>
+      <c r="K45" t="n">
+        <v>0</v>
+      </c>
+      <c r="L45" t="n">
+        <v>0</v>
+      </c>
+      <c r="M45" t="n">
+        <v>1</v>
+      </c>
+      <c r="N45" t="n">
+        <v>1</v>
+      </c>
+      <c r="O45" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P45" t="inlineStr">
+        <is>
+          <t>['90+3']</t>
+        </is>
+      </c>
+      <c r="Q45" t="n">
+        <v>5</v>
+      </c>
+      <c r="R45" t="n">
+        <v>7</v>
+      </c>
+      <c r="S45" t="n">
+        <v>12</v>
+      </c>
+      <c r="T45" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="U45" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="V45" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="W45" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="X45" t="n">
+        <v>2.87</v>
+      </c>
+      <c r="Y45" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="Z45" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="AA45" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AB45" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="AC45" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="AD45" t="n">
+        <v>3.35</v>
+      </c>
+      <c r="AE45" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AF45" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AG45" t="n">
+        <v>9.75</v>
+      </c>
+      <c r="AH45" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AI45" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="AJ45" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="AK45" t="n">
+        <v>2</v>
+      </c>
+      <c r="AL45" t="n">
+        <v>1.63</v>
+      </c>
+      <c r="AM45" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AN45" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="AO45" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AP45" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="AQ45" t="n">
+        <v>2</v>
+      </c>
+      <c r="AR45" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AS45" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AT45" t="n">
+        <v>2</v>
+      </c>
+      <c r="AU45" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="AV45" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="AW45" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="AX45" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AY45" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AZ45" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="BA45" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="BB45" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="BC45" t="n">
+        <v>1.51</v>
+      </c>
+      <c r="BD45" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="BE45" t="n">
+        <v>2.37</v>
+      </c>
+      <c r="BF45" t="n">
+        <v>2</v>
+      </c>
+      <c r="BG45" t="n">
+        <v>3</v>
+      </c>
+      <c r="BH45" t="n">
+        <v>17</v>
+      </c>
+      <c r="BI45" t="n">
+        <v>8</v>
+      </c>
+      <c r="BJ45" t="n">
+        <v>19</v>
+      </c>
+      <c r="BK45" t="n">
+        <v>11</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2023)/Norway Eliteserien_2023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Norway Eliteserien_2023.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BK45"/>
+  <dimension ref="A1:BK52"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -903,7 +903,7 @@
         <v>1</v>
       </c>
       <c r="AT2" t="n">
-        <v>0.5</v>
+        <v>1.33</v>
       </c>
       <c r="AU2" t="n">
         <v>0</v>
@@ -1106,7 +1106,7 @@
         <v>0.33</v>
       </c>
       <c r="AT3" t="n">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="AU3" t="n">
         <v>0</v>
@@ -1306,7 +1306,7 @@
         <v>0</v>
       </c>
       <c r="AS4" t="n">
-        <v>2</v>
+        <v>1.5</v>
       </c>
       <c r="AT4" t="n">
         <v>0.67</v>
@@ -1509,7 +1509,7 @@
         <v>0</v>
       </c>
       <c r="AS5" t="n">
-        <v>0.5</v>
+        <v>1.33</v>
       </c>
       <c r="AT5" t="n">
         <v>3</v>
@@ -1712,7 +1712,7 @@
         <v>0</v>
       </c>
       <c r="AS6" t="n">
-        <v>1.67</v>
+        <v>2</v>
       </c>
       <c r="AT6" t="n">
         <v>1.25</v>
@@ -2524,7 +2524,7 @@
         <v>0</v>
       </c>
       <c r="AS10" t="n">
-        <v>2.33</v>
+        <v>2.5</v>
       </c>
       <c r="AT10" t="n">
         <v>1.5</v>
@@ -2727,7 +2727,7 @@
         <v>0</v>
       </c>
       <c r="AS11" t="n">
-        <v>2</v>
+        <v>1.67</v>
       </c>
       <c r="AT11" t="n">
         <v>0</v>
@@ -2930,10 +2930,10 @@
         <v>0</v>
       </c>
       <c r="AS12" t="n">
-        <v>1.33</v>
+        <v>1.75</v>
       </c>
       <c r="AT12" t="n">
-        <v>1</v>
+        <v>0.67</v>
       </c>
       <c r="AU12" t="n">
         <v>0</v>
@@ -3136,7 +3136,7 @@
         <v>1.33</v>
       </c>
       <c r="AT13" t="n">
-        <v>1.33</v>
+        <v>1</v>
       </c>
       <c r="AU13" t="n">
         <v>0</v>
@@ -3336,10 +3336,10 @@
         <v>0</v>
       </c>
       <c r="AS14" t="n">
-        <v>2</v>
+        <v>1.33</v>
       </c>
       <c r="AT14" t="n">
-        <v>2</v>
+        <v>2.33</v>
       </c>
       <c r="AU14" t="n">
         <v>0</v>
@@ -3948,7 +3948,7 @@
         <v>2</v>
       </c>
       <c r="AT17" t="n">
-        <v>0.33</v>
+        <v>0.25</v>
       </c>
       <c r="AU17" t="n">
         <v>0</v>
@@ -4151,7 +4151,7 @@
         <v>2.33</v>
       </c>
       <c r="AT18" t="n">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="AU18" t="n">
         <v>2.05</v>
@@ -4554,10 +4554,10 @@
         <v>0</v>
       </c>
       <c r="AS20" t="n">
-        <v>2</v>
+        <v>1.5</v>
       </c>
       <c r="AT20" t="n">
-        <v>0.33</v>
+        <v>0.25</v>
       </c>
       <c r="AU20" t="n">
         <v>1.35</v>
@@ -4960,7 +4960,7 @@
         <v>1</v>
       </c>
       <c r="AS22" t="n">
-        <v>0.5</v>
+        <v>1.33</v>
       </c>
       <c r="AT22" t="n">
         <v>1.25</v>
@@ -5163,7 +5163,7 @@
         <v>0</v>
       </c>
       <c r="AS23" t="n">
-        <v>1.67</v>
+        <v>2</v>
       </c>
       <c r="AT23" t="n">
         <v>0.33</v>
@@ -5369,7 +5369,7 @@
         <v>1.33</v>
       </c>
       <c r="AT24" t="n">
-        <v>0.5</v>
+        <v>1.33</v>
       </c>
       <c r="AU24" t="n">
         <v>0.65</v>
@@ -5772,10 +5772,10 @@
         <v>0</v>
       </c>
       <c r="AS26" t="n">
-        <v>2.33</v>
+        <v>2.5</v>
       </c>
       <c r="AT26" t="n">
-        <v>1.33</v>
+        <v>1</v>
       </c>
       <c r="AU26" t="n">
         <v>2.11</v>
@@ -6181,7 +6181,7 @@
         <v>1.5</v>
       </c>
       <c r="AT28" t="n">
-        <v>2</v>
+        <v>2.33</v>
       </c>
       <c r="AU28" t="n">
         <v>1.16</v>
@@ -6381,7 +6381,7 @@
         <v>3</v>
       </c>
       <c r="AS29" t="n">
-        <v>2</v>
+        <v>1.67</v>
       </c>
       <c r="AT29" t="n">
         <v>1.67</v>
@@ -6584,7 +6584,7 @@
         <v>0</v>
       </c>
       <c r="AS30" t="n">
-        <v>1.33</v>
+        <v>1.75</v>
       </c>
       <c r="AT30" t="n">
         <v>1.5</v>
@@ -6787,7 +6787,7 @@
         <v>0</v>
       </c>
       <c r="AS31" t="n">
-        <v>2</v>
+        <v>1.33</v>
       </c>
       <c r="AT31" t="n">
         <v>0</v>
@@ -6993,7 +6993,7 @@
         <v>1.33</v>
       </c>
       <c r="AT32" t="n">
-        <v>1</v>
+        <v>0.67</v>
       </c>
       <c r="AU32" t="n">
         <v>1.3</v>
@@ -7399,7 +7399,7 @@
         <v>1</v>
       </c>
       <c r="AT34" t="n">
-        <v>1.33</v>
+        <v>1</v>
       </c>
       <c r="AU34" t="n">
         <v>1.42</v>
@@ -7599,7 +7599,7 @@
         <v>1</v>
       </c>
       <c r="AS35" t="n">
-        <v>2.33</v>
+        <v>2.5</v>
       </c>
       <c r="AT35" t="n">
         <v>1.25</v>
@@ -7802,7 +7802,7 @@
         <v>0</v>
       </c>
       <c r="AS36" t="n">
-        <v>1.33</v>
+        <v>1.75</v>
       </c>
       <c r="AT36" t="n">
         <v>0</v>
@@ -8008,7 +8008,7 @@
         <v>1</v>
       </c>
       <c r="AT37" t="n">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="AU37" t="n">
         <v>1.4</v>
@@ -8208,7 +8208,7 @@
         <v>2</v>
       </c>
       <c r="AS38" t="n">
-        <v>1.67</v>
+        <v>2</v>
       </c>
       <c r="AT38" t="n">
         <v>1.67</v>
@@ -8411,7 +8411,7 @@
         <v>0</v>
       </c>
       <c r="AS39" t="n">
-        <v>2</v>
+        <v>1.5</v>
       </c>
       <c r="AT39" t="n">
         <v>1</v>
@@ -9023,7 +9023,7 @@
         <v>2.33</v>
       </c>
       <c r="AT42" t="n">
-        <v>0.33</v>
+        <v>0.25</v>
       </c>
       <c r="AU42" t="n">
         <v>1.99</v>
@@ -9684,6 +9684,1427 @@
       </c>
       <c r="BK45" t="n">
         <v>11</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="1" t="n">
+        <v>45</v>
+      </c>
+      <c r="B46" t="n">
+        <v>4869412</v>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>Norway Eliteserien</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E46" s="2" t="n">
+        <v>45059.5</v>
+      </c>
+      <c r="F46" t="n">
+        <v>6</v>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>FK Bodo - Glimt</t>
+        </is>
+      </c>
+      <c r="H46" t="inlineStr">
+        <is>
+          <t>Rosenborg</t>
+        </is>
+      </c>
+      <c r="I46" t="n">
+        <v>2</v>
+      </c>
+      <c r="J46" t="n">
+        <v>1</v>
+      </c>
+      <c r="K46" t="n">
+        <v>3</v>
+      </c>
+      <c r="L46" t="n">
+        <v>3</v>
+      </c>
+      <c r="M46" t="n">
+        <v>2</v>
+      </c>
+      <c r="N46" t="n">
+        <v>5</v>
+      </c>
+      <c r="O46" t="inlineStr">
+        <is>
+          <t>['7', '45+2', '60']</t>
+        </is>
+      </c>
+      <c r="P46" t="inlineStr">
+        <is>
+          <t>['11', '58']</t>
+        </is>
+      </c>
+      <c r="Q46" t="n">
+        <v>4</v>
+      </c>
+      <c r="R46" t="n">
+        <v>1</v>
+      </c>
+      <c r="S46" t="n">
+        <v>5</v>
+      </c>
+      <c r="T46" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="U46" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="V46" t="n">
+        <v>6.75</v>
+      </c>
+      <c r="W46" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="X46" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="Y46" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="Z46" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="AA46" t="n">
+        <v>4.8</v>
+      </c>
+      <c r="AB46" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="AC46" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="AD46" t="n">
+        <v>5.3</v>
+      </c>
+      <c r="AE46" t="n">
+        <v>8.300000000000001</v>
+      </c>
+      <c r="AF46" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="AG46" t="n">
+        <v>12</v>
+      </c>
+      <c r="AH46" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="AI46" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="AJ46" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="AK46" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="AL46" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AM46" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="AN46" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="AO46" t="n">
+        <v>1.16</v>
+      </c>
+      <c r="AP46" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="AQ46" t="n">
+        <v>2.33</v>
+      </c>
+      <c r="AR46" t="n">
+        <v>1</v>
+      </c>
+      <c r="AS46" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="AT46" t="n">
+        <v>0.67</v>
+      </c>
+      <c r="AU46" t="n">
+        <v>1.66</v>
+      </c>
+      <c r="AV46" t="n">
+        <v>0.68</v>
+      </c>
+      <c r="AW46" t="n">
+        <v>2.34</v>
+      </c>
+      <c r="AX46" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="AY46" t="n">
+        <v>12</v>
+      </c>
+      <c r="AZ46" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="BA46" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="BB46" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="BC46" t="n">
+        <v>1.59</v>
+      </c>
+      <c r="BD46" t="n">
+        <v>1.99</v>
+      </c>
+      <c r="BE46" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="BF46" t="n">
+        <v>4</v>
+      </c>
+      <c r="BG46" t="n">
+        <v>7</v>
+      </c>
+      <c r="BH46" t="n">
+        <v>7</v>
+      </c>
+      <c r="BI46" t="n">
+        <v>3</v>
+      </c>
+      <c r="BJ46" t="n">
+        <v>11</v>
+      </c>
+      <c r="BK46" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="1" t="n">
+        <v>46</v>
+      </c>
+      <c r="B47" t="n">
+        <v>4869413</v>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>Norway Eliteserien</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E47" s="2" t="n">
+        <v>45059.5</v>
+      </c>
+      <c r="F47" t="n">
+        <v>6</v>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>HamKam</t>
+        </is>
+      </c>
+      <c r="H47" t="inlineStr">
+        <is>
+          <t>Tromsø</t>
+        </is>
+      </c>
+      <c r="I47" t="n">
+        <v>0</v>
+      </c>
+      <c r="J47" t="n">
+        <v>1</v>
+      </c>
+      <c r="K47" t="n">
+        <v>1</v>
+      </c>
+      <c r="L47" t="n">
+        <v>1</v>
+      </c>
+      <c r="M47" t="n">
+        <v>2</v>
+      </c>
+      <c r="N47" t="n">
+        <v>3</v>
+      </c>
+      <c r="O47" t="inlineStr">
+        <is>
+          <t>['72']</t>
+        </is>
+      </c>
+      <c r="P47" t="inlineStr">
+        <is>
+          <t>['45', '90+11']</t>
+        </is>
+      </c>
+      <c r="Q47" t="n">
+        <v>3</v>
+      </c>
+      <c r="R47" t="n">
+        <v>3</v>
+      </c>
+      <c r="S47" t="n">
+        <v>6</v>
+      </c>
+      <c r="T47" t="n">
+        <v>2.85</v>
+      </c>
+      <c r="U47" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="V47" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="W47" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="X47" t="n">
+        <v>2.65</v>
+      </c>
+      <c r="Y47" t="n">
+        <v>2.85</v>
+      </c>
+      <c r="Z47" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="AA47" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AB47" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="AC47" t="n">
+        <v>2.29</v>
+      </c>
+      <c r="AD47" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="AE47" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="AF47" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="AG47" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AH47" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AI47" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="AJ47" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="AK47" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="AL47" t="n">
+        <v>1.77</v>
+      </c>
+      <c r="AM47" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="AN47" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="AO47" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="AP47" t="n">
+        <v>1.61</v>
+      </c>
+      <c r="AQ47" t="n">
+        <v>2</v>
+      </c>
+      <c r="AR47" t="n">
+        <v>2</v>
+      </c>
+      <c r="AS47" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AT47" t="n">
+        <v>2.33</v>
+      </c>
+      <c r="AU47" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="AV47" t="n">
+        <v>0.64</v>
+      </c>
+      <c r="AW47" t="n">
+        <v>2.03</v>
+      </c>
+      <c r="AX47" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="AY47" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AZ47" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="BA47" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="BB47" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="BC47" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="BD47" t="n">
+        <v>2</v>
+      </c>
+      <c r="BE47" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="BF47" t="n">
+        <v>4</v>
+      </c>
+      <c r="BG47" t="n">
+        <v>3</v>
+      </c>
+      <c r="BH47" t="n">
+        <v>13</v>
+      </c>
+      <c r="BI47" t="n">
+        <v>3</v>
+      </c>
+      <c r="BJ47" t="n">
+        <v>17</v>
+      </c>
+      <c r="BK47" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="1" t="n">
+        <v>47</v>
+      </c>
+      <c r="B48" t="n">
+        <v>4869414</v>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>Norway Eliteserien</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E48" s="2" t="n">
+        <v>45059.5</v>
+      </c>
+      <c r="F48" t="n">
+        <v>6</v>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>Molde</t>
+        </is>
+      </c>
+      <c r="H48" t="inlineStr">
+        <is>
+          <t>Strømsgodset</t>
+        </is>
+      </c>
+      <c r="I48" t="n">
+        <v>1</v>
+      </c>
+      <c r="J48" t="n">
+        <v>0</v>
+      </c>
+      <c r="K48" t="n">
+        <v>1</v>
+      </c>
+      <c r="L48" t="n">
+        <v>3</v>
+      </c>
+      <c r="M48" t="n">
+        <v>2</v>
+      </c>
+      <c r="N48" t="n">
+        <v>5</v>
+      </c>
+      <c r="O48" t="inlineStr">
+        <is>
+          <t>['37', '67', '77']</t>
+        </is>
+      </c>
+      <c r="P48" t="inlineStr">
+        <is>
+          <t>['61', '90+6']</t>
+        </is>
+      </c>
+      <c r="Q48" t="n">
+        <v>6</v>
+      </c>
+      <c r="R48" t="n">
+        <v>1</v>
+      </c>
+      <c r="S48" t="n">
+        <v>7</v>
+      </c>
+      <c r="T48" t="n">
+        <v>1.66</v>
+      </c>
+      <c r="U48" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="V48" t="n">
+        <v>6.75</v>
+      </c>
+      <c r="W48" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="X48" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="Y48" t="n">
+        <v>2</v>
+      </c>
+      <c r="Z48" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="AA48" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="AB48" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="AC48" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="AD48" t="n">
+        <v>6.4</v>
+      </c>
+      <c r="AE48" t="n">
+        <v>9.6</v>
+      </c>
+      <c r="AF48" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="AG48" t="n">
+        <v>13</v>
+      </c>
+      <c r="AH48" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="AI48" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="AJ48" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="AK48" t="n">
+        <v>3.09</v>
+      </c>
+      <c r="AL48" t="n">
+        <v>1.77</v>
+      </c>
+      <c r="AM48" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="AN48" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AO48" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="AP48" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="AQ48" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AR48" t="n">
+        <v>0.33</v>
+      </c>
+      <c r="AS48" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AT48" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="AU48" t="n">
+        <v>1.76</v>
+      </c>
+      <c r="AV48" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AW48" t="n">
+        <v>3.09</v>
+      </c>
+      <c r="AX48" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="AY48" t="n">
+        <v>13</v>
+      </c>
+      <c r="AZ48" t="n">
+        <v>7</v>
+      </c>
+      <c r="BA48" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB48" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="BC48" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="BD48" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="BE48" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="BF48" t="n">
+        <v>5</v>
+      </c>
+      <c r="BG48" t="n">
+        <v>3</v>
+      </c>
+      <c r="BH48" t="n">
+        <v>10</v>
+      </c>
+      <c r="BI48" t="n">
+        <v>2</v>
+      </c>
+      <c r="BJ48" t="n">
+        <v>15</v>
+      </c>
+      <c r="BK48" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="1" t="n">
+        <v>48</v>
+      </c>
+      <c r="B49" t="n">
+        <v>4869415</v>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>Norway Eliteserien</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E49" s="2" t="n">
+        <v>45059.5</v>
+      </c>
+      <c r="F49" t="n">
+        <v>6</v>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>Sandefjord</t>
+        </is>
+      </c>
+      <c r="H49" t="inlineStr">
+        <is>
+          <t>Viking</t>
+        </is>
+      </c>
+      <c r="I49" t="n">
+        <v>1</v>
+      </c>
+      <c r="J49" t="n">
+        <v>1</v>
+      </c>
+      <c r="K49" t="n">
+        <v>2</v>
+      </c>
+      <c r="L49" t="n">
+        <v>1</v>
+      </c>
+      <c r="M49" t="n">
+        <v>2</v>
+      </c>
+      <c r="N49" t="n">
+        <v>3</v>
+      </c>
+      <c r="O49" t="inlineStr">
+        <is>
+          <t>['11']</t>
+        </is>
+      </c>
+      <c r="P49" t="inlineStr">
+        <is>
+          <t>['14', '90']</t>
+        </is>
+      </c>
+      <c r="Q49" t="n">
+        <v>7</v>
+      </c>
+      <c r="R49" t="n">
+        <v>6</v>
+      </c>
+      <c r="S49" t="n">
+        <v>13</v>
+      </c>
+      <c r="T49" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="U49" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="V49" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="W49" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="X49" t="n">
+        <v>3</v>
+      </c>
+      <c r="Y49" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="Z49" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="AA49" t="n">
+        <v>6</v>
+      </c>
+      <c r="AB49" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="AC49" t="n">
+        <v>3.45</v>
+      </c>
+      <c r="AD49" t="n">
+        <v>3.85</v>
+      </c>
+      <c r="AE49" t="n">
+        <v>2</v>
+      </c>
+      <c r="AF49" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="AG49" t="n">
+        <v>10</v>
+      </c>
+      <c r="AH49" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AI49" t="n">
+        <v>4</v>
+      </c>
+      <c r="AJ49" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="AK49" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="AL49" t="n">
+        <v>1.61</v>
+      </c>
+      <c r="AM49" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="AN49" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AO49" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="AP49" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AQ49" t="n">
+        <v>2</v>
+      </c>
+      <c r="AR49" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="AS49" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AT49" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AU49" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="AV49" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="AW49" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="AX49" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="AY49" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AZ49" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="BA49" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="BB49" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="BC49" t="n">
+        <v>1.51</v>
+      </c>
+      <c r="BD49" t="n">
+        <v>2</v>
+      </c>
+      <c r="BE49" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="BF49" t="n">
+        <v>7</v>
+      </c>
+      <c r="BG49" t="n">
+        <v>7</v>
+      </c>
+      <c r="BH49" t="n">
+        <v>17</v>
+      </c>
+      <c r="BI49" t="n">
+        <v>12</v>
+      </c>
+      <c r="BJ49" t="n">
+        <v>24</v>
+      </c>
+      <c r="BK49" t="n">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="1" t="n">
+        <v>49</v>
+      </c>
+      <c r="B50" t="n">
+        <v>4869416</v>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>Norway Eliteserien</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E50" s="2" t="n">
+        <v>45059.5</v>
+      </c>
+      <c r="F50" t="n">
+        <v>6</v>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>Sarpsborg 08</t>
+        </is>
+      </c>
+      <c r="H50" t="inlineStr">
+        <is>
+          <t>Brann</t>
+        </is>
+      </c>
+      <c r="I50" t="n">
+        <v>2</v>
+      </c>
+      <c r="J50" t="n">
+        <v>0</v>
+      </c>
+      <c r="K50" t="n">
+        <v>2</v>
+      </c>
+      <c r="L50" t="n">
+        <v>2</v>
+      </c>
+      <c r="M50" t="n">
+        <v>1</v>
+      </c>
+      <c r="N50" t="n">
+        <v>3</v>
+      </c>
+      <c r="O50" t="inlineStr">
+        <is>
+          <t>['23', '37']</t>
+        </is>
+      </c>
+      <c r="P50" t="inlineStr">
+        <is>
+          <t>['79']</t>
+        </is>
+      </c>
+      <c r="Q50" t="n">
+        <v>3</v>
+      </c>
+      <c r="R50" t="n">
+        <v>8</v>
+      </c>
+      <c r="S50" t="n">
+        <v>11</v>
+      </c>
+      <c r="T50" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="U50" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="V50" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="W50" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="X50" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="Y50" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="Z50" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="AA50" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="AB50" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="AC50" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="AD50" t="n">
+        <v>3.85</v>
+      </c>
+      <c r="AE50" t="n">
+        <v>2.09</v>
+      </c>
+      <c r="AF50" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="AG50" t="n">
+        <v>10</v>
+      </c>
+      <c r="AH50" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AI50" t="n">
+        <v>4</v>
+      </c>
+      <c r="AJ50" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="AK50" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="AL50" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="AM50" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="AN50" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="AO50" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="AP50" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="AQ50" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="AR50" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AS50" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AT50" t="n">
+        <v>1</v>
+      </c>
+      <c r="AU50" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AV50" t="n">
+        <v>1.74</v>
+      </c>
+      <c r="AW50" t="n">
+        <v>2.99</v>
+      </c>
+      <c r="AX50" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="AY50" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AZ50" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="BA50" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="BB50" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="BC50" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="BD50" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="BE50" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="BF50" t="n">
+        <v>4</v>
+      </c>
+      <c r="BG50" t="n">
+        <v>8</v>
+      </c>
+      <c r="BH50" t="n">
+        <v>8</v>
+      </c>
+      <c r="BI50" t="n">
+        <v>14</v>
+      </c>
+      <c r="BJ50" t="n">
+        <v>12</v>
+      </c>
+      <c r="BK50" t="n">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="1" t="n">
+        <v>50</v>
+      </c>
+      <c r="B51" t="n">
+        <v>4869417</v>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>Norway Eliteserien</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E51" s="2" t="n">
+        <v>45059.5</v>
+      </c>
+      <c r="F51" t="n">
+        <v>6</v>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>Stabæk</t>
+        </is>
+      </c>
+      <c r="H51" t="inlineStr">
+        <is>
+          <t>Aalesund</t>
+        </is>
+      </c>
+      <c r="I51" t="n">
+        <v>0</v>
+      </c>
+      <c r="J51" t="n">
+        <v>0</v>
+      </c>
+      <c r="K51" t="n">
+        <v>0</v>
+      </c>
+      <c r="L51" t="n">
+        <v>1</v>
+      </c>
+      <c r="M51" t="n">
+        <v>0</v>
+      </c>
+      <c r="N51" t="n">
+        <v>1</v>
+      </c>
+      <c r="O51" t="inlineStr">
+        <is>
+          <t>['76']</t>
+        </is>
+      </c>
+      <c r="P51" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q51" t="n">
+        <v>4</v>
+      </c>
+      <c r="R51" t="n">
+        <v>7</v>
+      </c>
+      <c r="S51" t="n">
+        <v>11</v>
+      </c>
+      <c r="T51" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="U51" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="V51" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="W51" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="X51" t="n">
+        <v>2.65</v>
+      </c>
+      <c r="Y51" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="Z51" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AA51" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AB51" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="AC51" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="AD51" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="AE51" t="n">
+        <v>4.35</v>
+      </c>
+      <c r="AF51" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AG51" t="n">
+        <v>8</v>
+      </c>
+      <c r="AH51" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AI51" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="AJ51" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AK51" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AL51" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="AM51" t="n">
+        <v>1.82</v>
+      </c>
+      <c r="AN51" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="AO51" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="AP51" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="AQ51" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AR51" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS51" t="n">
+        <v>2</v>
+      </c>
+      <c r="AT51" t="n">
+        <v>0</v>
+      </c>
+      <c r="AU51" t="n">
+        <v>1.82</v>
+      </c>
+      <c r="AV51" t="n">
+        <v>0.83</v>
+      </c>
+      <c r="AW51" t="n">
+        <v>2.65</v>
+      </c>
+      <c r="AX51" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="AY51" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AZ51" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="BA51" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="BB51" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="BC51" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="BD51" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="BE51" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="BF51" t="n">
+        <v>4</v>
+      </c>
+      <c r="BG51" t="n">
+        <v>6</v>
+      </c>
+      <c r="BH51" t="n">
+        <v>10</v>
+      </c>
+      <c r="BI51" t="n">
+        <v>10</v>
+      </c>
+      <c r="BJ51" t="n">
+        <v>14</v>
+      </c>
+      <c r="BK51" t="n">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="1" t="n">
+        <v>51</v>
+      </c>
+      <c r="B52" t="n">
+        <v>4869418</v>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>Norway Eliteserien</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E52" s="2" t="n">
+        <v>45059.59375</v>
+      </c>
+      <c r="F52" t="n">
+        <v>6</v>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>Haugesund</t>
+        </is>
+      </c>
+      <c r="H52" t="inlineStr">
+        <is>
+          <t>Vålerenga</t>
+        </is>
+      </c>
+      <c r="I52" t="n">
+        <v>0</v>
+      </c>
+      <c r="J52" t="n">
+        <v>0</v>
+      </c>
+      <c r="K52" t="n">
+        <v>0</v>
+      </c>
+      <c r="L52" t="n">
+        <v>1</v>
+      </c>
+      <c r="M52" t="n">
+        <v>1</v>
+      </c>
+      <c r="N52" t="n">
+        <v>2</v>
+      </c>
+      <c r="O52" t="inlineStr">
+        <is>
+          <t>['61']</t>
+        </is>
+      </c>
+      <c r="P52" t="inlineStr">
+        <is>
+          <t>['65']</t>
+        </is>
+      </c>
+      <c r="Q52" t="n">
+        <v>3</v>
+      </c>
+      <c r="R52" t="n">
+        <v>5</v>
+      </c>
+      <c r="S52" t="n">
+        <v>8</v>
+      </c>
+      <c r="T52" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="U52" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="V52" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="W52" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="X52" t="n">
+        <v>2.87</v>
+      </c>
+      <c r="Y52" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="Z52" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="AA52" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AB52" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="AC52" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="AD52" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="AE52" t="n">
+        <v>2.47</v>
+      </c>
+      <c r="AF52" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AG52" t="n">
+        <v>9</v>
+      </c>
+      <c r="AH52" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AI52" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="AJ52" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="AK52" t="n">
+        <v>1.99</v>
+      </c>
+      <c r="AL52" t="n">
+        <v>1.63</v>
+      </c>
+      <c r="AM52" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AN52" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="AO52" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AP52" t="n">
+        <v>1.46</v>
+      </c>
+      <c r="AQ52" t="n">
+        <v>2</v>
+      </c>
+      <c r="AR52" t="n">
+        <v>2</v>
+      </c>
+      <c r="AS52" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AT52" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AU52" t="n">
+        <v>0.97</v>
+      </c>
+      <c r="AV52" t="n">
+        <v>0.97</v>
+      </c>
+      <c r="AW52" t="n">
+        <v>1.94</v>
+      </c>
+      <c r="AX52" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AY52" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AZ52" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="BA52" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="BB52" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="BC52" t="n">
+        <v>1.51</v>
+      </c>
+      <c r="BD52" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="BE52" t="n">
+        <v>2.37</v>
+      </c>
+      <c r="BF52" t="n">
+        <v>3</v>
+      </c>
+      <c r="BG52" t="n">
+        <v>7</v>
+      </c>
+      <c r="BH52" t="n">
+        <v>7</v>
+      </c>
+      <c r="BI52" t="n">
+        <v>6</v>
+      </c>
+      <c r="BJ52" t="n">
+        <v>10</v>
+      </c>
+      <c r="BK52" t="n">
+        <v>13</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2023)/Norway Eliteserien_2023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Norway Eliteserien_2023.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BK52"/>
+  <dimension ref="A1:BK60"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -900,7 +900,7 @@
         <v>0</v>
       </c>
       <c r="AS2" t="n">
-        <v>1</v>
+        <v>1.4</v>
       </c>
       <c r="AT2" t="n">
         <v>1.33</v>
@@ -1103,7 +1103,7 @@
         <v>0</v>
       </c>
       <c r="AS3" t="n">
-        <v>0.33</v>
+        <v>1</v>
       </c>
       <c r="AT3" t="n">
         <v>1.75</v>
@@ -1309,7 +1309,7 @@
         <v>1.5</v>
       </c>
       <c r="AT4" t="n">
-        <v>0.67</v>
+        <v>0.5</v>
       </c>
       <c r="AU4" t="n">
         <v>0</v>
@@ -1715,7 +1715,7 @@
         <v>2</v>
       </c>
       <c r="AT6" t="n">
-        <v>1.25</v>
+        <v>1</v>
       </c>
       <c r="AU6" t="n">
         <v>0</v>
@@ -1915,10 +1915,10 @@
         <v>0</v>
       </c>
       <c r="AS7" t="n">
-        <v>1.33</v>
+        <v>1</v>
       </c>
       <c r="AT7" t="n">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="AU7" t="n">
         <v>0</v>
@@ -2118,10 +2118,10 @@
         <v>0</v>
       </c>
       <c r="AS8" t="n">
-        <v>2.33</v>
+        <v>2.5</v>
       </c>
       <c r="AT8" t="n">
-        <v>0.33</v>
+        <v>0.25</v>
       </c>
       <c r="AU8" t="n">
         <v>0</v>
@@ -2321,7 +2321,7 @@
         <v>0</v>
       </c>
       <c r="AS9" t="n">
-        <v>2.33</v>
+        <v>2.5</v>
       </c>
       <c r="AT9" t="n">
         <v>2</v>
@@ -2527,7 +2527,7 @@
         <v>2.5</v>
       </c>
       <c r="AT10" t="n">
-        <v>1.5</v>
+        <v>1</v>
       </c>
       <c r="AU10" t="n">
         <v>0</v>
@@ -3539,7 +3539,7 @@
         <v>0</v>
       </c>
       <c r="AS15" t="n">
-        <v>1.5</v>
+        <v>2</v>
       </c>
       <c r="AT15" t="n">
         <v>0</v>
@@ -3742,10 +3742,10 @@
         <v>0</v>
       </c>
       <c r="AS16" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AT16" t="n">
-        <v>1.67</v>
+        <v>2</v>
       </c>
       <c r="AU16" t="n">
         <v>0</v>
@@ -3945,7 +3945,7 @@
         <v>0</v>
       </c>
       <c r="AS17" t="n">
-        <v>2</v>
+        <v>1.5</v>
       </c>
       <c r="AT17" t="n">
         <v>0.25</v>
@@ -4148,7 +4148,7 @@
         <v>3</v>
       </c>
       <c r="AS18" t="n">
-        <v>2.33</v>
+        <v>2.5</v>
       </c>
       <c r="AT18" t="n">
         <v>1.75</v>
@@ -4351,7 +4351,7 @@
         <v>3</v>
       </c>
       <c r="AS19" t="n">
-        <v>0.33</v>
+        <v>1</v>
       </c>
       <c r="AT19" t="n">
         <v>3</v>
@@ -4757,10 +4757,10 @@
         <v>0</v>
       </c>
       <c r="AS21" t="n">
-        <v>1</v>
+        <v>1.4</v>
       </c>
       <c r="AT21" t="n">
-        <v>0.67</v>
+        <v>0.5</v>
       </c>
       <c r="AU21" t="n">
         <v>0.9399999999999999</v>
@@ -4963,7 +4963,7 @@
         <v>1.33</v>
       </c>
       <c r="AT22" t="n">
-        <v>1.25</v>
+        <v>1</v>
       </c>
       <c r="AU22" t="n">
         <v>1.05</v>
@@ -5166,7 +5166,7 @@
         <v>2</v>
       </c>
       <c r="AT23" t="n">
-        <v>0.33</v>
+        <v>0.25</v>
       </c>
       <c r="AU23" t="n">
         <v>1.95</v>
@@ -5366,7 +5366,7 @@
         <v>0</v>
       </c>
       <c r="AS24" t="n">
-        <v>1.33</v>
+        <v>1</v>
       </c>
       <c r="AT24" t="n">
         <v>1.33</v>
@@ -5569,10 +5569,10 @@
         <v>0</v>
       </c>
       <c r="AS25" t="n">
-        <v>2</v>
+        <v>1.5</v>
       </c>
       <c r="AT25" t="n">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="AU25" t="n">
         <v>2.11</v>
@@ -5975,7 +5975,7 @@
         <v>0</v>
       </c>
       <c r="AS27" t="n">
-        <v>2.33</v>
+        <v>2.5</v>
       </c>
       <c r="AT27" t="n">
         <v>0</v>
@@ -6178,7 +6178,7 @@
         <v>1</v>
       </c>
       <c r="AS28" t="n">
-        <v>1.5</v>
+        <v>2</v>
       </c>
       <c r="AT28" t="n">
         <v>2.33</v>
@@ -6384,7 +6384,7 @@
         <v>1.67</v>
       </c>
       <c r="AT29" t="n">
-        <v>1.67</v>
+        <v>2</v>
       </c>
       <c r="AU29" t="n">
         <v>1.16</v>
@@ -6587,7 +6587,7 @@
         <v>1.75</v>
       </c>
       <c r="AT30" t="n">
-        <v>1.5</v>
+        <v>1</v>
       </c>
       <c r="AU30" t="n">
         <v>1.02</v>
@@ -7193,7 +7193,7 @@
         <v>0</v>
       </c>
       <c r="AS33" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AT33" t="n">
         <v>2</v>
@@ -7396,7 +7396,7 @@
         <v>0.5</v>
       </c>
       <c r="AS34" t="n">
-        <v>1</v>
+        <v>1.4</v>
       </c>
       <c r="AT34" t="n">
         <v>1</v>
@@ -7602,7 +7602,7 @@
         <v>2.5</v>
       </c>
       <c r="AT35" t="n">
-        <v>1.25</v>
+        <v>1</v>
       </c>
       <c r="AU35" t="n">
         <v>1.83</v>
@@ -8005,7 +8005,7 @@
         <v>1.5</v>
       </c>
       <c r="AS37" t="n">
-        <v>1</v>
+        <v>1.4</v>
       </c>
       <c r="AT37" t="n">
         <v>1.75</v>
@@ -8211,7 +8211,7 @@
         <v>2</v>
       </c>
       <c r="AT38" t="n">
-        <v>1.67</v>
+        <v>2</v>
       </c>
       <c r="AU38" t="n">
         <v>2.01</v>
@@ -8414,7 +8414,7 @@
         <v>1.5</v>
       </c>
       <c r="AT39" t="n">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="AU39" t="n">
         <v>1.53</v>
@@ -8614,10 +8614,10 @@
         <v>0</v>
       </c>
       <c r="AS40" t="n">
-        <v>0.33</v>
+        <v>1</v>
       </c>
       <c r="AT40" t="n">
-        <v>0.33</v>
+        <v>0.25</v>
       </c>
       <c r="AU40" t="n">
         <v>1.01</v>
@@ -8817,10 +8817,10 @@
         <v>0.67</v>
       </c>
       <c r="AS41" t="n">
-        <v>1.33</v>
+        <v>1</v>
       </c>
       <c r="AT41" t="n">
-        <v>1.25</v>
+        <v>1</v>
       </c>
       <c r="AU41" t="n">
         <v>1.01</v>
@@ -9020,7 +9020,7 @@
         <v>0</v>
       </c>
       <c r="AS42" t="n">
-        <v>2.33</v>
+        <v>2.5</v>
       </c>
       <c r="AT42" t="n">
         <v>0.25</v>
@@ -9223,7 +9223,7 @@
         <v>3</v>
       </c>
       <c r="AS43" t="n">
-        <v>2</v>
+        <v>1.5</v>
       </c>
       <c r="AT43" t="n">
         <v>3</v>
@@ -9426,10 +9426,10 @@
         <v>0.5</v>
       </c>
       <c r="AS44" t="n">
-        <v>2.33</v>
+        <v>2.5</v>
       </c>
       <c r="AT44" t="n">
-        <v>0.67</v>
+        <v>0.5</v>
       </c>
       <c r="AU44" t="n">
         <v>1.99</v>
@@ -11105,6 +11105,1630 @@
       </c>
       <c r="BK52" t="n">
         <v>13</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="1" t="n">
+        <v>52</v>
+      </c>
+      <c r="B53" t="n">
+        <v>4869422</v>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>Norway Eliteserien</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E53" s="2" t="n">
+        <v>45062.54166666666</v>
+      </c>
+      <c r="F53" t="n">
+        <v>7</v>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>Rosenborg</t>
+        </is>
+      </c>
+      <c r="H53" t="inlineStr">
+        <is>
+          <t>Haugesund</t>
+        </is>
+      </c>
+      <c r="I53" t="n">
+        <v>0</v>
+      </c>
+      <c r="J53" t="n">
+        <v>0</v>
+      </c>
+      <c r="K53" t="n">
+        <v>0</v>
+      </c>
+      <c r="L53" t="n">
+        <v>1</v>
+      </c>
+      <c r="M53" t="n">
+        <v>0</v>
+      </c>
+      <c r="N53" t="n">
+        <v>1</v>
+      </c>
+      <c r="O53" t="inlineStr">
+        <is>
+          <t>['57']</t>
+        </is>
+      </c>
+      <c r="P53" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q53" t="n">
+        <v>6</v>
+      </c>
+      <c r="R53" t="n">
+        <v>2</v>
+      </c>
+      <c r="S53" t="n">
+        <v>8</v>
+      </c>
+      <c r="T53" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="U53" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="V53" t="n">
+        <v>4.6</v>
+      </c>
+      <c r="W53" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="X53" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="Y53" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="Z53" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="AA53" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="AB53" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="AC53" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AD53" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="AE53" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="AF53" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="AG53" t="n">
+        <v>10</v>
+      </c>
+      <c r="AH53" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AI53" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="AJ53" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="AK53" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="AL53" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="AM53" t="n">
+        <v>2</v>
+      </c>
+      <c r="AN53" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="AO53" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AP53" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="AQ53" t="n">
+        <v>1</v>
+      </c>
+      <c r="AR53" t="n">
+        <v>0.33</v>
+      </c>
+      <c r="AS53" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AT53" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="AU53" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="AV53" t="n">
+        <v>0.96</v>
+      </c>
+      <c r="AW53" t="n">
+        <v>2.27</v>
+      </c>
+      <c r="AX53" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="AY53" t="n">
+        <v>9</v>
+      </c>
+      <c r="AZ53" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="BA53" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="BB53" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="BC53" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="BD53" t="n">
+        <v>2.14</v>
+      </c>
+      <c r="BE53" t="n">
+        <v>2.34</v>
+      </c>
+      <c r="BF53" t="n">
+        <v>4</v>
+      </c>
+      <c r="BG53" t="n">
+        <v>0</v>
+      </c>
+      <c r="BH53" t="n">
+        <v>11</v>
+      </c>
+      <c r="BI53" t="n">
+        <v>4</v>
+      </c>
+      <c r="BJ53" t="n">
+        <v>15</v>
+      </c>
+      <c r="BK53" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="1" t="n">
+        <v>53</v>
+      </c>
+      <c r="B54" t="n">
+        <v>4869423</v>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>Norway Eliteserien</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E54" s="2" t="n">
+        <v>45062.54166666666</v>
+      </c>
+      <c r="F54" t="n">
+        <v>7</v>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>Strømsgodset</t>
+        </is>
+      </c>
+      <c r="H54" t="inlineStr">
+        <is>
+          <t>Sandefjord</t>
+        </is>
+      </c>
+      <c r="I54" t="n">
+        <v>1</v>
+      </c>
+      <c r="J54" t="n">
+        <v>0</v>
+      </c>
+      <c r="K54" t="n">
+        <v>1</v>
+      </c>
+      <c r="L54" t="n">
+        <v>1</v>
+      </c>
+      <c r="M54" t="n">
+        <v>0</v>
+      </c>
+      <c r="N54" t="n">
+        <v>1</v>
+      </c>
+      <c r="O54" t="inlineStr">
+        <is>
+          <t>['42']</t>
+        </is>
+      </c>
+      <c r="P54" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q54" t="n">
+        <v>7</v>
+      </c>
+      <c r="R54" t="n">
+        <v>7</v>
+      </c>
+      <c r="S54" t="n">
+        <v>14</v>
+      </c>
+      <c r="T54" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="U54" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="V54" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="W54" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="X54" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="Y54" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="Z54" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AA54" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="AB54" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="AC54" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AD54" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="AE54" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="AF54" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AG54" t="n">
+        <v>9</v>
+      </c>
+      <c r="AH54" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AI54" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="AJ54" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="AK54" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="AL54" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AM54" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AN54" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AO54" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="AP54" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AQ54" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AR54" t="n">
+        <v>0.67</v>
+      </c>
+      <c r="AS54" t="n">
+        <v>2</v>
+      </c>
+      <c r="AT54" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="AU54" t="n">
+        <v>1.54</v>
+      </c>
+      <c r="AV54" t="n">
+        <v>0.83</v>
+      </c>
+      <c r="AW54" t="n">
+        <v>2.37</v>
+      </c>
+      <c r="AX54" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AY54" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AZ54" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="BA54" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="BB54" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="BC54" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="BD54" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="BE54" t="n">
+        <v>2.17</v>
+      </c>
+      <c r="BF54" t="n">
+        <v>5</v>
+      </c>
+      <c r="BG54" t="n">
+        <v>5</v>
+      </c>
+      <c r="BH54" t="n">
+        <v>18</v>
+      </c>
+      <c r="BI54" t="n">
+        <v>13</v>
+      </c>
+      <c r="BJ54" t="n">
+        <v>23</v>
+      </c>
+      <c r="BK54" t="n">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="1" t="n">
+        <v>54</v>
+      </c>
+      <c r="B55" t="n">
+        <v>4869424</v>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>Norway Eliteserien</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E55" s="2" t="n">
+        <v>45062.54166666666</v>
+      </c>
+      <c r="F55" t="n">
+        <v>7</v>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>Tromsø</t>
+        </is>
+      </c>
+      <c r="H55" t="inlineStr">
+        <is>
+          <t>FK Bodo - Glimt</t>
+        </is>
+      </c>
+      <c r="I55" t="n">
+        <v>1</v>
+      </c>
+      <c r="J55" t="n">
+        <v>2</v>
+      </c>
+      <c r="K55" t="n">
+        <v>3</v>
+      </c>
+      <c r="L55" t="n">
+        <v>2</v>
+      </c>
+      <c r="M55" t="n">
+        <v>3</v>
+      </c>
+      <c r="N55" t="n">
+        <v>5</v>
+      </c>
+      <c r="O55" t="inlineStr">
+        <is>
+          <t>['2', '60']</t>
+        </is>
+      </c>
+      <c r="P55" t="inlineStr">
+        <is>
+          <t>['4', '25', '57']</t>
+        </is>
+      </c>
+      <c r="Q55" t="n">
+        <v>3</v>
+      </c>
+      <c r="R55" t="n">
+        <v>5</v>
+      </c>
+      <c r="S55" t="n">
+        <v>8</v>
+      </c>
+      <c r="T55" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="U55" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="V55" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="W55" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="X55" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="Y55" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="Z55" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="AA55" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="AB55" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="AC55" t="n">
+        <v>4</v>
+      </c>
+      <c r="AD55" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="AE55" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AF55" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AG55" t="n">
+        <v>9</v>
+      </c>
+      <c r="AH55" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AI55" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="AJ55" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="AK55" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="AL55" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="AM55" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="AN55" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AO55" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AP55" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AQ55" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AR55" t="n">
+        <v>3</v>
+      </c>
+      <c r="AS55" t="n">
+        <v>1</v>
+      </c>
+      <c r="AT55" t="n">
+        <v>3</v>
+      </c>
+      <c r="AU55" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="AV55" t="n">
+        <v>1.99</v>
+      </c>
+      <c r="AW55" t="n">
+        <v>3.08</v>
+      </c>
+      <c r="AX55" t="n">
+        <v>4</v>
+      </c>
+      <c r="AY55" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AZ55" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="BA55" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="BB55" t="n">
+        <v>1.51</v>
+      </c>
+      <c r="BC55" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="BD55" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="BE55" t="n">
+        <v>2.98</v>
+      </c>
+      <c r="BF55" t="n">
+        <v>7</v>
+      </c>
+      <c r="BG55" t="n">
+        <v>8</v>
+      </c>
+      <c r="BH55" t="n">
+        <v>4</v>
+      </c>
+      <c r="BI55" t="n">
+        <v>12</v>
+      </c>
+      <c r="BJ55" t="n">
+        <v>11</v>
+      </c>
+      <c r="BK55" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="1" t="n">
+        <v>55</v>
+      </c>
+      <c r="B56" t="n">
+        <v>4869425</v>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>Norway Eliteserien</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E56" s="2" t="n">
+        <v>45062.54166666666</v>
+      </c>
+      <c r="F56" t="n">
+        <v>7</v>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>Viking</t>
+        </is>
+      </c>
+      <c r="H56" t="inlineStr">
+        <is>
+          <t>Odd</t>
+        </is>
+      </c>
+      <c r="I56" t="n">
+        <v>0</v>
+      </c>
+      <c r="J56" t="n">
+        <v>2</v>
+      </c>
+      <c r="K56" t="n">
+        <v>2</v>
+      </c>
+      <c r="L56" t="n">
+        <v>3</v>
+      </c>
+      <c r="M56" t="n">
+        <v>2</v>
+      </c>
+      <c r="N56" t="n">
+        <v>5</v>
+      </c>
+      <c r="O56" t="inlineStr">
+        <is>
+          <t>['62', '81', '87']</t>
+        </is>
+      </c>
+      <c r="P56" t="inlineStr">
+        <is>
+          <t>['10', '45+3']</t>
+        </is>
+      </c>
+      <c r="Q56" t="n">
+        <v>6</v>
+      </c>
+      <c r="R56" t="n">
+        <v>2</v>
+      </c>
+      <c r="S56" t="n">
+        <v>8</v>
+      </c>
+      <c r="T56" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="U56" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="V56" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="W56" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="X56" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="Y56" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="Z56" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="AA56" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="AB56" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="AC56" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="AD56" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="AE56" t="n">
+        <v>4</v>
+      </c>
+      <c r="AF56" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AG56" t="n">
+        <v>9</v>
+      </c>
+      <c r="AH56" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AI56" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="AJ56" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="AK56" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="AL56" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="AM56" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="AN56" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AO56" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AP56" t="n">
+        <v>2</v>
+      </c>
+      <c r="AQ56" t="n">
+        <v>2.33</v>
+      </c>
+      <c r="AR56" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AS56" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="AT56" t="n">
+        <v>1</v>
+      </c>
+      <c r="AU56" t="n">
+        <v>1.97</v>
+      </c>
+      <c r="AV56" t="n">
+        <v>0.98</v>
+      </c>
+      <c r="AW56" t="n">
+        <v>2.95</v>
+      </c>
+      <c r="AX56" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="AY56" t="n">
+        <v>8</v>
+      </c>
+      <c r="AZ56" t="n">
+        <v>4</v>
+      </c>
+      <c r="BA56" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="BB56" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="BC56" t="n">
+        <v>1.56</v>
+      </c>
+      <c r="BD56" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="BE56" t="n">
+        <v>2.31</v>
+      </c>
+      <c r="BF56" t="n">
+        <v>9</v>
+      </c>
+      <c r="BG56" t="n">
+        <v>5</v>
+      </c>
+      <c r="BH56" t="n">
+        <v>8</v>
+      </c>
+      <c r="BI56" t="n">
+        <v>2</v>
+      </c>
+      <c r="BJ56" t="n">
+        <v>17</v>
+      </c>
+      <c r="BK56" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="1" t="n">
+        <v>56</v>
+      </c>
+      <c r="B57" t="n">
+        <v>4869426</v>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>Norway Eliteserien</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E57" s="2" t="n">
+        <v>45062.54166666666</v>
+      </c>
+      <c r="F57" t="n">
+        <v>7</v>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>Vålerenga</t>
+        </is>
+      </c>
+      <c r="H57" t="inlineStr">
+        <is>
+          <t>HamKam</t>
+        </is>
+      </c>
+      <c r="I57" t="n">
+        <v>3</v>
+      </c>
+      <c r="J57" t="n">
+        <v>0</v>
+      </c>
+      <c r="K57" t="n">
+        <v>3</v>
+      </c>
+      <c r="L57" t="n">
+        <v>3</v>
+      </c>
+      <c r="M57" t="n">
+        <v>0</v>
+      </c>
+      <c r="N57" t="n">
+        <v>3</v>
+      </c>
+      <c r="O57" t="inlineStr">
+        <is>
+          <t>['18', '24', '45+2']</t>
+        </is>
+      </c>
+      <c r="P57" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q57" t="n">
+        <v>10</v>
+      </c>
+      <c r="R57" t="n">
+        <v>3</v>
+      </c>
+      <c r="S57" t="n">
+        <v>13</v>
+      </c>
+      <c r="T57" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="U57" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="V57" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="W57" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="X57" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="Y57" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="Z57" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="AA57" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="AB57" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="AC57" t="n">
+        <v>1.61</v>
+      </c>
+      <c r="AD57" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="AE57" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="AF57" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AG57" t="n">
+        <v>9</v>
+      </c>
+      <c r="AH57" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AI57" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="AJ57" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AK57" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="AL57" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="AM57" t="n">
+        <v>2</v>
+      </c>
+      <c r="AN57" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="AO57" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AP57" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AQ57" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR57" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS57" t="n">
+        <v>1</v>
+      </c>
+      <c r="AT57" t="n">
+        <v>0</v>
+      </c>
+      <c r="AU57" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="AV57" t="n">
+        <v>1.56</v>
+      </c>
+      <c r="AW57" t="n">
+        <v>2.94</v>
+      </c>
+      <c r="AX57" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="AY57" t="n">
+        <v>8</v>
+      </c>
+      <c r="AZ57" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="BA57" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="BB57" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="BC57" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="BD57" t="n">
+        <v>1.84</v>
+      </c>
+      <c r="BE57" t="n">
+        <v>2.24</v>
+      </c>
+      <c r="BF57" t="n">
+        <v>11</v>
+      </c>
+      <c r="BG57" t="n">
+        <v>2</v>
+      </c>
+      <c r="BH57" t="n">
+        <v>8</v>
+      </c>
+      <c r="BI57" t="n">
+        <v>7</v>
+      </c>
+      <c r="BJ57" t="n">
+        <v>19</v>
+      </c>
+      <c r="BK57" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="1" t="n">
+        <v>57</v>
+      </c>
+      <c r="B58" t="n">
+        <v>4869419</v>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>Norway Eliteserien</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E58" s="2" t="n">
+        <v>45062.54166666666</v>
+      </c>
+      <c r="F58" t="n">
+        <v>7</v>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>Aalesund</t>
+        </is>
+      </c>
+      <c r="H58" t="inlineStr">
+        <is>
+          <t>Molde</t>
+        </is>
+      </c>
+      <c r="I58" t="n">
+        <v>1</v>
+      </c>
+      <c r="J58" t="n">
+        <v>0</v>
+      </c>
+      <c r="K58" t="n">
+        <v>1</v>
+      </c>
+      <c r="L58" t="n">
+        <v>3</v>
+      </c>
+      <c r="M58" t="n">
+        <v>1</v>
+      </c>
+      <c r="N58" t="n">
+        <v>4</v>
+      </c>
+      <c r="O58" t="inlineStr">
+        <is>
+          <t>['40', '57', '61']</t>
+        </is>
+      </c>
+      <c r="P58" t="inlineStr">
+        <is>
+          <t>['90']</t>
+        </is>
+      </c>
+      <c r="Q58" t="n">
+        <v>5</v>
+      </c>
+      <c r="R58" t="n">
+        <v>11</v>
+      </c>
+      <c r="S58" t="n">
+        <v>16</v>
+      </c>
+      <c r="T58" t="n">
+        <v>5</v>
+      </c>
+      <c r="U58" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="V58" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="W58" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="X58" t="n">
+        <v>3</v>
+      </c>
+      <c r="Y58" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="Z58" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AA58" t="n">
+        <v>6</v>
+      </c>
+      <c r="AB58" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="AC58" t="n">
+        <v>5</v>
+      </c>
+      <c r="AD58" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="AE58" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="AF58" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="AG58" t="n">
+        <v>10</v>
+      </c>
+      <c r="AH58" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AI58" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="AJ58" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="AK58" t="n">
+        <v>2</v>
+      </c>
+      <c r="AL58" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="AM58" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="AN58" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="AO58" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AP58" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="AQ58" t="n">
+        <v>0.33</v>
+      </c>
+      <c r="AR58" t="n">
+        <v>1</v>
+      </c>
+      <c r="AS58" t="n">
+        <v>1</v>
+      </c>
+      <c r="AT58" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="AU58" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="AV58" t="n">
+        <v>1.61</v>
+      </c>
+      <c r="AW58" t="n">
+        <v>2.68</v>
+      </c>
+      <c r="AX58" t="n">
+        <v>4</v>
+      </c>
+      <c r="AY58" t="n">
+        <v>8</v>
+      </c>
+      <c r="AZ58" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="BA58" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="BB58" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="BC58" t="n">
+        <v>1.69</v>
+      </c>
+      <c r="BD58" t="n">
+        <v>2.08</v>
+      </c>
+      <c r="BE58" t="n">
+        <v>2.41</v>
+      </c>
+      <c r="BF58" t="n">
+        <v>8</v>
+      </c>
+      <c r="BG58" t="n">
+        <v>9</v>
+      </c>
+      <c r="BH58" t="n">
+        <v>6</v>
+      </c>
+      <c r="BI58" t="n">
+        <v>10</v>
+      </c>
+      <c r="BJ58" t="n">
+        <v>14</v>
+      </c>
+      <c r="BK58" t="n">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="1" t="n">
+        <v>58</v>
+      </c>
+      <c r="B59" t="n">
+        <v>4869421</v>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>Norway Eliteserien</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E59" s="2" t="n">
+        <v>45062.54166666666</v>
+      </c>
+      <c r="F59" t="n">
+        <v>7</v>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>Lillestrøm</t>
+        </is>
+      </c>
+      <c r="H59" t="inlineStr">
+        <is>
+          <t>Sarpsborg 08</t>
+        </is>
+      </c>
+      <c r="I59" t="n">
+        <v>0</v>
+      </c>
+      <c r="J59" t="n">
+        <v>0</v>
+      </c>
+      <c r="K59" t="n">
+        <v>0</v>
+      </c>
+      <c r="L59" t="n">
+        <v>1</v>
+      </c>
+      <c r="M59" t="n">
+        <v>2</v>
+      </c>
+      <c r="N59" t="n">
+        <v>3</v>
+      </c>
+      <c r="O59" t="inlineStr">
+        <is>
+          <t>['90+4']</t>
+        </is>
+      </c>
+      <c r="P59" t="inlineStr">
+        <is>
+          <t>['47', '54']</t>
+        </is>
+      </c>
+      <c r="Q59" t="n">
+        <v>6</v>
+      </c>
+      <c r="R59" t="n">
+        <v>7</v>
+      </c>
+      <c r="S59" t="n">
+        <v>13</v>
+      </c>
+      <c r="T59" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="U59" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="V59" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="W59" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="X59" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="Y59" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="Z59" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AA59" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="AB59" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="AC59" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AD59" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="AE59" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="AF59" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AG59" t="n">
+        <v>9</v>
+      </c>
+      <c r="AH59" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AI59" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="AJ59" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="AK59" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="AL59" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AM59" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AN59" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AO59" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="AP59" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AQ59" t="n">
+        <v>2</v>
+      </c>
+      <c r="AR59" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AS59" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AT59" t="n">
+        <v>2</v>
+      </c>
+      <c r="AU59" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="AV59" t="n">
+        <v>1.86</v>
+      </c>
+      <c r="AW59" t="n">
+        <v>3.44</v>
+      </c>
+      <c r="AX59" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="AY59" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AZ59" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="BA59" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="BB59" t="n">
+        <v>1.16</v>
+      </c>
+      <c r="BC59" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="BD59" t="n">
+        <v>1.61</v>
+      </c>
+      <c r="BE59" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="BF59" t="n">
+        <v>7</v>
+      </c>
+      <c r="BG59" t="n">
+        <v>11</v>
+      </c>
+      <c r="BH59" t="n">
+        <v>15</v>
+      </c>
+      <c r="BI59" t="n">
+        <v>14</v>
+      </c>
+      <c r="BJ59" t="n">
+        <v>22</v>
+      </c>
+      <c r="BK59" t="n">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="1" t="n">
+        <v>59</v>
+      </c>
+      <c r="B60" t="n">
+        <v>4869420</v>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>Norway Eliteserien</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E60" s="2" t="n">
+        <v>45062.54166666666</v>
+      </c>
+      <c r="F60" t="n">
+        <v>7</v>
+      </c>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>Brann</t>
+        </is>
+      </c>
+      <c r="H60" t="inlineStr">
+        <is>
+          <t>Stabæk</t>
+        </is>
+      </c>
+      <c r="I60" t="n">
+        <v>2</v>
+      </c>
+      <c r="J60" t="n">
+        <v>1</v>
+      </c>
+      <c r="K60" t="n">
+        <v>3</v>
+      </c>
+      <c r="L60" t="n">
+        <v>4</v>
+      </c>
+      <c r="M60" t="n">
+        <v>1</v>
+      </c>
+      <c r="N60" t="n">
+        <v>5</v>
+      </c>
+      <c r="O60" t="inlineStr">
+        <is>
+          <t>['30', '36', '63', '77']</t>
+        </is>
+      </c>
+      <c r="P60" t="inlineStr">
+        <is>
+          <t>['35']</t>
+        </is>
+      </c>
+      <c r="Q60" t="n">
+        <v>6</v>
+      </c>
+      <c r="R60" t="n">
+        <v>7</v>
+      </c>
+      <c r="S60" t="n">
+        <v>13</v>
+      </c>
+      <c r="T60" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="U60" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="V60" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="W60" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="X60" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="Y60" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="Z60" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AA60" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="AB60" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="AC60" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AD60" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="AE60" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AF60" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="AG60" t="n">
+        <v>11</v>
+      </c>
+      <c r="AH60" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AI60" t="n">
+        <v>4</v>
+      </c>
+      <c r="AJ60" t="n">
+        <v>1.61</v>
+      </c>
+      <c r="AK60" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="AL60" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="AM60" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AN60" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AO60" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="AP60" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="AQ60" t="n">
+        <v>2.33</v>
+      </c>
+      <c r="AR60" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AS60" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="AT60" t="n">
+        <v>1</v>
+      </c>
+      <c r="AU60" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="AV60" t="n">
+        <v>0.91</v>
+      </c>
+      <c r="AW60" t="n">
+        <v>3.21</v>
+      </c>
+      <c r="AX60" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="AY60" t="n">
+        <v>13</v>
+      </c>
+      <c r="AZ60" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="BA60" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="BB60" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="BC60" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="BD60" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="BE60" t="n">
+        <v>2.33</v>
+      </c>
+      <c r="BF60" t="n">
+        <v>5</v>
+      </c>
+      <c r="BG60" t="n">
+        <v>3</v>
+      </c>
+      <c r="BH60" t="n">
+        <v>6</v>
+      </c>
+      <c r="BI60" t="n">
+        <v>6</v>
+      </c>
+      <c r="BJ60" t="n">
+        <v>11</v>
+      </c>
+      <c r="BK60" t="n">
+        <v>9</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2023)/Norway Eliteserien_2023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Norway Eliteserien_2023.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BK60"/>
+  <dimension ref="A1:BK68"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -903,7 +903,7 @@
         <v>1.4</v>
       </c>
       <c r="AT2" t="n">
-        <v>1.33</v>
+        <v>1</v>
       </c>
       <c r="AU2" t="n">
         <v>0</v>
@@ -1106,7 +1106,7 @@
         <v>1</v>
       </c>
       <c r="AT3" t="n">
-        <v>1.75</v>
+        <v>1.4</v>
       </c>
       <c r="AU3" t="n">
         <v>0</v>
@@ -1306,10 +1306,10 @@
         <v>0</v>
       </c>
       <c r="AS4" t="n">
-        <v>1.5</v>
+        <v>1.4</v>
       </c>
       <c r="AT4" t="n">
-        <v>0.5</v>
+        <v>0.4</v>
       </c>
       <c r="AU4" t="n">
         <v>0</v>
@@ -1509,7 +1509,7 @@
         <v>0</v>
       </c>
       <c r="AS5" t="n">
-        <v>1.33</v>
+        <v>1.75</v>
       </c>
       <c r="AT5" t="n">
         <v>3</v>
@@ -1712,7 +1712,7 @@
         <v>0</v>
       </c>
       <c r="AS6" t="n">
-        <v>2</v>
+        <v>2.2</v>
       </c>
       <c r="AT6" t="n">
         <v>1</v>
@@ -2118,7 +2118,7 @@
         <v>0</v>
       </c>
       <c r="AS8" t="n">
-        <v>2.5</v>
+        <v>2.6</v>
       </c>
       <c r="AT8" t="n">
         <v>0.25</v>
@@ -2324,7 +2324,7 @@
         <v>2.5</v>
       </c>
       <c r="AT9" t="n">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="AU9" t="n">
         <v>0</v>
@@ -2524,7 +2524,7 @@
         <v>0</v>
       </c>
       <c r="AS10" t="n">
-        <v>2.5</v>
+        <v>2.6</v>
       </c>
       <c r="AT10" t="n">
         <v>1</v>
@@ -2727,7 +2727,7 @@
         <v>0</v>
       </c>
       <c r="AS11" t="n">
-        <v>1.67</v>
+        <v>1.25</v>
       </c>
       <c r="AT11" t="n">
         <v>0</v>
@@ -2930,10 +2930,10 @@
         <v>0</v>
       </c>
       <c r="AS12" t="n">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="AT12" t="n">
-        <v>0.67</v>
+        <v>0.5</v>
       </c>
       <c r="AU12" t="n">
         <v>0</v>
@@ -3133,7 +3133,7 @@
         <v>0</v>
       </c>
       <c r="AS13" t="n">
-        <v>1.33</v>
+        <v>1.25</v>
       </c>
       <c r="AT13" t="n">
         <v>1</v>
@@ -3339,7 +3339,7 @@
         <v>1.33</v>
       </c>
       <c r="AT14" t="n">
-        <v>2.33</v>
+        <v>2.5</v>
       </c>
       <c r="AU14" t="n">
         <v>0</v>
@@ -3948,7 +3948,7 @@
         <v>1.5</v>
       </c>
       <c r="AT17" t="n">
-        <v>0.25</v>
+        <v>0.4</v>
       </c>
       <c r="AU17" t="n">
         <v>0</v>
@@ -4148,10 +4148,10 @@
         <v>3</v>
       </c>
       <c r="AS18" t="n">
-        <v>2.5</v>
+        <v>2.6</v>
       </c>
       <c r="AT18" t="n">
-        <v>1.75</v>
+        <v>1.4</v>
       </c>
       <c r="AU18" t="n">
         <v>2.05</v>
@@ -4554,10 +4554,10 @@
         <v>0</v>
       </c>
       <c r="AS20" t="n">
-        <v>1.5</v>
+        <v>1.4</v>
       </c>
       <c r="AT20" t="n">
-        <v>0.25</v>
+        <v>0.4</v>
       </c>
       <c r="AU20" t="n">
         <v>1.35</v>
@@ -4760,7 +4760,7 @@
         <v>1.4</v>
       </c>
       <c r="AT21" t="n">
-        <v>0.5</v>
+        <v>0.4</v>
       </c>
       <c r="AU21" t="n">
         <v>0.9399999999999999</v>
@@ -4960,7 +4960,7 @@
         <v>1</v>
       </c>
       <c r="AS22" t="n">
-        <v>1.33</v>
+        <v>1.75</v>
       </c>
       <c r="AT22" t="n">
         <v>1</v>
@@ -5163,7 +5163,7 @@
         <v>0</v>
       </c>
       <c r="AS23" t="n">
-        <v>2</v>
+        <v>2.2</v>
       </c>
       <c r="AT23" t="n">
         <v>0.25</v>
@@ -5369,7 +5369,7 @@
         <v>1</v>
       </c>
       <c r="AT24" t="n">
-        <v>1.33</v>
+        <v>1</v>
       </c>
       <c r="AU24" t="n">
         <v>0.65</v>
@@ -5772,7 +5772,7 @@
         <v>0</v>
       </c>
       <c r="AS26" t="n">
-        <v>2.5</v>
+        <v>2.6</v>
       </c>
       <c r="AT26" t="n">
         <v>1</v>
@@ -6181,7 +6181,7 @@
         <v>2</v>
       </c>
       <c r="AT28" t="n">
-        <v>2.33</v>
+        <v>2.5</v>
       </c>
       <c r="AU28" t="n">
         <v>1.16</v>
@@ -6381,7 +6381,7 @@
         <v>3</v>
       </c>
       <c r="AS29" t="n">
-        <v>1.67</v>
+        <v>1.25</v>
       </c>
       <c r="AT29" t="n">
         <v>2</v>
@@ -6584,7 +6584,7 @@
         <v>0</v>
       </c>
       <c r="AS30" t="n">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="AT30" t="n">
         <v>1</v>
@@ -6990,10 +6990,10 @@
         <v>1</v>
       </c>
       <c r="AS32" t="n">
-        <v>1.33</v>
+        <v>1.25</v>
       </c>
       <c r="AT32" t="n">
-        <v>0.67</v>
+        <v>0.5</v>
       </c>
       <c r="AU32" t="n">
         <v>1.3</v>
@@ -7196,7 +7196,7 @@
         <v>1</v>
       </c>
       <c r="AT33" t="n">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="AU33" t="n">
         <v>1.55</v>
@@ -7599,7 +7599,7 @@
         <v>1</v>
       </c>
       <c r="AS35" t="n">
-        <v>2.5</v>
+        <v>2.6</v>
       </c>
       <c r="AT35" t="n">
         <v>1</v>
@@ -7802,7 +7802,7 @@
         <v>0</v>
       </c>
       <c r="AS36" t="n">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="AT36" t="n">
         <v>0</v>
@@ -8008,7 +8008,7 @@
         <v>1.4</v>
       </c>
       <c r="AT37" t="n">
-        <v>1.75</v>
+        <v>1.4</v>
       </c>
       <c r="AU37" t="n">
         <v>1.4</v>
@@ -8208,7 +8208,7 @@
         <v>2</v>
       </c>
       <c r="AS38" t="n">
-        <v>2</v>
+        <v>2.2</v>
       </c>
       <c r="AT38" t="n">
         <v>2</v>
@@ -8411,7 +8411,7 @@
         <v>0</v>
       </c>
       <c r="AS39" t="n">
-        <v>1.5</v>
+        <v>1.4</v>
       </c>
       <c r="AT39" t="n">
         <v>0.75</v>
@@ -9023,7 +9023,7 @@
         <v>2.5</v>
       </c>
       <c r="AT42" t="n">
-        <v>0.25</v>
+        <v>0.4</v>
       </c>
       <c r="AU42" t="n">
         <v>1.99</v>
@@ -9426,10 +9426,10 @@
         <v>0.5</v>
       </c>
       <c r="AS44" t="n">
-        <v>2.5</v>
+        <v>2.6</v>
       </c>
       <c r="AT44" t="n">
-        <v>0.5</v>
+        <v>0.4</v>
       </c>
       <c r="AU44" t="n">
         <v>1.99</v>
@@ -9629,10 +9629,10 @@
         <v>1.5</v>
       </c>
       <c r="AS45" t="n">
-        <v>1.33</v>
+        <v>1.25</v>
       </c>
       <c r="AT45" t="n">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="AU45" t="n">
         <v>1.07</v>
@@ -9832,10 +9832,10 @@
         <v>1</v>
       </c>
       <c r="AS46" t="n">
-        <v>2.5</v>
+        <v>2.6</v>
       </c>
       <c r="AT46" t="n">
-        <v>0.67</v>
+        <v>0.5</v>
       </c>
       <c r="AU46" t="n">
         <v>1.66</v>
@@ -10035,10 +10035,10 @@
         <v>2</v>
       </c>
       <c r="AS47" t="n">
-        <v>1.5</v>
+        <v>1.4</v>
       </c>
       <c r="AT47" t="n">
-        <v>2.33</v>
+        <v>2.5</v>
       </c>
       <c r="AU47" t="n">
         <v>1.39</v>
@@ -10238,10 +10238,10 @@
         <v>0.33</v>
       </c>
       <c r="AS48" t="n">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="AT48" t="n">
-        <v>0.25</v>
+        <v>0.4</v>
       </c>
       <c r="AU48" t="n">
         <v>1.76</v>
@@ -10444,7 +10444,7 @@
         <v>1.33</v>
       </c>
       <c r="AT49" t="n">
-        <v>1.33</v>
+        <v>1</v>
       </c>
       <c r="AU49" t="n">
         <v>1.41</v>
@@ -10644,7 +10644,7 @@
         <v>1.33</v>
       </c>
       <c r="AS50" t="n">
-        <v>1.33</v>
+        <v>1.75</v>
       </c>
       <c r="AT50" t="n">
         <v>1</v>
@@ -10847,7 +10847,7 @@
         <v>0</v>
       </c>
       <c r="AS51" t="n">
-        <v>2</v>
+        <v>2.2</v>
       </c>
       <c r="AT51" t="n">
         <v>0</v>
@@ -11050,10 +11050,10 @@
         <v>2</v>
       </c>
       <c r="AS52" t="n">
-        <v>1.67</v>
+        <v>1.25</v>
       </c>
       <c r="AT52" t="n">
-        <v>1.75</v>
+        <v>1.4</v>
       </c>
       <c r="AU52" t="n">
         <v>0.97</v>
@@ -11459,7 +11459,7 @@
         <v>2</v>
       </c>
       <c r="AT54" t="n">
-        <v>0.5</v>
+        <v>0.4</v>
       </c>
       <c r="AU54" t="n">
         <v>1.54</v>
@@ -12674,7 +12674,7 @@
         <v>1.5</v>
       </c>
       <c r="AS60" t="n">
-        <v>2.5</v>
+        <v>2.6</v>
       </c>
       <c r="AT60" t="n">
         <v>1</v>
@@ -12729,6 +12729,1630 @@
       </c>
       <c r="BK60" t="n">
         <v>9</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="1" t="n">
+        <v>60</v>
+      </c>
+      <c r="B61" t="n">
+        <v>4869432</v>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>Norway Eliteserien</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E61" s="2" t="n">
+        <v>45075.5</v>
+      </c>
+      <c r="F61" t="n">
+        <v>8</v>
+      </c>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>Sarpsborg 08</t>
+        </is>
+      </c>
+      <c r="H61" t="inlineStr">
+        <is>
+          <t>Aalesund</t>
+        </is>
+      </c>
+      <c r="I61" t="n">
+        <v>2</v>
+      </c>
+      <c r="J61" t="n">
+        <v>1</v>
+      </c>
+      <c r="K61" t="n">
+        <v>3</v>
+      </c>
+      <c r="L61" t="n">
+        <v>3</v>
+      </c>
+      <c r="M61" t="n">
+        <v>1</v>
+      </c>
+      <c r="N61" t="n">
+        <v>4</v>
+      </c>
+      <c r="O61" t="inlineStr">
+        <is>
+          <t>['19', '36', '68']</t>
+        </is>
+      </c>
+      <c r="P61" t="inlineStr">
+        <is>
+          <t>['39']</t>
+        </is>
+      </c>
+      <c r="Q61" t="n">
+        <v>11</v>
+      </c>
+      <c r="R61" t="n">
+        <v>4</v>
+      </c>
+      <c r="S61" t="n">
+        <v>15</v>
+      </c>
+      <c r="T61" t="n">
+        <v>2</v>
+      </c>
+      <c r="U61" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="V61" t="n">
+        <v>6</v>
+      </c>
+      <c r="W61" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="X61" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="Y61" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="Z61" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AA61" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AB61" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="AC61" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="AD61" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="AE61" t="n">
+        <v>5.8</v>
+      </c>
+      <c r="AF61" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="AG61" t="n">
+        <v>13</v>
+      </c>
+      <c r="AH61" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AI61" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="AJ61" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="AK61" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="AL61" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="AM61" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="AN61" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="AO61" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AP61" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="AQ61" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AR61" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS61" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AT61" t="n">
+        <v>0</v>
+      </c>
+      <c r="AU61" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="AV61" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AW61" t="n">
+        <v>2.34</v>
+      </c>
+      <c r="AX61" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AY61" t="n">
+        <v>11</v>
+      </c>
+      <c r="AZ61" t="n">
+        <v>3.54</v>
+      </c>
+      <c r="BA61" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="BB61" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="BC61" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="BD61" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="BE61" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="BF61" t="n">
+        <v>3</v>
+      </c>
+      <c r="BG61" t="n">
+        <v>0</v>
+      </c>
+      <c r="BH61" t="n">
+        <v>6</v>
+      </c>
+      <c r="BI61" t="n">
+        <v>3</v>
+      </c>
+      <c r="BJ61" t="n">
+        <v>9</v>
+      </c>
+      <c r="BK61" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="1" t="n">
+        <v>61</v>
+      </c>
+      <c r="B62" t="n">
+        <v>4869433</v>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>Norway Eliteserien</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E62" s="2" t="n">
+        <v>45075.5</v>
+      </c>
+      <c r="F62" t="n">
+        <v>8</v>
+      </c>
+      <c r="G62" t="inlineStr">
+        <is>
+          <t>Stabæk</t>
+        </is>
+      </c>
+      <c r="H62" t="inlineStr">
+        <is>
+          <t>Vålerenga</t>
+        </is>
+      </c>
+      <c r="I62" t="n">
+        <v>2</v>
+      </c>
+      <c r="J62" t="n">
+        <v>0</v>
+      </c>
+      <c r="K62" t="n">
+        <v>2</v>
+      </c>
+      <c r="L62" t="n">
+        <v>2</v>
+      </c>
+      <c r="M62" t="n">
+        <v>1</v>
+      </c>
+      <c r="N62" t="n">
+        <v>3</v>
+      </c>
+      <c r="O62" t="inlineStr">
+        <is>
+          <t>['8', '34']</t>
+        </is>
+      </c>
+      <c r="P62" t="inlineStr">
+        <is>
+          <t>['84']</t>
+        </is>
+      </c>
+      <c r="Q62" t="n">
+        <v>1</v>
+      </c>
+      <c r="R62" t="n">
+        <v>11</v>
+      </c>
+      <c r="S62" t="n">
+        <v>12</v>
+      </c>
+      <c r="T62" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="U62" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="V62" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="W62" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="X62" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="Y62" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="Z62" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AA62" t="n">
+        <v>8</v>
+      </c>
+      <c r="AB62" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="AC62" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="AD62" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="AE62" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="AF62" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AG62" t="n">
+        <v>10</v>
+      </c>
+      <c r="AH62" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="AI62" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="AJ62" t="n">
+        <v>1.96</v>
+      </c>
+      <c r="AK62" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="AL62" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AM62" t="n">
+        <v>2</v>
+      </c>
+      <c r="AN62" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="AO62" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="AP62" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="AQ62" t="n">
+        <v>2</v>
+      </c>
+      <c r="AR62" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AS62" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="AT62" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AU62" t="n">
+        <v>1.74</v>
+      </c>
+      <c r="AV62" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="AW62" t="n">
+        <v>2.87</v>
+      </c>
+      <c r="AX62" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AY62" t="n">
+        <v>8</v>
+      </c>
+      <c r="AZ62" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="BA62" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="BB62" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="BC62" t="n">
+        <v>1.63</v>
+      </c>
+      <c r="BD62" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="BE62" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="BF62" t="n">
+        <v>3</v>
+      </c>
+      <c r="BG62" t="n">
+        <v>5</v>
+      </c>
+      <c r="BH62" t="n">
+        <v>4</v>
+      </c>
+      <c r="BI62" t="n">
+        <v>2</v>
+      </c>
+      <c r="BJ62" t="n">
+        <v>7</v>
+      </c>
+      <c r="BK62" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="1" t="n">
+        <v>62</v>
+      </c>
+      <c r="B63" t="n">
+        <v>4869431</v>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>Norway Eliteserien</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E63" s="2" t="n">
+        <v>45075.5</v>
+      </c>
+      <c r="F63" t="n">
+        <v>8</v>
+      </c>
+      <c r="G63" t="inlineStr">
+        <is>
+          <t>Odd</t>
+        </is>
+      </c>
+      <c r="H63" t="inlineStr">
+        <is>
+          <t>Strømsgodset</t>
+        </is>
+      </c>
+      <c r="I63" t="n">
+        <v>0</v>
+      </c>
+      <c r="J63" t="n">
+        <v>0</v>
+      </c>
+      <c r="K63" t="n">
+        <v>0</v>
+      </c>
+      <c r="L63" t="n">
+        <v>1</v>
+      </c>
+      <c r="M63" t="n">
+        <v>1</v>
+      </c>
+      <c r="N63" t="n">
+        <v>2</v>
+      </c>
+      <c r="O63" t="inlineStr">
+        <is>
+          <t>['60']</t>
+        </is>
+      </c>
+      <c r="P63" t="inlineStr">
+        <is>
+          <t>['62']</t>
+        </is>
+      </c>
+      <c r="Q63" t="n">
+        <v>7</v>
+      </c>
+      <c r="R63" t="n">
+        <v>3</v>
+      </c>
+      <c r="S63" t="n">
+        <v>10</v>
+      </c>
+      <c r="T63" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="U63" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="V63" t="n">
+        <v>4</v>
+      </c>
+      <c r="W63" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="X63" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="Y63" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="Z63" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AA63" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AB63" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="AC63" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AD63" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="AE63" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="AF63" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="AG63" t="n">
+        <v>15</v>
+      </c>
+      <c r="AH63" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AI63" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="AJ63" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AK63" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AL63" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="AM63" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="AN63" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="AO63" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AP63" t="n">
+        <v>1.96</v>
+      </c>
+      <c r="AQ63" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AR63" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="AS63" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AT63" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="AU63" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AV63" t="n">
+        <v>1.16</v>
+      </c>
+      <c r="AW63" t="n">
+        <v>2.46</v>
+      </c>
+      <c r="AX63" t="n">
+        <v>1.66</v>
+      </c>
+      <c r="AY63" t="n">
+        <v>9.800000000000001</v>
+      </c>
+      <c r="AZ63" t="n">
+        <v>2.61</v>
+      </c>
+      <c r="BA63" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="BB63" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="BC63" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="BD63" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="BE63" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="BF63" t="n">
+        <v>0</v>
+      </c>
+      <c r="BG63" t="n">
+        <v>4</v>
+      </c>
+      <c r="BH63" t="n">
+        <v>4</v>
+      </c>
+      <c r="BI63" t="n">
+        <v>2</v>
+      </c>
+      <c r="BJ63" t="n">
+        <v>4</v>
+      </c>
+      <c r="BK63" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="1" t="n">
+        <v>63</v>
+      </c>
+      <c r="B64" t="n">
+        <v>4869429</v>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>Norway Eliteserien</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E64" s="2" t="n">
+        <v>45075.5</v>
+      </c>
+      <c r="F64" t="n">
+        <v>8</v>
+      </c>
+      <c r="G64" t="inlineStr">
+        <is>
+          <t>Haugesund</t>
+        </is>
+      </c>
+      <c r="H64" t="inlineStr">
+        <is>
+          <t>Tromsø</t>
+        </is>
+      </c>
+      <c r="I64" t="n">
+        <v>1</v>
+      </c>
+      <c r="J64" t="n">
+        <v>1</v>
+      </c>
+      <c r="K64" t="n">
+        <v>2</v>
+      </c>
+      <c r="L64" t="n">
+        <v>1</v>
+      </c>
+      <c r="M64" t="n">
+        <v>2</v>
+      </c>
+      <c r="N64" t="n">
+        <v>3</v>
+      </c>
+      <c r="O64" t="inlineStr">
+        <is>
+          <t>['32']</t>
+        </is>
+      </c>
+      <c r="P64" t="inlineStr">
+        <is>
+          <t>['18', '49']</t>
+        </is>
+      </c>
+      <c r="Q64" t="n">
+        <v>-1</v>
+      </c>
+      <c r="R64" t="n">
+        <v>-1</v>
+      </c>
+      <c r="S64" t="n">
+        <v>-1</v>
+      </c>
+      <c r="T64" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="U64" t="n">
+        <v>2</v>
+      </c>
+      <c r="V64" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="W64" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="X64" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="Y64" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="Z64" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AA64" t="n">
+        <v>10</v>
+      </c>
+      <c r="AB64" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AC64" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="AD64" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="AE64" t="n">
+        <v>3</v>
+      </c>
+      <c r="AF64" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="AG64" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AH64" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AI64" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="AJ64" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="AK64" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="AL64" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AM64" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AN64" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AO64" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AP64" t="n">
+        <v>1.63</v>
+      </c>
+      <c r="AQ64" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AR64" t="n">
+        <v>2.33</v>
+      </c>
+      <c r="AS64" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AT64" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="AU64" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="AV64" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="AW64" t="n">
+        <v>1.79</v>
+      </c>
+      <c r="AX64" t="n">
+        <v>1.82</v>
+      </c>
+      <c r="AY64" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AZ64" t="n">
+        <v>2.31</v>
+      </c>
+      <c r="BA64" t="n">
+        <v>1.16</v>
+      </c>
+      <c r="BB64" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="BC64" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="BD64" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="BE64" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="BF64" t="n">
+        <v>-1</v>
+      </c>
+      <c r="BG64" t="n">
+        <v>-1</v>
+      </c>
+      <c r="BH64" t="n">
+        <v>-1</v>
+      </c>
+      <c r="BI64" t="n">
+        <v>-1</v>
+      </c>
+      <c r="BJ64" t="n">
+        <v>-1</v>
+      </c>
+      <c r="BK64" t="n">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="1" t="n">
+        <v>64</v>
+      </c>
+      <c r="B65" t="n">
+        <v>4869427</v>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>Norway Eliteserien</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E65" s="2" t="n">
+        <v>45075.5</v>
+      </c>
+      <c r="F65" t="n">
+        <v>8</v>
+      </c>
+      <c r="G65" t="inlineStr">
+        <is>
+          <t>FK Bodo - Glimt</t>
+        </is>
+      </c>
+      <c r="H65" t="inlineStr">
+        <is>
+          <t>Viking</t>
+        </is>
+      </c>
+      <c r="I65" t="n">
+        <v>2</v>
+      </c>
+      <c r="J65" t="n">
+        <v>0</v>
+      </c>
+      <c r="K65" t="n">
+        <v>2</v>
+      </c>
+      <c r="L65" t="n">
+        <v>5</v>
+      </c>
+      <c r="M65" t="n">
+        <v>1</v>
+      </c>
+      <c r="N65" t="n">
+        <v>6</v>
+      </c>
+      <c r="O65" t="inlineStr">
+        <is>
+          <t>['18', '28', '88', '90+1', '90+5']</t>
+        </is>
+      </c>
+      <c r="P65" t="inlineStr">
+        <is>
+          <t>['78']</t>
+        </is>
+      </c>
+      <c r="Q65" t="n">
+        <v>-1</v>
+      </c>
+      <c r="R65" t="n">
+        <v>-1</v>
+      </c>
+      <c r="S65" t="n">
+        <v>-1</v>
+      </c>
+      <c r="T65" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="U65" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="V65" t="n">
+        <v>6</v>
+      </c>
+      <c r="W65" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="X65" t="n">
+        <v>4</v>
+      </c>
+      <c r="Y65" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="Z65" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AA65" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="AB65" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="AC65" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AD65" t="n">
+        <v>5</v>
+      </c>
+      <c r="AE65" t="n">
+        <v>7</v>
+      </c>
+      <c r="AF65" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="AG65" t="n">
+        <v>26</v>
+      </c>
+      <c r="AH65" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="AI65" t="n">
+        <v>6</v>
+      </c>
+      <c r="AJ65" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="AK65" t="n">
+        <v>2.85</v>
+      </c>
+      <c r="AL65" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="AM65" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="AN65" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="AO65" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="AP65" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="AQ65" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="AR65" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AS65" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="AT65" t="n">
+        <v>1</v>
+      </c>
+      <c r="AU65" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="AV65" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="AW65" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="AX65" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="AY65" t="n">
+        <v>11</v>
+      </c>
+      <c r="AZ65" t="n">
+        <v>4.74</v>
+      </c>
+      <c r="BA65" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="BB65" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="BC65" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="BD65" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="BE65" t="n">
+        <v>2.65</v>
+      </c>
+      <c r="BF65" t="n">
+        <v>-1</v>
+      </c>
+      <c r="BG65" t="n">
+        <v>-1</v>
+      </c>
+      <c r="BH65" t="n">
+        <v>-1</v>
+      </c>
+      <c r="BI65" t="n">
+        <v>-1</v>
+      </c>
+      <c r="BJ65" t="n">
+        <v>-1</v>
+      </c>
+      <c r="BK65" t="n">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="1" t="n">
+        <v>65</v>
+      </c>
+      <c r="B66" t="n">
+        <v>4869430</v>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>Norway Eliteserien</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E66" s="2" t="n">
+        <v>45075.5</v>
+      </c>
+      <c r="F66" t="n">
+        <v>8</v>
+      </c>
+      <c r="G66" t="inlineStr">
+        <is>
+          <t>Molde</t>
+        </is>
+      </c>
+      <c r="H66" t="inlineStr">
+        <is>
+          <t>Sandefjord</t>
+        </is>
+      </c>
+      <c r="I66" t="n">
+        <v>2</v>
+      </c>
+      <c r="J66" t="n">
+        <v>0</v>
+      </c>
+      <c r="K66" t="n">
+        <v>2</v>
+      </c>
+      <c r="L66" t="n">
+        <v>5</v>
+      </c>
+      <c r="M66" t="n">
+        <v>0</v>
+      </c>
+      <c r="N66" t="n">
+        <v>5</v>
+      </c>
+      <c r="O66" t="inlineStr">
+        <is>
+          <t>['18', '27', '49', '56', '66']</t>
+        </is>
+      </c>
+      <c r="P66" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q66" t="n">
+        <v>15</v>
+      </c>
+      <c r="R66" t="n">
+        <v>2</v>
+      </c>
+      <c r="S66" t="n">
+        <v>17</v>
+      </c>
+      <c r="T66" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="U66" t="n">
+        <v>3</v>
+      </c>
+      <c r="V66" t="n">
+        <v>9</v>
+      </c>
+      <c r="W66" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="X66" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="Y66" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="Z66" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AA66" t="n">
+        <v>4</v>
+      </c>
+      <c r="AB66" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AC66" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="AD66" t="n">
+        <v>7</v>
+      </c>
+      <c r="AE66" t="n">
+        <v>12</v>
+      </c>
+      <c r="AF66" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="AG66" t="n">
+        <v>26</v>
+      </c>
+      <c r="AH66" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="AI66" t="n">
+        <v>7</v>
+      </c>
+      <c r="AJ66" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AK66" t="n">
+        <v>3</v>
+      </c>
+      <c r="AL66" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="AM66" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="AN66" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="AO66" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="AP66" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="AQ66" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AR66" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="AS66" t="n">
+        <v>2</v>
+      </c>
+      <c r="AT66" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="AU66" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AV66" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AW66" t="n">
+        <v>2.81</v>
+      </c>
+      <c r="AX66" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="AY66" t="n">
+        <v>16</v>
+      </c>
+      <c r="AZ66" t="n">
+        <v>8.4</v>
+      </c>
+      <c r="BA66" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="BB66" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="BC66" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="BD66" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="BE66" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="BF66" t="n">
+        <v>6</v>
+      </c>
+      <c r="BG66" t="n">
+        <v>0</v>
+      </c>
+      <c r="BH66" t="n">
+        <v>5</v>
+      </c>
+      <c r="BI66" t="n">
+        <v>5</v>
+      </c>
+      <c r="BJ66" t="n">
+        <v>11</v>
+      </c>
+      <c r="BK66" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="1" t="n">
+        <v>66</v>
+      </c>
+      <c r="B67" t="n">
+        <v>4869428</v>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>Norway Eliteserien</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E67" s="2" t="n">
+        <v>45075.5</v>
+      </c>
+      <c r="F67" t="n">
+        <v>8</v>
+      </c>
+      <c r="G67" t="inlineStr">
+        <is>
+          <t>Brann</t>
+        </is>
+      </c>
+      <c r="H67" t="inlineStr">
+        <is>
+          <t>Rosenborg</t>
+        </is>
+      </c>
+      <c r="I67" t="n">
+        <v>1</v>
+      </c>
+      <c r="J67" t="n">
+        <v>0</v>
+      </c>
+      <c r="K67" t="n">
+        <v>1</v>
+      </c>
+      <c r="L67" t="n">
+        <v>3</v>
+      </c>
+      <c r="M67" t="n">
+        <v>1</v>
+      </c>
+      <c r="N67" t="n">
+        <v>4</v>
+      </c>
+      <c r="O67" t="inlineStr">
+        <is>
+          <t>['12', '51', '88']</t>
+        </is>
+      </c>
+      <c r="P67" t="inlineStr">
+        <is>
+          <t>['71']</t>
+        </is>
+      </c>
+      <c r="Q67" t="n">
+        <v>-1</v>
+      </c>
+      <c r="R67" t="n">
+        <v>-1</v>
+      </c>
+      <c r="S67" t="n">
+        <v>-1</v>
+      </c>
+      <c r="T67" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="U67" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="V67" t="n">
+        <v>7</v>
+      </c>
+      <c r="W67" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="X67" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="Y67" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="Z67" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AA67" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AB67" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="AC67" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AD67" t="n">
+        <v>4.6</v>
+      </c>
+      <c r="AE67" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AF67" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="AG67" t="n">
+        <v>13</v>
+      </c>
+      <c r="AH67" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="AI67" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="AJ67" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="AK67" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="AL67" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AM67" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AN67" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="AO67" t="n">
+        <v>1.16</v>
+      </c>
+      <c r="AP67" t="n">
+        <v>2.95</v>
+      </c>
+      <c r="AQ67" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="AR67" t="n">
+        <v>0.67</v>
+      </c>
+      <c r="AS67" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="AT67" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="AU67" t="n">
+        <v>2.11</v>
+      </c>
+      <c r="AV67" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="AW67" t="n">
+        <v>3.01</v>
+      </c>
+      <c r="AX67" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AY67" t="n">
+        <v>11</v>
+      </c>
+      <c r="AZ67" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="BA67" t="n">
+        <v>1.16</v>
+      </c>
+      <c r="BB67" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="BC67" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="BD67" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="BE67" t="n">
+        <v>2.37</v>
+      </c>
+      <c r="BF67" t="n">
+        <v>-1</v>
+      </c>
+      <c r="BG67" t="n">
+        <v>-1</v>
+      </c>
+      <c r="BH67" t="n">
+        <v>-1</v>
+      </c>
+      <c r="BI67" t="n">
+        <v>-1</v>
+      </c>
+      <c r="BJ67" t="n">
+        <v>-1</v>
+      </c>
+      <c r="BK67" t="n">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="1" t="n">
+        <v>67</v>
+      </c>
+      <c r="B68" t="n">
+        <v>4869434</v>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>Norway Eliteserien</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E68" s="2" t="n">
+        <v>45075.59375</v>
+      </c>
+      <c r="F68" t="n">
+        <v>8</v>
+      </c>
+      <c r="G68" t="inlineStr">
+        <is>
+          <t>HamKam</t>
+        </is>
+      </c>
+      <c r="H68" t="inlineStr">
+        <is>
+          <t>Lillestrøm</t>
+        </is>
+      </c>
+      <c r="I68" t="n">
+        <v>0</v>
+      </c>
+      <c r="J68" t="n">
+        <v>0</v>
+      </c>
+      <c r="K68" t="n">
+        <v>0</v>
+      </c>
+      <c r="L68" t="n">
+        <v>0</v>
+      </c>
+      <c r="M68" t="n">
+        <v>0</v>
+      </c>
+      <c r="N68" t="n">
+        <v>0</v>
+      </c>
+      <c r="O68" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P68" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q68" t="n">
+        <v>2</v>
+      </c>
+      <c r="R68" t="n">
+        <v>12</v>
+      </c>
+      <c r="S68" t="n">
+        <v>14</v>
+      </c>
+      <c r="T68" t="n">
+        <v>4</v>
+      </c>
+      <c r="U68" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="V68" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="W68" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="X68" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="Y68" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="Z68" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AA68" t="n">
+        <v>8</v>
+      </c>
+      <c r="AB68" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="AC68" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="AD68" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="AE68" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="AF68" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="AG68" t="n">
+        <v>9</v>
+      </c>
+      <c r="AH68" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="AI68" t="n">
+        <v>3.26</v>
+      </c>
+      <c r="AJ68" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="AK68" t="n">
+        <v>1.92</v>
+      </c>
+      <c r="AL68" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AM68" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AN68" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AO68" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AP68" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AQ68" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AR68" t="n">
+        <v>2</v>
+      </c>
+      <c r="AS68" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AT68" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AU68" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="AV68" t="n">
+        <v>1.56</v>
+      </c>
+      <c r="AW68" t="n">
+        <v>3.04</v>
+      </c>
+      <c r="AX68" t="n">
+        <v>2.19</v>
+      </c>
+      <c r="AY68" t="n">
+        <v>9.6</v>
+      </c>
+      <c r="AZ68" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="BA68" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="BB68" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="BC68" t="n">
+        <v>1.49</v>
+      </c>
+      <c r="BD68" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="BE68" t="n">
+        <v>2.32</v>
+      </c>
+      <c r="BF68" t="n">
+        <v>5</v>
+      </c>
+      <c r="BG68" t="n">
+        <v>3</v>
+      </c>
+      <c r="BH68" t="n">
+        <v>6</v>
+      </c>
+      <c r="BI68" t="n">
+        <v>8</v>
+      </c>
+      <c r="BJ68" t="n">
+        <v>11</v>
+      </c>
+      <c r="BK68" t="n">
+        <v>11</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2023)/Norway Eliteserien_2023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Norway Eliteserien_2023.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="465" uniqueCount="167">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="513" uniqueCount="179">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -403,6 +403,27 @@
     <t>['12', '51', '88']</t>
   </si>
   <si>
+    <t>['44']</t>
+  </si>
+  <si>
+    <t>['13', '86', '90+2']</t>
+  </si>
+  <si>
+    <t>['18', '52', '56', '71']</t>
+  </si>
+  <si>
+    <t>['11', '52', '55', '65']</t>
+  </si>
+  <si>
+    <t>['71']</t>
+  </si>
+  <si>
+    <t>['73', '90+2']</t>
+  </si>
+  <si>
+    <t>['6', '47', '50']</t>
+  </si>
+  <si>
     <t>['79']</t>
   </si>
   <si>
@@ -514,7 +535,22 @@
     <t>['78']</t>
   </si>
   <si>
-    <t>['71']</t>
+    <t>['48', '80', '89']</t>
+  </si>
+  <si>
+    <t>['21']</t>
+  </si>
+  <si>
+    <t>['90+2']</t>
+  </si>
+  <si>
+    <t>['17', '75']</t>
+  </si>
+  <si>
+    <t>['31', '48', '66']</t>
+  </si>
+  <si>
+    <t>['2', '29', '75', '90+3']</t>
   </si>
 </sst>
 </file>
@@ -876,7 +912,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BK68"/>
+  <dimension ref="A1:BK76"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1207,7 +1243,7 @@
         <v>0</v>
       </c>
       <c r="AS2">
-        <v>1.4</v>
+        <v>1.67</v>
       </c>
       <c r="AT2">
         <v>1</v>
@@ -1311,7 +1347,7 @@
         <v>82</v>
       </c>
       <c r="P3" t="s">
-        <v>129</v>
+        <v>136</v>
       </c>
       <c r="Q3">
         <v>3</v>
@@ -1398,7 +1434,7 @@
         <v>0</v>
       </c>
       <c r="AS3">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="AT3">
         <v>1.4</v>
@@ -1693,7 +1729,7 @@
         <v>82</v>
       </c>
       <c r="P5" t="s">
-        <v>130</v>
+        <v>137</v>
       </c>
       <c r="Q5">
         <v>1</v>
@@ -1974,7 +2010,7 @@
         <v>2.2</v>
       </c>
       <c r="AT6">
-        <v>1</v>
+        <v>0.83</v>
       </c>
       <c r="AU6">
         <v>0</v>
@@ -2162,10 +2198,10 @@
         <v>0</v>
       </c>
       <c r="AS7">
-        <v>1</v>
+        <v>1.4</v>
       </c>
       <c r="AT7">
-        <v>0.75</v>
+        <v>1.2</v>
       </c>
       <c r="AU7">
         <v>0</v>
@@ -2356,7 +2392,7 @@
         <v>2.6</v>
       </c>
       <c r="AT8">
-        <v>0.25</v>
+        <v>0.8</v>
       </c>
       <c r="AU8">
         <v>0</v>
@@ -2544,7 +2580,7 @@
         <v>0</v>
       </c>
       <c r="AS9">
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="AT9">
         <v>1.75</v>
@@ -2738,7 +2774,7 @@
         <v>2.6</v>
       </c>
       <c r="AT10">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="AU10">
         <v>0</v>
@@ -2839,7 +2875,7 @@
         <v>88</v>
       </c>
       <c r="P11" t="s">
-        <v>131</v>
+        <v>138</v>
       </c>
       <c r="Q11">
         <v>6</v>
@@ -3030,7 +3066,7 @@
         <v>89</v>
       </c>
       <c r="P12" t="s">
-        <v>132</v>
+        <v>139</v>
       </c>
       <c r="Q12">
         <v>7</v>
@@ -3311,7 +3347,7 @@
         <v>1.25</v>
       </c>
       <c r="AT13">
-        <v>1</v>
+        <v>1.4</v>
       </c>
       <c r="AU13">
         <v>0</v>
@@ -3499,7 +3535,7 @@
         <v>0</v>
       </c>
       <c r="AS14">
-        <v>1.33</v>
+        <v>1.75</v>
       </c>
       <c r="AT14">
         <v>2.5</v>
@@ -3690,7 +3726,7 @@
         <v>0</v>
       </c>
       <c r="AS15">
-        <v>2</v>
+        <v>1.5</v>
       </c>
       <c r="AT15">
         <v>0</v>
@@ -3794,7 +3830,7 @@
         <v>82</v>
       </c>
       <c r="P16" t="s">
-        <v>133</v>
+        <v>140</v>
       </c>
       <c r="Q16">
         <v>6</v>
@@ -3881,10 +3917,10 @@
         <v>0</v>
       </c>
       <c r="AS16">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="AT16">
-        <v>2</v>
+        <v>1.6</v>
       </c>
       <c r="AU16">
         <v>0</v>
@@ -3985,7 +4021,7 @@
         <v>92</v>
       </c>
       <c r="P17" t="s">
-        <v>134</v>
+        <v>141</v>
       </c>
       <c r="Q17">
         <v>14</v>
@@ -4072,7 +4108,7 @@
         <v>0</v>
       </c>
       <c r="AS17">
-        <v>1.5</v>
+        <v>1.8</v>
       </c>
       <c r="AT17">
         <v>0.4</v>
@@ -4176,7 +4212,7 @@
         <v>93</v>
       </c>
       <c r="P18" t="s">
-        <v>135</v>
+        <v>142</v>
       </c>
       <c r="Q18">
         <v>8</v>
@@ -4367,7 +4403,7 @@
         <v>82</v>
       </c>
       <c r="P19" t="s">
-        <v>136</v>
+        <v>143</v>
       </c>
       <c r="Q19">
         <v>1</v>
@@ -4454,7 +4490,7 @@
         <v>3</v>
       </c>
       <c r="AS19">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="AT19">
         <v>3</v>
@@ -4749,7 +4785,7 @@
         <v>95</v>
       </c>
       <c r="P21" t="s">
-        <v>137</v>
+        <v>144</v>
       </c>
       <c r="Q21">
         <v>7</v>
@@ -4836,7 +4872,7 @@
         <v>0</v>
       </c>
       <c r="AS21">
-        <v>1.4</v>
+        <v>1.67</v>
       </c>
       <c r="AT21">
         <v>0.4</v>
@@ -5030,7 +5066,7 @@
         <v>1.75</v>
       </c>
       <c r="AT22">
-        <v>1</v>
+        <v>0.83</v>
       </c>
       <c r="AU22">
         <v>1.05</v>
@@ -5221,7 +5257,7 @@
         <v>2.2</v>
       </c>
       <c r="AT23">
-        <v>0.25</v>
+        <v>0.8</v>
       </c>
       <c r="AU23">
         <v>1.95</v>
@@ -5322,7 +5358,7 @@
         <v>97</v>
       </c>
       <c r="P24" t="s">
-        <v>138</v>
+        <v>145</v>
       </c>
       <c r="Q24">
         <v>5</v>
@@ -5409,7 +5445,7 @@
         <v>0</v>
       </c>
       <c r="AS24">
-        <v>1</v>
+        <v>1.4</v>
       </c>
       <c r="AT24">
         <v>1</v>
@@ -5513,7 +5549,7 @@
         <v>98</v>
       </c>
       <c r="P25" t="s">
-        <v>139</v>
+        <v>146</v>
       </c>
       <c r="Q25">
         <v>11</v>
@@ -5600,10 +5636,10 @@
         <v>0</v>
       </c>
       <c r="AS25">
-        <v>1.5</v>
+        <v>1.8</v>
       </c>
       <c r="AT25">
-        <v>0.75</v>
+        <v>1.2</v>
       </c>
       <c r="AU25">
         <v>2.11</v>
@@ -5704,7 +5740,7 @@
         <v>99</v>
       </c>
       <c r="P26" t="s">
-        <v>140</v>
+        <v>147</v>
       </c>
       <c r="Q26">
         <v>7</v>
@@ -5794,7 +5830,7 @@
         <v>2.6</v>
       </c>
       <c r="AT26">
-        <v>1</v>
+        <v>1.4</v>
       </c>
       <c r="AU26">
         <v>2.11</v>
@@ -5895,7 +5931,7 @@
         <v>100</v>
       </c>
       <c r="P27" t="s">
-        <v>141</v>
+        <v>148</v>
       </c>
       <c r="Q27">
         <v>10</v>
@@ -5982,7 +6018,7 @@
         <v>0</v>
       </c>
       <c r="AS27">
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="AT27">
         <v>0</v>
@@ -6086,7 +6122,7 @@
         <v>82</v>
       </c>
       <c r="P28" t="s">
-        <v>142</v>
+        <v>149</v>
       </c>
       <c r="Q28">
         <v>12</v>
@@ -6173,7 +6209,7 @@
         <v>1</v>
       </c>
       <c r="AS28">
-        <v>2</v>
+        <v>1.5</v>
       </c>
       <c r="AT28">
         <v>2.5</v>
@@ -6367,7 +6403,7 @@
         <v>1.25</v>
       </c>
       <c r="AT29">
-        <v>2</v>
+        <v>1.6</v>
       </c>
       <c r="AU29">
         <v>1.16</v>
@@ -6468,7 +6504,7 @@
         <v>101</v>
       </c>
       <c r="P30" t="s">
-        <v>143</v>
+        <v>150</v>
       </c>
       <c r="Q30">
         <v>8</v>
@@ -6558,7 +6594,7 @@
         <v>2</v>
       </c>
       <c r="AT30">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="AU30">
         <v>1.02</v>
@@ -6746,7 +6782,7 @@
         <v>0</v>
       </c>
       <c r="AS31">
-        <v>1.33</v>
+        <v>1.75</v>
       </c>
       <c r="AT31">
         <v>0</v>
@@ -7041,7 +7077,7 @@
         <v>103</v>
       </c>
       <c r="P33" t="s">
-        <v>144</v>
+        <v>151</v>
       </c>
       <c r="Q33">
         <v>2</v>
@@ -7128,7 +7164,7 @@
         <v>0</v>
       </c>
       <c r="AS33">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="AT33">
         <v>1.75</v>
@@ -7232,7 +7268,7 @@
         <v>82</v>
       </c>
       <c r="P34" t="s">
-        <v>145</v>
+        <v>152</v>
       </c>
       <c r="Q34">
         <v>0</v>
@@ -7319,10 +7355,10 @@
         <v>0.5</v>
       </c>
       <c r="AS34">
+        <v>1.67</v>
+      </c>
+      <c r="AT34">
         <v>1.4</v>
-      </c>
-      <c r="AT34">
-        <v>1</v>
       </c>
       <c r="AU34">
         <v>1.42</v>
@@ -7513,7 +7549,7 @@
         <v>2.6</v>
       </c>
       <c r="AT35">
-        <v>1</v>
+        <v>0.83</v>
       </c>
       <c r="AU35">
         <v>1.83</v>
@@ -7805,7 +7841,7 @@
         <v>106</v>
       </c>
       <c r="P37" t="s">
-        <v>146</v>
+        <v>153</v>
       </c>
       <c r="Q37">
         <v>4</v>
@@ -7892,7 +7928,7 @@
         <v>1.5</v>
       </c>
       <c r="AS37">
-        <v>1.4</v>
+        <v>1.67</v>
       </c>
       <c r="AT37">
         <v>1.4</v>
@@ -7996,7 +8032,7 @@
         <v>107</v>
       </c>
       <c r="P38" t="s">
-        <v>147</v>
+        <v>154</v>
       </c>
       <c r="Q38">
         <v>6</v>
@@ -8086,7 +8122,7 @@
         <v>2.2</v>
       </c>
       <c r="AT38">
-        <v>2</v>
+        <v>1.6</v>
       </c>
       <c r="AU38">
         <v>2.01</v>
@@ -8187,7 +8223,7 @@
         <v>82</v>
       </c>
       <c r="P39" t="s">
-        <v>148</v>
+        <v>155</v>
       </c>
       <c r="Q39">
         <v>8</v>
@@ -8277,7 +8313,7 @@
         <v>1.4</v>
       </c>
       <c r="AT39">
-        <v>0.75</v>
+        <v>1.2</v>
       </c>
       <c r="AU39">
         <v>1.53</v>
@@ -8465,10 +8501,10 @@
         <v>0</v>
       </c>
       <c r="AS40">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="AT40">
-        <v>0.25</v>
+        <v>0.8</v>
       </c>
       <c r="AU40">
         <v>1.01</v>
@@ -8569,7 +8605,7 @@
         <v>82</v>
       </c>
       <c r="P41" t="s">
-        <v>149</v>
+        <v>156</v>
       </c>
       <c r="Q41">
         <v>5</v>
@@ -8656,10 +8692,10 @@
         <v>0.67</v>
       </c>
       <c r="AS41">
-        <v>1</v>
+        <v>1.4</v>
       </c>
       <c r="AT41">
-        <v>1</v>
+        <v>0.83</v>
       </c>
       <c r="AU41">
         <v>1.01</v>
@@ -8760,7 +8796,7 @@
         <v>108</v>
       </c>
       <c r="P42" t="s">
-        <v>150</v>
+        <v>157</v>
       </c>
       <c r="Q42">
         <v>6</v>
@@ -8847,7 +8883,7 @@
         <v>0</v>
       </c>
       <c r="AS42">
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="AT42">
         <v>0.4</v>
@@ -8951,7 +8987,7 @@
         <v>109</v>
       </c>
       <c r="P43" t="s">
-        <v>151</v>
+        <v>158</v>
       </c>
       <c r="Q43">
         <v>5</v>
@@ -9038,7 +9074,7 @@
         <v>3</v>
       </c>
       <c r="AS43">
-        <v>1.5</v>
+        <v>1.8</v>
       </c>
       <c r="AT43">
         <v>3</v>
@@ -9333,7 +9369,7 @@
         <v>82</v>
       </c>
       <c r="P45" t="s">
-        <v>152</v>
+        <v>159</v>
       </c>
       <c r="Q45">
         <v>5</v>
@@ -9524,7 +9560,7 @@
         <v>110</v>
       </c>
       <c r="P46" t="s">
-        <v>153</v>
+        <v>160</v>
       </c>
       <c r="Q46">
         <v>4</v>
@@ -9715,7 +9751,7 @@
         <v>111</v>
       </c>
       <c r="P47" t="s">
-        <v>154</v>
+        <v>161</v>
       </c>
       <c r="Q47">
         <v>3</v>
@@ -9906,7 +9942,7 @@
         <v>112</v>
       </c>
       <c r="P48" t="s">
-        <v>155</v>
+        <v>162</v>
       </c>
       <c r="Q48">
         <v>6</v>
@@ -10097,7 +10133,7 @@
         <v>113</v>
       </c>
       <c r="P49" t="s">
-        <v>156</v>
+        <v>163</v>
       </c>
       <c r="Q49">
         <v>7</v>
@@ -10184,7 +10220,7 @@
         <v>0.5</v>
       </c>
       <c r="AS49">
-        <v>1.33</v>
+        <v>1.75</v>
       </c>
       <c r="AT49">
         <v>1</v>
@@ -10288,7 +10324,7 @@
         <v>114</v>
       </c>
       <c r="P50" t="s">
-        <v>129</v>
+        <v>136</v>
       </c>
       <c r="Q50">
         <v>3</v>
@@ -10378,7 +10414,7 @@
         <v>1.75</v>
       </c>
       <c r="AT50">
-        <v>1</v>
+        <v>1.4</v>
       </c>
       <c r="AU50">
         <v>1.25</v>
@@ -10670,7 +10706,7 @@
         <v>116</v>
       </c>
       <c r="P52" t="s">
-        <v>157</v>
+        <v>164</v>
       </c>
       <c r="Q52">
         <v>3</v>
@@ -10948,10 +10984,10 @@
         <v>0.33</v>
       </c>
       <c r="AS53">
-        <v>1.4</v>
+        <v>1.67</v>
       </c>
       <c r="AT53">
-        <v>0.25</v>
+        <v>0.8</v>
       </c>
       <c r="AU53">
         <v>1.31</v>
@@ -11139,7 +11175,7 @@
         <v>0.67</v>
       </c>
       <c r="AS54">
-        <v>2</v>
+        <v>1.5</v>
       </c>
       <c r="AT54">
         <v>0.4</v>
@@ -11243,7 +11279,7 @@
         <v>118</v>
       </c>
       <c r="P55" t="s">
-        <v>158</v>
+        <v>165</v>
       </c>
       <c r="Q55">
         <v>3</v>
@@ -11330,7 +11366,7 @@
         <v>3</v>
       </c>
       <c r="AS55">
-        <v>1</v>
+        <v>1.4</v>
       </c>
       <c r="AT55">
         <v>3</v>
@@ -11434,7 +11470,7 @@
         <v>119</v>
       </c>
       <c r="P56" t="s">
-        <v>159</v>
+        <v>166</v>
       </c>
       <c r="Q56">
         <v>6</v>
@@ -11521,10 +11557,10 @@
         <v>1.25</v>
       </c>
       <c r="AS56">
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="AT56">
-        <v>1</v>
+        <v>0.83</v>
       </c>
       <c r="AU56">
         <v>1.97</v>
@@ -11712,7 +11748,7 @@
         <v>0</v>
       </c>
       <c r="AS57">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="AT57">
         <v>0</v>
@@ -11903,10 +11939,10 @@
         <v>1</v>
       </c>
       <c r="AS58">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="AT58">
-        <v>0.75</v>
+        <v>1.2</v>
       </c>
       <c r="AU58">
         <v>1.07</v>
@@ -12007,7 +12043,7 @@
         <v>95</v>
       </c>
       <c r="P59" t="s">
-        <v>160</v>
+        <v>167</v>
       </c>
       <c r="Q59">
         <v>6</v>
@@ -12094,10 +12130,10 @@
         <v>1.67</v>
       </c>
       <c r="AS59">
-        <v>1.5</v>
+        <v>1.8</v>
       </c>
       <c r="AT59">
-        <v>2</v>
+        <v>1.6</v>
       </c>
       <c r="AU59">
         <v>1.58</v>
@@ -12198,7 +12234,7 @@
         <v>122</v>
       </c>
       <c r="P60" t="s">
-        <v>139</v>
+        <v>146</v>
       </c>
       <c r="Q60">
         <v>6</v>
@@ -12288,7 +12324,7 @@
         <v>2.6</v>
       </c>
       <c r="AT60">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="AU60">
         <v>2.3</v>
@@ -12389,7 +12425,7 @@
         <v>123</v>
       </c>
       <c r="P61" t="s">
-        <v>161</v>
+        <v>168</v>
       </c>
       <c r="Q61">
         <v>11</v>
@@ -12580,7 +12616,7 @@
         <v>124</v>
       </c>
       <c r="P62" t="s">
-        <v>162</v>
+        <v>169</v>
       </c>
       <c r="Q62">
         <v>1</v>
@@ -12771,7 +12807,7 @@
         <v>109</v>
       </c>
       <c r="P63" t="s">
-        <v>163</v>
+        <v>170</v>
       </c>
       <c r="Q63">
         <v>10</v>
@@ -12962,7 +12998,7 @@
         <v>125</v>
       </c>
       <c r="P64" t="s">
-        <v>164</v>
+        <v>171</v>
       </c>
       <c r="Q64">
         <v>4</v>
@@ -13153,7 +13189,7 @@
         <v>126</v>
       </c>
       <c r="P65" t="s">
-        <v>165</v>
+        <v>172</v>
       </c>
       <c r="Q65">
         <v>6</v>
@@ -13535,7 +13571,7 @@
         <v>128</v>
       </c>
       <c r="P67" t="s">
-        <v>166</v>
+        <v>133</v>
       </c>
       <c r="Q67">
         <v>8</v>
@@ -13868,6 +13904,1534 @@
       </c>
       <c r="BK68">
         <v>19</v>
+      </c>
+    </row>
+    <row r="69" spans="1:63">
+      <c r="A69" s="1">
+        <v>68</v>
+      </c>
+      <c r="B69">
+        <v>4869435</v>
+      </c>
+      <c r="C69" t="s">
+        <v>63</v>
+      </c>
+      <c r="D69" t="s">
+        <v>64</v>
+      </c>
+      <c r="E69" s="2">
+        <v>45081.5</v>
+      </c>
+      <c r="F69">
+        <v>9</v>
+      </c>
+      <c r="G69" t="s">
+        <v>66</v>
+      </c>
+      <c r="H69" t="s">
+        <v>71</v>
+      </c>
+      <c r="I69">
+        <v>1</v>
+      </c>
+      <c r="J69">
+        <v>0</v>
+      </c>
+      <c r="K69">
+        <v>1</v>
+      </c>
+      <c r="L69">
+        <v>1</v>
+      </c>
+      <c r="M69">
+        <v>3</v>
+      </c>
+      <c r="N69">
+        <v>4</v>
+      </c>
+      <c r="O69" t="s">
+        <v>129</v>
+      </c>
+      <c r="P69" t="s">
+        <v>173</v>
+      </c>
+      <c r="Q69">
+        <v>3</v>
+      </c>
+      <c r="R69">
+        <v>10</v>
+      </c>
+      <c r="S69">
+        <v>13</v>
+      </c>
+      <c r="T69">
+        <v>5</v>
+      </c>
+      <c r="U69">
+        <v>2.3</v>
+      </c>
+      <c r="V69">
+        <v>2.05</v>
+      </c>
+      <c r="W69">
+        <v>1.36</v>
+      </c>
+      <c r="X69">
+        <v>3</v>
+      </c>
+      <c r="Y69">
+        <v>2.62</v>
+      </c>
+      <c r="Z69">
+        <v>1.44</v>
+      </c>
+      <c r="AA69">
+        <v>6</v>
+      </c>
+      <c r="AB69">
+        <v>1.11</v>
+      </c>
+      <c r="AC69">
+        <v>5</v>
+      </c>
+      <c r="AD69">
+        <v>3.8</v>
+      </c>
+      <c r="AE69">
+        <v>1.57</v>
+      </c>
+      <c r="AF69">
+        <v>1.05</v>
+      </c>
+      <c r="AG69">
+        <v>9</v>
+      </c>
+      <c r="AH69">
+        <v>1.25</v>
+      </c>
+      <c r="AI69">
+        <v>3.75</v>
+      </c>
+      <c r="AJ69">
+        <v>1.84</v>
+      </c>
+      <c r="AK69">
+        <v>2.04</v>
+      </c>
+      <c r="AL69">
+        <v>1.8</v>
+      </c>
+      <c r="AM69">
+        <v>1.91</v>
+      </c>
+      <c r="AN69">
+        <v>2.2</v>
+      </c>
+      <c r="AO69">
+        <v>1.25</v>
+      </c>
+      <c r="AP69">
+        <v>1.15</v>
+      </c>
+      <c r="AQ69">
+        <v>1</v>
+      </c>
+      <c r="AR69">
+        <v>1</v>
+      </c>
+      <c r="AS69">
+        <v>0.8</v>
+      </c>
+      <c r="AT69">
+        <v>1.4</v>
+      </c>
+      <c r="AU69">
+        <v>1.2</v>
+      </c>
+      <c r="AV69">
+        <v>1.93</v>
+      </c>
+      <c r="AW69">
+        <v>3.13</v>
+      </c>
+      <c r="AX69">
+        <v>3.24</v>
+      </c>
+      <c r="AY69">
+        <v>9</v>
+      </c>
+      <c r="AZ69">
+        <v>1.45</v>
+      </c>
+      <c r="BA69">
+        <v>1.17</v>
+      </c>
+      <c r="BB69">
+        <v>1.32</v>
+      </c>
+      <c r="BC69">
+        <v>1.57</v>
+      </c>
+      <c r="BD69">
+        <v>1.98</v>
+      </c>
+      <c r="BE69">
+        <v>2.65</v>
+      </c>
+      <c r="BF69">
+        <v>4</v>
+      </c>
+      <c r="BG69">
+        <v>8</v>
+      </c>
+      <c r="BH69">
+        <v>3</v>
+      </c>
+      <c r="BI69">
+        <v>7</v>
+      </c>
+      <c r="BJ69">
+        <v>7</v>
+      </c>
+      <c r="BK69">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="70" spans="1:63">
+      <c r="A70" s="1">
+        <v>69</v>
+      </c>
+      <c r="B70">
+        <v>4869436</v>
+      </c>
+      <c r="C70" t="s">
+        <v>63</v>
+      </c>
+      <c r="D70" t="s">
+        <v>64</v>
+      </c>
+      <c r="E70" s="2">
+        <v>45081.5</v>
+      </c>
+      <c r="F70">
+        <v>9</v>
+      </c>
+      <c r="G70" t="s">
+        <v>80</v>
+      </c>
+      <c r="H70" t="s">
+        <v>69</v>
+      </c>
+      <c r="I70">
+        <v>1</v>
+      </c>
+      <c r="J70">
+        <v>1</v>
+      </c>
+      <c r="K70">
+        <v>2</v>
+      </c>
+      <c r="L70">
+        <v>3</v>
+      </c>
+      <c r="M70">
+        <v>1</v>
+      </c>
+      <c r="N70">
+        <v>4</v>
+      </c>
+      <c r="O70" t="s">
+        <v>130</v>
+      </c>
+      <c r="P70" t="s">
+        <v>174</v>
+      </c>
+      <c r="Q70">
+        <v>6</v>
+      </c>
+      <c r="R70">
+        <v>3</v>
+      </c>
+      <c r="S70">
+        <v>9</v>
+      </c>
+      <c r="T70">
+        <v>2.15</v>
+      </c>
+      <c r="U70">
+        <v>2.25</v>
+      </c>
+      <c r="V70">
+        <v>4.75</v>
+      </c>
+      <c r="W70">
+        <v>1.33</v>
+      </c>
+      <c r="X70">
+        <v>3.25</v>
+      </c>
+      <c r="Y70">
+        <v>2.5</v>
+      </c>
+      <c r="Z70">
+        <v>1.5</v>
+      </c>
+      <c r="AA70">
+        <v>6</v>
+      </c>
+      <c r="AB70">
+        <v>1.11</v>
+      </c>
+      <c r="AC70">
+        <v>1.7</v>
+      </c>
+      <c r="AD70">
+        <v>3.6</v>
+      </c>
+      <c r="AE70">
+        <v>4.2</v>
+      </c>
+      <c r="AF70">
+        <v>1.04</v>
+      </c>
+      <c r="AG70">
+        <v>10</v>
+      </c>
+      <c r="AH70">
+        <v>1.25</v>
+      </c>
+      <c r="AI70">
+        <v>3.75</v>
+      </c>
+      <c r="AJ70">
+        <v>1.9</v>
+      </c>
+      <c r="AK70">
+        <v>1.98</v>
+      </c>
+      <c r="AL70">
+        <v>1.73</v>
+      </c>
+      <c r="AM70">
+        <v>2</v>
+      </c>
+      <c r="AN70">
+        <v>1.17</v>
+      </c>
+      <c r="AO70">
+        <v>1.22</v>
+      </c>
+      <c r="AP70">
+        <v>2.2</v>
+      </c>
+      <c r="AQ70">
+        <v>1.5</v>
+      </c>
+      <c r="AR70">
+        <v>1</v>
+      </c>
+      <c r="AS70">
+        <v>1.8</v>
+      </c>
+      <c r="AT70">
+        <v>0.75</v>
+      </c>
+      <c r="AU70">
+        <v>1.77</v>
+      </c>
+      <c r="AV70">
+        <v>0.97</v>
+      </c>
+      <c r="AW70">
+        <v>2.74</v>
+      </c>
+      <c r="AX70">
+        <v>1.33</v>
+      </c>
+      <c r="AY70">
+        <v>10</v>
+      </c>
+      <c r="AZ70">
+        <v>3.74</v>
+      </c>
+      <c r="BA70">
+        <v>1.09</v>
+      </c>
+      <c r="BB70">
+        <v>1.23</v>
+      </c>
+      <c r="BC70">
+        <v>1.43</v>
+      </c>
+      <c r="BD70">
+        <v>1.83</v>
+      </c>
+      <c r="BE70">
+        <v>2.25</v>
+      </c>
+      <c r="BF70">
+        <v>4</v>
+      </c>
+      <c r="BG70">
+        <v>3</v>
+      </c>
+      <c r="BH70">
+        <v>5</v>
+      </c>
+      <c r="BI70">
+        <v>4</v>
+      </c>
+      <c r="BJ70">
+        <v>9</v>
+      </c>
+      <c r="BK70">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="71" spans="1:63">
+      <c r="A71" s="1">
+        <v>70</v>
+      </c>
+      <c r="B71">
+        <v>4869437</v>
+      </c>
+      <c r="C71" t="s">
+        <v>63</v>
+      </c>
+      <c r="D71" t="s">
+        <v>64</v>
+      </c>
+      <c r="E71" s="2">
+        <v>45081.5</v>
+      </c>
+      <c r="F71">
+        <v>9</v>
+      </c>
+      <c r="G71" t="s">
+        <v>65</v>
+      </c>
+      <c r="H71" t="s">
+        <v>67</v>
+      </c>
+      <c r="I71">
+        <v>1</v>
+      </c>
+      <c r="J71">
+        <v>0</v>
+      </c>
+      <c r="K71">
+        <v>1</v>
+      </c>
+      <c r="L71">
+        <v>4</v>
+      </c>
+      <c r="M71">
+        <v>0</v>
+      </c>
+      <c r="N71">
+        <v>4</v>
+      </c>
+      <c r="O71" t="s">
+        <v>131</v>
+      </c>
+      <c r="P71" t="s">
+        <v>82</v>
+      </c>
+      <c r="Q71">
+        <v>3</v>
+      </c>
+      <c r="R71">
+        <v>3</v>
+      </c>
+      <c r="S71">
+        <v>6</v>
+      </c>
+      <c r="T71">
+        <v>2.2</v>
+      </c>
+      <c r="U71">
+        <v>2.15</v>
+      </c>
+      <c r="V71">
+        <v>4.8</v>
+      </c>
+      <c r="W71">
+        <v>1.36</v>
+      </c>
+      <c r="X71">
+        <v>3</v>
+      </c>
+      <c r="Y71">
+        <v>2.62</v>
+      </c>
+      <c r="Z71">
+        <v>1.44</v>
+      </c>
+      <c r="AA71">
+        <v>6.5</v>
+      </c>
+      <c r="AB71">
+        <v>1.1</v>
+      </c>
+      <c r="AC71">
+        <v>1.67</v>
+      </c>
+      <c r="AD71">
+        <v>3.7</v>
+      </c>
+      <c r="AE71">
+        <v>4.33</v>
+      </c>
+      <c r="AF71">
+        <v>1.05</v>
+      </c>
+      <c r="AG71">
+        <v>9</v>
+      </c>
+      <c r="AH71">
+        <v>1.29</v>
+      </c>
+      <c r="AI71">
+        <v>3.5</v>
+      </c>
+      <c r="AJ71">
+        <v>1.9</v>
+      </c>
+      <c r="AK71">
+        <v>1.98</v>
+      </c>
+      <c r="AL71">
+        <v>1.85</v>
+      </c>
+      <c r="AM71">
+        <v>1.85</v>
+      </c>
+      <c r="AN71">
+        <v>1.15</v>
+      </c>
+      <c r="AO71">
+        <v>1.25</v>
+      </c>
+      <c r="AP71">
+        <v>2.2</v>
+      </c>
+      <c r="AQ71">
+        <v>1.4</v>
+      </c>
+      <c r="AR71">
+        <v>0</v>
+      </c>
+      <c r="AS71">
+        <v>1.67</v>
+      </c>
+      <c r="AT71">
+        <v>0</v>
+      </c>
+      <c r="AU71">
+        <v>1.39</v>
+      </c>
+      <c r="AV71">
+        <v>1.33</v>
+      </c>
+      <c r="AW71">
+        <v>2.72</v>
+      </c>
+      <c r="AX71">
+        <v>1.26</v>
+      </c>
+      <c r="AY71">
+        <v>7</v>
+      </c>
+      <c r="AZ71">
+        <v>4.25</v>
+      </c>
+      <c r="BA71">
+        <v>1.16</v>
+      </c>
+      <c r="BB71">
+        <v>1.28</v>
+      </c>
+      <c r="BC71">
+        <v>1.51</v>
+      </c>
+      <c r="BD71">
+        <v>2</v>
+      </c>
+      <c r="BE71">
+        <v>2.45</v>
+      </c>
+      <c r="BF71">
+        <v>7</v>
+      </c>
+      <c r="BG71">
+        <v>4</v>
+      </c>
+      <c r="BH71">
+        <v>4</v>
+      </c>
+      <c r="BI71">
+        <v>8</v>
+      </c>
+      <c r="BJ71">
+        <v>11</v>
+      </c>
+      <c r="BK71">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="72" spans="1:63">
+      <c r="A72" s="1">
+        <v>71</v>
+      </c>
+      <c r="B72">
+        <v>4869438</v>
+      </c>
+      <c r="C72" t="s">
+        <v>63</v>
+      </c>
+      <c r="D72" t="s">
+        <v>64</v>
+      </c>
+      <c r="E72" s="2">
+        <v>45081.5</v>
+      </c>
+      <c r="F72">
+        <v>9</v>
+      </c>
+      <c r="G72" t="s">
+        <v>77</v>
+      </c>
+      <c r="H72" t="s">
+        <v>76</v>
+      </c>
+      <c r="I72">
+        <v>1</v>
+      </c>
+      <c r="J72">
+        <v>0</v>
+      </c>
+      <c r="K72">
+        <v>1</v>
+      </c>
+      <c r="L72">
+        <v>4</v>
+      </c>
+      <c r="M72">
+        <v>1</v>
+      </c>
+      <c r="N72">
+        <v>5</v>
+      </c>
+      <c r="O72" t="s">
+        <v>132</v>
+      </c>
+      <c r="P72" t="s">
+        <v>175</v>
+      </c>
+      <c r="Q72">
+        <v>3</v>
+      </c>
+      <c r="R72">
+        <v>1</v>
+      </c>
+      <c r="S72">
+        <v>4</v>
+      </c>
+      <c r="T72">
+        <v>3.1</v>
+      </c>
+      <c r="U72">
+        <v>2.15</v>
+      </c>
+      <c r="V72">
+        <v>3</v>
+      </c>
+      <c r="W72">
+        <v>1.36</v>
+      </c>
+      <c r="X72">
+        <v>2.85</v>
+      </c>
+      <c r="Y72">
+        <v>2.65</v>
+      </c>
+      <c r="Z72">
+        <v>1.42</v>
+      </c>
+      <c r="AA72">
+        <v>6.5</v>
+      </c>
+      <c r="AB72">
+        <v>1.09</v>
+      </c>
+      <c r="AC72">
+        <v>2.88</v>
+      </c>
+      <c r="AD72">
+        <v>3.4</v>
+      </c>
+      <c r="AE72">
+        <v>2.2</v>
+      </c>
+      <c r="AF72">
+        <v>1.05</v>
+      </c>
+      <c r="AG72">
+        <v>9</v>
+      </c>
+      <c r="AH72">
+        <v>1.29</v>
+      </c>
+      <c r="AI72">
+        <v>3.5</v>
+      </c>
+      <c r="AJ72">
+        <v>1.9</v>
+      </c>
+      <c r="AK72">
+        <v>1.98</v>
+      </c>
+      <c r="AL72">
+        <v>1.67</v>
+      </c>
+      <c r="AM72">
+        <v>2.1</v>
+      </c>
+      <c r="AN72">
+        <v>1.55</v>
+      </c>
+      <c r="AO72">
+        <v>1.29</v>
+      </c>
+      <c r="AP72">
+        <v>1.4</v>
+      </c>
+      <c r="AQ72">
+        <v>1.33</v>
+      </c>
+      <c r="AR72">
+        <v>1</v>
+      </c>
+      <c r="AS72">
+        <v>1.75</v>
+      </c>
+      <c r="AT72">
+        <v>0.83</v>
+      </c>
+      <c r="AU72">
+        <v>1.69</v>
+      </c>
+      <c r="AV72">
+        <v>0.99</v>
+      </c>
+      <c r="AW72">
+        <v>2.68</v>
+      </c>
+      <c r="AX72">
+        <v>1.76</v>
+      </c>
+      <c r="AY72">
+        <v>5.75</v>
+      </c>
+      <c r="AZ72">
+        <v>2.25</v>
+      </c>
+      <c r="BA72">
+        <v>1.11</v>
+      </c>
+      <c r="BB72">
+        <v>1.28</v>
+      </c>
+      <c r="BC72">
+        <v>1.51</v>
+      </c>
+      <c r="BD72">
+        <v>1.98</v>
+      </c>
+      <c r="BE72">
+        <v>2.45</v>
+      </c>
+      <c r="BF72">
+        <v>10</v>
+      </c>
+      <c r="BG72">
+        <v>3</v>
+      </c>
+      <c r="BH72">
+        <v>3</v>
+      </c>
+      <c r="BI72">
+        <v>4</v>
+      </c>
+      <c r="BJ72">
+        <v>13</v>
+      </c>
+      <c r="BK72">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="73" spans="1:63">
+      <c r="A73" s="1">
+        <v>72</v>
+      </c>
+      <c r="B73">
+        <v>4869439</v>
+      </c>
+      <c r="C73" t="s">
+        <v>63</v>
+      </c>
+      <c r="D73" t="s">
+        <v>64</v>
+      </c>
+      <c r="E73" s="2">
+        <v>45081.5</v>
+      </c>
+      <c r="F73">
+        <v>9</v>
+      </c>
+      <c r="G73" t="s">
+        <v>78</v>
+      </c>
+      <c r="H73" t="s">
+        <v>74</v>
+      </c>
+      <c r="I73">
+        <v>0</v>
+      </c>
+      <c r="J73">
+        <v>1</v>
+      </c>
+      <c r="K73">
+        <v>1</v>
+      </c>
+      <c r="L73">
+        <v>1</v>
+      </c>
+      <c r="M73">
+        <v>2</v>
+      </c>
+      <c r="N73">
+        <v>3</v>
+      </c>
+      <c r="O73" t="s">
+        <v>133</v>
+      </c>
+      <c r="P73" t="s">
+        <v>176</v>
+      </c>
+      <c r="Q73">
+        <v>4</v>
+      </c>
+      <c r="R73">
+        <v>6</v>
+      </c>
+      <c r="S73">
+        <v>10</v>
+      </c>
+      <c r="T73">
+        <v>2.45</v>
+      </c>
+      <c r="U73">
+        <v>2.2</v>
+      </c>
+      <c r="V73">
+        <v>3.8</v>
+      </c>
+      <c r="W73">
+        <v>1.33</v>
+      </c>
+      <c r="X73">
+        <v>3.25</v>
+      </c>
+      <c r="Y73">
+        <v>2.5</v>
+      </c>
+      <c r="Z73">
+        <v>1.5</v>
+      </c>
+      <c r="AA73">
+        <v>6</v>
+      </c>
+      <c r="AB73">
+        <v>1.11</v>
+      </c>
+      <c r="AC73">
+        <v>1.95</v>
+      </c>
+      <c r="AD73">
+        <v>3.5</v>
+      </c>
+      <c r="AE73">
+        <v>3.3</v>
+      </c>
+      <c r="AF73">
+        <v>1.04</v>
+      </c>
+      <c r="AG73">
+        <v>10</v>
+      </c>
+      <c r="AH73">
+        <v>1.25</v>
+      </c>
+      <c r="AI73">
+        <v>3.75</v>
+      </c>
+      <c r="AJ73">
+        <v>1.69</v>
+      </c>
+      <c r="AK73">
+        <v>2</v>
+      </c>
+      <c r="AL73">
+        <v>1.7</v>
+      </c>
+      <c r="AM73">
+        <v>2.05</v>
+      </c>
+      <c r="AN73">
+        <v>1.2</v>
+      </c>
+      <c r="AO73">
+        <v>1.25</v>
+      </c>
+      <c r="AP73">
+        <v>2</v>
+      </c>
+      <c r="AQ73">
+        <v>2</v>
+      </c>
+      <c r="AR73">
+        <v>0.25</v>
+      </c>
+      <c r="AS73">
+        <v>1.5</v>
+      </c>
+      <c r="AT73">
+        <v>0.8</v>
+      </c>
+      <c r="AU73">
+        <v>1.78</v>
+      </c>
+      <c r="AV73">
+        <v>0.84</v>
+      </c>
+      <c r="AW73">
+        <v>2.62</v>
+      </c>
+      <c r="AX73">
+        <v>1.5</v>
+      </c>
+      <c r="AY73">
+        <v>6.25</v>
+      </c>
+      <c r="AZ73">
+        <v>2.85</v>
+      </c>
+      <c r="BA73">
+        <v>1.11</v>
+      </c>
+      <c r="BB73">
+        <v>1.2</v>
+      </c>
+      <c r="BC73">
+        <v>1.33</v>
+      </c>
+      <c r="BD73">
+        <v>1.58</v>
+      </c>
+      <c r="BE73">
+        <v>1.98</v>
+      </c>
+      <c r="BF73">
+        <v>8</v>
+      </c>
+      <c r="BG73">
+        <v>4</v>
+      </c>
+      <c r="BH73">
+        <v>10</v>
+      </c>
+      <c r="BI73">
+        <v>3</v>
+      </c>
+      <c r="BJ73">
+        <v>18</v>
+      </c>
+      <c r="BK73">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="74" spans="1:63">
+      <c r="A74" s="1">
+        <v>73</v>
+      </c>
+      <c r="B74">
+        <v>4869440</v>
+      </c>
+      <c r="C74" t="s">
+        <v>63</v>
+      </c>
+      <c r="D74" t="s">
+        <v>64</v>
+      </c>
+      <c r="E74" s="2">
+        <v>45081.5</v>
+      </c>
+      <c r="F74">
+        <v>9</v>
+      </c>
+      <c r="G74" t="s">
+        <v>70</v>
+      </c>
+      <c r="H74" t="s">
+        <v>68</v>
+      </c>
+      <c r="I74">
+        <v>0</v>
+      </c>
+      <c r="J74">
+        <v>1</v>
+      </c>
+      <c r="K74">
+        <v>1</v>
+      </c>
+      <c r="L74">
+        <v>2</v>
+      </c>
+      <c r="M74">
+        <v>1</v>
+      </c>
+      <c r="N74">
+        <v>3</v>
+      </c>
+      <c r="O74" t="s">
+        <v>134</v>
+      </c>
+      <c r="P74" t="s">
+        <v>97</v>
+      </c>
+      <c r="Q74">
+        <v>3</v>
+      </c>
+      <c r="R74">
+        <v>7</v>
+      </c>
+      <c r="S74">
+        <v>10</v>
+      </c>
+      <c r="T74">
+        <v>3.1</v>
+      </c>
+      <c r="U74">
+        <v>2.15</v>
+      </c>
+      <c r="V74">
+        <v>3</v>
+      </c>
+      <c r="W74">
+        <v>1.36</v>
+      </c>
+      <c r="X74">
+        <v>3</v>
+      </c>
+      <c r="Y74">
+        <v>2.62</v>
+      </c>
+      <c r="Z74">
+        <v>1.44</v>
+      </c>
+      <c r="AA74">
+        <v>6</v>
+      </c>
+      <c r="AB74">
+        <v>1.11</v>
+      </c>
+      <c r="AC74">
+        <v>2.38</v>
+      </c>
+      <c r="AD74">
+        <v>3.4</v>
+      </c>
+      <c r="AE74">
+        <v>2.6</v>
+      </c>
+      <c r="AF74">
+        <v>1.05</v>
+      </c>
+      <c r="AG74">
+        <v>9</v>
+      </c>
+      <c r="AH74">
+        <v>1.29</v>
+      </c>
+      <c r="AI74">
+        <v>3.5</v>
+      </c>
+      <c r="AJ74">
+        <v>1.84</v>
+      </c>
+      <c r="AK74">
+        <v>2.04</v>
+      </c>
+      <c r="AL74">
+        <v>1.7</v>
+      </c>
+      <c r="AM74">
+        <v>2.05</v>
+      </c>
+      <c r="AN74">
+        <v>1.53</v>
+      </c>
+      <c r="AO74">
+        <v>1.3</v>
+      </c>
+      <c r="AP74">
+        <v>1.44</v>
+      </c>
+      <c r="AQ74">
+        <v>1</v>
+      </c>
+      <c r="AR74">
+        <v>2</v>
+      </c>
+      <c r="AS74">
+        <v>1.4</v>
+      </c>
+      <c r="AT74">
+        <v>1.6</v>
+      </c>
+      <c r="AU74">
+        <v>1.2</v>
+      </c>
+      <c r="AV74">
+        <v>2.08</v>
+      </c>
+      <c r="AW74">
+        <v>3.28</v>
+      </c>
+      <c r="AX74">
+        <v>1.95</v>
+      </c>
+      <c r="AY74">
+        <v>5.5</v>
+      </c>
+      <c r="AZ74">
+        <v>2</v>
+      </c>
+      <c r="BA74">
+        <v>1.15</v>
+      </c>
+      <c r="BB74">
+        <v>1.31</v>
+      </c>
+      <c r="BC74">
+        <v>1.57</v>
+      </c>
+      <c r="BD74">
+        <v>1.98</v>
+      </c>
+      <c r="BE74">
+        <v>2.6</v>
+      </c>
+      <c r="BF74">
+        <v>6</v>
+      </c>
+      <c r="BG74">
+        <v>3</v>
+      </c>
+      <c r="BH74">
+        <v>4</v>
+      </c>
+      <c r="BI74">
+        <v>5</v>
+      </c>
+      <c r="BJ74">
+        <v>10</v>
+      </c>
+      <c r="BK74">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="75" spans="1:63">
+      <c r="A75" s="1">
+        <v>74</v>
+      </c>
+      <c r="B75">
+        <v>4869441</v>
+      </c>
+      <c r="C75" t="s">
+        <v>63</v>
+      </c>
+      <c r="D75" t="s">
+        <v>64</v>
+      </c>
+      <c r="E75" s="2">
+        <v>45081.5</v>
+      </c>
+      <c r="F75">
+        <v>9</v>
+      </c>
+      <c r="G75" t="s">
+        <v>79</v>
+      </c>
+      <c r="H75" t="s">
+        <v>73</v>
+      </c>
+      <c r="I75">
+        <v>0</v>
+      </c>
+      <c r="J75">
+        <v>1</v>
+      </c>
+      <c r="K75">
+        <v>1</v>
+      </c>
+      <c r="L75">
+        <v>1</v>
+      </c>
+      <c r="M75">
+        <v>3</v>
+      </c>
+      <c r="N75">
+        <v>4</v>
+      </c>
+      <c r="O75" t="s">
+        <v>107</v>
+      </c>
+      <c r="P75" t="s">
+        <v>177</v>
+      </c>
+      <c r="Q75">
+        <v>1</v>
+      </c>
+      <c r="R75">
+        <v>2</v>
+      </c>
+      <c r="S75">
+        <v>3</v>
+      </c>
+      <c r="T75">
+        <v>4.2</v>
+      </c>
+      <c r="U75">
+        <v>2.38</v>
+      </c>
+      <c r="V75">
+        <v>2.15</v>
+      </c>
+      <c r="W75">
+        <v>1.33</v>
+      </c>
+      <c r="X75">
+        <v>3.25</v>
+      </c>
+      <c r="Y75">
+        <v>2.38</v>
+      </c>
+      <c r="Z75">
+        <v>1.53</v>
+      </c>
+      <c r="AA75">
+        <v>5</v>
+      </c>
+      <c r="AB75">
+        <v>1.14</v>
+      </c>
+      <c r="AC75">
+        <v>4.2</v>
+      </c>
+      <c r="AD75">
+        <v>3.9</v>
+      </c>
+      <c r="AE75">
+        <v>1.65</v>
+      </c>
+      <c r="AF75">
+        <v>1.03</v>
+      </c>
+      <c r="AG75">
+        <v>11</v>
+      </c>
+      <c r="AH75">
+        <v>1.2</v>
+      </c>
+      <c r="AI75">
+        <v>4.33</v>
+      </c>
+      <c r="AJ75">
+        <v>1.59</v>
+      </c>
+      <c r="AK75">
+        <v>2.16</v>
+      </c>
+      <c r="AL75">
+        <v>1.57</v>
+      </c>
+      <c r="AM75">
+        <v>2.3</v>
+      </c>
+      <c r="AN75">
+        <v>2.05</v>
+      </c>
+      <c r="AO75">
+        <v>1.22</v>
+      </c>
+      <c r="AP75">
+        <v>1.22</v>
+      </c>
+      <c r="AQ75">
+        <v>1</v>
+      </c>
+      <c r="AR75">
+        <v>3</v>
+      </c>
+      <c r="AS75">
+        <v>0.75</v>
+      </c>
+      <c r="AT75">
+        <v>3</v>
+      </c>
+      <c r="AU75">
+        <v>1.73</v>
+      </c>
+      <c r="AV75">
+        <v>2.05</v>
+      </c>
+      <c r="AW75">
+        <v>3.78</v>
+      </c>
+      <c r="AX75">
+        <v>3.1</v>
+      </c>
+      <c r="AY75">
+        <v>6.5</v>
+      </c>
+      <c r="AZ75">
+        <v>1.42</v>
+      </c>
+      <c r="BA75">
+        <v>1.17</v>
+      </c>
+      <c r="BB75">
+        <v>1.28</v>
+      </c>
+      <c r="BC75">
+        <v>1.51</v>
+      </c>
+      <c r="BD75">
+        <v>1.98</v>
+      </c>
+      <c r="BE75">
+        <v>2.45</v>
+      </c>
+      <c r="BF75">
+        <v>4</v>
+      </c>
+      <c r="BG75">
+        <v>6</v>
+      </c>
+      <c r="BH75">
+        <v>7</v>
+      </c>
+      <c r="BI75">
+        <v>3</v>
+      </c>
+      <c r="BJ75">
+        <v>11</v>
+      </c>
+      <c r="BK75">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="76" spans="1:63">
+      <c r="A76" s="1">
+        <v>75</v>
+      </c>
+      <c r="B76">
+        <v>4869442</v>
+      </c>
+      <c r="C76" t="s">
+        <v>63</v>
+      </c>
+      <c r="D76" t="s">
+        <v>64</v>
+      </c>
+      <c r="E76" s="2">
+        <v>45081.59375</v>
+      </c>
+      <c r="F76">
+        <v>9</v>
+      </c>
+      <c r="G76" t="s">
+        <v>72</v>
+      </c>
+      <c r="H76" t="s">
+        <v>75</v>
+      </c>
+      <c r="I76">
+        <v>1</v>
+      </c>
+      <c r="J76">
+        <v>2</v>
+      </c>
+      <c r="K76">
+        <v>3</v>
+      </c>
+      <c r="L76">
+        <v>3</v>
+      </c>
+      <c r="M76">
+        <v>4</v>
+      </c>
+      <c r="N76">
+        <v>7</v>
+      </c>
+      <c r="O76" t="s">
+        <v>135</v>
+      </c>
+      <c r="P76" t="s">
+        <v>178</v>
+      </c>
+      <c r="Q76">
+        <v>3</v>
+      </c>
+      <c r="R76">
+        <v>6</v>
+      </c>
+      <c r="S76">
+        <v>9</v>
+      </c>
+      <c r="T76">
+        <v>3.5</v>
+      </c>
+      <c r="U76">
+        <v>2.3</v>
+      </c>
+      <c r="V76">
+        <v>2.45</v>
+      </c>
+      <c r="W76">
+        <v>1.3</v>
+      </c>
+      <c r="X76">
+        <v>3.4</v>
+      </c>
+      <c r="Y76">
+        <v>2.3</v>
+      </c>
+      <c r="Z76">
+        <v>1.57</v>
+      </c>
+      <c r="AA76">
+        <v>4.75</v>
+      </c>
+      <c r="AB76">
+        <v>1.15</v>
+      </c>
+      <c r="AC76">
+        <v>3.1</v>
+      </c>
+      <c r="AD76">
+        <v>3.6</v>
+      </c>
+      <c r="AE76">
+        <v>2</v>
+      </c>
+      <c r="AF76">
+        <v>1.02</v>
+      </c>
+      <c r="AG76">
+        <v>12</v>
+      </c>
+      <c r="AH76">
+        <v>1.2</v>
+      </c>
+      <c r="AI76">
+        <v>4.33</v>
+      </c>
+      <c r="AJ76">
+        <v>1.59</v>
+      </c>
+      <c r="AK76">
+        <v>2.16</v>
+      </c>
+      <c r="AL76">
+        <v>1.53</v>
+      </c>
+      <c r="AM76">
+        <v>2.38</v>
+      </c>
+      <c r="AN76">
+        <v>1.65</v>
+      </c>
+      <c r="AO76">
+        <v>1.22</v>
+      </c>
+      <c r="AP76">
+        <v>1.4</v>
+      </c>
+      <c r="AQ76">
+        <v>2.5</v>
+      </c>
+      <c r="AR76">
+        <v>0.75</v>
+      </c>
+      <c r="AS76">
+        <v>2</v>
+      </c>
+      <c r="AT76">
+        <v>1.2</v>
+      </c>
+      <c r="AU76">
+        <v>2.03</v>
+      </c>
+      <c r="AV76">
+        <v>1.8</v>
+      </c>
+      <c r="AW76">
+        <v>3.83</v>
+      </c>
+      <c r="AX76">
+        <v>2.25</v>
+      </c>
+      <c r="AY76">
+        <v>5.75</v>
+      </c>
+      <c r="AZ76">
+        <v>1.76</v>
+      </c>
+      <c r="BA76">
+        <v>1.14</v>
+      </c>
+      <c r="BB76">
+        <v>1.22</v>
+      </c>
+      <c r="BC76">
+        <v>1.41</v>
+      </c>
+      <c r="BD76">
+        <v>1.71</v>
+      </c>
+      <c r="BE76">
+        <v>2.2</v>
+      </c>
+      <c r="BF76">
+        <v>8</v>
+      </c>
+      <c r="BG76">
+        <v>6</v>
+      </c>
+      <c r="BH76">
+        <v>8</v>
+      </c>
+      <c r="BI76">
+        <v>7</v>
+      </c>
+      <c r="BJ76">
+        <v>16</v>
+      </c>
+      <c r="BK76">
+        <v>13</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2023)/Norway Eliteserien_2023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Norway Eliteserien_2023.xlsx
@@ -394,10 +394,10 @@
     <t>['32']</t>
   </si>
   <si>
+    <t>['18', '27', '49', '56', '66']</t>
+  </si>
+  <si>
     <t>['18', '28', '88', '90+1', '90+5']</t>
-  </si>
-  <si>
-    <t>['18', '27', '49', '56', '66']</t>
   </si>
   <si>
     <t>['12', '51', '88']</t>
@@ -13147,7 +13147,7 @@
         <v>64</v>
       </c>
       <c r="B65">
-        <v>4869427</v>
+        <v>4869430</v>
       </c>
       <c r="C65" t="s">
         <v>63</v>
@@ -13162,10 +13162,10 @@
         <v>8</v>
       </c>
       <c r="G65" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="H65" t="s">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="I65">
         <v>2</v>
@@ -13180,61 +13180,61 @@
         <v>5</v>
       </c>
       <c r="M65">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N65">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="O65" t="s">
         <v>126</v>
       </c>
       <c r="P65" t="s">
-        <v>172</v>
+        <v>82</v>
       </c>
       <c r="Q65">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="R65">
         <v>2</v>
       </c>
       <c r="S65">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="T65">
-        <v>1.83</v>
+        <v>1.57</v>
       </c>
       <c r="U65">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="V65">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="W65">
+        <v>1.2</v>
+      </c>
+      <c r="X65">
+        <v>4.33</v>
+      </c>
+      <c r="Y65">
+        <v>1.91</v>
+      </c>
+      <c r="Z65">
+        <v>1.8</v>
+      </c>
+      <c r="AA65">
+        <v>4</v>
+      </c>
+      <c r="AB65">
         <v>1.22</v>
       </c>
-      <c r="X65">
-        <v>4</v>
-      </c>
-      <c r="Y65">
-        <v>2.1</v>
-      </c>
-      <c r="Z65">
-        <v>1.67</v>
-      </c>
-      <c r="AA65">
-        <v>4.5</v>
-      </c>
-      <c r="AB65">
-        <v>1.18</v>
-      </c>
       <c r="AC65">
-        <v>1.33</v>
+        <v>1.15</v>
       </c>
       <c r="AD65">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="AE65">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="AF65">
         <v>1.02</v>
@@ -13243,94 +13243,94 @@
         <v>26</v>
       </c>
       <c r="AH65">
-        <v>1.13</v>
+        <v>1.1</v>
       </c>
       <c r="AI65">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AJ65">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="AK65">
-        <v>2.85</v>
+        <v>3</v>
       </c>
       <c r="AL65">
-        <v>1.62</v>
+        <v>1.91</v>
       </c>
       <c r="AM65">
+        <v>1.91</v>
+      </c>
+      <c r="AN65">
+        <v>1.02</v>
+      </c>
+      <c r="AO65">
+        <v>1.07</v>
+      </c>
+      <c r="AP65">
+        <v>4.5</v>
+      </c>
+      <c r="AQ65">
+        <v>1.75</v>
+      </c>
+      <c r="AR65">
+        <v>0.5</v>
+      </c>
+      <c r="AS65">
+        <v>2</v>
+      </c>
+      <c r="AT65">
+        <v>0.4</v>
+      </c>
+      <c r="AU65">
+        <v>1.75</v>
+      </c>
+      <c r="AV65">
+        <v>1.06</v>
+      </c>
+      <c r="AW65">
+        <v>2.81</v>
+      </c>
+      <c r="AX65">
+        <v>1.1</v>
+      </c>
+      <c r="AY65">
+        <v>16</v>
+      </c>
+      <c r="AZ65">
+        <v>8.4</v>
+      </c>
+      <c r="BA65">
+        <v>1.12</v>
+      </c>
+      <c r="BB65">
+        <v>1.22</v>
+      </c>
+      <c r="BC65">
+        <v>1.41</v>
+      </c>
+      <c r="BD65">
+        <v>1.72</v>
+      </c>
+      <c r="BE65">
         <v>2.2</v>
-      </c>
-      <c r="AN65">
-        <v>1.09</v>
-      </c>
-      <c r="AO65">
-        <v>1.12</v>
-      </c>
-      <c r="AP65">
-        <v>3.1</v>
-      </c>
-      <c r="AQ65">
-        <v>2.5</v>
-      </c>
-      <c r="AR65">
-        <v>1.33</v>
-      </c>
-      <c r="AS65">
-        <v>2.6</v>
-      </c>
-      <c r="AT65">
-        <v>1</v>
-      </c>
-      <c r="AU65">
-        <v>1.6</v>
-      </c>
-      <c r="AV65">
-        <v>1.65</v>
-      </c>
-      <c r="AW65">
-        <v>3.25</v>
-      </c>
-      <c r="AX65">
-        <v>1.27</v>
-      </c>
-      <c r="AY65">
-        <v>11</v>
-      </c>
-      <c r="AZ65">
-        <v>4.74</v>
-      </c>
-      <c r="BA65">
-        <v>1.18</v>
-      </c>
-      <c r="BB65">
-        <v>1.32</v>
-      </c>
-      <c r="BC65">
-        <v>1.57</v>
-      </c>
-      <c r="BD65">
-        <v>1.98</v>
-      </c>
-      <c r="BE65">
-        <v>2.65</v>
       </c>
       <c r="BF65">
         <v>10</v>
       </c>
       <c r="BG65">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="BH65">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="BI65">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="BJ65">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="BK65">
-        <v>14</v>
+        <v>7</v>
       </c>
     </row>
     <row r="66" spans="1:63">
@@ -13338,7 +13338,7 @@
         <v>65</v>
       </c>
       <c r="B66">
-        <v>4869430</v>
+        <v>4869427</v>
       </c>
       <c r="C66" t="s">
         <v>63</v>
@@ -13353,10 +13353,10 @@
         <v>8</v>
       </c>
       <c r="G66" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="H66" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="I66">
         <v>2</v>
@@ -13371,61 +13371,61 @@
         <v>5</v>
       </c>
       <c r="M66">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N66">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="O66" t="s">
         <v>127</v>
       </c>
       <c r="P66" t="s">
-        <v>82</v>
+        <v>172</v>
       </c>
       <c r="Q66">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="R66">
         <v>2</v>
       </c>
       <c r="S66">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="T66">
-        <v>1.57</v>
+        <v>1.83</v>
       </c>
       <c r="U66">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="V66">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="W66">
-        <v>1.2</v>
+        <v>1.22</v>
       </c>
       <c r="X66">
-        <v>4.33</v>
+        <v>4</v>
       </c>
       <c r="Y66">
-        <v>1.91</v>
+        <v>2.1</v>
       </c>
       <c r="Z66">
-        <v>1.8</v>
+        <v>1.67</v>
       </c>
       <c r="AA66">
-        <v>4</v>
+        <v>4.5</v>
       </c>
       <c r="AB66">
-        <v>1.22</v>
+        <v>1.18</v>
       </c>
       <c r="AC66">
-        <v>1.15</v>
+        <v>1.33</v>
       </c>
       <c r="AD66">
+        <v>5</v>
+      </c>
+      <c r="AE66">
         <v>7</v>
-      </c>
-      <c r="AE66">
-        <v>12</v>
       </c>
       <c r="AF66">
         <v>1.02</v>
@@ -13434,94 +13434,94 @@
         <v>26</v>
       </c>
       <c r="AH66">
-        <v>1.1</v>
+        <v>1.13</v>
       </c>
       <c r="AI66">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AJ66">
-        <v>1.4</v>
+        <v>1.44</v>
       </c>
       <c r="AK66">
-        <v>3</v>
+        <v>2.85</v>
       </c>
       <c r="AL66">
-        <v>1.91</v>
+        <v>1.62</v>
       </c>
       <c r="AM66">
-        <v>1.91</v>
+        <v>2.2</v>
       </c>
       <c r="AN66">
-        <v>1.02</v>
+        <v>1.09</v>
       </c>
       <c r="AO66">
-        <v>1.07</v>
+        <v>1.12</v>
       </c>
       <c r="AP66">
-        <v>4.5</v>
+        <v>3.1</v>
       </c>
       <c r="AQ66">
-        <v>1.75</v>
+        <v>2.5</v>
       </c>
       <c r="AR66">
-        <v>0.5</v>
+        <v>1.33</v>
       </c>
       <c r="AS66">
-        <v>2</v>
+        <v>2.6</v>
       </c>
       <c r="AT66">
-        <v>0.4</v>
+        <v>1</v>
       </c>
       <c r="AU66">
-        <v>1.75</v>
+        <v>1.6</v>
       </c>
       <c r="AV66">
-        <v>1.06</v>
+        <v>1.65</v>
       </c>
       <c r="AW66">
-        <v>2.81</v>
+        <v>3.25</v>
       </c>
       <c r="AX66">
-        <v>1.1</v>
+        <v>1.27</v>
       </c>
       <c r="AY66">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="AZ66">
-        <v>8.4</v>
+        <v>4.74</v>
       </c>
       <c r="BA66">
-        <v>1.12</v>
+        <v>1.18</v>
       </c>
       <c r="BB66">
-        <v>1.22</v>
+        <v>1.32</v>
       </c>
       <c r="BC66">
-        <v>1.41</v>
+        <v>1.57</v>
       </c>
       <c r="BD66">
-        <v>1.72</v>
+        <v>1.98</v>
       </c>
       <c r="BE66">
-        <v>2.2</v>
+        <v>2.65</v>
       </c>
       <c r="BF66">
         <v>10</v>
       </c>
       <c r="BG66">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="BH66">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="BI66">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="BJ66">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="BK66">
-        <v>7</v>
+        <v>14</v>
       </c>
     </row>
     <row r="67" spans="1:63">

--- a/Bases_de_Dados_(2022-2023)/Norway Eliteserien_2023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Norway Eliteserien_2023.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="513" uniqueCount="179">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="561" uniqueCount="191">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -424,6 +424,27 @@
     <t>['6', '47', '50']</t>
   </si>
   <si>
+    <t>['8', '10']</t>
+  </si>
+  <si>
+    <t>['78']</t>
+  </si>
+  <si>
+    <t>['10', '13', '20']</t>
+  </si>
+  <si>
+    <t>['86']</t>
+  </si>
+  <si>
+    <t>['64', '67', '79']</t>
+  </si>
+  <si>
+    <t>['23', '82']</t>
+  </si>
+  <si>
+    <t>['57', '60']</t>
+  </si>
+  <si>
     <t>['79']</t>
   </si>
   <si>
@@ -532,9 +553,6 @@
     <t>['18', '49']</t>
   </si>
   <si>
-    <t>['78']</t>
-  </si>
-  <si>
     <t>['48', '80', '89']</t>
   </si>
   <si>
@@ -551,6 +569,24 @@
   </si>
   <si>
     <t>['2', '29', '75', '90+3']</t>
+  </si>
+  <si>
+    <t>['68']</t>
+  </si>
+  <si>
+    <t>['29', '89']</t>
+  </si>
+  <si>
+    <t>['55', '90+4']</t>
+  </si>
+  <si>
+    <t>['13', '48', '90+2']</t>
+  </si>
+  <si>
+    <t>['40', '54', '73']</t>
+  </si>
+  <si>
+    <t>['24', '73']</t>
   </si>
 </sst>
 </file>
@@ -912,7 +948,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BK76"/>
+  <dimension ref="A1:BK84"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1246,7 +1282,7 @@
         <v>1.67</v>
       </c>
       <c r="AT2">
-        <v>1</v>
+        <v>1.4</v>
       </c>
       <c r="AU2">
         <v>0</v>
@@ -1347,7 +1383,7 @@
         <v>82</v>
       </c>
       <c r="P3" t="s">
-        <v>136</v>
+        <v>143</v>
       </c>
       <c r="Q3">
         <v>3</v>
@@ -1434,7 +1470,7 @@
         <v>0</v>
       </c>
       <c r="AS3">
-        <v>0.8</v>
+        <v>0.67</v>
       </c>
       <c r="AT3">
         <v>1.4</v>
@@ -1628,7 +1664,7 @@
         <v>1.4</v>
       </c>
       <c r="AT4">
-        <v>0.4</v>
+        <v>0.33</v>
       </c>
       <c r="AU4">
         <v>0</v>
@@ -1729,7 +1765,7 @@
         <v>82</v>
       </c>
       <c r="P5" t="s">
-        <v>137</v>
+        <v>144</v>
       </c>
       <c r="Q5">
         <v>1</v>
@@ -1816,7 +1852,7 @@
         <v>0</v>
       </c>
       <c r="AS5">
-        <v>1.75</v>
+        <v>1.4</v>
       </c>
       <c r="AT5">
         <v>3</v>
@@ -2007,7 +2043,7 @@
         <v>0</v>
       </c>
       <c r="AS6">
-        <v>2.2</v>
+        <v>2</v>
       </c>
       <c r="AT6">
         <v>0.83</v>
@@ -2201,7 +2237,7 @@
         <v>1.4</v>
       </c>
       <c r="AT7">
-        <v>1.2</v>
+        <v>1</v>
       </c>
       <c r="AU7">
         <v>0</v>
@@ -2389,7 +2425,7 @@
         <v>0</v>
       </c>
       <c r="AS8">
-        <v>2.6</v>
+        <v>2.33</v>
       </c>
       <c r="AT8">
         <v>0.8</v>
@@ -2583,7 +2619,7 @@
         <v>2</v>
       </c>
       <c r="AT9">
-        <v>1.75</v>
+        <v>1.6</v>
       </c>
       <c r="AU9">
         <v>0</v>
@@ -2771,7 +2807,7 @@
         <v>0</v>
       </c>
       <c r="AS10">
-        <v>2.6</v>
+        <v>2.67</v>
       </c>
       <c r="AT10">
         <v>0.75</v>
@@ -2875,7 +2911,7 @@
         <v>88</v>
       </c>
       <c r="P11" t="s">
-        <v>138</v>
+        <v>145</v>
       </c>
       <c r="Q11">
         <v>6</v>
@@ -2962,7 +2998,7 @@
         <v>0</v>
       </c>
       <c r="AS11">
-        <v>1.25</v>
+        <v>1.6</v>
       </c>
       <c r="AT11">
         <v>0</v>
@@ -3066,7 +3102,7 @@
         <v>89</v>
       </c>
       <c r="P12" t="s">
-        <v>139</v>
+        <v>146</v>
       </c>
       <c r="Q12">
         <v>7</v>
@@ -3156,7 +3192,7 @@
         <v>2</v>
       </c>
       <c r="AT12">
-        <v>0.5</v>
+        <v>0.6</v>
       </c>
       <c r="AU12">
         <v>0</v>
@@ -3344,7 +3380,7 @@
         <v>0</v>
       </c>
       <c r="AS13">
-        <v>1.25</v>
+        <v>1.6</v>
       </c>
       <c r="AT13">
         <v>1.4</v>
@@ -3538,7 +3574,7 @@
         <v>1.75</v>
       </c>
       <c r="AT14">
-        <v>2.5</v>
+        <v>2.6</v>
       </c>
       <c r="AU14">
         <v>0</v>
@@ -3830,7 +3866,7 @@
         <v>82</v>
       </c>
       <c r="P16" t="s">
-        <v>140</v>
+        <v>147</v>
       </c>
       <c r="Q16">
         <v>6</v>
@@ -3917,7 +3953,7 @@
         <v>0</v>
       </c>
       <c r="AS16">
-        <v>0.75</v>
+        <v>0.6</v>
       </c>
       <c r="AT16">
         <v>1.6</v>
@@ -4021,7 +4057,7 @@
         <v>92</v>
       </c>
       <c r="P17" t="s">
-        <v>141</v>
+        <v>148</v>
       </c>
       <c r="Q17">
         <v>14</v>
@@ -4111,7 +4147,7 @@
         <v>1.8</v>
       </c>
       <c r="AT17">
-        <v>0.4</v>
+        <v>0.83</v>
       </c>
       <c r="AU17">
         <v>0</v>
@@ -4212,7 +4248,7 @@
         <v>93</v>
       </c>
       <c r="P18" t="s">
-        <v>142</v>
+        <v>149</v>
       </c>
       <c r="Q18">
         <v>8</v>
@@ -4299,7 +4335,7 @@
         <v>3</v>
       </c>
       <c r="AS18">
-        <v>2.6</v>
+        <v>2.33</v>
       </c>
       <c r="AT18">
         <v>1.4</v>
@@ -4403,7 +4439,7 @@
         <v>82</v>
       </c>
       <c r="P19" t="s">
-        <v>143</v>
+        <v>150</v>
       </c>
       <c r="Q19">
         <v>1</v>
@@ -4490,7 +4526,7 @@
         <v>3</v>
       </c>
       <c r="AS19">
-        <v>0.8</v>
+        <v>0.67</v>
       </c>
       <c r="AT19">
         <v>3</v>
@@ -4684,7 +4720,7 @@
         <v>1.4</v>
       </c>
       <c r="AT20">
-        <v>0.4</v>
+        <v>0.83</v>
       </c>
       <c r="AU20">
         <v>1.35</v>
@@ -4785,7 +4821,7 @@
         <v>95</v>
       </c>
       <c r="P21" t="s">
-        <v>144</v>
+        <v>151</v>
       </c>
       <c r="Q21">
         <v>7</v>
@@ -4875,7 +4911,7 @@
         <v>1.67</v>
       </c>
       <c r="AT21">
-        <v>0.4</v>
+        <v>0.33</v>
       </c>
       <c r="AU21">
         <v>0.9399999999999999</v>
@@ -5063,7 +5099,7 @@
         <v>1</v>
       </c>
       <c r="AS22">
-        <v>1.75</v>
+        <v>1.4</v>
       </c>
       <c r="AT22">
         <v>0.83</v>
@@ -5254,7 +5290,7 @@
         <v>0</v>
       </c>
       <c r="AS23">
-        <v>2.2</v>
+        <v>2</v>
       </c>
       <c r="AT23">
         <v>0.8</v>
@@ -5358,7 +5394,7 @@
         <v>97</v>
       </c>
       <c r="P24" t="s">
-        <v>145</v>
+        <v>152</v>
       </c>
       <c r="Q24">
         <v>5</v>
@@ -5448,7 +5484,7 @@
         <v>1.4</v>
       </c>
       <c r="AT24">
-        <v>1</v>
+        <v>1.4</v>
       </c>
       <c r="AU24">
         <v>0.65</v>
@@ -5549,7 +5585,7 @@
         <v>98</v>
       </c>
       <c r="P25" t="s">
-        <v>146</v>
+        <v>153</v>
       </c>
       <c r="Q25">
         <v>11</v>
@@ -5639,7 +5675,7 @@
         <v>1.8</v>
       </c>
       <c r="AT25">
-        <v>1.2</v>
+        <v>1</v>
       </c>
       <c r="AU25">
         <v>2.11</v>
@@ -5740,7 +5776,7 @@
         <v>99</v>
       </c>
       <c r="P26" t="s">
-        <v>147</v>
+        <v>154</v>
       </c>
       <c r="Q26">
         <v>7</v>
@@ -5827,7 +5863,7 @@
         <v>0</v>
       </c>
       <c r="AS26">
-        <v>2.6</v>
+        <v>2.67</v>
       </c>
       <c r="AT26">
         <v>1.4</v>
@@ -5931,7 +5967,7 @@
         <v>100</v>
       </c>
       <c r="P27" t="s">
-        <v>148</v>
+        <v>155</v>
       </c>
       <c r="Q27">
         <v>10</v>
@@ -6122,7 +6158,7 @@
         <v>82</v>
       </c>
       <c r="P28" t="s">
-        <v>149</v>
+        <v>156</v>
       </c>
       <c r="Q28">
         <v>12</v>
@@ -6212,7 +6248,7 @@
         <v>1.5</v>
       </c>
       <c r="AT28">
-        <v>2.5</v>
+        <v>2.6</v>
       </c>
       <c r="AU28">
         <v>1.16</v>
@@ -6400,7 +6436,7 @@
         <v>3</v>
       </c>
       <c r="AS29">
-        <v>1.25</v>
+        <v>1.6</v>
       </c>
       <c r="AT29">
         <v>1.6</v>
@@ -6504,7 +6540,7 @@
         <v>101</v>
       </c>
       <c r="P30" t="s">
-        <v>150</v>
+        <v>157</v>
       </c>
       <c r="Q30">
         <v>8</v>
@@ -6973,10 +7009,10 @@
         <v>1</v>
       </c>
       <c r="AS32">
-        <v>1.25</v>
+        <v>1.6</v>
       </c>
       <c r="AT32">
-        <v>0.5</v>
+        <v>0.6</v>
       </c>
       <c r="AU32">
         <v>1.3</v>
@@ -7077,7 +7113,7 @@
         <v>103</v>
       </c>
       <c r="P33" t="s">
-        <v>151</v>
+        <v>158</v>
       </c>
       <c r="Q33">
         <v>2</v>
@@ -7164,10 +7200,10 @@
         <v>0</v>
       </c>
       <c r="AS33">
-        <v>0.75</v>
+        <v>0.6</v>
       </c>
       <c r="AT33">
-        <v>1.75</v>
+        <v>1.6</v>
       </c>
       <c r="AU33">
         <v>1.55</v>
@@ -7268,7 +7304,7 @@
         <v>82</v>
       </c>
       <c r="P34" t="s">
-        <v>152</v>
+        <v>159</v>
       </c>
       <c r="Q34">
         <v>0</v>
@@ -7546,7 +7582,7 @@
         <v>1</v>
       </c>
       <c r="AS35">
-        <v>2.6</v>
+        <v>2.67</v>
       </c>
       <c r="AT35">
         <v>0.83</v>
@@ -7841,7 +7877,7 @@
         <v>106</v>
       </c>
       <c r="P37" t="s">
-        <v>153</v>
+        <v>160</v>
       </c>
       <c r="Q37">
         <v>4</v>
@@ -8032,7 +8068,7 @@
         <v>107</v>
       </c>
       <c r="P38" t="s">
-        <v>154</v>
+        <v>161</v>
       </c>
       <c r="Q38">
         <v>6</v>
@@ -8119,7 +8155,7 @@
         <v>2</v>
       </c>
       <c r="AS38">
-        <v>2.2</v>
+        <v>2</v>
       </c>
       <c r="AT38">
         <v>1.6</v>
@@ -8223,7 +8259,7 @@
         <v>82</v>
       </c>
       <c r="P39" t="s">
-        <v>155</v>
+        <v>162</v>
       </c>
       <c r="Q39">
         <v>8</v>
@@ -8313,7 +8349,7 @@
         <v>1.4</v>
       </c>
       <c r="AT39">
-        <v>1.2</v>
+        <v>1</v>
       </c>
       <c r="AU39">
         <v>1.53</v>
@@ -8501,7 +8537,7 @@
         <v>0</v>
       </c>
       <c r="AS40">
-        <v>0.8</v>
+        <v>0.67</v>
       </c>
       <c r="AT40">
         <v>0.8</v>
@@ -8605,7 +8641,7 @@
         <v>82</v>
       </c>
       <c r="P41" t="s">
-        <v>156</v>
+        <v>163</v>
       </c>
       <c r="Q41">
         <v>5</v>
@@ -8796,7 +8832,7 @@
         <v>108</v>
       </c>
       <c r="P42" t="s">
-        <v>157</v>
+        <v>164</v>
       </c>
       <c r="Q42">
         <v>6</v>
@@ -8886,7 +8922,7 @@
         <v>2</v>
       </c>
       <c r="AT42">
-        <v>0.4</v>
+        <v>0.83</v>
       </c>
       <c r="AU42">
         <v>1.99</v>
@@ -8987,7 +9023,7 @@
         <v>109</v>
       </c>
       <c r="P43" t="s">
-        <v>158</v>
+        <v>165</v>
       </c>
       <c r="Q43">
         <v>5</v>
@@ -9265,10 +9301,10 @@
         <v>0.5</v>
       </c>
       <c r="AS44">
-        <v>2.6</v>
+        <v>2.33</v>
       </c>
       <c r="AT44">
-        <v>0.4</v>
+        <v>0.33</v>
       </c>
       <c r="AU44">
         <v>1.99</v>
@@ -9369,7 +9405,7 @@
         <v>82</v>
       </c>
       <c r="P45" t="s">
-        <v>159</v>
+        <v>166</v>
       </c>
       <c r="Q45">
         <v>5</v>
@@ -9456,10 +9492,10 @@
         <v>1.5</v>
       </c>
       <c r="AS45">
-        <v>1.25</v>
+        <v>1.6</v>
       </c>
       <c r="AT45">
-        <v>1.75</v>
+        <v>1.6</v>
       </c>
       <c r="AU45">
         <v>1.07</v>
@@ -9560,7 +9596,7 @@
         <v>110</v>
       </c>
       <c r="P46" t="s">
-        <v>160</v>
+        <v>167</v>
       </c>
       <c r="Q46">
         <v>4</v>
@@ -9647,10 +9683,10 @@
         <v>1</v>
       </c>
       <c r="AS46">
-        <v>2.6</v>
+        <v>2.67</v>
       </c>
       <c r="AT46">
-        <v>0.5</v>
+        <v>0.6</v>
       </c>
       <c r="AU46">
         <v>1.66</v>
@@ -9751,7 +9787,7 @@
         <v>111</v>
       </c>
       <c r="P47" t="s">
-        <v>161</v>
+        <v>168</v>
       </c>
       <c r="Q47">
         <v>3</v>
@@ -9841,7 +9877,7 @@
         <v>1.4</v>
       </c>
       <c r="AT47">
-        <v>2.5</v>
+        <v>2.6</v>
       </c>
       <c r="AU47">
         <v>1.39</v>
@@ -9942,7 +9978,7 @@
         <v>112</v>
       </c>
       <c r="P48" t="s">
-        <v>162</v>
+        <v>169</v>
       </c>
       <c r="Q48">
         <v>6</v>
@@ -10032,7 +10068,7 @@
         <v>2</v>
       </c>
       <c r="AT48">
-        <v>0.4</v>
+        <v>0.83</v>
       </c>
       <c r="AU48">
         <v>1.76</v>
@@ -10133,7 +10169,7 @@
         <v>113</v>
       </c>
       <c r="P49" t="s">
-        <v>163</v>
+        <v>170</v>
       </c>
       <c r="Q49">
         <v>7</v>
@@ -10223,7 +10259,7 @@
         <v>1.75</v>
       </c>
       <c r="AT49">
-        <v>1</v>
+        <v>1.4</v>
       </c>
       <c r="AU49">
         <v>1.41</v>
@@ -10324,7 +10360,7 @@
         <v>114</v>
       </c>
       <c r="P50" t="s">
-        <v>136</v>
+        <v>143</v>
       </c>
       <c r="Q50">
         <v>3</v>
@@ -10411,7 +10447,7 @@
         <v>1.33</v>
       </c>
       <c r="AS50">
-        <v>1.75</v>
+        <v>1.4</v>
       </c>
       <c r="AT50">
         <v>1.4</v>
@@ -10602,7 +10638,7 @@
         <v>0</v>
       </c>
       <c r="AS51">
-        <v>2.2</v>
+        <v>2</v>
       </c>
       <c r="AT51">
         <v>0</v>
@@ -10706,7 +10742,7 @@
         <v>116</v>
       </c>
       <c r="P52" t="s">
-        <v>164</v>
+        <v>171</v>
       </c>
       <c r="Q52">
         <v>3</v>
@@ -10793,7 +10829,7 @@
         <v>2</v>
       </c>
       <c r="AS52">
-        <v>1.25</v>
+        <v>1.6</v>
       </c>
       <c r="AT52">
         <v>1.4</v>
@@ -11178,7 +11214,7 @@
         <v>1.5</v>
       </c>
       <c r="AT54">
-        <v>0.4</v>
+        <v>0.33</v>
       </c>
       <c r="AU54">
         <v>1.54</v>
@@ -11279,7 +11315,7 @@
         <v>118</v>
       </c>
       <c r="P55" t="s">
-        <v>165</v>
+        <v>172</v>
       </c>
       <c r="Q55">
         <v>3</v>
@@ -11470,7 +11506,7 @@
         <v>119</v>
       </c>
       <c r="P56" t="s">
-        <v>166</v>
+        <v>173</v>
       </c>
       <c r="Q56">
         <v>6</v>
@@ -11748,7 +11784,7 @@
         <v>0</v>
       </c>
       <c r="AS57">
-        <v>0.75</v>
+        <v>0.6</v>
       </c>
       <c r="AT57">
         <v>0</v>
@@ -11939,10 +11975,10 @@
         <v>1</v>
       </c>
       <c r="AS58">
-        <v>0.8</v>
+        <v>0.67</v>
       </c>
       <c r="AT58">
-        <v>1.2</v>
+        <v>1</v>
       </c>
       <c r="AU58">
         <v>1.07</v>
@@ -12043,7 +12079,7 @@
         <v>95</v>
       </c>
       <c r="P59" t="s">
-        <v>167</v>
+        <v>174</v>
       </c>
       <c r="Q59">
         <v>6</v>
@@ -12234,7 +12270,7 @@
         <v>122</v>
       </c>
       <c r="P60" t="s">
-        <v>146</v>
+        <v>153</v>
       </c>
       <c r="Q60">
         <v>6</v>
@@ -12321,7 +12357,7 @@
         <v>1.5</v>
       </c>
       <c r="AS60">
-        <v>2.6</v>
+        <v>2.33</v>
       </c>
       <c r="AT60">
         <v>0.75</v>
@@ -12425,7 +12461,7 @@
         <v>123</v>
       </c>
       <c r="P61" t="s">
-        <v>168</v>
+        <v>175</v>
       </c>
       <c r="Q61">
         <v>11</v>
@@ -12512,7 +12548,7 @@
         <v>0</v>
       </c>
       <c r="AS61">
-        <v>1.75</v>
+        <v>1.4</v>
       </c>
       <c r="AT61">
         <v>0</v>
@@ -12616,7 +12652,7 @@
         <v>124</v>
       </c>
       <c r="P62" t="s">
-        <v>169</v>
+        <v>176</v>
       </c>
       <c r="Q62">
         <v>1</v>
@@ -12703,7 +12739,7 @@
         <v>1.75</v>
       </c>
       <c r="AS62">
-        <v>2.2</v>
+        <v>2</v>
       </c>
       <c r="AT62">
         <v>1.4</v>
@@ -12807,7 +12843,7 @@
         <v>109</v>
       </c>
       <c r="P63" t="s">
-        <v>170</v>
+        <v>177</v>
       </c>
       <c r="Q63">
         <v>10</v>
@@ -12894,10 +12930,10 @@
         <v>0.25</v>
       </c>
       <c r="AS63">
-        <v>1.25</v>
+        <v>1.6</v>
       </c>
       <c r="AT63">
-        <v>0.4</v>
+        <v>0.83</v>
       </c>
       <c r="AU63">
         <v>1.3</v>
@@ -12998,7 +13034,7 @@
         <v>125</v>
       </c>
       <c r="P64" t="s">
-        <v>171</v>
+        <v>178</v>
       </c>
       <c r="Q64">
         <v>4</v>
@@ -13085,10 +13121,10 @@
         <v>2.33</v>
       </c>
       <c r="AS64">
-        <v>1.25</v>
+        <v>1.6</v>
       </c>
       <c r="AT64">
-        <v>2.5</v>
+        <v>2.6</v>
       </c>
       <c r="AU64">
         <v>1.04</v>
@@ -13279,7 +13315,7 @@
         <v>2</v>
       </c>
       <c r="AT65">
-        <v>0.4</v>
+        <v>0.33</v>
       </c>
       <c r="AU65">
         <v>1.75</v>
@@ -13380,7 +13416,7 @@
         <v>127</v>
       </c>
       <c r="P66" t="s">
-        <v>172</v>
+        <v>137</v>
       </c>
       <c r="Q66">
         <v>6</v>
@@ -13467,10 +13503,10 @@
         <v>1.33</v>
       </c>
       <c r="AS66">
-        <v>2.6</v>
+        <v>2.67</v>
       </c>
       <c r="AT66">
-        <v>1</v>
+        <v>1.4</v>
       </c>
       <c r="AU66">
         <v>1.6</v>
@@ -13658,10 +13694,10 @@
         <v>0.67</v>
       </c>
       <c r="AS67">
-        <v>2.6</v>
+        <v>2.33</v>
       </c>
       <c r="AT67">
-        <v>0.5</v>
+        <v>0.6</v>
       </c>
       <c r="AU67">
         <v>2.11</v>
@@ -13852,7 +13888,7 @@
         <v>1.4</v>
       </c>
       <c r="AT68">
-        <v>1.75</v>
+        <v>1.6</v>
       </c>
       <c r="AU68">
         <v>1.48</v>
@@ -13953,7 +13989,7 @@
         <v>129</v>
       </c>
       <c r="P69" t="s">
-        <v>173</v>
+        <v>179</v>
       </c>
       <c r="Q69">
         <v>3</v>
@@ -14040,7 +14076,7 @@
         <v>1</v>
       </c>
       <c r="AS69">
-        <v>0.8</v>
+        <v>0.67</v>
       </c>
       <c r="AT69">
         <v>1.4</v>
@@ -14144,7 +14180,7 @@
         <v>130</v>
       </c>
       <c r="P70" t="s">
-        <v>174</v>
+        <v>180</v>
       </c>
       <c r="Q70">
         <v>6</v>
@@ -14526,7 +14562,7 @@
         <v>132</v>
       </c>
       <c r="P72" t="s">
-        <v>175</v>
+        <v>181</v>
       </c>
       <c r="Q72">
         <v>3</v>
@@ -14717,7 +14753,7 @@
         <v>133</v>
       </c>
       <c r="P73" t="s">
-        <v>176</v>
+        <v>182</v>
       </c>
       <c r="Q73">
         <v>4</v>
@@ -15099,7 +15135,7 @@
         <v>107</v>
       </c>
       <c r="P75" t="s">
-        <v>177</v>
+        <v>183</v>
       </c>
       <c r="Q75">
         <v>1</v>
@@ -15186,7 +15222,7 @@
         <v>3</v>
       </c>
       <c r="AS75">
-        <v>0.75</v>
+        <v>0.6</v>
       </c>
       <c r="AT75">
         <v>3</v>
@@ -15290,7 +15326,7 @@
         <v>135</v>
       </c>
       <c r="P76" t="s">
-        <v>178</v>
+        <v>184</v>
       </c>
       <c r="Q76">
         <v>3</v>
@@ -15380,7 +15416,7 @@
         <v>2</v>
       </c>
       <c r="AT76">
-        <v>1.2</v>
+        <v>1</v>
       </c>
       <c r="AU76">
         <v>2.03</v>
@@ -15432,6 +15468,1534 @@
       </c>
       <c r="BK76">
         <v>13</v>
+      </c>
+    </row>
+    <row r="77" spans="1:63">
+      <c r="A77" s="1">
+        <v>76</v>
+      </c>
+      <c r="B77">
+        <v>4869449</v>
+      </c>
+      <c r="C77" t="s">
+        <v>63</v>
+      </c>
+      <c r="D77" t="s">
+        <v>64</v>
+      </c>
+      <c r="E77" s="2">
+        <v>45088.5</v>
+      </c>
+      <c r="F77">
+        <v>10</v>
+      </c>
+      <c r="G77" t="s">
+        <v>79</v>
+      </c>
+      <c r="H77" t="s">
+        <v>78</v>
+      </c>
+      <c r="I77">
+        <v>0</v>
+      </c>
+      <c r="J77">
+        <v>0</v>
+      </c>
+      <c r="K77">
+        <v>0</v>
+      </c>
+      <c r="L77">
+        <v>0</v>
+      </c>
+      <c r="M77">
+        <v>1</v>
+      </c>
+      <c r="N77">
+        <v>1</v>
+      </c>
+      <c r="O77" t="s">
+        <v>82</v>
+      </c>
+      <c r="P77" t="s">
+        <v>185</v>
+      </c>
+      <c r="Q77">
+        <v>7</v>
+      </c>
+      <c r="R77">
+        <v>2</v>
+      </c>
+      <c r="S77">
+        <v>9</v>
+      </c>
+      <c r="T77">
+        <v>2.25</v>
+      </c>
+      <c r="U77">
+        <v>2.4</v>
+      </c>
+      <c r="V77">
+        <v>4.5</v>
+      </c>
+      <c r="W77">
+        <v>1.29</v>
+      </c>
+      <c r="X77">
+        <v>3.5</v>
+      </c>
+      <c r="Y77">
+        <v>2.25</v>
+      </c>
+      <c r="Z77">
+        <v>1.57</v>
+      </c>
+      <c r="AA77">
+        <v>5.5</v>
+      </c>
+      <c r="AB77">
+        <v>1.14</v>
+      </c>
+      <c r="AC77">
+        <v>1.7</v>
+      </c>
+      <c r="AD77">
+        <v>3.9</v>
+      </c>
+      <c r="AE77">
+        <v>4.4</v>
+      </c>
+      <c r="AF77">
+        <v>1.03</v>
+      </c>
+      <c r="AG77">
+        <v>8.5</v>
+      </c>
+      <c r="AH77">
+        <v>1.17</v>
+      </c>
+      <c r="AI77">
+        <v>4.5</v>
+      </c>
+      <c r="AJ77">
+        <v>1.58</v>
+      </c>
+      <c r="AK77">
+        <v>2.38</v>
+      </c>
+      <c r="AL77">
+        <v>1.62</v>
+      </c>
+      <c r="AM77">
+        <v>2.2</v>
+      </c>
+      <c r="AN77">
+        <v>1.2</v>
+      </c>
+      <c r="AO77">
+        <v>1.2</v>
+      </c>
+      <c r="AP77">
+        <v>2.2</v>
+      </c>
+      <c r="AQ77">
+        <v>0.75</v>
+      </c>
+      <c r="AR77">
+        <v>0.4</v>
+      </c>
+      <c r="AS77">
+        <v>0.6</v>
+      </c>
+      <c r="AT77">
+        <v>0.83</v>
+      </c>
+      <c r="AU77">
+        <v>1.61</v>
+      </c>
+      <c r="AV77">
+        <v>1.26</v>
+      </c>
+      <c r="AW77">
+        <v>2.87</v>
+      </c>
+      <c r="AX77">
+        <v>1.4</v>
+      </c>
+      <c r="AY77">
+        <v>10</v>
+      </c>
+      <c r="AZ77">
+        <v>3.6</v>
+      </c>
+      <c r="BA77">
+        <v>1.13</v>
+      </c>
+      <c r="BB77">
+        <v>1.21</v>
+      </c>
+      <c r="BC77">
+        <v>1.39</v>
+      </c>
+      <c r="BD77">
+        <v>1.7</v>
+      </c>
+      <c r="BE77">
+        <v>2.13</v>
+      </c>
+      <c r="BF77">
+        <v>8</v>
+      </c>
+      <c r="BG77">
+        <v>4</v>
+      </c>
+      <c r="BH77">
+        <v>9</v>
+      </c>
+      <c r="BI77">
+        <v>5</v>
+      </c>
+      <c r="BJ77">
+        <v>17</v>
+      </c>
+      <c r="BK77">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="78" spans="1:63">
+      <c r="A78" s="1">
+        <v>77</v>
+      </c>
+      <c r="B78">
+        <v>4869448</v>
+      </c>
+      <c r="C78" t="s">
+        <v>63</v>
+      </c>
+      <c r="D78" t="s">
+        <v>64</v>
+      </c>
+      <c r="E78" s="2">
+        <v>45088.5</v>
+      </c>
+      <c r="F78">
+        <v>10</v>
+      </c>
+      <c r="G78" t="s">
+        <v>69</v>
+      </c>
+      <c r="H78" t="s">
+        <v>65</v>
+      </c>
+      <c r="I78">
+        <v>2</v>
+      </c>
+      <c r="J78">
+        <v>1</v>
+      </c>
+      <c r="K78">
+        <v>3</v>
+      </c>
+      <c r="L78">
+        <v>2</v>
+      </c>
+      <c r="M78">
+        <v>2</v>
+      </c>
+      <c r="N78">
+        <v>4</v>
+      </c>
+      <c r="O78" t="s">
+        <v>136</v>
+      </c>
+      <c r="P78" t="s">
+        <v>186</v>
+      </c>
+      <c r="Q78">
+        <v>2</v>
+      </c>
+      <c r="R78">
+        <v>5</v>
+      </c>
+      <c r="S78">
+        <v>7</v>
+      </c>
+      <c r="T78">
+        <v>3.5</v>
+      </c>
+      <c r="U78">
+        <v>2.05</v>
+      </c>
+      <c r="V78">
+        <v>3.25</v>
+      </c>
+      <c r="W78">
+        <v>1.44</v>
+      </c>
+      <c r="X78">
+        <v>2.63</v>
+      </c>
+      <c r="Y78">
+        <v>3.25</v>
+      </c>
+      <c r="Z78">
+        <v>1.33</v>
+      </c>
+      <c r="AA78">
+        <v>9</v>
+      </c>
+      <c r="AB78">
+        <v>1.07</v>
+      </c>
+      <c r="AC78">
+        <v>2.75</v>
+      </c>
+      <c r="AD78">
+        <v>3.2</v>
+      </c>
+      <c r="AE78">
+        <v>2.5</v>
+      </c>
+      <c r="AF78">
+        <v>1.05</v>
+      </c>
+      <c r="AG78">
+        <v>8</v>
+      </c>
+      <c r="AH78">
+        <v>1.33</v>
+      </c>
+      <c r="AI78">
+        <v>3</v>
+      </c>
+      <c r="AJ78">
+        <v>2.02</v>
+      </c>
+      <c r="AK78">
+        <v>1.84</v>
+      </c>
+      <c r="AL78">
+        <v>1.8</v>
+      </c>
+      <c r="AM78">
+        <v>1.95</v>
+      </c>
+      <c r="AN78">
+        <v>1.52</v>
+      </c>
+      <c r="AO78">
+        <v>1.34</v>
+      </c>
+      <c r="AP78">
+        <v>1.44</v>
+      </c>
+      <c r="AQ78">
+        <v>2.2</v>
+      </c>
+      <c r="AR78">
+        <v>0.5</v>
+      </c>
+      <c r="AS78">
+        <v>2</v>
+      </c>
+      <c r="AT78">
+        <v>0.6</v>
+      </c>
+      <c r="AU78">
+        <v>1.65</v>
+      </c>
+      <c r="AV78">
+        <v>1.01</v>
+      </c>
+      <c r="AW78">
+        <v>2.66</v>
+      </c>
+      <c r="AX78">
+        <v>1.98</v>
+      </c>
+      <c r="AY78">
+        <v>9.5</v>
+      </c>
+      <c r="AZ78">
+        <v>2.08</v>
+      </c>
+      <c r="BA78">
+        <v>1.22</v>
+      </c>
+      <c r="BB78">
+        <v>1.41</v>
+      </c>
+      <c r="BC78">
+        <v>1.7</v>
+      </c>
+      <c r="BD78">
+        <v>2.15</v>
+      </c>
+      <c r="BE78">
+        <v>2.85</v>
+      </c>
+      <c r="BF78">
+        <v>4</v>
+      </c>
+      <c r="BG78">
+        <v>6</v>
+      </c>
+      <c r="BH78">
+        <v>4</v>
+      </c>
+      <c r="BI78">
+        <v>6</v>
+      </c>
+      <c r="BJ78">
+        <v>8</v>
+      </c>
+      <c r="BK78">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="79" spans="1:63">
+      <c r="A79" s="1">
+        <v>78</v>
+      </c>
+      <c r="B79">
+        <v>4869446</v>
+      </c>
+      <c r="C79" t="s">
+        <v>63</v>
+      </c>
+      <c r="D79" t="s">
+        <v>64</v>
+      </c>
+      <c r="E79" s="2">
+        <v>45088.5</v>
+      </c>
+      <c r="F79">
+        <v>10</v>
+      </c>
+      <c r="G79" t="s">
+        <v>76</v>
+      </c>
+      <c r="H79" t="s">
+        <v>75</v>
+      </c>
+      <c r="I79">
+        <v>0</v>
+      </c>
+      <c r="J79">
+        <v>0</v>
+      </c>
+      <c r="K79">
+        <v>0</v>
+      </c>
+      <c r="L79">
+        <v>1</v>
+      </c>
+      <c r="M79">
+        <v>0</v>
+      </c>
+      <c r="N79">
+        <v>1</v>
+      </c>
+      <c r="O79" t="s">
+        <v>137</v>
+      </c>
+      <c r="P79" t="s">
+        <v>82</v>
+      </c>
+      <c r="Q79">
+        <v>5</v>
+      </c>
+      <c r="R79">
+        <v>11</v>
+      </c>
+      <c r="S79">
+        <v>16</v>
+      </c>
+      <c r="T79">
+        <v>4.33</v>
+      </c>
+      <c r="U79">
+        <v>2.38</v>
+      </c>
+      <c r="V79">
+        <v>2.38</v>
+      </c>
+      <c r="W79">
+        <v>1.3</v>
+      </c>
+      <c r="X79">
+        <v>3.25</v>
+      </c>
+      <c r="Y79">
+        <v>2.4</v>
+      </c>
+      <c r="Z79">
+        <v>1.52</v>
+      </c>
+      <c r="AA79">
+        <v>5.75</v>
+      </c>
+      <c r="AB79">
+        <v>1.13</v>
+      </c>
+      <c r="AC79">
+        <v>3.9</v>
+      </c>
+      <c r="AD79">
+        <v>3.75</v>
+      </c>
+      <c r="AE79">
+        <v>1.82</v>
+      </c>
+      <c r="AF79">
+        <v>1.03</v>
+      </c>
+      <c r="AG79">
+        <v>16</v>
+      </c>
+      <c r="AH79">
+        <v>1.21</v>
+      </c>
+      <c r="AI79">
+        <v>4.52</v>
+      </c>
+      <c r="AJ79">
+        <v>1.63</v>
+      </c>
+      <c r="AK79">
+        <v>2.28</v>
+      </c>
+      <c r="AL79">
+        <v>1.57</v>
+      </c>
+      <c r="AM79">
+        <v>2.25</v>
+      </c>
+      <c r="AN79">
+        <v>2.05</v>
+      </c>
+      <c r="AO79">
+        <v>1.22</v>
+      </c>
+      <c r="AP79">
+        <v>1.24</v>
+      </c>
+      <c r="AQ79">
+        <v>1.25</v>
+      </c>
+      <c r="AR79">
+        <v>1.2</v>
+      </c>
+      <c r="AS79">
+        <v>1.6</v>
+      </c>
+      <c r="AT79">
+        <v>1</v>
+      </c>
+      <c r="AU79">
+        <v>1.36</v>
+      </c>
+      <c r="AV79">
+        <v>1.76</v>
+      </c>
+      <c r="AW79">
+        <v>3.12</v>
+      </c>
+      <c r="AX79">
+        <v>3.1</v>
+      </c>
+      <c r="AY79">
+        <v>8.5</v>
+      </c>
+      <c r="AZ79">
+        <v>1.53</v>
+      </c>
+      <c r="BA79">
+        <v>1.14</v>
+      </c>
+      <c r="BB79">
+        <v>1.28</v>
+      </c>
+      <c r="BC79">
+        <v>1.5</v>
+      </c>
+      <c r="BD79">
+        <v>1.9</v>
+      </c>
+      <c r="BE79">
+        <v>2.45</v>
+      </c>
+      <c r="BF79">
+        <v>5</v>
+      </c>
+      <c r="BG79">
+        <v>3</v>
+      </c>
+      <c r="BH79">
+        <v>2</v>
+      </c>
+      <c r="BI79">
+        <v>8</v>
+      </c>
+      <c r="BJ79">
+        <v>7</v>
+      </c>
+      <c r="BK79">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="80" spans="1:63">
+      <c r="A80" s="1">
+        <v>79</v>
+      </c>
+      <c r="B80">
+        <v>4869445</v>
+      </c>
+      <c r="C80" t="s">
+        <v>63</v>
+      </c>
+      <c r="D80" t="s">
+        <v>64</v>
+      </c>
+      <c r="E80" s="2">
+        <v>45088.5</v>
+      </c>
+      <c r="F80">
+        <v>10</v>
+      </c>
+      <c r="G80" t="s">
+        <v>74</v>
+      </c>
+      <c r="H80" t="s">
+        <v>77</v>
+      </c>
+      <c r="I80">
+        <v>3</v>
+      </c>
+      <c r="J80">
+        <v>0</v>
+      </c>
+      <c r="K80">
+        <v>3</v>
+      </c>
+      <c r="L80">
+        <v>3</v>
+      </c>
+      <c r="M80">
+        <v>2</v>
+      </c>
+      <c r="N80">
+        <v>5</v>
+      </c>
+      <c r="O80" t="s">
+        <v>138</v>
+      </c>
+      <c r="P80" t="s">
+        <v>187</v>
+      </c>
+      <c r="Q80">
+        <v>7</v>
+      </c>
+      <c r="R80">
+        <v>4</v>
+      </c>
+      <c r="S80">
+        <v>11</v>
+      </c>
+      <c r="T80">
+        <v>2.63</v>
+      </c>
+      <c r="U80">
+        <v>2.3</v>
+      </c>
+      <c r="V80">
+        <v>4.47</v>
+      </c>
+      <c r="W80">
+        <v>1.4</v>
+      </c>
+      <c r="X80">
+        <v>3.1</v>
+      </c>
+      <c r="Y80">
+        <v>2.94</v>
+      </c>
+      <c r="Z80">
+        <v>1.43</v>
+      </c>
+      <c r="AA80">
+        <v>8</v>
+      </c>
+      <c r="AB80">
+        <v>1.08</v>
+      </c>
+      <c r="AC80">
+        <v>1.9</v>
+      </c>
+      <c r="AD80">
+        <v>3.5</v>
+      </c>
+      <c r="AE80">
+        <v>3.8</v>
+      </c>
+      <c r="AF80">
+        <v>1.02</v>
+      </c>
+      <c r="AG80">
+        <v>9.5</v>
+      </c>
+      <c r="AH80">
+        <v>1.25</v>
+      </c>
+      <c r="AI80">
+        <v>3.5</v>
+      </c>
+      <c r="AJ80">
+        <v>1.96</v>
+      </c>
+      <c r="AK80">
+        <v>1.85</v>
+      </c>
+      <c r="AL80">
+        <v>1.72</v>
+      </c>
+      <c r="AM80">
+        <v>2</v>
+      </c>
+      <c r="AN80">
+        <v>1.27</v>
+      </c>
+      <c r="AO80">
+        <v>1.29</v>
+      </c>
+      <c r="AP80">
+        <v>1.87</v>
+      </c>
+      <c r="AQ80">
+        <v>1.25</v>
+      </c>
+      <c r="AR80">
+        <v>0.4</v>
+      </c>
+      <c r="AS80">
+        <v>1.6</v>
+      </c>
+      <c r="AT80">
+        <v>0.33</v>
+      </c>
+      <c r="AU80">
+        <v>1.16</v>
+      </c>
+      <c r="AV80">
+        <v>0.99</v>
+      </c>
+      <c r="AW80">
+        <v>2.15</v>
+      </c>
+      <c r="AX80">
+        <v>1.58</v>
+      </c>
+      <c r="AY80">
+        <v>8.5</v>
+      </c>
+      <c r="AZ80">
+        <v>2.9</v>
+      </c>
+      <c r="BA80">
+        <v>1.13</v>
+      </c>
+      <c r="BB80">
+        <v>1.27</v>
+      </c>
+      <c r="BC80">
+        <v>1.46</v>
+      </c>
+      <c r="BD80">
+        <v>1.83</v>
+      </c>
+      <c r="BE80">
+        <v>2.32</v>
+      </c>
+      <c r="BF80">
+        <v>7</v>
+      </c>
+      <c r="BG80">
+        <v>8</v>
+      </c>
+      <c r="BH80">
+        <v>4</v>
+      </c>
+      <c r="BI80">
+        <v>9</v>
+      </c>
+      <c r="BJ80">
+        <v>11</v>
+      </c>
+      <c r="BK80">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="81" spans="1:63">
+      <c r="A81" s="1">
+        <v>80</v>
+      </c>
+      <c r="B81">
+        <v>4869447</v>
+      </c>
+      <c r="C81" t="s">
+        <v>63</v>
+      </c>
+      <c r="D81" t="s">
+        <v>64</v>
+      </c>
+      <c r="E81" s="2">
+        <v>45088.5</v>
+      </c>
+      <c r="F81">
+        <v>10</v>
+      </c>
+      <c r="G81" t="s">
+        <v>68</v>
+      </c>
+      <c r="H81" t="s">
+        <v>72</v>
+      </c>
+      <c r="I81">
+        <v>0</v>
+      </c>
+      <c r="J81">
+        <v>1</v>
+      </c>
+      <c r="K81">
+        <v>1</v>
+      </c>
+      <c r="L81">
+        <v>1</v>
+      </c>
+      <c r="M81">
+        <v>3</v>
+      </c>
+      <c r="N81">
+        <v>4</v>
+      </c>
+      <c r="O81" t="s">
+        <v>139</v>
+      </c>
+      <c r="P81" t="s">
+        <v>188</v>
+      </c>
+      <c r="Q81">
+        <v>5</v>
+      </c>
+      <c r="R81">
+        <v>3</v>
+      </c>
+      <c r="S81">
+        <v>8</v>
+      </c>
+      <c r="T81">
+        <v>2.5</v>
+      </c>
+      <c r="U81">
+        <v>2.5</v>
+      </c>
+      <c r="V81">
+        <v>3.6</v>
+      </c>
+      <c r="W81">
+        <v>1.25</v>
+      </c>
+      <c r="X81">
+        <v>3.6</v>
+      </c>
+      <c r="Y81">
+        <v>2.15</v>
+      </c>
+      <c r="Z81">
+        <v>1.62</v>
+      </c>
+      <c r="AA81">
+        <v>4.4</v>
+      </c>
+      <c r="AB81">
+        <v>1.17</v>
+      </c>
+      <c r="AC81">
+        <v>2</v>
+      </c>
+      <c r="AD81">
+        <v>3.7</v>
+      </c>
+      <c r="AE81">
+        <v>3.25</v>
+      </c>
+      <c r="AF81">
+        <v>1.02</v>
+      </c>
+      <c r="AG81">
+        <v>12</v>
+      </c>
+      <c r="AH81">
+        <v>1.12</v>
+      </c>
+      <c r="AI81">
+        <v>5.2</v>
+      </c>
+      <c r="AJ81">
+        <v>1.4</v>
+      </c>
+      <c r="AK81">
+        <v>2.75</v>
+      </c>
+      <c r="AL81">
+        <v>1.44</v>
+      </c>
+      <c r="AM81">
+        <v>2.63</v>
+      </c>
+      <c r="AN81">
+        <v>1.33</v>
+      </c>
+      <c r="AO81">
+        <v>1.23</v>
+      </c>
+      <c r="AP81">
+        <v>1.65</v>
+      </c>
+      <c r="AQ81">
+        <v>1.75</v>
+      </c>
+      <c r="AR81">
+        <v>1</v>
+      </c>
+      <c r="AS81">
+        <v>1.4</v>
+      </c>
+      <c r="AT81">
+        <v>1.4</v>
+      </c>
+      <c r="AU81">
+        <v>1.53</v>
+      </c>
+      <c r="AV81">
+        <v>1.61</v>
+      </c>
+      <c r="AW81">
+        <v>3.14</v>
+      </c>
+      <c r="AX81">
+        <v>1.62</v>
+      </c>
+      <c r="AY81">
+        <v>8.5</v>
+      </c>
+      <c r="AZ81">
+        <v>2.8</v>
+      </c>
+      <c r="BA81">
+        <v>1.1</v>
+      </c>
+      <c r="BB81">
+        <v>1.22</v>
+      </c>
+      <c r="BC81">
+        <v>1.4</v>
+      </c>
+      <c r="BD81">
+        <v>1.88</v>
+      </c>
+      <c r="BE81">
+        <v>2.15</v>
+      </c>
+      <c r="BF81">
+        <v>6</v>
+      </c>
+      <c r="BG81">
+        <v>5</v>
+      </c>
+      <c r="BH81">
+        <v>5</v>
+      </c>
+      <c r="BI81">
+        <v>7</v>
+      </c>
+      <c r="BJ81">
+        <v>11</v>
+      </c>
+      <c r="BK81">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="82" spans="1:63">
+      <c r="A82" s="1">
+        <v>81</v>
+      </c>
+      <c r="B82">
+        <v>4869444</v>
+      </c>
+      <c r="C82" t="s">
+        <v>63</v>
+      </c>
+      <c r="D82" t="s">
+        <v>64</v>
+      </c>
+      <c r="E82" s="2">
+        <v>45088.5</v>
+      </c>
+      <c r="F82">
+        <v>10</v>
+      </c>
+      <c r="G82" t="s">
+        <v>73</v>
+      </c>
+      <c r="H82" t="s">
+        <v>67</v>
+      </c>
+      <c r="I82">
+        <v>0</v>
+      </c>
+      <c r="J82">
+        <v>0</v>
+      </c>
+      <c r="K82">
+        <v>0</v>
+      </c>
+      <c r="L82">
+        <v>3</v>
+      </c>
+      <c r="M82">
+        <v>0</v>
+      </c>
+      <c r="N82">
+        <v>3</v>
+      </c>
+      <c r="O82" t="s">
+        <v>140</v>
+      </c>
+      <c r="P82" t="s">
+        <v>82</v>
+      </c>
+      <c r="Q82">
+        <v>16</v>
+      </c>
+      <c r="R82">
+        <v>3</v>
+      </c>
+      <c r="S82">
+        <v>19</v>
+      </c>
+      <c r="T82">
+        <v>1.52</v>
+      </c>
+      <c r="U82">
+        <v>2.95</v>
+      </c>
+      <c r="V82">
+        <v>9</v>
+      </c>
+      <c r="W82">
+        <v>1.2</v>
+      </c>
+      <c r="X82">
+        <v>4.25</v>
+      </c>
+      <c r="Y82">
+        <v>1.95</v>
+      </c>
+      <c r="Z82">
+        <v>1.75</v>
+      </c>
+      <c r="AA82">
+        <v>4.1</v>
+      </c>
+      <c r="AB82">
+        <v>1.22</v>
+      </c>
+      <c r="AC82">
+        <v>1.19</v>
+      </c>
+      <c r="AD82">
+        <v>7.25</v>
+      </c>
+      <c r="AE82">
+        <v>12.5</v>
+      </c>
+      <c r="AF82">
+        <v>1.01</v>
+      </c>
+      <c r="AG82">
+        <v>32.5</v>
+      </c>
+      <c r="AH82">
+        <v>1.11</v>
+      </c>
+      <c r="AI82">
+        <v>6.8</v>
+      </c>
+      <c r="AJ82">
+        <v>1.33</v>
+      </c>
+      <c r="AK82">
+        <v>3</v>
+      </c>
+      <c r="AL82">
+        <v>1.95</v>
+      </c>
+      <c r="AM82">
+        <v>1.85</v>
+      </c>
+      <c r="AN82">
+        <v>1.05</v>
+      </c>
+      <c r="AO82">
+        <v>1.09</v>
+      </c>
+      <c r="AP82">
+        <v>4.7</v>
+      </c>
+      <c r="AQ82">
+        <v>2.6</v>
+      </c>
+      <c r="AR82">
+        <v>0</v>
+      </c>
+      <c r="AS82">
+        <v>2.67</v>
+      </c>
+      <c r="AT82">
+        <v>0</v>
+      </c>
+      <c r="AU82">
+        <v>1.8</v>
+      </c>
+      <c r="AV82">
+        <v>1.34</v>
+      </c>
+      <c r="AW82">
+        <v>3.14</v>
+      </c>
+      <c r="AX82">
+        <v>1.12</v>
+      </c>
+      <c r="AY82">
+        <v>19</v>
+      </c>
+      <c r="AZ82">
+        <v>6.7</v>
+      </c>
+      <c r="BA82">
+        <v>1.11</v>
+      </c>
+      <c r="BB82">
+        <v>1.24</v>
+      </c>
+      <c r="BC82">
+        <v>1.42</v>
+      </c>
+      <c r="BD82">
+        <v>1.98</v>
+      </c>
+      <c r="BE82">
+        <v>2.13</v>
+      </c>
+      <c r="BF82">
+        <v>12</v>
+      </c>
+      <c r="BG82">
+        <v>0</v>
+      </c>
+      <c r="BH82">
+        <v>11</v>
+      </c>
+      <c r="BI82">
+        <v>5</v>
+      </c>
+      <c r="BJ82">
+        <v>23</v>
+      </c>
+      <c r="BK82">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="83" spans="1:63">
+      <c r="A83" s="1">
+        <v>82</v>
+      </c>
+      <c r="B83">
+        <v>4869443</v>
+      </c>
+      <c r="C83" t="s">
+        <v>63</v>
+      </c>
+      <c r="D83" t="s">
+        <v>64</v>
+      </c>
+      <c r="E83" s="2">
+        <v>45088.5</v>
+      </c>
+      <c r="F83">
+        <v>10</v>
+      </c>
+      <c r="G83" t="s">
+        <v>66</v>
+      </c>
+      <c r="H83" t="s">
+        <v>70</v>
+      </c>
+      <c r="I83">
+        <v>1</v>
+      </c>
+      <c r="J83">
+        <v>1</v>
+      </c>
+      <c r="K83">
+        <v>2</v>
+      </c>
+      <c r="L83">
+        <v>2</v>
+      </c>
+      <c r="M83">
+        <v>3</v>
+      </c>
+      <c r="N83">
+        <v>5</v>
+      </c>
+      <c r="O83" t="s">
+        <v>141</v>
+      </c>
+      <c r="P83" t="s">
+        <v>189</v>
+      </c>
+      <c r="Q83">
+        <v>4</v>
+      </c>
+      <c r="R83">
+        <v>2</v>
+      </c>
+      <c r="S83">
+        <v>6</v>
+      </c>
+      <c r="T83">
+        <v>3.21</v>
+      </c>
+      <c r="U83">
+        <v>2.09</v>
+      </c>
+      <c r="V83">
+        <v>4.01</v>
+      </c>
+      <c r="W83">
+        <v>1.5</v>
+      </c>
+      <c r="X83">
+        <v>2.5</v>
+      </c>
+      <c r="Y83">
+        <v>3.4</v>
+      </c>
+      <c r="Z83">
+        <v>1.3</v>
+      </c>
+      <c r="AA83">
+        <v>10</v>
+      </c>
+      <c r="AB83">
+        <v>1.06</v>
+      </c>
+      <c r="AC83">
+        <v>2.3</v>
+      </c>
+      <c r="AD83">
+        <v>3.2</v>
+      </c>
+      <c r="AE83">
+        <v>3.1</v>
+      </c>
+      <c r="AF83">
+        <v>1.08</v>
+      </c>
+      <c r="AG83">
+        <v>8.5</v>
+      </c>
+      <c r="AH83">
+        <v>1.44</v>
+      </c>
+      <c r="AI83">
+        <v>2.8</v>
+      </c>
+      <c r="AJ83">
+        <v>2.28</v>
+      </c>
+      <c r="AK83">
+        <v>1.63</v>
+      </c>
+      <c r="AL83">
+        <v>1.95</v>
+      </c>
+      <c r="AM83">
+        <v>1.8</v>
+      </c>
+      <c r="AN83">
+        <v>1.38</v>
+      </c>
+      <c r="AO83">
+        <v>1.3</v>
+      </c>
+      <c r="AP83">
+        <v>1.6</v>
+      </c>
+      <c r="AQ83">
+        <v>0.8</v>
+      </c>
+      <c r="AR83">
+        <v>2.5</v>
+      </c>
+      <c r="AS83">
+        <v>0.67</v>
+      </c>
+      <c r="AT83">
+        <v>2.6</v>
+      </c>
+      <c r="AU83">
+        <v>1.15</v>
+      </c>
+      <c r="AV83">
+        <v>0.88</v>
+      </c>
+      <c r="AW83">
+        <v>2.03</v>
+      </c>
+      <c r="AX83">
+        <v>1.9</v>
+      </c>
+      <c r="AY83">
+        <v>7.6</v>
+      </c>
+      <c r="AZ83">
+        <v>2.3</v>
+      </c>
+      <c r="BA83">
+        <v>1.25</v>
+      </c>
+      <c r="BB83">
+        <v>1.49</v>
+      </c>
+      <c r="BC83">
+        <v>1.85</v>
+      </c>
+      <c r="BD83">
+        <v>2.37</v>
+      </c>
+      <c r="BE83">
+        <v>3.3</v>
+      </c>
+      <c r="BF83">
+        <v>3</v>
+      </c>
+      <c r="BG83">
+        <v>6</v>
+      </c>
+      <c r="BH83">
+        <v>2</v>
+      </c>
+      <c r="BI83">
+        <v>4</v>
+      </c>
+      <c r="BJ83">
+        <v>5</v>
+      </c>
+      <c r="BK83">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="84" spans="1:63">
+      <c r="A84" s="1">
+        <v>83</v>
+      </c>
+      <c r="B84">
+        <v>4869450</v>
+      </c>
+      <c r="C84" t="s">
+        <v>63</v>
+      </c>
+      <c r="D84" t="s">
+        <v>64</v>
+      </c>
+      <c r="E84" s="2">
+        <v>45088.59375</v>
+      </c>
+      <c r="F84">
+        <v>10</v>
+      </c>
+      <c r="G84" t="s">
+        <v>71</v>
+      </c>
+      <c r="H84" t="s">
+        <v>80</v>
+      </c>
+      <c r="I84">
+        <v>0</v>
+      </c>
+      <c r="J84">
+        <v>1</v>
+      </c>
+      <c r="K84">
+        <v>1</v>
+      </c>
+      <c r="L84">
+        <v>2</v>
+      </c>
+      <c r="M84">
+        <v>2</v>
+      </c>
+      <c r="N84">
+        <v>4</v>
+      </c>
+      <c r="O84" t="s">
+        <v>142</v>
+      </c>
+      <c r="P84" t="s">
+        <v>190</v>
+      </c>
+      <c r="Q84">
+        <v>8</v>
+      </c>
+      <c r="R84">
+        <v>2</v>
+      </c>
+      <c r="S84">
+        <v>10</v>
+      </c>
+      <c r="T84">
+        <v>2.1</v>
+      </c>
+      <c r="U84">
+        <v>2.4</v>
+      </c>
+      <c r="V84">
+        <v>5.5</v>
+      </c>
+      <c r="W84">
+        <v>1.3</v>
+      </c>
+      <c r="X84">
+        <v>3.4</v>
+      </c>
+      <c r="Y84">
+        <v>2.5</v>
+      </c>
+      <c r="Z84">
+        <v>1.5</v>
+      </c>
+      <c r="AA84">
+        <v>6</v>
+      </c>
+      <c r="AB84">
+        <v>1.13</v>
+      </c>
+      <c r="AC84">
+        <v>1.55</v>
+      </c>
+      <c r="AD84">
+        <v>4</v>
+      </c>
+      <c r="AE84">
+        <v>5.5</v>
+      </c>
+      <c r="AF84">
+        <v>1.03</v>
+      </c>
+      <c r="AG84">
+        <v>12</v>
+      </c>
+      <c r="AH84">
+        <v>1.17</v>
+      </c>
+      <c r="AI84">
+        <v>4.25</v>
+      </c>
+      <c r="AJ84">
+        <v>1.71</v>
+      </c>
+      <c r="AK84">
+        <v>2.15</v>
+      </c>
+      <c r="AL84">
+        <v>1.7</v>
+      </c>
+      <c r="AM84">
+        <v>2.05</v>
+      </c>
+      <c r="AN84">
+        <v>1.15</v>
+      </c>
+      <c r="AO84">
+        <v>1.22</v>
+      </c>
+      <c r="AP84">
+        <v>2.41</v>
+      </c>
+      <c r="AQ84">
+        <v>2.6</v>
+      </c>
+      <c r="AR84">
+        <v>1.75</v>
+      </c>
+      <c r="AS84">
+        <v>2.33</v>
+      </c>
+      <c r="AT84">
+        <v>1.6</v>
+      </c>
+      <c r="AU84">
+        <v>2.04</v>
+      </c>
+      <c r="AV84">
+        <v>1.68</v>
+      </c>
+      <c r="AW84">
+        <v>3.72</v>
+      </c>
+      <c r="AX84">
+        <v>1.3</v>
+      </c>
+      <c r="AY84">
+        <v>11.5</v>
+      </c>
+      <c r="AZ84">
+        <v>4.14</v>
+      </c>
+      <c r="BA84">
+        <v>1.1</v>
+      </c>
+      <c r="BB84">
+        <v>1.17</v>
+      </c>
+      <c r="BC84">
+        <v>1.31</v>
+      </c>
+      <c r="BD84">
+        <v>1.54</v>
+      </c>
+      <c r="BE84">
+        <v>1.94</v>
+      </c>
+      <c r="BF84">
+        <v>4</v>
+      </c>
+      <c r="BG84">
+        <v>3</v>
+      </c>
+      <c r="BH84">
+        <v>4</v>
+      </c>
+      <c r="BI84">
+        <v>4</v>
+      </c>
+      <c r="BJ84">
+        <v>8</v>
+      </c>
+      <c r="BK84">
+        <v>7</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2023)/Norway Eliteserien_2023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Norway Eliteserien_2023.xlsx
@@ -16980,22 +16980,22 @@
         <v>1.94</v>
       </c>
       <c r="BF84">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="BG84">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="BH84">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="BI84">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="BJ84">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="BK84">
-        <v>7</v>
+        <v>10</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2023)/Norway Eliteserien_2023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Norway Eliteserien_2023.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="561" uniqueCount="191">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="597" uniqueCount="197">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -445,6 +445,18 @@
     <t>['57', '60']</t>
   </si>
   <si>
+    <t>['41', '69', '75']</t>
+  </si>
+  <si>
+    <t>['39']</t>
+  </si>
+  <si>
+    <t>['15', '35']</t>
+  </si>
+  <si>
+    <t>['45+2', '90+5']</t>
+  </si>
+  <si>
     <t>['79']</t>
   </si>
   <si>
@@ -541,9 +553,6 @@
     <t>['47', '54']</t>
   </si>
   <si>
-    <t>['39']</t>
-  </si>
-  <si>
     <t>['84']</t>
   </si>
   <si>
@@ -587,6 +596,15 @@
   </si>
   <si>
     <t>['24', '73']</t>
+  </si>
+  <si>
+    <t>['83']</t>
+  </si>
+  <si>
+    <t>['22', '24', '45+3']</t>
+  </si>
+  <si>
+    <t>['7']</t>
   </si>
 </sst>
 </file>
@@ -948,7 +966,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BK84"/>
+  <dimension ref="A1:BK90"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1279,7 +1297,7 @@
         <v>0</v>
       </c>
       <c r="AS2">
-        <v>1.67</v>
+        <v>1.43</v>
       </c>
       <c r="AT2">
         <v>1.4</v>
@@ -1383,7 +1401,7 @@
         <v>82</v>
       </c>
       <c r="P3" t="s">
-        <v>143</v>
+        <v>147</v>
       </c>
       <c r="Q3">
         <v>3</v>
@@ -1661,7 +1679,7 @@
         <v>0</v>
       </c>
       <c r="AS4">
-        <v>1.4</v>
+        <v>1.17</v>
       </c>
       <c r="AT4">
         <v>0.33</v>
@@ -1765,7 +1783,7 @@
         <v>82</v>
       </c>
       <c r="P5" t="s">
-        <v>144</v>
+        <v>148</v>
       </c>
       <c r="Q5">
         <v>1</v>
@@ -1855,7 +1873,7 @@
         <v>1.4</v>
       </c>
       <c r="AT5">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="AU5">
         <v>0</v>
@@ -2046,7 +2064,7 @@
         <v>2</v>
       </c>
       <c r="AT6">
-        <v>0.83</v>
+        <v>1.14</v>
       </c>
       <c r="AU6">
         <v>0</v>
@@ -2234,7 +2252,7 @@
         <v>0</v>
       </c>
       <c r="AS7">
-        <v>1.4</v>
+        <v>1.67</v>
       </c>
       <c r="AT7">
         <v>1</v>
@@ -2428,7 +2446,7 @@
         <v>2.33</v>
       </c>
       <c r="AT8">
-        <v>0.8</v>
+        <v>0.67</v>
       </c>
       <c r="AU8">
         <v>0</v>
@@ -2616,7 +2634,7 @@
         <v>0</v>
       </c>
       <c r="AS9">
-        <v>2</v>
+        <v>2.17</v>
       </c>
       <c r="AT9">
         <v>1.6</v>
@@ -2810,7 +2828,7 @@
         <v>2.67</v>
       </c>
       <c r="AT10">
-        <v>0.75</v>
+        <v>0.6</v>
       </c>
       <c r="AU10">
         <v>0</v>
@@ -2911,7 +2929,7 @@
         <v>88</v>
       </c>
       <c r="P11" t="s">
-        <v>145</v>
+        <v>149</v>
       </c>
       <c r="Q11">
         <v>6</v>
@@ -3102,7 +3120,7 @@
         <v>89</v>
       </c>
       <c r="P12" t="s">
-        <v>146</v>
+        <v>150</v>
       </c>
       <c r="Q12">
         <v>7</v>
@@ -3189,7 +3207,7 @@
         <v>0</v>
       </c>
       <c r="AS12">
-        <v>2</v>
+        <v>2.17</v>
       </c>
       <c r="AT12">
         <v>0.6</v>
@@ -3383,7 +3401,7 @@
         <v>1.6</v>
       </c>
       <c r="AT13">
-        <v>1.4</v>
+        <v>1.17</v>
       </c>
       <c r="AU13">
         <v>0</v>
@@ -3762,7 +3780,7 @@
         <v>0</v>
       </c>
       <c r="AS15">
-        <v>1.5</v>
+        <v>1.8</v>
       </c>
       <c r="AT15">
         <v>0</v>
@@ -3866,7 +3884,7 @@
         <v>82</v>
       </c>
       <c r="P16" t="s">
-        <v>147</v>
+        <v>151</v>
       </c>
       <c r="Q16">
         <v>6</v>
@@ -3956,7 +3974,7 @@
         <v>0.6</v>
       </c>
       <c r="AT16">
-        <v>1.6</v>
+        <v>1.83</v>
       </c>
       <c r="AU16">
         <v>0</v>
@@ -4057,7 +4075,7 @@
         <v>92</v>
       </c>
       <c r="P17" t="s">
-        <v>148</v>
+        <v>152</v>
       </c>
       <c r="Q17">
         <v>14</v>
@@ -4248,7 +4266,7 @@
         <v>93</v>
       </c>
       <c r="P18" t="s">
-        <v>149</v>
+        <v>153</v>
       </c>
       <c r="Q18">
         <v>8</v>
@@ -4439,7 +4457,7 @@
         <v>82</v>
       </c>
       <c r="P19" t="s">
-        <v>150</v>
+        <v>154</v>
       </c>
       <c r="Q19">
         <v>1</v>
@@ -4529,7 +4547,7 @@
         <v>0.67</v>
       </c>
       <c r="AT19">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="AU19">
         <v>1.23</v>
@@ -4717,7 +4735,7 @@
         <v>0</v>
       </c>
       <c r="AS20">
-        <v>1.4</v>
+        <v>1.17</v>
       </c>
       <c r="AT20">
         <v>0.83</v>
@@ -4821,7 +4839,7 @@
         <v>95</v>
       </c>
       <c r="P21" t="s">
-        <v>151</v>
+        <v>155</v>
       </c>
       <c r="Q21">
         <v>7</v>
@@ -4908,7 +4926,7 @@
         <v>0</v>
       </c>
       <c r="AS21">
-        <v>1.67</v>
+        <v>1.43</v>
       </c>
       <c r="AT21">
         <v>0.33</v>
@@ -5102,7 +5120,7 @@
         <v>1.4</v>
       </c>
       <c r="AT22">
-        <v>0.83</v>
+        <v>1.14</v>
       </c>
       <c r="AU22">
         <v>1.05</v>
@@ -5293,7 +5311,7 @@
         <v>2</v>
       </c>
       <c r="AT23">
-        <v>0.8</v>
+        <v>0.67</v>
       </c>
       <c r="AU23">
         <v>1.95</v>
@@ -5394,7 +5412,7 @@
         <v>97</v>
       </c>
       <c r="P24" t="s">
-        <v>152</v>
+        <v>156</v>
       </c>
       <c r="Q24">
         <v>5</v>
@@ -5481,7 +5499,7 @@
         <v>0</v>
       </c>
       <c r="AS24">
-        <v>1.4</v>
+        <v>1.67</v>
       </c>
       <c r="AT24">
         <v>1.4</v>
@@ -5585,7 +5603,7 @@
         <v>98</v>
       </c>
       <c r="P25" t="s">
-        <v>153</v>
+        <v>157</v>
       </c>
       <c r="Q25">
         <v>11</v>
@@ -5776,7 +5794,7 @@
         <v>99</v>
       </c>
       <c r="P26" t="s">
-        <v>154</v>
+        <v>158</v>
       </c>
       <c r="Q26">
         <v>7</v>
@@ -5866,7 +5884,7 @@
         <v>2.67</v>
       </c>
       <c r="AT26">
-        <v>1.4</v>
+        <v>1.17</v>
       </c>
       <c r="AU26">
         <v>2.11</v>
@@ -5967,7 +5985,7 @@
         <v>100</v>
       </c>
       <c r="P27" t="s">
-        <v>155</v>
+        <v>159</v>
       </c>
       <c r="Q27">
         <v>10</v>
@@ -6054,7 +6072,7 @@
         <v>0</v>
       </c>
       <c r="AS27">
-        <v>2</v>
+        <v>2.17</v>
       </c>
       <c r="AT27">
         <v>0</v>
@@ -6158,7 +6176,7 @@
         <v>82</v>
       </c>
       <c r="P28" t="s">
-        <v>156</v>
+        <v>160</v>
       </c>
       <c r="Q28">
         <v>12</v>
@@ -6245,7 +6263,7 @@
         <v>1</v>
       </c>
       <c r="AS28">
-        <v>1.5</v>
+        <v>1.8</v>
       </c>
       <c r="AT28">
         <v>2.6</v>
@@ -6439,7 +6457,7 @@
         <v>1.6</v>
       </c>
       <c r="AT29">
-        <v>1.6</v>
+        <v>1.83</v>
       </c>
       <c r="AU29">
         <v>1.16</v>
@@ -6540,7 +6558,7 @@
         <v>101</v>
       </c>
       <c r="P30" t="s">
-        <v>157</v>
+        <v>161</v>
       </c>
       <c r="Q30">
         <v>8</v>
@@ -6627,10 +6645,10 @@
         <v>0</v>
       </c>
       <c r="AS30">
-        <v>2</v>
+        <v>2.17</v>
       </c>
       <c r="AT30">
-        <v>0.75</v>
+        <v>0.6</v>
       </c>
       <c r="AU30">
         <v>1.02</v>
@@ -7113,7 +7131,7 @@
         <v>103</v>
       </c>
       <c r="P33" t="s">
-        <v>158</v>
+        <v>162</v>
       </c>
       <c r="Q33">
         <v>2</v>
@@ -7304,7 +7322,7 @@
         <v>82</v>
       </c>
       <c r="P34" t="s">
-        <v>159</v>
+        <v>163</v>
       </c>
       <c r="Q34">
         <v>0</v>
@@ -7391,10 +7409,10 @@
         <v>0.5</v>
       </c>
       <c r="AS34">
-        <v>1.67</v>
+        <v>1.43</v>
       </c>
       <c r="AT34">
-        <v>1.4</v>
+        <v>1.17</v>
       </c>
       <c r="AU34">
         <v>1.42</v>
@@ -7585,7 +7603,7 @@
         <v>2.67</v>
       </c>
       <c r="AT35">
-        <v>0.83</v>
+        <v>1.14</v>
       </c>
       <c r="AU35">
         <v>1.83</v>
@@ -7773,7 +7791,7 @@
         <v>0</v>
       </c>
       <c r="AS36">
-        <v>2</v>
+        <v>2.17</v>
       </c>
       <c r="AT36">
         <v>0</v>
@@ -7877,7 +7895,7 @@
         <v>106</v>
       </c>
       <c r="P37" t="s">
-        <v>160</v>
+        <v>164</v>
       </c>
       <c r="Q37">
         <v>4</v>
@@ -7964,7 +7982,7 @@
         <v>1.5</v>
       </c>
       <c r="AS37">
-        <v>1.67</v>
+        <v>1.43</v>
       </c>
       <c r="AT37">
         <v>1.4</v>
@@ -8068,7 +8086,7 @@
         <v>107</v>
       </c>
       <c r="P38" t="s">
-        <v>161</v>
+        <v>165</v>
       </c>
       <c r="Q38">
         <v>6</v>
@@ -8158,7 +8176,7 @@
         <v>2</v>
       </c>
       <c r="AT38">
-        <v>1.6</v>
+        <v>1.83</v>
       </c>
       <c r="AU38">
         <v>2.01</v>
@@ -8259,7 +8277,7 @@
         <v>82</v>
       </c>
       <c r="P39" t="s">
-        <v>162</v>
+        <v>166</v>
       </c>
       <c r="Q39">
         <v>8</v>
@@ -8346,7 +8364,7 @@
         <v>0</v>
       </c>
       <c r="AS39">
-        <v>1.4</v>
+        <v>1.17</v>
       </c>
       <c r="AT39">
         <v>1</v>
@@ -8540,7 +8558,7 @@
         <v>0.67</v>
       </c>
       <c r="AT40">
-        <v>0.8</v>
+        <v>0.67</v>
       </c>
       <c r="AU40">
         <v>1.01</v>
@@ -8641,7 +8659,7 @@
         <v>82</v>
       </c>
       <c r="P41" t="s">
-        <v>163</v>
+        <v>167</v>
       </c>
       <c r="Q41">
         <v>5</v>
@@ -8728,10 +8746,10 @@
         <v>0.67</v>
       </c>
       <c r="AS41">
-        <v>1.4</v>
+        <v>1.67</v>
       </c>
       <c r="AT41">
-        <v>0.83</v>
+        <v>1.14</v>
       </c>
       <c r="AU41">
         <v>1.01</v>
@@ -8832,7 +8850,7 @@
         <v>108</v>
       </c>
       <c r="P42" t="s">
-        <v>164</v>
+        <v>168</v>
       </c>
       <c r="Q42">
         <v>6</v>
@@ -8919,7 +8937,7 @@
         <v>0</v>
       </c>
       <c r="AS42">
-        <v>2</v>
+        <v>2.17</v>
       </c>
       <c r="AT42">
         <v>0.83</v>
@@ -9023,7 +9041,7 @@
         <v>109</v>
       </c>
       <c r="P43" t="s">
-        <v>165</v>
+        <v>169</v>
       </c>
       <c r="Q43">
         <v>5</v>
@@ -9113,7 +9131,7 @@
         <v>1.8</v>
       </c>
       <c r="AT43">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="AU43">
         <v>1.64</v>
@@ -9405,7 +9423,7 @@
         <v>82</v>
       </c>
       <c r="P45" t="s">
-        <v>166</v>
+        <v>170</v>
       </c>
       <c r="Q45">
         <v>5</v>
@@ -9596,7 +9614,7 @@
         <v>110</v>
       </c>
       <c r="P46" t="s">
-        <v>167</v>
+        <v>171</v>
       </c>
       <c r="Q46">
         <v>4</v>
@@ -9787,7 +9805,7 @@
         <v>111</v>
       </c>
       <c r="P47" t="s">
-        <v>168</v>
+        <v>172</v>
       </c>
       <c r="Q47">
         <v>3</v>
@@ -9874,7 +9892,7 @@
         <v>2</v>
       </c>
       <c r="AS47">
-        <v>1.4</v>
+        <v>1.17</v>
       </c>
       <c r="AT47">
         <v>2.6</v>
@@ -9978,7 +9996,7 @@
         <v>112</v>
       </c>
       <c r="P48" t="s">
-        <v>169</v>
+        <v>173</v>
       </c>
       <c r="Q48">
         <v>6</v>
@@ -10065,7 +10083,7 @@
         <v>0.33</v>
       </c>
       <c r="AS48">
-        <v>2</v>
+        <v>2.17</v>
       </c>
       <c r="AT48">
         <v>0.83</v>
@@ -10169,7 +10187,7 @@
         <v>113</v>
       </c>
       <c r="P49" t="s">
-        <v>170</v>
+        <v>174</v>
       </c>
       <c r="Q49">
         <v>7</v>
@@ -10360,7 +10378,7 @@
         <v>114</v>
       </c>
       <c r="P50" t="s">
-        <v>143</v>
+        <v>147</v>
       </c>
       <c r="Q50">
         <v>3</v>
@@ -10450,7 +10468,7 @@
         <v>1.4</v>
       </c>
       <c r="AT50">
-        <v>1.4</v>
+        <v>1.17</v>
       </c>
       <c r="AU50">
         <v>1.25</v>
@@ -10742,7 +10760,7 @@
         <v>116</v>
       </c>
       <c r="P52" t="s">
-        <v>171</v>
+        <v>175</v>
       </c>
       <c r="Q52">
         <v>3</v>
@@ -11020,10 +11038,10 @@
         <v>0.33</v>
       </c>
       <c r="AS53">
-        <v>1.67</v>
+        <v>1.43</v>
       </c>
       <c r="AT53">
-        <v>0.8</v>
+        <v>0.67</v>
       </c>
       <c r="AU53">
         <v>1.31</v>
@@ -11211,7 +11229,7 @@
         <v>0.67</v>
       </c>
       <c r="AS54">
-        <v>1.5</v>
+        <v>1.8</v>
       </c>
       <c r="AT54">
         <v>0.33</v>
@@ -11315,7 +11333,7 @@
         <v>118</v>
       </c>
       <c r="P55" t="s">
-        <v>172</v>
+        <v>176</v>
       </c>
       <c r="Q55">
         <v>3</v>
@@ -11402,10 +11420,10 @@
         <v>3</v>
       </c>
       <c r="AS55">
-        <v>1.4</v>
+        <v>1.67</v>
       </c>
       <c r="AT55">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="AU55">
         <v>1.09</v>
@@ -11506,7 +11524,7 @@
         <v>119</v>
       </c>
       <c r="P56" t="s">
-        <v>173</v>
+        <v>177</v>
       </c>
       <c r="Q56">
         <v>6</v>
@@ -11593,10 +11611,10 @@
         <v>1.25</v>
       </c>
       <c r="AS56">
-        <v>2</v>
+        <v>2.17</v>
       </c>
       <c r="AT56">
-        <v>0.83</v>
+        <v>1.14</v>
       </c>
       <c r="AU56">
         <v>1.97</v>
@@ -12079,7 +12097,7 @@
         <v>95</v>
       </c>
       <c r="P59" t="s">
-        <v>174</v>
+        <v>178</v>
       </c>
       <c r="Q59">
         <v>6</v>
@@ -12169,7 +12187,7 @@
         <v>1.8</v>
       </c>
       <c r="AT59">
-        <v>1.6</v>
+        <v>1.83</v>
       </c>
       <c r="AU59">
         <v>1.58</v>
@@ -12270,7 +12288,7 @@
         <v>122</v>
       </c>
       <c r="P60" t="s">
-        <v>153</v>
+        <v>157</v>
       </c>
       <c r="Q60">
         <v>6</v>
@@ -12360,7 +12378,7 @@
         <v>2.33</v>
       </c>
       <c r="AT60">
-        <v>0.75</v>
+        <v>0.6</v>
       </c>
       <c r="AU60">
         <v>2.3</v>
@@ -12461,7 +12479,7 @@
         <v>123</v>
       </c>
       <c r="P61" t="s">
-        <v>175</v>
+        <v>144</v>
       </c>
       <c r="Q61">
         <v>11</v>
@@ -12652,7 +12670,7 @@
         <v>124</v>
       </c>
       <c r="P62" t="s">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c r="Q62">
         <v>1</v>
@@ -12843,7 +12861,7 @@
         <v>109</v>
       </c>
       <c r="P63" t="s">
-        <v>177</v>
+        <v>180</v>
       </c>
       <c r="Q63">
         <v>10</v>
@@ -13034,7 +13052,7 @@
         <v>125</v>
       </c>
       <c r="P64" t="s">
-        <v>178</v>
+        <v>181</v>
       </c>
       <c r="Q64">
         <v>4</v>
@@ -13312,7 +13330,7 @@
         <v>0.5</v>
       </c>
       <c r="AS65">
-        <v>2</v>
+        <v>2.17</v>
       </c>
       <c r="AT65">
         <v>0.33</v>
@@ -13885,7 +13903,7 @@
         <v>2</v>
       </c>
       <c r="AS68">
-        <v>1.4</v>
+        <v>1.17</v>
       </c>
       <c r="AT68">
         <v>1.6</v>
@@ -13989,7 +14007,7 @@
         <v>129</v>
       </c>
       <c r="P69" t="s">
-        <v>179</v>
+        <v>182</v>
       </c>
       <c r="Q69">
         <v>3</v>
@@ -14079,7 +14097,7 @@
         <v>0.67</v>
       </c>
       <c r="AT69">
-        <v>1.4</v>
+        <v>1.17</v>
       </c>
       <c r="AU69">
         <v>1.2</v>
@@ -14180,7 +14198,7 @@
         <v>130</v>
       </c>
       <c r="P70" t="s">
-        <v>180</v>
+        <v>183</v>
       </c>
       <c r="Q70">
         <v>6</v>
@@ -14270,7 +14288,7 @@
         <v>1.8</v>
       </c>
       <c r="AT70">
-        <v>0.75</v>
+        <v>0.6</v>
       </c>
       <c r="AU70">
         <v>1.77</v>
@@ -14458,7 +14476,7 @@
         <v>0</v>
       </c>
       <c r="AS71">
-        <v>1.67</v>
+        <v>1.43</v>
       </c>
       <c r="AT71">
         <v>0</v>
@@ -14562,7 +14580,7 @@
         <v>132</v>
       </c>
       <c r="P72" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="Q72">
         <v>3</v>
@@ -14652,7 +14670,7 @@
         <v>1.75</v>
       </c>
       <c r="AT72">
-        <v>0.83</v>
+        <v>1.14</v>
       </c>
       <c r="AU72">
         <v>1.69</v>
@@ -14753,7 +14771,7 @@
         <v>133</v>
       </c>
       <c r="P73" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
       <c r="Q73">
         <v>4</v>
@@ -14840,10 +14858,10 @@
         <v>0.25</v>
       </c>
       <c r="AS73">
-        <v>1.5</v>
+        <v>1.8</v>
       </c>
       <c r="AT73">
-        <v>0.8</v>
+        <v>0.67</v>
       </c>
       <c r="AU73">
         <v>1.78</v>
@@ -15031,10 +15049,10 @@
         <v>2</v>
       </c>
       <c r="AS74">
-        <v>1.4</v>
+        <v>1.67</v>
       </c>
       <c r="AT74">
-        <v>1.6</v>
+        <v>1.83</v>
       </c>
       <c r="AU74">
         <v>1.2</v>
@@ -15135,7 +15153,7 @@
         <v>107</v>
       </c>
       <c r="P75" t="s">
-        <v>183</v>
+        <v>186</v>
       </c>
       <c r="Q75">
         <v>1</v>
@@ -15225,7 +15243,7 @@
         <v>0.6</v>
       </c>
       <c r="AT75">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="AU75">
         <v>1.73</v>
@@ -15326,7 +15344,7 @@
         <v>135</v>
       </c>
       <c r="P76" t="s">
-        <v>184</v>
+        <v>187</v>
       </c>
       <c r="Q76">
         <v>3</v>
@@ -15413,7 +15431,7 @@
         <v>0.75</v>
       </c>
       <c r="AS76">
-        <v>2</v>
+        <v>2.17</v>
       </c>
       <c r="AT76">
         <v>1</v>
@@ -15517,7 +15535,7 @@
         <v>82</v>
       </c>
       <c r="P77" t="s">
-        <v>185</v>
+        <v>188</v>
       </c>
       <c r="Q77">
         <v>7</v>
@@ -15708,7 +15726,7 @@
         <v>136</v>
       </c>
       <c r="P78" t="s">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="Q78">
         <v>2</v>
@@ -16090,7 +16108,7 @@
         <v>138</v>
       </c>
       <c r="P80" t="s">
-        <v>187</v>
+        <v>190</v>
       </c>
       <c r="Q80">
         <v>7</v>
@@ -16281,7 +16299,7 @@
         <v>139</v>
       </c>
       <c r="P81" t="s">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c r="Q81">
         <v>5</v>
@@ -16663,7 +16681,7 @@
         <v>141</v>
       </c>
       <c r="P83" t="s">
-        <v>189</v>
+        <v>192</v>
       </c>
       <c r="Q83">
         <v>4</v>
@@ -16854,7 +16872,7 @@
         <v>142</v>
       </c>
       <c r="P84" t="s">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="Q84">
         <v>8</v>
@@ -16996,6 +17014,1152 @@
       </c>
       <c r="BK84">
         <v>10</v>
+      </c>
+    </row>
+    <row r="85" spans="1:63">
+      <c r="A85" s="1">
+        <v>84</v>
+      </c>
+      <c r="B85">
+        <v>4869451</v>
+      </c>
+      <c r="C85" t="s">
+        <v>63</v>
+      </c>
+      <c r="D85" t="s">
+        <v>64</v>
+      </c>
+      <c r="E85" s="2">
+        <v>45101.54166666666</v>
+      </c>
+      <c r="F85">
+        <v>11</v>
+      </c>
+      <c r="G85" t="s">
+        <v>72</v>
+      </c>
+      <c r="H85" t="s">
+        <v>71</v>
+      </c>
+      <c r="I85">
+        <v>1</v>
+      </c>
+      <c r="J85">
+        <v>1</v>
+      </c>
+      <c r="K85">
+        <v>2</v>
+      </c>
+      <c r="L85">
+        <v>3</v>
+      </c>
+      <c r="M85">
+        <v>1</v>
+      </c>
+      <c r="N85">
+        <v>4</v>
+      </c>
+      <c r="O85" t="s">
+        <v>143</v>
+      </c>
+      <c r="P85" t="s">
+        <v>125</v>
+      </c>
+      <c r="Q85">
+        <v>8</v>
+      </c>
+      <c r="R85">
+        <v>7</v>
+      </c>
+      <c r="S85">
+        <v>15</v>
+      </c>
+      <c r="T85">
+        <v>3.1</v>
+      </c>
+      <c r="U85">
+        <v>2.5</v>
+      </c>
+      <c r="V85">
+        <v>2.75</v>
+      </c>
+      <c r="W85">
+        <v>1.25</v>
+      </c>
+      <c r="X85">
+        <v>3.75</v>
+      </c>
+      <c r="Y85">
+        <v>2.1</v>
+      </c>
+      <c r="Z85">
+        <v>1.67</v>
+      </c>
+      <c r="AA85">
+        <v>5</v>
+      </c>
+      <c r="AB85">
+        <v>1.17</v>
+      </c>
+      <c r="AC85">
+        <v>2.75</v>
+      </c>
+      <c r="AD85">
+        <v>3.6</v>
+      </c>
+      <c r="AE85">
+        <v>2.34</v>
+      </c>
+      <c r="AF85">
+        <v>1.01</v>
+      </c>
+      <c r="AG85">
+        <v>23</v>
+      </c>
+      <c r="AH85">
+        <v>1.15</v>
+      </c>
+      <c r="AI85">
+        <v>5.5</v>
+      </c>
+      <c r="AJ85">
+        <v>1.55</v>
+      </c>
+      <c r="AK85">
+        <v>2.3</v>
+      </c>
+      <c r="AL85">
+        <v>1.4</v>
+      </c>
+      <c r="AM85">
+        <v>2.75</v>
+      </c>
+      <c r="AN85">
+        <v>1.63</v>
+      </c>
+      <c r="AO85">
+        <v>1.22</v>
+      </c>
+      <c r="AP85">
+        <v>1.48</v>
+      </c>
+      <c r="AQ85">
+        <v>2</v>
+      </c>
+      <c r="AR85">
+        <v>1.4</v>
+      </c>
+      <c r="AS85">
+        <v>2.17</v>
+      </c>
+      <c r="AT85">
+        <v>1.17</v>
+      </c>
+      <c r="AU85">
+        <v>2</v>
+      </c>
+      <c r="AV85">
+        <v>1.97</v>
+      </c>
+      <c r="AW85">
+        <v>3.97</v>
+      </c>
+      <c r="AX85">
+        <v>2.14</v>
+      </c>
+      <c r="AY85">
+        <v>7.3</v>
+      </c>
+      <c r="AZ85">
+        <v>2.02</v>
+      </c>
+      <c r="BA85">
+        <v>1.16</v>
+      </c>
+      <c r="BB85">
+        <v>1.31</v>
+      </c>
+      <c r="BC85">
+        <v>1.53</v>
+      </c>
+      <c r="BD85">
+        <v>1.87</v>
+      </c>
+      <c r="BE85">
+        <v>2.37</v>
+      </c>
+      <c r="BF85">
+        <v>10</v>
+      </c>
+      <c r="BG85">
+        <v>3</v>
+      </c>
+      <c r="BH85">
+        <v>3</v>
+      </c>
+      <c r="BI85">
+        <v>9</v>
+      </c>
+      <c r="BJ85">
+        <v>13</v>
+      </c>
+      <c r="BK85">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="86" spans="1:63">
+      <c r="A86" s="1">
+        <v>85</v>
+      </c>
+      <c r="B86">
+        <v>4869452</v>
+      </c>
+      <c r="C86" t="s">
+        <v>63</v>
+      </c>
+      <c r="D86" t="s">
+        <v>64</v>
+      </c>
+      <c r="E86" s="2">
+        <v>45102.5</v>
+      </c>
+      <c r="F86">
+        <v>11</v>
+      </c>
+      <c r="G86" t="s">
+        <v>67</v>
+      </c>
+      <c r="H86" t="s">
+        <v>76</v>
+      </c>
+      <c r="I86">
+        <v>0</v>
+      </c>
+      <c r="J86">
+        <v>0</v>
+      </c>
+      <c r="K86">
+        <v>0</v>
+      </c>
+      <c r="L86">
+        <v>0</v>
+      </c>
+      <c r="M86">
+        <v>1</v>
+      </c>
+      <c r="N86">
+        <v>1</v>
+      </c>
+      <c r="O86" t="s">
+        <v>82</v>
+      </c>
+      <c r="P86" t="s">
+        <v>194</v>
+      </c>
+      <c r="Q86">
+        <v>9</v>
+      </c>
+      <c r="R86">
+        <v>4</v>
+      </c>
+      <c r="S86">
+        <v>13</v>
+      </c>
+      <c r="T86">
+        <v>3</v>
+      </c>
+      <c r="U86">
+        <v>2.2</v>
+      </c>
+      <c r="V86">
+        <v>3.5</v>
+      </c>
+      <c r="W86">
+        <v>1.4</v>
+      </c>
+      <c r="X86">
+        <v>2.75</v>
+      </c>
+      <c r="Y86">
+        <v>2.75</v>
+      </c>
+      <c r="Z86">
+        <v>1.4</v>
+      </c>
+      <c r="AA86">
+        <v>8</v>
+      </c>
+      <c r="AB86">
+        <v>1.08</v>
+      </c>
+      <c r="AC86">
+        <v>2.11</v>
+      </c>
+      <c r="AD86">
+        <v>4.43</v>
+      </c>
+      <c r="AE86">
+        <v>2.45</v>
+      </c>
+      <c r="AF86">
+        <v>1.05</v>
+      </c>
+      <c r="AG86">
+        <v>11</v>
+      </c>
+      <c r="AH86">
+        <v>1.32</v>
+      </c>
+      <c r="AI86">
+        <v>3.4</v>
+      </c>
+      <c r="AJ86">
+        <v>1.94</v>
+      </c>
+      <c r="AK86">
+        <v>1.94</v>
+      </c>
+      <c r="AL86">
+        <v>1.75</v>
+      </c>
+      <c r="AM86">
+        <v>2</v>
+      </c>
+      <c r="AN86">
+        <v>1.42</v>
+      </c>
+      <c r="AO86">
+        <v>1.28</v>
+      </c>
+      <c r="AP86">
+        <v>1.62</v>
+      </c>
+      <c r="AQ86">
+        <v>1.4</v>
+      </c>
+      <c r="AR86">
+        <v>0.83</v>
+      </c>
+      <c r="AS86">
+        <v>1.17</v>
+      </c>
+      <c r="AT86">
+        <v>1.14</v>
+      </c>
+      <c r="AU86">
+        <v>1.49</v>
+      </c>
+      <c r="AV86">
+        <v>0.96</v>
+      </c>
+      <c r="AW86">
+        <v>2.45</v>
+      </c>
+      <c r="AX86">
+        <v>1.85</v>
+      </c>
+      <c r="AY86">
+        <v>7.4</v>
+      </c>
+      <c r="AZ86">
+        <v>2.36</v>
+      </c>
+      <c r="BA86">
+        <v>1.2</v>
+      </c>
+      <c r="BB86">
+        <v>1.39</v>
+      </c>
+      <c r="BC86">
+        <v>1.64</v>
+      </c>
+      <c r="BD86">
+        <v>2.05</v>
+      </c>
+      <c r="BE86">
+        <v>2.65</v>
+      </c>
+      <c r="BF86">
+        <v>5</v>
+      </c>
+      <c r="BG86">
+        <v>4</v>
+      </c>
+      <c r="BH86">
+        <v>6</v>
+      </c>
+      <c r="BI86">
+        <v>2</v>
+      </c>
+      <c r="BJ86">
+        <v>11</v>
+      </c>
+      <c r="BK86">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="87" spans="1:63">
+      <c r="A87" s="1">
+        <v>86</v>
+      </c>
+      <c r="B87">
+        <v>4869454</v>
+      </c>
+      <c r="C87" t="s">
+        <v>63</v>
+      </c>
+      <c r="D87" t="s">
+        <v>64</v>
+      </c>
+      <c r="E87" s="2">
+        <v>45102.5</v>
+      </c>
+      <c r="F87">
+        <v>11</v>
+      </c>
+      <c r="G87" t="s">
+        <v>75</v>
+      </c>
+      <c r="H87" t="s">
+        <v>74</v>
+      </c>
+      <c r="I87">
+        <v>1</v>
+      </c>
+      <c r="J87">
+        <v>0</v>
+      </c>
+      <c r="K87">
+        <v>1</v>
+      </c>
+      <c r="L87">
+        <v>1</v>
+      </c>
+      <c r="M87">
+        <v>0</v>
+      </c>
+      <c r="N87">
+        <v>1</v>
+      </c>
+      <c r="O87" t="s">
+        <v>144</v>
+      </c>
+      <c r="P87" t="s">
+        <v>82</v>
+      </c>
+      <c r="Q87">
+        <v>6</v>
+      </c>
+      <c r="R87">
+        <v>6</v>
+      </c>
+      <c r="S87">
+        <v>12</v>
+      </c>
+      <c r="T87">
+        <v>1.57</v>
+      </c>
+      <c r="U87">
+        <v>3</v>
+      </c>
+      <c r="V87">
+        <v>10</v>
+      </c>
+      <c r="W87">
+        <v>1.22</v>
+      </c>
+      <c r="X87">
+        <v>4</v>
+      </c>
+      <c r="Y87">
+        <v>2</v>
+      </c>
+      <c r="Z87">
+        <v>1.73</v>
+      </c>
+      <c r="AA87">
+        <v>4.33</v>
+      </c>
+      <c r="AB87">
+        <v>1.2</v>
+      </c>
+      <c r="AC87">
+        <v>1.18</v>
+      </c>
+      <c r="AD87">
+        <v>8.720000000000001</v>
+      </c>
+      <c r="AE87">
+        <v>6.47</v>
+      </c>
+      <c r="AF87">
+        <v>1.01</v>
+      </c>
+      <c r="AG87">
+        <v>26</v>
+      </c>
+      <c r="AH87">
+        <v>1.12</v>
+      </c>
+      <c r="AI87">
+        <v>6.5</v>
+      </c>
+      <c r="AJ87">
+        <v>1.4</v>
+      </c>
+      <c r="AK87">
+        <v>2.75</v>
+      </c>
+      <c r="AL87">
+        <v>2</v>
+      </c>
+      <c r="AM87">
+        <v>1.75</v>
+      </c>
+      <c r="AN87">
+        <v>1.02</v>
+      </c>
+      <c r="AO87">
+        <v>1.07</v>
+      </c>
+      <c r="AP87">
+        <v>4.75</v>
+      </c>
+      <c r="AQ87">
+        <v>2</v>
+      </c>
+      <c r="AR87">
+        <v>0.8</v>
+      </c>
+      <c r="AS87">
+        <v>2.17</v>
+      </c>
+      <c r="AT87">
+        <v>0.67</v>
+      </c>
+      <c r="AU87">
+        <v>2.01</v>
+      </c>
+      <c r="AV87">
+        <v>0.87</v>
+      </c>
+      <c r="AW87">
+        <v>2.88</v>
+      </c>
+      <c r="AX87">
+        <v>1.05</v>
+      </c>
+      <c r="AY87">
+        <v>18</v>
+      </c>
+      <c r="AZ87">
+        <v>11</v>
+      </c>
+      <c r="BA87">
+        <v>1.13</v>
+      </c>
+      <c r="BB87">
+        <v>1.26</v>
+      </c>
+      <c r="BC87">
+        <v>1.46</v>
+      </c>
+      <c r="BD87">
+        <v>1.75</v>
+      </c>
+      <c r="BE87">
+        <v>2.2</v>
+      </c>
+      <c r="BF87">
+        <v>7</v>
+      </c>
+      <c r="BG87">
+        <v>3</v>
+      </c>
+      <c r="BH87">
+        <v>6</v>
+      </c>
+      <c r="BI87">
+        <v>4</v>
+      </c>
+      <c r="BJ87">
+        <v>13</v>
+      </c>
+      <c r="BK87">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="88" spans="1:63">
+      <c r="A88" s="1">
+        <v>87</v>
+      </c>
+      <c r="B88">
+        <v>4869455</v>
+      </c>
+      <c r="C88" t="s">
+        <v>63</v>
+      </c>
+      <c r="D88" t="s">
+        <v>64</v>
+      </c>
+      <c r="E88" s="2">
+        <v>45102.5</v>
+      </c>
+      <c r="F88">
+        <v>11</v>
+      </c>
+      <c r="G88" t="s">
+        <v>65</v>
+      </c>
+      <c r="H88" t="s">
+        <v>68</v>
+      </c>
+      <c r="I88">
+        <v>0</v>
+      </c>
+      <c r="J88">
+        <v>3</v>
+      </c>
+      <c r="K88">
+        <v>3</v>
+      </c>
+      <c r="L88">
+        <v>0</v>
+      </c>
+      <c r="M88">
+        <v>3</v>
+      </c>
+      <c r="N88">
+        <v>3</v>
+      </c>
+      <c r="O88" t="s">
+        <v>82</v>
+      </c>
+      <c r="P88" t="s">
+        <v>195</v>
+      </c>
+      <c r="Q88">
+        <v>4</v>
+      </c>
+      <c r="R88">
+        <v>7</v>
+      </c>
+      <c r="S88">
+        <v>11</v>
+      </c>
+      <c r="T88">
+        <v>2.75</v>
+      </c>
+      <c r="U88">
+        <v>2.3</v>
+      </c>
+      <c r="V88">
+        <v>3.6</v>
+      </c>
+      <c r="W88">
+        <v>1.33</v>
+      </c>
+      <c r="X88">
+        <v>3.25</v>
+      </c>
+      <c r="Y88">
+        <v>2.5</v>
+      </c>
+      <c r="Z88">
+        <v>1.5</v>
+      </c>
+      <c r="AA88">
+        <v>6.5</v>
+      </c>
+      <c r="AB88">
+        <v>1.11</v>
+      </c>
+      <c r="AC88">
+        <v>1.38</v>
+      </c>
+      <c r="AD88">
+        <v>5.12</v>
+      </c>
+      <c r="AE88">
+        <v>5.21</v>
+      </c>
+      <c r="AF88">
+        <v>1.03</v>
+      </c>
+      <c r="AG88">
+        <v>16</v>
+      </c>
+      <c r="AH88">
+        <v>1.19</v>
+      </c>
+      <c r="AI88">
+        <v>4.6</v>
+      </c>
+      <c r="AJ88">
+        <v>1.6</v>
+      </c>
+      <c r="AK88">
+        <v>2.2</v>
+      </c>
+      <c r="AL88">
+        <v>1.57</v>
+      </c>
+      <c r="AM88">
+        <v>2.25</v>
+      </c>
+      <c r="AN88">
+        <v>1.34</v>
+      </c>
+      <c r="AO88">
+        <v>1.28</v>
+      </c>
+      <c r="AP88">
+        <v>1.79</v>
+      </c>
+      <c r="AQ88">
+        <v>1.67</v>
+      </c>
+      <c r="AR88">
+        <v>1.6</v>
+      </c>
+      <c r="AS88">
+        <v>1.43</v>
+      </c>
+      <c r="AT88">
+        <v>1.83</v>
+      </c>
+      <c r="AU88">
+        <v>1.42</v>
+      </c>
+      <c r="AV88">
+        <v>1.89</v>
+      </c>
+      <c r="AW88">
+        <v>3.31</v>
+      </c>
+      <c r="AX88">
+        <v>1.8</v>
+      </c>
+      <c r="AY88">
+        <v>7.4</v>
+      </c>
+      <c r="AZ88">
+        <v>2.45</v>
+      </c>
+      <c r="BA88">
+        <v>1.19</v>
+      </c>
+      <c r="BB88">
+        <v>1.37</v>
+      </c>
+      <c r="BC88">
+        <v>1.62</v>
+      </c>
+      <c r="BD88">
+        <v>2</v>
+      </c>
+      <c r="BE88">
+        <v>2.6</v>
+      </c>
+      <c r="BF88">
+        <v>5</v>
+      </c>
+      <c r="BG88">
+        <v>9</v>
+      </c>
+      <c r="BH88">
+        <v>2</v>
+      </c>
+      <c r="BI88">
+        <v>8</v>
+      </c>
+      <c r="BJ88">
+        <v>7</v>
+      </c>
+      <c r="BK88">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="89" spans="1:63">
+      <c r="A89" s="1">
+        <v>88</v>
+      </c>
+      <c r="B89">
+        <v>4869457</v>
+      </c>
+      <c r="C89" t="s">
+        <v>63</v>
+      </c>
+      <c r="D89" t="s">
+        <v>64</v>
+      </c>
+      <c r="E89" s="2">
+        <v>45102.5</v>
+      </c>
+      <c r="F89">
+        <v>11</v>
+      </c>
+      <c r="G89" t="s">
+        <v>70</v>
+      </c>
+      <c r="H89" t="s">
+        <v>69</v>
+      </c>
+      <c r="I89">
+        <v>2</v>
+      </c>
+      <c r="J89">
+        <v>1</v>
+      </c>
+      <c r="K89">
+        <v>3</v>
+      </c>
+      <c r="L89">
+        <v>2</v>
+      </c>
+      <c r="M89">
+        <v>1</v>
+      </c>
+      <c r="N89">
+        <v>3</v>
+      </c>
+      <c r="O89" t="s">
+        <v>145</v>
+      </c>
+      <c r="P89" t="s">
+        <v>196</v>
+      </c>
+      <c r="Q89">
+        <v>6</v>
+      </c>
+      <c r="R89">
+        <v>3</v>
+      </c>
+      <c r="S89">
+        <v>9</v>
+      </c>
+      <c r="T89">
+        <v>2.75</v>
+      </c>
+      <c r="U89">
+        <v>2.1</v>
+      </c>
+      <c r="V89">
+        <v>4</v>
+      </c>
+      <c r="W89">
+        <v>1.44</v>
+      </c>
+      <c r="X89">
+        <v>2.63</v>
+      </c>
+      <c r="Y89">
+        <v>3</v>
+      </c>
+      <c r="Z89">
+        <v>1.36</v>
+      </c>
+      <c r="AA89">
+        <v>9</v>
+      </c>
+      <c r="AB89">
+        <v>1.07</v>
+      </c>
+      <c r="AC89">
+        <v>2.02</v>
+      </c>
+      <c r="AD89">
+        <v>5.31</v>
+      </c>
+      <c r="AE89">
+        <v>2.35</v>
+      </c>
+      <c r="AF89">
+        <v>1.05</v>
+      </c>
+      <c r="AG89">
+        <v>10</v>
+      </c>
+      <c r="AH89">
+        <v>1.29</v>
+      </c>
+      <c r="AI89">
+        <v>3.6</v>
+      </c>
+      <c r="AJ89">
+        <v>2.03</v>
+      </c>
+      <c r="AK89">
+        <v>1.85</v>
+      </c>
+      <c r="AL89">
+        <v>1.8</v>
+      </c>
+      <c r="AM89">
+        <v>1.95</v>
+      </c>
+      <c r="AN89">
+        <v>1.3</v>
+      </c>
+      <c r="AO89">
+        <v>1.35</v>
+      </c>
+      <c r="AP89">
+        <v>1.72</v>
+      </c>
+      <c r="AQ89">
+        <v>1.4</v>
+      </c>
+      <c r="AR89">
+        <v>0.75</v>
+      </c>
+      <c r="AS89">
+        <v>1.67</v>
+      </c>
+      <c r="AT89">
+        <v>0.6</v>
+      </c>
+      <c r="AU89">
+        <v>1.24</v>
+      </c>
+      <c r="AV89">
+        <v>0.9399999999999999</v>
+      </c>
+      <c r="AW89">
+        <v>2.18</v>
+      </c>
+      <c r="AX89">
+        <v>1.85</v>
+      </c>
+      <c r="AY89">
+        <v>7.2</v>
+      </c>
+      <c r="AZ89">
+        <v>2.38</v>
+      </c>
+      <c r="BA89">
+        <v>1.27</v>
+      </c>
+      <c r="BB89">
+        <v>1.49</v>
+      </c>
+      <c r="BC89">
+        <v>1.82</v>
+      </c>
+      <c r="BD89">
+        <v>2.33</v>
+      </c>
+      <c r="BE89">
+        <v>3.1</v>
+      </c>
+      <c r="BF89">
+        <v>7</v>
+      </c>
+      <c r="BG89">
+        <v>5</v>
+      </c>
+      <c r="BH89">
+        <v>7</v>
+      </c>
+      <c r="BI89">
+        <v>2</v>
+      </c>
+      <c r="BJ89">
+        <v>14</v>
+      </c>
+      <c r="BK89">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="90" spans="1:63">
+      <c r="A90" s="1">
+        <v>89</v>
+      </c>
+      <c r="B90">
+        <v>4869458</v>
+      </c>
+      <c r="C90" t="s">
+        <v>63</v>
+      </c>
+      <c r="D90" t="s">
+        <v>64</v>
+      </c>
+      <c r="E90" s="2">
+        <v>45102.59375</v>
+      </c>
+      <c r="F90">
+        <v>11</v>
+      </c>
+      <c r="G90" t="s">
+        <v>78</v>
+      </c>
+      <c r="H90" t="s">
+        <v>73</v>
+      </c>
+      <c r="I90">
+        <v>1</v>
+      </c>
+      <c r="J90">
+        <v>0</v>
+      </c>
+      <c r="K90">
+        <v>1</v>
+      </c>
+      <c r="L90">
+        <v>2</v>
+      </c>
+      <c r="M90">
+        <v>0</v>
+      </c>
+      <c r="N90">
+        <v>2</v>
+      </c>
+      <c r="O90" t="s">
+        <v>146</v>
+      </c>
+      <c r="P90" t="s">
+        <v>82</v>
+      </c>
+      <c r="Q90">
+        <v>2</v>
+      </c>
+      <c r="R90">
+        <v>6</v>
+      </c>
+      <c r="S90">
+        <v>8</v>
+      </c>
+      <c r="T90">
+        <v>5</v>
+      </c>
+      <c r="U90">
+        <v>2.63</v>
+      </c>
+      <c r="V90">
+        <v>2</v>
+      </c>
+      <c r="W90">
+        <v>1.22</v>
+      </c>
+      <c r="X90">
+        <v>4</v>
+      </c>
+      <c r="Y90">
+        <v>2.1</v>
+      </c>
+      <c r="Z90">
+        <v>1.67</v>
+      </c>
+      <c r="AA90">
+        <v>4.5</v>
+      </c>
+      <c r="AB90">
+        <v>1.18</v>
+      </c>
+      <c r="AC90">
+        <v>5.09</v>
+      </c>
+      <c r="AD90">
+        <v>7.41</v>
+      </c>
+      <c r="AE90">
+        <v>1.28</v>
+      </c>
+      <c r="AF90">
+        <v>1.02</v>
+      </c>
+      <c r="AG90">
+        <v>26</v>
+      </c>
+      <c r="AH90">
+        <v>1.12</v>
+      </c>
+      <c r="AI90">
+        <v>6.5</v>
+      </c>
+      <c r="AJ90">
+        <v>1.36</v>
+      </c>
+      <c r="AK90">
+        <v>2.9</v>
+      </c>
+      <c r="AL90">
+        <v>1.53</v>
+      </c>
+      <c r="AM90">
+        <v>2.38</v>
+      </c>
+      <c r="AN90">
+        <v>2.5</v>
+      </c>
+      <c r="AO90">
+        <v>1.17</v>
+      </c>
+      <c r="AP90">
+        <v>1.16</v>
+      </c>
+      <c r="AQ90">
+        <v>1.5</v>
+      </c>
+      <c r="AR90">
+        <v>3</v>
+      </c>
+      <c r="AS90">
+        <v>1.8</v>
+      </c>
+      <c r="AT90">
+        <v>2.5</v>
+      </c>
+      <c r="AU90">
+        <v>1.89</v>
+      </c>
+      <c r="AV90">
+        <v>1.9</v>
+      </c>
+      <c r="AW90">
+        <v>3.79</v>
+      </c>
+      <c r="AX90">
+        <v>3.8</v>
+      </c>
+      <c r="AY90">
+        <v>8.199999999999999</v>
+      </c>
+      <c r="AZ90">
+        <v>1.4</v>
+      </c>
+      <c r="BA90">
+        <v>1.15</v>
+      </c>
+      <c r="BB90">
+        <v>1.29</v>
+      </c>
+      <c r="BC90">
+        <v>1.5</v>
+      </c>
+      <c r="BD90">
+        <v>1.82</v>
+      </c>
+      <c r="BE90">
+        <v>2.3</v>
+      </c>
+      <c r="BF90">
+        <v>9</v>
+      </c>
+      <c r="BG90">
+        <v>9</v>
+      </c>
+      <c r="BH90">
+        <v>4</v>
+      </c>
+      <c r="BI90">
+        <v>6</v>
+      </c>
+      <c r="BJ90">
+        <v>13</v>
+      </c>
+      <c r="BK90">
+        <v>15</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2023)/Norway Eliteserien_2023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Norway Eliteserien_2023.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="597" uniqueCount="197">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="645" uniqueCount="208">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -457,6 +457,24 @@
     <t>['45+2', '90+5']</t>
   </si>
   <si>
+    <t>['85']</t>
+  </si>
+  <si>
+    <t>['10', '11', '20', '51', '66', '79']</t>
+  </si>
+  <si>
+    <t>['41', '80']</t>
+  </si>
+  <si>
+    <t>['47']</t>
+  </si>
+  <si>
+    <t>['45+2', '83']</t>
+  </si>
+  <si>
+    <t>['66', '90+3']</t>
+  </si>
+  <si>
     <t>['79']</t>
   </si>
   <si>
@@ -605,6 +623,21 @@
   </si>
   <si>
     <t>['7']</t>
+  </si>
+  <si>
+    <t>['19', '90+7']</t>
+  </si>
+  <si>
+    <t>['45']</t>
+  </si>
+  <si>
+    <t>['50']</t>
+  </si>
+  <si>
+    <t>['26']</t>
+  </si>
+  <si>
+    <t>['24', '35']</t>
   </si>
 </sst>
 </file>
@@ -966,7 +999,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BK90"/>
+  <dimension ref="A1:BK98"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1300,7 +1333,7 @@
         <v>1.43</v>
       </c>
       <c r="AT2">
-        <v>1.4</v>
+        <v>1.67</v>
       </c>
       <c r="AU2">
         <v>0</v>
@@ -1401,7 +1434,7 @@
         <v>82</v>
       </c>
       <c r="P3" t="s">
-        <v>147</v>
+        <v>153</v>
       </c>
       <c r="Q3">
         <v>3</v>
@@ -1488,7 +1521,7 @@
         <v>0</v>
       </c>
       <c r="AS3">
-        <v>0.67</v>
+        <v>1</v>
       </c>
       <c r="AT3">
         <v>1.4</v>
@@ -1682,7 +1715,7 @@
         <v>1.17</v>
       </c>
       <c r="AT4">
-        <v>0.33</v>
+        <v>0.29</v>
       </c>
       <c r="AU4">
         <v>0</v>
@@ -1783,7 +1816,7 @@
         <v>82</v>
       </c>
       <c r="P5" t="s">
-        <v>148</v>
+        <v>154</v>
       </c>
       <c r="Q5">
         <v>1</v>
@@ -1870,7 +1903,7 @@
         <v>0</v>
       </c>
       <c r="AS5">
-        <v>1.4</v>
+        <v>1.67</v>
       </c>
       <c r="AT5">
         <v>2.5</v>
@@ -2061,10 +2094,10 @@
         <v>0</v>
       </c>
       <c r="AS6">
-        <v>2</v>
+        <v>1.71</v>
       </c>
       <c r="AT6">
-        <v>1.14</v>
+        <v>1</v>
       </c>
       <c r="AU6">
         <v>0</v>
@@ -2443,7 +2476,7 @@
         <v>0</v>
       </c>
       <c r="AS8">
-        <v>2.33</v>
+        <v>2.43</v>
       </c>
       <c r="AT8">
         <v>0.67</v>
@@ -2825,7 +2858,7 @@
         <v>0</v>
       </c>
       <c r="AS10">
-        <v>2.67</v>
+        <v>2.43</v>
       </c>
       <c r="AT10">
         <v>0.6</v>
@@ -2929,7 +2962,7 @@
         <v>88</v>
       </c>
       <c r="P11" t="s">
-        <v>149</v>
+        <v>155</v>
       </c>
       <c r="Q11">
         <v>6</v>
@@ -3016,7 +3049,7 @@
         <v>0</v>
       </c>
       <c r="AS11">
-        <v>1.6</v>
+        <v>1.83</v>
       </c>
       <c r="AT11">
         <v>0</v>
@@ -3120,7 +3153,7 @@
         <v>89</v>
       </c>
       <c r="P12" t="s">
-        <v>150</v>
+        <v>156</v>
       </c>
       <c r="Q12">
         <v>7</v>
@@ -3210,7 +3243,7 @@
         <v>2.17</v>
       </c>
       <c r="AT12">
-        <v>0.6</v>
+        <v>0.5</v>
       </c>
       <c r="AU12">
         <v>0</v>
@@ -3592,7 +3625,7 @@
         <v>1.75</v>
       </c>
       <c r="AT14">
-        <v>2.6</v>
+        <v>2.67</v>
       </c>
       <c r="AU14">
         <v>0</v>
@@ -3884,7 +3917,7 @@
         <v>82</v>
       </c>
       <c r="P16" t="s">
-        <v>151</v>
+        <v>157</v>
       </c>
       <c r="Q16">
         <v>6</v>
@@ -3971,7 +4004,7 @@
         <v>0</v>
       </c>
       <c r="AS16">
-        <v>0.6</v>
+        <v>0.5</v>
       </c>
       <c r="AT16">
         <v>1.83</v>
@@ -4075,7 +4108,7 @@
         <v>92</v>
       </c>
       <c r="P17" t="s">
-        <v>152</v>
+        <v>158</v>
       </c>
       <c r="Q17">
         <v>14</v>
@@ -4162,10 +4195,10 @@
         <v>0</v>
       </c>
       <c r="AS17">
-        <v>1.8</v>
+        <v>1.5</v>
       </c>
       <c r="AT17">
-        <v>0.83</v>
+        <v>1.14</v>
       </c>
       <c r="AU17">
         <v>0</v>
@@ -4266,7 +4299,7 @@
         <v>93</v>
       </c>
       <c r="P18" t="s">
-        <v>153</v>
+        <v>159</v>
       </c>
       <c r="Q18">
         <v>8</v>
@@ -4353,7 +4386,7 @@
         <v>3</v>
       </c>
       <c r="AS18">
-        <v>2.33</v>
+        <v>2.43</v>
       </c>
       <c r="AT18">
         <v>1.4</v>
@@ -4457,7 +4490,7 @@
         <v>82</v>
       </c>
       <c r="P19" t="s">
-        <v>154</v>
+        <v>160</v>
       </c>
       <c r="Q19">
         <v>1</v>
@@ -4544,7 +4577,7 @@
         <v>3</v>
       </c>
       <c r="AS19">
-        <v>0.67</v>
+        <v>1</v>
       </c>
       <c r="AT19">
         <v>2.5</v>
@@ -4738,7 +4771,7 @@
         <v>1.17</v>
       </c>
       <c r="AT20">
-        <v>0.83</v>
+        <v>1.14</v>
       </c>
       <c r="AU20">
         <v>1.35</v>
@@ -4839,7 +4872,7 @@
         <v>95</v>
       </c>
       <c r="P21" t="s">
-        <v>155</v>
+        <v>161</v>
       </c>
       <c r="Q21">
         <v>7</v>
@@ -4929,7 +4962,7 @@
         <v>1.43</v>
       </c>
       <c r="AT21">
-        <v>0.33</v>
+        <v>0.29</v>
       </c>
       <c r="AU21">
         <v>0.9399999999999999</v>
@@ -5117,10 +5150,10 @@
         <v>1</v>
       </c>
       <c r="AS22">
-        <v>1.4</v>
+        <v>1.67</v>
       </c>
       <c r="AT22">
-        <v>1.14</v>
+        <v>1</v>
       </c>
       <c r="AU22">
         <v>1.05</v>
@@ -5308,7 +5341,7 @@
         <v>0</v>
       </c>
       <c r="AS23">
-        <v>2</v>
+        <v>1.71</v>
       </c>
       <c r="AT23">
         <v>0.67</v>
@@ -5412,7 +5445,7 @@
         <v>97</v>
       </c>
       <c r="P24" t="s">
-        <v>156</v>
+        <v>162</v>
       </c>
       <c r="Q24">
         <v>5</v>
@@ -5502,7 +5535,7 @@
         <v>1.67</v>
       </c>
       <c r="AT24">
-        <v>1.4</v>
+        <v>1.67</v>
       </c>
       <c r="AU24">
         <v>0.65</v>
@@ -5603,7 +5636,7 @@
         <v>98</v>
       </c>
       <c r="P25" t="s">
-        <v>157</v>
+        <v>163</v>
       </c>
       <c r="Q25">
         <v>11</v>
@@ -5690,7 +5723,7 @@
         <v>0</v>
       </c>
       <c r="AS25">
-        <v>1.8</v>
+        <v>1.5</v>
       </c>
       <c r="AT25">
         <v>1</v>
@@ -5794,7 +5827,7 @@
         <v>99</v>
       </c>
       <c r="P26" t="s">
-        <v>158</v>
+        <v>164</v>
       </c>
       <c r="Q26">
         <v>7</v>
@@ -5881,7 +5914,7 @@
         <v>0</v>
       </c>
       <c r="AS26">
-        <v>2.67</v>
+        <v>2.43</v>
       </c>
       <c r="AT26">
         <v>1.17</v>
@@ -5985,7 +6018,7 @@
         <v>100</v>
       </c>
       <c r="P27" t="s">
-        <v>159</v>
+        <v>165</v>
       </c>
       <c r="Q27">
         <v>10</v>
@@ -6176,7 +6209,7 @@
         <v>82</v>
       </c>
       <c r="P28" t="s">
-        <v>160</v>
+        <v>166</v>
       </c>
       <c r="Q28">
         <v>12</v>
@@ -6266,7 +6299,7 @@
         <v>1.8</v>
       </c>
       <c r="AT28">
-        <v>2.6</v>
+        <v>2.67</v>
       </c>
       <c r="AU28">
         <v>1.16</v>
@@ -6454,7 +6487,7 @@
         <v>3</v>
       </c>
       <c r="AS29">
-        <v>1.6</v>
+        <v>1.83</v>
       </c>
       <c r="AT29">
         <v>1.83</v>
@@ -6558,7 +6591,7 @@
         <v>101</v>
       </c>
       <c r="P30" t="s">
-        <v>161</v>
+        <v>167</v>
       </c>
       <c r="Q30">
         <v>8</v>
@@ -7030,7 +7063,7 @@
         <v>1.6</v>
       </c>
       <c r="AT32">
-        <v>0.6</v>
+        <v>0.5</v>
       </c>
       <c r="AU32">
         <v>1.3</v>
@@ -7131,7 +7164,7 @@
         <v>103</v>
       </c>
       <c r="P33" t="s">
-        <v>162</v>
+        <v>168</v>
       </c>
       <c r="Q33">
         <v>2</v>
@@ -7218,7 +7251,7 @@
         <v>0</v>
       </c>
       <c r="AS33">
-        <v>0.6</v>
+        <v>0.5</v>
       </c>
       <c r="AT33">
         <v>1.6</v>
@@ -7322,7 +7355,7 @@
         <v>82</v>
       </c>
       <c r="P34" t="s">
-        <v>163</v>
+        <v>169</v>
       </c>
       <c r="Q34">
         <v>0</v>
@@ -7600,10 +7633,10 @@
         <v>1</v>
       </c>
       <c r="AS35">
-        <v>2.67</v>
+        <v>2.43</v>
       </c>
       <c r="AT35">
-        <v>1.14</v>
+        <v>1</v>
       </c>
       <c r="AU35">
         <v>1.83</v>
@@ -7895,7 +7928,7 @@
         <v>106</v>
       </c>
       <c r="P37" t="s">
-        <v>164</v>
+        <v>170</v>
       </c>
       <c r="Q37">
         <v>4</v>
@@ -8086,7 +8119,7 @@
         <v>107</v>
       </c>
       <c r="P38" t="s">
-        <v>165</v>
+        <v>171</v>
       </c>
       <c r="Q38">
         <v>6</v>
@@ -8173,7 +8206,7 @@
         <v>2</v>
       </c>
       <c r="AS38">
-        <v>2</v>
+        <v>1.71</v>
       </c>
       <c r="AT38">
         <v>1.83</v>
@@ -8277,7 +8310,7 @@
         <v>82</v>
       </c>
       <c r="P39" t="s">
-        <v>166</v>
+        <v>172</v>
       </c>
       <c r="Q39">
         <v>8</v>
@@ -8555,7 +8588,7 @@
         <v>0</v>
       </c>
       <c r="AS40">
-        <v>0.67</v>
+        <v>1</v>
       </c>
       <c r="AT40">
         <v>0.67</v>
@@ -8659,7 +8692,7 @@
         <v>82</v>
       </c>
       <c r="P41" t="s">
-        <v>167</v>
+        <v>173</v>
       </c>
       <c r="Q41">
         <v>5</v>
@@ -8749,7 +8782,7 @@
         <v>1.67</v>
       </c>
       <c r="AT41">
-        <v>1.14</v>
+        <v>1</v>
       </c>
       <c r="AU41">
         <v>1.01</v>
@@ -8850,7 +8883,7 @@
         <v>108</v>
       </c>
       <c r="P42" t="s">
-        <v>168</v>
+        <v>174</v>
       </c>
       <c r="Q42">
         <v>6</v>
@@ -8940,7 +8973,7 @@
         <v>2.17</v>
       </c>
       <c r="AT42">
-        <v>0.83</v>
+        <v>1.14</v>
       </c>
       <c r="AU42">
         <v>1.99</v>
@@ -9041,7 +9074,7 @@
         <v>109</v>
       </c>
       <c r="P43" t="s">
-        <v>169</v>
+        <v>175</v>
       </c>
       <c r="Q43">
         <v>5</v>
@@ -9128,7 +9161,7 @@
         <v>3</v>
       </c>
       <c r="AS43">
-        <v>1.8</v>
+        <v>1.5</v>
       </c>
       <c r="AT43">
         <v>2.5</v>
@@ -9319,10 +9352,10 @@
         <v>0.5</v>
       </c>
       <c r="AS44">
-        <v>2.33</v>
+        <v>2.43</v>
       </c>
       <c r="AT44">
-        <v>0.33</v>
+        <v>0.29</v>
       </c>
       <c r="AU44">
         <v>1.99</v>
@@ -9423,7 +9456,7 @@
         <v>82</v>
       </c>
       <c r="P45" t="s">
-        <v>170</v>
+        <v>176</v>
       </c>
       <c r="Q45">
         <v>5</v>
@@ -9614,7 +9647,7 @@
         <v>110</v>
       </c>
       <c r="P46" t="s">
-        <v>171</v>
+        <v>177</v>
       </c>
       <c r="Q46">
         <v>4</v>
@@ -9701,10 +9734,10 @@
         <v>1</v>
       </c>
       <c r="AS46">
-        <v>2.67</v>
+        <v>2.43</v>
       </c>
       <c r="AT46">
-        <v>0.6</v>
+        <v>0.5</v>
       </c>
       <c r="AU46">
         <v>1.66</v>
@@ -9805,7 +9838,7 @@
         <v>111</v>
       </c>
       <c r="P47" t="s">
-        <v>172</v>
+        <v>178</v>
       </c>
       <c r="Q47">
         <v>3</v>
@@ -9895,7 +9928,7 @@
         <v>1.17</v>
       </c>
       <c r="AT47">
-        <v>2.6</v>
+        <v>2.67</v>
       </c>
       <c r="AU47">
         <v>1.39</v>
@@ -9996,7 +10029,7 @@
         <v>112</v>
       </c>
       <c r="P48" t="s">
-        <v>173</v>
+        <v>179</v>
       </c>
       <c r="Q48">
         <v>6</v>
@@ -10086,7 +10119,7 @@
         <v>2.17</v>
       </c>
       <c r="AT48">
-        <v>0.83</v>
+        <v>1.14</v>
       </c>
       <c r="AU48">
         <v>1.76</v>
@@ -10187,7 +10220,7 @@
         <v>113</v>
       </c>
       <c r="P49" t="s">
-        <v>174</v>
+        <v>180</v>
       </c>
       <c r="Q49">
         <v>7</v>
@@ -10277,7 +10310,7 @@
         <v>1.75</v>
       </c>
       <c r="AT49">
-        <v>1.4</v>
+        <v>1.67</v>
       </c>
       <c r="AU49">
         <v>1.41</v>
@@ -10378,7 +10411,7 @@
         <v>114</v>
       </c>
       <c r="P50" t="s">
-        <v>147</v>
+        <v>153</v>
       </c>
       <c r="Q50">
         <v>3</v>
@@ -10465,7 +10498,7 @@
         <v>1.33</v>
       </c>
       <c r="AS50">
-        <v>1.4</v>
+        <v>1.67</v>
       </c>
       <c r="AT50">
         <v>1.17</v>
@@ -10656,7 +10689,7 @@
         <v>0</v>
       </c>
       <c r="AS51">
-        <v>2</v>
+        <v>1.71</v>
       </c>
       <c r="AT51">
         <v>0</v>
@@ -10760,7 +10793,7 @@
         <v>116</v>
       </c>
       <c r="P52" t="s">
-        <v>175</v>
+        <v>181</v>
       </c>
       <c r="Q52">
         <v>3</v>
@@ -10847,7 +10880,7 @@
         <v>2</v>
       </c>
       <c r="AS52">
-        <v>1.6</v>
+        <v>1.83</v>
       </c>
       <c r="AT52">
         <v>1.4</v>
@@ -11232,7 +11265,7 @@
         <v>1.8</v>
       </c>
       <c r="AT54">
-        <v>0.33</v>
+        <v>0.29</v>
       </c>
       <c r="AU54">
         <v>1.54</v>
@@ -11333,7 +11366,7 @@
         <v>118</v>
       </c>
       <c r="P55" t="s">
-        <v>176</v>
+        <v>182</v>
       </c>
       <c r="Q55">
         <v>3</v>
@@ -11524,7 +11557,7 @@
         <v>119</v>
       </c>
       <c r="P56" t="s">
-        <v>177</v>
+        <v>183</v>
       </c>
       <c r="Q56">
         <v>6</v>
@@ -11614,7 +11647,7 @@
         <v>2.17</v>
       </c>
       <c r="AT56">
-        <v>1.14</v>
+        <v>1</v>
       </c>
       <c r="AU56">
         <v>1.97</v>
@@ -11802,7 +11835,7 @@
         <v>0</v>
       </c>
       <c r="AS57">
-        <v>0.6</v>
+        <v>0.5</v>
       </c>
       <c r="AT57">
         <v>0</v>
@@ -11993,7 +12026,7 @@
         <v>1</v>
       </c>
       <c r="AS58">
-        <v>0.67</v>
+        <v>1</v>
       </c>
       <c r="AT58">
         <v>1</v>
@@ -12097,7 +12130,7 @@
         <v>95</v>
       </c>
       <c r="P59" t="s">
-        <v>178</v>
+        <v>184</v>
       </c>
       <c r="Q59">
         <v>6</v>
@@ -12184,7 +12217,7 @@
         <v>1.67</v>
       </c>
       <c r="AS59">
-        <v>1.8</v>
+        <v>1.5</v>
       </c>
       <c r="AT59">
         <v>1.83</v>
@@ -12288,7 +12321,7 @@
         <v>122</v>
       </c>
       <c r="P60" t="s">
-        <v>157</v>
+        <v>163</v>
       </c>
       <c r="Q60">
         <v>6</v>
@@ -12375,7 +12408,7 @@
         <v>1.5</v>
       </c>
       <c r="AS60">
-        <v>2.33</v>
+        <v>2.43</v>
       </c>
       <c r="AT60">
         <v>0.6</v>
@@ -12566,7 +12599,7 @@
         <v>0</v>
       </c>
       <c r="AS61">
-        <v>1.4</v>
+        <v>1.67</v>
       </c>
       <c r="AT61">
         <v>0</v>
@@ -12670,7 +12703,7 @@
         <v>124</v>
       </c>
       <c r="P62" t="s">
-        <v>179</v>
+        <v>185</v>
       </c>
       <c r="Q62">
         <v>1</v>
@@ -12757,7 +12790,7 @@
         <v>1.75</v>
       </c>
       <c r="AS62">
-        <v>2</v>
+        <v>1.71</v>
       </c>
       <c r="AT62">
         <v>1.4</v>
@@ -12861,7 +12894,7 @@
         <v>109</v>
       </c>
       <c r="P63" t="s">
-        <v>180</v>
+        <v>186</v>
       </c>
       <c r="Q63">
         <v>10</v>
@@ -12951,7 +12984,7 @@
         <v>1.6</v>
       </c>
       <c r="AT63">
-        <v>0.83</v>
+        <v>1.14</v>
       </c>
       <c r="AU63">
         <v>1.3</v>
@@ -13052,7 +13085,7 @@
         <v>125</v>
       </c>
       <c r="P64" t="s">
-        <v>181</v>
+        <v>187</v>
       </c>
       <c r="Q64">
         <v>4</v>
@@ -13139,10 +13172,10 @@
         <v>2.33</v>
       </c>
       <c r="AS64">
-        <v>1.6</v>
+        <v>1.83</v>
       </c>
       <c r="AT64">
-        <v>2.6</v>
+        <v>2.67</v>
       </c>
       <c r="AU64">
         <v>1.04</v>
@@ -13333,7 +13366,7 @@
         <v>2.17</v>
       </c>
       <c r="AT65">
-        <v>0.33</v>
+        <v>0.29</v>
       </c>
       <c r="AU65">
         <v>1.75</v>
@@ -13521,10 +13554,10 @@
         <v>1.33</v>
       </c>
       <c r="AS66">
-        <v>2.67</v>
+        <v>2.43</v>
       </c>
       <c r="AT66">
-        <v>1.4</v>
+        <v>1.67</v>
       </c>
       <c r="AU66">
         <v>1.6</v>
@@ -13712,10 +13745,10 @@
         <v>0.67</v>
       </c>
       <c r="AS67">
-        <v>2.33</v>
+        <v>2.43</v>
       </c>
       <c r="AT67">
-        <v>0.6</v>
+        <v>0.5</v>
       </c>
       <c r="AU67">
         <v>2.11</v>
@@ -14007,7 +14040,7 @@
         <v>129</v>
       </c>
       <c r="P69" t="s">
-        <v>182</v>
+        <v>188</v>
       </c>
       <c r="Q69">
         <v>3</v>
@@ -14094,7 +14127,7 @@
         <v>1</v>
       </c>
       <c r="AS69">
-        <v>0.67</v>
+        <v>1</v>
       </c>
       <c r="AT69">
         <v>1.17</v>
@@ -14198,7 +14231,7 @@
         <v>130</v>
       </c>
       <c r="P70" t="s">
-        <v>183</v>
+        <v>189</v>
       </c>
       <c r="Q70">
         <v>6</v>
@@ -14285,7 +14318,7 @@
         <v>1</v>
       </c>
       <c r="AS70">
-        <v>1.8</v>
+        <v>1.5</v>
       </c>
       <c r="AT70">
         <v>0.6</v>
@@ -14580,7 +14613,7 @@
         <v>132</v>
       </c>
       <c r="P72" t="s">
-        <v>184</v>
+        <v>190</v>
       </c>
       <c r="Q72">
         <v>3</v>
@@ -14670,7 +14703,7 @@
         <v>1.75</v>
       </c>
       <c r="AT72">
-        <v>1.14</v>
+        <v>1</v>
       </c>
       <c r="AU72">
         <v>1.69</v>
@@ -14771,7 +14804,7 @@
         <v>133</v>
       </c>
       <c r="P73" t="s">
-        <v>185</v>
+        <v>191</v>
       </c>
       <c r="Q73">
         <v>4</v>
@@ -15153,7 +15186,7 @@
         <v>107</v>
       </c>
       <c r="P75" t="s">
-        <v>186</v>
+        <v>192</v>
       </c>
       <c r="Q75">
         <v>1</v>
@@ -15240,7 +15273,7 @@
         <v>3</v>
       </c>
       <c r="AS75">
-        <v>0.6</v>
+        <v>0.5</v>
       </c>
       <c r="AT75">
         <v>2.5</v>
@@ -15344,7 +15377,7 @@
         <v>135</v>
       </c>
       <c r="P76" t="s">
-        <v>187</v>
+        <v>193</v>
       </c>
       <c r="Q76">
         <v>3</v>
@@ -15535,7 +15568,7 @@
         <v>82</v>
       </c>
       <c r="P77" t="s">
-        <v>188</v>
+        <v>194</v>
       </c>
       <c r="Q77">
         <v>7</v>
@@ -15622,10 +15655,10 @@
         <v>0.4</v>
       </c>
       <c r="AS77">
-        <v>0.6</v>
+        <v>0.5</v>
       </c>
       <c r="AT77">
-        <v>0.83</v>
+        <v>1.14</v>
       </c>
       <c r="AU77">
         <v>1.61</v>
@@ -15726,7 +15759,7 @@
         <v>136</v>
       </c>
       <c r="P78" t="s">
-        <v>189</v>
+        <v>195</v>
       </c>
       <c r="Q78">
         <v>2</v>
@@ -15813,10 +15846,10 @@
         <v>0.5</v>
       </c>
       <c r="AS78">
-        <v>2</v>
+        <v>1.71</v>
       </c>
       <c r="AT78">
-        <v>0.6</v>
+        <v>0.5</v>
       </c>
       <c r="AU78">
         <v>1.65</v>
@@ -16108,7 +16141,7 @@
         <v>138</v>
       </c>
       <c r="P80" t="s">
-        <v>190</v>
+        <v>196</v>
       </c>
       <c r="Q80">
         <v>7</v>
@@ -16195,10 +16228,10 @@
         <v>0.4</v>
       </c>
       <c r="AS80">
-        <v>1.6</v>
+        <v>1.83</v>
       </c>
       <c r="AT80">
-        <v>0.33</v>
+        <v>0.29</v>
       </c>
       <c r="AU80">
         <v>1.16</v>
@@ -16299,7 +16332,7 @@
         <v>139</v>
       </c>
       <c r="P81" t="s">
-        <v>191</v>
+        <v>197</v>
       </c>
       <c r="Q81">
         <v>5</v>
@@ -16386,10 +16419,10 @@
         <v>1</v>
       </c>
       <c r="AS81">
-        <v>1.4</v>
+        <v>1.67</v>
       </c>
       <c r="AT81">
-        <v>1.4</v>
+        <v>1.67</v>
       </c>
       <c r="AU81">
         <v>1.53</v>
@@ -16577,7 +16610,7 @@
         <v>0</v>
       </c>
       <c r="AS82">
-        <v>2.67</v>
+        <v>2.43</v>
       </c>
       <c r="AT82">
         <v>0</v>
@@ -16681,7 +16714,7 @@
         <v>141</v>
       </c>
       <c r="P83" t="s">
-        <v>192</v>
+        <v>198</v>
       </c>
       <c r="Q83">
         <v>4</v>
@@ -16768,10 +16801,10 @@
         <v>2.5</v>
       </c>
       <c r="AS83">
-        <v>0.67</v>
+        <v>1</v>
       </c>
       <c r="AT83">
-        <v>2.6</v>
+        <v>2.67</v>
       </c>
       <c r="AU83">
         <v>1.15</v>
@@ -16872,7 +16905,7 @@
         <v>142</v>
       </c>
       <c r="P84" t="s">
-        <v>193</v>
+        <v>199</v>
       </c>
       <c r="Q84">
         <v>8</v>
@@ -16959,7 +16992,7 @@
         <v>1.75</v>
       </c>
       <c r="AS84">
-        <v>2.33</v>
+        <v>2.43</v>
       </c>
       <c r="AT84">
         <v>1.6</v>
@@ -17254,7 +17287,7 @@
         <v>82</v>
       </c>
       <c r="P86" t="s">
-        <v>194</v>
+        <v>200</v>
       </c>
       <c r="Q86">
         <v>9</v>
@@ -17344,7 +17377,7 @@
         <v>1.17</v>
       </c>
       <c r="AT86">
-        <v>1.14</v>
+        <v>1</v>
       </c>
       <c r="AU86">
         <v>1.49</v>
@@ -17636,7 +17669,7 @@
         <v>82</v>
       </c>
       <c r="P88" t="s">
-        <v>195</v>
+        <v>201</v>
       </c>
       <c r="Q88">
         <v>4</v>
@@ -17827,7 +17860,7 @@
         <v>145</v>
       </c>
       <c r="P89" t="s">
-        <v>196</v>
+        <v>202</v>
       </c>
       <c r="Q89">
         <v>6</v>
@@ -18160,6 +18193,1534 @@
       </c>
       <c r="BK90">
         <v>15</v>
+      </c>
+    </row>
+    <row r="91" spans="1:63">
+      <c r="A91" s="1">
+        <v>90</v>
+      </c>
+      <c r="B91">
+        <v>4869459</v>
+      </c>
+      <c r="C91" t="s">
+        <v>63</v>
+      </c>
+      <c r="D91" t="s">
+        <v>64</v>
+      </c>
+      <c r="E91" s="2">
+        <v>45108.54166666666</v>
+      </c>
+      <c r="F91">
+        <v>12</v>
+      </c>
+      <c r="G91" t="s">
+        <v>79</v>
+      </c>
+      <c r="H91" t="s">
+        <v>72</v>
+      </c>
+      <c r="I91">
+        <v>0</v>
+      </c>
+      <c r="J91">
+        <v>1</v>
+      </c>
+      <c r="K91">
+        <v>1</v>
+      </c>
+      <c r="L91">
+        <v>1</v>
+      </c>
+      <c r="M91">
+        <v>2</v>
+      </c>
+      <c r="N91">
+        <v>3</v>
+      </c>
+      <c r="O91" t="s">
+        <v>147</v>
+      </c>
+      <c r="P91" t="s">
+        <v>203</v>
+      </c>
+      <c r="Q91">
+        <v>5</v>
+      </c>
+      <c r="R91">
+        <v>2</v>
+      </c>
+      <c r="S91">
+        <v>7</v>
+      </c>
+      <c r="T91">
+        <v>2.99</v>
+      </c>
+      <c r="U91">
+        <v>2.49</v>
+      </c>
+      <c r="V91">
+        <v>3.31</v>
+      </c>
+      <c r="W91">
+        <v>1.29</v>
+      </c>
+      <c r="X91">
+        <v>3.48</v>
+      </c>
+      <c r="Y91">
+        <v>2.42</v>
+      </c>
+      <c r="Z91">
+        <v>1.6</v>
+      </c>
+      <c r="AA91">
+        <v>5.3</v>
+      </c>
+      <c r="AB91">
+        <v>1.14</v>
+      </c>
+      <c r="AC91">
+        <v>2.18</v>
+      </c>
+      <c r="AD91">
+        <v>3.6</v>
+      </c>
+      <c r="AE91">
+        <v>2.8</v>
+      </c>
+      <c r="AF91">
+        <v>1.01</v>
+      </c>
+      <c r="AG91">
+        <v>12</v>
+      </c>
+      <c r="AH91">
+        <v>1.17</v>
+      </c>
+      <c r="AI91">
+        <v>4.5</v>
+      </c>
+      <c r="AJ91">
+        <v>1.65</v>
+      </c>
+      <c r="AK91">
+        <v>2.25</v>
+      </c>
+      <c r="AL91">
+        <v>1.5</v>
+      </c>
+      <c r="AM91">
+        <v>2.4</v>
+      </c>
+      <c r="AN91">
+        <v>1.44</v>
+      </c>
+      <c r="AO91">
+        <v>1.28</v>
+      </c>
+      <c r="AP91">
+        <v>1.6</v>
+      </c>
+      <c r="AQ91">
+        <v>0.6</v>
+      </c>
+      <c r="AR91">
+        <v>1.4</v>
+      </c>
+      <c r="AS91">
+        <v>0.5</v>
+      </c>
+      <c r="AT91">
+        <v>1.67</v>
+      </c>
+      <c r="AU91">
+        <v>1.77</v>
+      </c>
+      <c r="AV91">
+        <v>1.57</v>
+      </c>
+      <c r="AW91">
+        <v>3.34</v>
+      </c>
+      <c r="AX91">
+        <v>0</v>
+      </c>
+      <c r="AY91">
+        <v>0</v>
+      </c>
+      <c r="AZ91">
+        <v>0</v>
+      </c>
+      <c r="BA91">
+        <v>0</v>
+      </c>
+      <c r="BB91">
+        <v>1.26</v>
+      </c>
+      <c r="BC91">
+        <v>1.47</v>
+      </c>
+      <c r="BD91">
+        <v>1.85</v>
+      </c>
+      <c r="BE91">
+        <v>2.37</v>
+      </c>
+      <c r="BF91">
+        <v>5</v>
+      </c>
+      <c r="BG91">
+        <v>4</v>
+      </c>
+      <c r="BH91">
+        <v>6</v>
+      </c>
+      <c r="BI91">
+        <v>4</v>
+      </c>
+      <c r="BJ91">
+        <v>11</v>
+      </c>
+      <c r="BK91">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="92" spans="1:63">
+      <c r="A92" s="1">
+        <v>91</v>
+      </c>
+      <c r="B92">
+        <v>4869464</v>
+      </c>
+      <c r="C92" t="s">
+        <v>63</v>
+      </c>
+      <c r="D92" t="s">
+        <v>64</v>
+      </c>
+      <c r="E92" s="2">
+        <v>45109.5</v>
+      </c>
+      <c r="F92">
+        <v>12</v>
+      </c>
+      <c r="G92" t="s">
+        <v>68</v>
+      </c>
+      <c r="H92" t="s">
+        <v>77</v>
+      </c>
+      <c r="I92">
+        <v>3</v>
+      </c>
+      <c r="J92">
+        <v>1</v>
+      </c>
+      <c r="K92">
+        <v>4</v>
+      </c>
+      <c r="L92">
+        <v>6</v>
+      </c>
+      <c r="M92">
+        <v>1</v>
+      </c>
+      <c r="N92">
+        <v>7</v>
+      </c>
+      <c r="O92" t="s">
+        <v>148</v>
+      </c>
+      <c r="P92" t="s">
+        <v>204</v>
+      </c>
+      <c r="Q92">
+        <v>10</v>
+      </c>
+      <c r="R92">
+        <v>3</v>
+      </c>
+      <c r="S92">
+        <v>13</v>
+      </c>
+      <c r="T92">
+        <v>1.91</v>
+      </c>
+      <c r="U92">
+        <v>2.63</v>
+      </c>
+      <c r="V92">
+        <v>5.5</v>
+      </c>
+      <c r="W92">
+        <v>1.25</v>
+      </c>
+      <c r="X92">
+        <v>3.75</v>
+      </c>
+      <c r="Y92">
+        <v>2.1</v>
+      </c>
+      <c r="Z92">
+        <v>1.67</v>
+      </c>
+      <c r="AA92">
+        <v>5</v>
+      </c>
+      <c r="AB92">
+        <v>1.17</v>
+      </c>
+      <c r="AC92">
+        <v>1.51</v>
+      </c>
+      <c r="AD92">
+        <v>4.1</v>
+      </c>
+      <c r="AE92">
+        <v>5.2</v>
+      </c>
+      <c r="AF92">
+        <v>1.02</v>
+      </c>
+      <c r="AG92">
+        <v>13</v>
+      </c>
+      <c r="AH92">
+        <v>1.14</v>
+      </c>
+      <c r="AI92">
+        <v>5</v>
+      </c>
+      <c r="AJ92">
+        <v>1.46</v>
+      </c>
+      <c r="AK92">
+        <v>2.52</v>
+      </c>
+      <c r="AL92">
+        <v>1.62</v>
+      </c>
+      <c r="AM92">
+        <v>2.2</v>
+      </c>
+      <c r="AN92">
+        <v>1.11</v>
+      </c>
+      <c r="AO92">
+        <v>1.15</v>
+      </c>
+      <c r="AP92">
+        <v>2.8</v>
+      </c>
+      <c r="AQ92">
+        <v>1.4</v>
+      </c>
+      <c r="AR92">
+        <v>0.33</v>
+      </c>
+      <c r="AS92">
+        <v>1.67</v>
+      </c>
+      <c r="AT92">
+        <v>0.29</v>
+      </c>
+      <c r="AU92">
+        <v>1.57</v>
+      </c>
+      <c r="AV92">
+        <v>1.18</v>
+      </c>
+      <c r="AW92">
+        <v>2.75</v>
+      </c>
+      <c r="AX92">
+        <v>0</v>
+      </c>
+      <c r="AY92">
+        <v>0</v>
+      </c>
+      <c r="AZ92">
+        <v>0</v>
+      </c>
+      <c r="BA92">
+        <v>0</v>
+      </c>
+      <c r="BB92">
+        <v>0</v>
+      </c>
+      <c r="BC92">
+        <v>0</v>
+      </c>
+      <c r="BD92">
+        <v>0</v>
+      </c>
+      <c r="BE92">
+        <v>0</v>
+      </c>
+      <c r="BF92">
+        <v>16</v>
+      </c>
+      <c r="BG92">
+        <v>4</v>
+      </c>
+      <c r="BH92">
+        <v>12</v>
+      </c>
+      <c r="BI92">
+        <v>5</v>
+      </c>
+      <c r="BJ92">
+        <v>28</v>
+      </c>
+      <c r="BK92">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="93" spans="1:63">
+      <c r="A93" s="1">
+        <v>92</v>
+      </c>
+      <c r="B93">
+        <v>4869463</v>
+      </c>
+      <c r="C93" t="s">
+        <v>63</v>
+      </c>
+      <c r="D93" t="s">
+        <v>64</v>
+      </c>
+      <c r="E93" s="2">
+        <v>45109.5</v>
+      </c>
+      <c r="F93">
+        <v>12</v>
+      </c>
+      <c r="G93" t="s">
+        <v>80</v>
+      </c>
+      <c r="H93" t="s">
+        <v>70</v>
+      </c>
+      <c r="I93">
+        <v>0</v>
+      </c>
+      <c r="J93">
+        <v>0</v>
+      </c>
+      <c r="K93">
+        <v>0</v>
+      </c>
+      <c r="L93">
+        <v>0</v>
+      </c>
+      <c r="M93">
+        <v>1</v>
+      </c>
+      <c r="N93">
+        <v>1</v>
+      </c>
+      <c r="O93" t="s">
+        <v>82</v>
+      </c>
+      <c r="P93" t="s">
+        <v>205</v>
+      </c>
+      <c r="Q93">
+        <v>4</v>
+      </c>
+      <c r="R93">
+        <v>6</v>
+      </c>
+      <c r="S93">
+        <v>10</v>
+      </c>
+      <c r="T93">
+        <v>2.25</v>
+      </c>
+      <c r="U93">
+        <v>2.25</v>
+      </c>
+      <c r="V93">
+        <v>5</v>
+      </c>
+      <c r="W93">
+        <v>1.36</v>
+      </c>
+      <c r="X93">
+        <v>3</v>
+      </c>
+      <c r="Y93">
+        <v>2.63</v>
+      </c>
+      <c r="Z93">
+        <v>1.44</v>
+      </c>
+      <c r="AA93">
+        <v>7</v>
+      </c>
+      <c r="AB93">
+        <v>1.1</v>
+      </c>
+      <c r="AC93">
+        <v>1.59</v>
+      </c>
+      <c r="AD93">
+        <v>3.85</v>
+      </c>
+      <c r="AE93">
+        <v>4.7</v>
+      </c>
+      <c r="AF93">
+        <v>1.05</v>
+      </c>
+      <c r="AG93">
+        <v>9</v>
+      </c>
+      <c r="AH93">
+        <v>1.29</v>
+      </c>
+      <c r="AI93">
+        <v>3.5</v>
+      </c>
+      <c r="AJ93">
+        <v>1.78</v>
+      </c>
+      <c r="AK93">
+        <v>1.93</v>
+      </c>
+      <c r="AL93">
+        <v>1.8</v>
+      </c>
+      <c r="AM93">
+        <v>1.95</v>
+      </c>
+      <c r="AN93">
+        <v>1.18</v>
+      </c>
+      <c r="AO93">
+        <v>1.2</v>
+      </c>
+      <c r="AP93">
+        <v>2.25</v>
+      </c>
+      <c r="AQ93">
+        <v>1.8</v>
+      </c>
+      <c r="AR93">
+        <v>2.6</v>
+      </c>
+      <c r="AS93">
+        <v>1.5</v>
+      </c>
+      <c r="AT93">
+        <v>2.67</v>
+      </c>
+      <c r="AU93">
+        <v>1.67</v>
+      </c>
+      <c r="AV93">
+        <v>0.98</v>
+      </c>
+      <c r="AW93">
+        <v>2.65</v>
+      </c>
+      <c r="AX93">
+        <v>0</v>
+      </c>
+      <c r="AY93">
+        <v>0</v>
+      </c>
+      <c r="AZ93">
+        <v>0</v>
+      </c>
+      <c r="BA93">
+        <v>0</v>
+      </c>
+      <c r="BB93">
+        <v>0</v>
+      </c>
+      <c r="BC93">
+        <v>0</v>
+      </c>
+      <c r="BD93">
+        <v>1.8</v>
+      </c>
+      <c r="BE93">
+        <v>0</v>
+      </c>
+      <c r="BF93">
+        <v>5</v>
+      </c>
+      <c r="BG93">
+        <v>6</v>
+      </c>
+      <c r="BH93">
+        <v>11</v>
+      </c>
+      <c r="BI93">
+        <v>4</v>
+      </c>
+      <c r="BJ93">
+        <v>16</v>
+      </c>
+      <c r="BK93">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="94" spans="1:63">
+      <c r="A94" s="1">
+        <v>93</v>
+      </c>
+      <c r="B94">
+        <v>4869462</v>
+      </c>
+      <c r="C94" t="s">
+        <v>63</v>
+      </c>
+      <c r="D94" t="s">
+        <v>64</v>
+      </c>
+      <c r="E94" s="2">
+        <v>45109.5</v>
+      </c>
+      <c r="F94">
+        <v>12</v>
+      </c>
+      <c r="G94" t="s">
+        <v>74</v>
+      </c>
+      <c r="H94" t="s">
+        <v>76</v>
+      </c>
+      <c r="I94">
+        <v>1</v>
+      </c>
+      <c r="J94">
+        <v>1</v>
+      </c>
+      <c r="K94">
+        <v>2</v>
+      </c>
+      <c r="L94">
+        <v>2</v>
+      </c>
+      <c r="M94">
+        <v>1</v>
+      </c>
+      <c r="N94">
+        <v>3</v>
+      </c>
+      <c r="O94" t="s">
+        <v>149</v>
+      </c>
+      <c r="P94" t="s">
+        <v>206</v>
+      </c>
+      <c r="Q94">
+        <v>9</v>
+      </c>
+      <c r="R94">
+        <v>3</v>
+      </c>
+      <c r="S94">
+        <v>12</v>
+      </c>
+      <c r="T94">
+        <v>3.1</v>
+      </c>
+      <c r="U94">
+        <v>2.1</v>
+      </c>
+      <c r="V94">
+        <v>3.5</v>
+      </c>
+      <c r="W94">
+        <v>1.4</v>
+      </c>
+      <c r="X94">
+        <v>2.75</v>
+      </c>
+      <c r="Y94">
+        <v>3</v>
+      </c>
+      <c r="Z94">
+        <v>1.36</v>
+      </c>
+      <c r="AA94">
+        <v>8</v>
+      </c>
+      <c r="AB94">
+        <v>1.08</v>
+      </c>
+      <c r="AC94">
+        <v>2.43</v>
+      </c>
+      <c r="AD94">
+        <v>3.05</v>
+      </c>
+      <c r="AE94">
+        <v>2.78</v>
+      </c>
+      <c r="AF94">
+        <v>1.06</v>
+      </c>
+      <c r="AG94">
+        <v>8</v>
+      </c>
+      <c r="AH94">
+        <v>1.36</v>
+      </c>
+      <c r="AI94">
+        <v>3</v>
+      </c>
+      <c r="AJ94">
+        <v>1.93</v>
+      </c>
+      <c r="AK94">
+        <v>1.78</v>
+      </c>
+      <c r="AL94">
+        <v>1.75</v>
+      </c>
+      <c r="AM94">
+        <v>2</v>
+      </c>
+      <c r="AN94">
+        <v>1.3</v>
+      </c>
+      <c r="AO94">
+        <v>1.33</v>
+      </c>
+      <c r="AP94">
+        <v>1.55</v>
+      </c>
+      <c r="AQ94">
+        <v>1.6</v>
+      </c>
+      <c r="AR94">
+        <v>1.14</v>
+      </c>
+      <c r="AS94">
+        <v>1.83</v>
+      </c>
+      <c r="AT94">
+        <v>1</v>
+      </c>
+      <c r="AU94">
+        <v>1.24</v>
+      </c>
+      <c r="AV94">
+        <v>0.96</v>
+      </c>
+      <c r="AW94">
+        <v>2.2</v>
+      </c>
+      <c r="AX94">
+        <v>0</v>
+      </c>
+      <c r="AY94">
+        <v>0</v>
+      </c>
+      <c r="AZ94">
+        <v>0</v>
+      </c>
+      <c r="BA94">
+        <v>0</v>
+      </c>
+      <c r="BB94">
+        <v>0</v>
+      </c>
+      <c r="BC94">
+        <v>0</v>
+      </c>
+      <c r="BD94">
+        <v>1.93</v>
+      </c>
+      <c r="BE94">
+        <v>0</v>
+      </c>
+      <c r="BF94">
+        <v>7</v>
+      </c>
+      <c r="BG94">
+        <v>4</v>
+      </c>
+      <c r="BH94">
+        <v>3</v>
+      </c>
+      <c r="BI94">
+        <v>5</v>
+      </c>
+      <c r="BJ94">
+        <v>10</v>
+      </c>
+      <c r="BK94">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="95" spans="1:63">
+      <c r="A95" s="1">
+        <v>94</v>
+      </c>
+      <c r="B95">
+        <v>4869460</v>
+      </c>
+      <c r="C95" t="s">
+        <v>63</v>
+      </c>
+      <c r="D95" t="s">
+        <v>64</v>
+      </c>
+      <c r="E95" s="2">
+        <v>45109.5</v>
+      </c>
+      <c r="F95">
+        <v>12</v>
+      </c>
+      <c r="G95" t="s">
+        <v>66</v>
+      </c>
+      <c r="H95" t="s">
+        <v>65</v>
+      </c>
+      <c r="I95">
+        <v>0</v>
+      </c>
+      <c r="J95">
+        <v>0</v>
+      </c>
+      <c r="K95">
+        <v>0</v>
+      </c>
+      <c r="L95">
+        <v>1</v>
+      </c>
+      <c r="M95">
+        <v>0</v>
+      </c>
+      <c r="N95">
+        <v>1</v>
+      </c>
+      <c r="O95" t="s">
+        <v>150</v>
+      </c>
+      <c r="P95" t="s">
+        <v>82</v>
+      </c>
+      <c r="Q95">
+        <v>4</v>
+      </c>
+      <c r="R95">
+        <v>13</v>
+      </c>
+      <c r="S95">
+        <v>17</v>
+      </c>
+      <c r="T95">
+        <v>3.75</v>
+      </c>
+      <c r="U95">
+        <v>2.2</v>
+      </c>
+      <c r="V95">
+        <v>2.88</v>
+      </c>
+      <c r="W95">
+        <v>1.4</v>
+      </c>
+      <c r="X95">
+        <v>2.75</v>
+      </c>
+      <c r="Y95">
+        <v>2.75</v>
+      </c>
+      <c r="Z95">
+        <v>1.4</v>
+      </c>
+      <c r="AA95">
+        <v>8</v>
+      </c>
+      <c r="AB95">
+        <v>1.08</v>
+      </c>
+      <c r="AC95">
+        <v>2.86</v>
+      </c>
+      <c r="AD95">
+        <v>3.15</v>
+      </c>
+      <c r="AE95">
+        <v>2.32</v>
+      </c>
+      <c r="AF95">
+        <v>1.06</v>
+      </c>
+      <c r="AG95">
+        <v>8</v>
+      </c>
+      <c r="AH95">
+        <v>1.33</v>
+      </c>
+      <c r="AI95">
+        <v>3.25</v>
+      </c>
+      <c r="AJ95">
+        <v>1.85</v>
+      </c>
+      <c r="AK95">
+        <v>1.85</v>
+      </c>
+      <c r="AL95">
+        <v>1.75</v>
+      </c>
+      <c r="AM95">
+        <v>2</v>
+      </c>
+      <c r="AN95">
+        <v>1.72</v>
+      </c>
+      <c r="AO95">
+        <v>1.3</v>
+      </c>
+      <c r="AP95">
+        <v>1.32</v>
+      </c>
+      <c r="AQ95">
+        <v>0.67</v>
+      </c>
+      <c r="AR95">
+        <v>0.6</v>
+      </c>
+      <c r="AS95">
+        <v>1</v>
+      </c>
+      <c r="AT95">
+        <v>0.5</v>
+      </c>
+      <c r="AU95">
+        <v>1.13</v>
+      </c>
+      <c r="AV95">
+        <v>1.13</v>
+      </c>
+      <c r="AW95">
+        <v>2.26</v>
+      </c>
+      <c r="AX95">
+        <v>0</v>
+      </c>
+      <c r="AY95">
+        <v>0</v>
+      </c>
+      <c r="AZ95">
+        <v>0</v>
+      </c>
+      <c r="BA95">
+        <v>0</v>
+      </c>
+      <c r="BB95">
+        <v>0</v>
+      </c>
+      <c r="BC95">
+        <v>0</v>
+      </c>
+      <c r="BD95">
+        <v>0</v>
+      </c>
+      <c r="BE95">
+        <v>0</v>
+      </c>
+      <c r="BF95">
+        <v>5</v>
+      </c>
+      <c r="BG95">
+        <v>5</v>
+      </c>
+      <c r="BH95">
+        <v>4</v>
+      </c>
+      <c r="BI95">
+        <v>10</v>
+      </c>
+      <c r="BJ95">
+        <v>9</v>
+      </c>
+      <c r="BK95">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="96" spans="1:63">
+      <c r="A96" s="1">
+        <v>95</v>
+      </c>
+      <c r="B96">
+        <v>4869461</v>
+      </c>
+      <c r="C96" t="s">
+        <v>63</v>
+      </c>
+      <c r="D96" t="s">
+        <v>64</v>
+      </c>
+      <c r="E96" s="2">
+        <v>45109.5</v>
+      </c>
+      <c r="F96">
+        <v>12</v>
+      </c>
+      <c r="G96" t="s">
+        <v>71</v>
+      </c>
+      <c r="H96" t="s">
+        <v>67</v>
+      </c>
+      <c r="I96">
+        <v>1</v>
+      </c>
+      <c r="J96">
+        <v>0</v>
+      </c>
+      <c r="K96">
+        <v>1</v>
+      </c>
+      <c r="L96">
+        <v>2</v>
+      </c>
+      <c r="M96">
+        <v>1</v>
+      </c>
+      <c r="N96">
+        <v>3</v>
+      </c>
+      <c r="O96" t="s">
+        <v>151</v>
+      </c>
+      <c r="P96" t="s">
+        <v>176</v>
+      </c>
+      <c r="Q96">
+        <v>7</v>
+      </c>
+      <c r="R96">
+        <v>4</v>
+      </c>
+      <c r="S96">
+        <v>11</v>
+      </c>
+      <c r="T96">
+        <v>1.62</v>
+      </c>
+      <c r="U96">
+        <v>2.88</v>
+      </c>
+      <c r="V96">
+        <v>8</v>
+      </c>
+      <c r="W96">
+        <v>1.22</v>
+      </c>
+      <c r="X96">
+        <v>4</v>
+      </c>
+      <c r="Y96">
+        <v>2</v>
+      </c>
+      <c r="Z96">
+        <v>1.73</v>
+      </c>
+      <c r="AA96">
+        <v>4.33</v>
+      </c>
+      <c r="AB96">
+        <v>1.2</v>
+      </c>
+      <c r="AC96">
+        <v>1.34</v>
+      </c>
+      <c r="AD96">
+        <v>5</v>
+      </c>
+      <c r="AE96">
+        <v>6.4</v>
+      </c>
+      <c r="AF96">
+        <v>1.01</v>
+      </c>
+      <c r="AG96">
+        <v>26</v>
+      </c>
+      <c r="AH96">
+        <v>1.12</v>
+      </c>
+      <c r="AI96">
+        <v>6.5</v>
+      </c>
+      <c r="AJ96">
+        <v>1.39</v>
+      </c>
+      <c r="AK96">
+        <v>2.77</v>
+      </c>
+      <c r="AL96">
+        <v>1.8</v>
+      </c>
+      <c r="AM96">
+        <v>1.95</v>
+      </c>
+      <c r="AN96">
+        <v>1.02</v>
+      </c>
+      <c r="AO96">
+        <v>1.08</v>
+      </c>
+      <c r="AP96">
+        <v>3.8</v>
+      </c>
+      <c r="AQ96">
+        <v>2.33</v>
+      </c>
+      <c r="AR96">
+        <v>0</v>
+      </c>
+      <c r="AS96">
+        <v>2.43</v>
+      </c>
+      <c r="AT96">
+        <v>0</v>
+      </c>
+      <c r="AU96">
+        <v>2</v>
+      </c>
+      <c r="AV96">
+        <v>1.17</v>
+      </c>
+      <c r="AW96">
+        <v>3.17</v>
+      </c>
+      <c r="AX96">
+        <v>0</v>
+      </c>
+      <c r="AY96">
+        <v>0</v>
+      </c>
+      <c r="AZ96">
+        <v>0</v>
+      </c>
+      <c r="BA96">
+        <v>0</v>
+      </c>
+      <c r="BB96">
+        <v>0</v>
+      </c>
+      <c r="BC96">
+        <v>0</v>
+      </c>
+      <c r="BD96">
+        <v>1.8</v>
+      </c>
+      <c r="BE96">
+        <v>0</v>
+      </c>
+      <c r="BF96">
+        <v>7</v>
+      </c>
+      <c r="BG96">
+        <v>6</v>
+      </c>
+      <c r="BH96">
+        <v>9</v>
+      </c>
+      <c r="BI96">
+        <v>5</v>
+      </c>
+      <c r="BJ96">
+        <v>16</v>
+      </c>
+      <c r="BK96">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="97" spans="1:63">
+      <c r="A97" s="1">
+        <v>96</v>
+      </c>
+      <c r="B97">
+        <v>4869465</v>
+      </c>
+      <c r="C97" t="s">
+        <v>63</v>
+      </c>
+      <c r="D97" t="s">
+        <v>64</v>
+      </c>
+      <c r="E97" s="2">
+        <v>45109.59375</v>
+      </c>
+      <c r="F97">
+        <v>12</v>
+      </c>
+      <c r="G97" t="s">
+        <v>73</v>
+      </c>
+      <c r="H97" t="s">
+        <v>75</v>
+      </c>
+      <c r="I97">
+        <v>0</v>
+      </c>
+      <c r="J97">
+        <v>2</v>
+      </c>
+      <c r="K97">
+        <v>2</v>
+      </c>
+      <c r="L97">
+        <v>2</v>
+      </c>
+      <c r="M97">
+        <v>2</v>
+      </c>
+      <c r="N97">
+        <v>4</v>
+      </c>
+      <c r="O97" t="s">
+        <v>152</v>
+      </c>
+      <c r="P97" t="s">
+        <v>207</v>
+      </c>
+      <c r="Q97">
+        <v>7</v>
+      </c>
+      <c r="R97">
+        <v>2</v>
+      </c>
+      <c r="S97">
+        <v>9</v>
+      </c>
+      <c r="T97">
+        <v>2.25</v>
+      </c>
+      <c r="U97">
+        <v>2.5</v>
+      </c>
+      <c r="V97">
+        <v>4</v>
+      </c>
+      <c r="W97">
+        <v>1.25</v>
+      </c>
+      <c r="X97">
+        <v>3.75</v>
+      </c>
+      <c r="Y97">
+        <v>2.2</v>
+      </c>
+      <c r="Z97">
+        <v>1.62</v>
+      </c>
+      <c r="AA97">
+        <v>5</v>
+      </c>
+      <c r="AB97">
+        <v>1.17</v>
+      </c>
+      <c r="AC97">
+        <v>1.81</v>
+      </c>
+      <c r="AD97">
+        <v>3.8</v>
+      </c>
+      <c r="AE97">
+        <v>3.5</v>
+      </c>
+      <c r="AF97">
+        <v>1.01</v>
+      </c>
+      <c r="AG97">
+        <v>21</v>
+      </c>
+      <c r="AH97">
+        <v>1.13</v>
+      </c>
+      <c r="AI97">
+        <v>5</v>
+      </c>
+      <c r="AJ97">
+        <v>1.43</v>
+      </c>
+      <c r="AK97">
+        <v>2.62</v>
+      </c>
+      <c r="AL97">
+        <v>1.5</v>
+      </c>
+      <c r="AM97">
+        <v>2.5</v>
+      </c>
+      <c r="AN97">
+        <v>1.24</v>
+      </c>
+      <c r="AO97">
+        <v>1.19</v>
+      </c>
+      <c r="AP97">
+        <v>2.1</v>
+      </c>
+      <c r="AQ97">
+        <v>2.67</v>
+      </c>
+      <c r="AR97">
+        <v>1</v>
+      </c>
+      <c r="AS97">
+        <v>2.43</v>
+      </c>
+      <c r="AT97">
+        <v>1</v>
+      </c>
+      <c r="AU97">
+        <v>2.1</v>
+      </c>
+      <c r="AV97">
+        <v>1.71</v>
+      </c>
+      <c r="AW97">
+        <v>3.81</v>
+      </c>
+      <c r="AX97">
+        <v>0</v>
+      </c>
+      <c r="AY97">
+        <v>0</v>
+      </c>
+      <c r="AZ97">
+        <v>0</v>
+      </c>
+      <c r="BA97">
+        <v>0</v>
+      </c>
+      <c r="BB97">
+        <v>0</v>
+      </c>
+      <c r="BC97">
+        <v>0</v>
+      </c>
+      <c r="BD97">
+        <v>1.9</v>
+      </c>
+      <c r="BE97">
+        <v>0</v>
+      </c>
+      <c r="BF97">
+        <v>12</v>
+      </c>
+      <c r="BG97">
+        <v>5</v>
+      </c>
+      <c r="BH97">
+        <v>12</v>
+      </c>
+      <c r="BI97">
+        <v>1</v>
+      </c>
+      <c r="BJ97">
+        <v>24</v>
+      </c>
+      <c r="BK97">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="98" spans="1:63">
+      <c r="A98" s="1">
+        <v>97</v>
+      </c>
+      <c r="B98">
+        <v>4869466</v>
+      </c>
+      <c r="C98" t="s">
+        <v>63</v>
+      </c>
+      <c r="D98" t="s">
+        <v>64</v>
+      </c>
+      <c r="E98" s="2">
+        <v>45110.58333333334</v>
+      </c>
+      <c r="F98">
+        <v>12</v>
+      </c>
+      <c r="G98" t="s">
+        <v>69</v>
+      </c>
+      <c r="H98" t="s">
+        <v>78</v>
+      </c>
+      <c r="I98">
+        <v>0</v>
+      </c>
+      <c r="J98">
+        <v>1</v>
+      </c>
+      <c r="K98">
+        <v>1</v>
+      </c>
+      <c r="L98">
+        <v>0</v>
+      </c>
+      <c r="M98">
+        <v>1</v>
+      </c>
+      <c r="N98">
+        <v>1</v>
+      </c>
+      <c r="O98" t="s">
+        <v>82</v>
+      </c>
+      <c r="P98" t="s">
+        <v>89</v>
+      </c>
+      <c r="Q98">
+        <v>9</v>
+      </c>
+      <c r="R98">
+        <v>6</v>
+      </c>
+      <c r="S98">
+        <v>15</v>
+      </c>
+      <c r="T98">
+        <v>2.75</v>
+      </c>
+      <c r="U98">
+        <v>2.25</v>
+      </c>
+      <c r="V98">
+        <v>3.75</v>
+      </c>
+      <c r="W98">
+        <v>1.36</v>
+      </c>
+      <c r="X98">
+        <v>3</v>
+      </c>
+      <c r="Y98">
+        <v>2.63</v>
+      </c>
+      <c r="Z98">
+        <v>1.44</v>
+      </c>
+      <c r="AA98">
+        <v>7</v>
+      </c>
+      <c r="AB98">
+        <v>1.1</v>
+      </c>
+      <c r="AC98">
+        <v>2.1</v>
+      </c>
+      <c r="AD98">
+        <v>3.55</v>
+      </c>
+      <c r="AE98">
+        <v>3.25</v>
+      </c>
+      <c r="AF98">
+        <v>1.04</v>
+      </c>
+      <c r="AG98">
+        <v>14</v>
+      </c>
+      <c r="AH98">
+        <v>1.24</v>
+      </c>
+      <c r="AI98">
+        <v>4.2</v>
+      </c>
+      <c r="AJ98">
+        <v>1.78</v>
+      </c>
+      <c r="AK98">
+        <v>2.05</v>
+      </c>
+      <c r="AL98">
+        <v>1.7</v>
+      </c>
+      <c r="AM98">
+        <v>2.05</v>
+      </c>
+      <c r="AN98">
+        <v>1.35</v>
+      </c>
+      <c r="AO98">
+        <v>1.3</v>
+      </c>
+      <c r="AP98">
+        <v>1.74</v>
+      </c>
+      <c r="AQ98">
+        <v>2</v>
+      </c>
+      <c r="AR98">
+        <v>0.83</v>
+      </c>
+      <c r="AS98">
+        <v>1.71</v>
+      </c>
+      <c r="AT98">
+        <v>1.14</v>
+      </c>
+      <c r="AU98">
+        <v>1.54</v>
+      </c>
+      <c r="AV98">
+        <v>1.22</v>
+      </c>
+      <c r="AW98">
+        <v>2.76</v>
+      </c>
+      <c r="AX98">
+        <v>0</v>
+      </c>
+      <c r="AY98">
+        <v>0</v>
+      </c>
+      <c r="AZ98">
+        <v>0</v>
+      </c>
+      <c r="BA98">
+        <v>0</v>
+      </c>
+      <c r="BB98">
+        <v>0</v>
+      </c>
+      <c r="BC98">
+        <v>0</v>
+      </c>
+      <c r="BD98">
+        <v>2</v>
+      </c>
+      <c r="BE98">
+        <v>0</v>
+      </c>
+      <c r="BF98">
+        <v>7</v>
+      </c>
+      <c r="BG98">
+        <v>3</v>
+      </c>
+      <c r="BH98">
+        <v>6</v>
+      </c>
+      <c r="BI98">
+        <v>4</v>
+      </c>
+      <c r="BJ98">
+        <v>13</v>
+      </c>
+      <c r="BK98">
+        <v>7</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2023)/Norway Eliteserien_2023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Norway Eliteserien_2023.xlsx
@@ -19705,7 +19705,7 @@
         <v>0</v>
       </c>
       <c r="BF98">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="BG98">
         <v>3</v>
@@ -19717,7 +19717,7 @@
         <v>4</v>
       </c>
       <c r="BJ98">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="BK98">
         <v>7</v>

--- a/Bases_de_Dados_(2022-2023)/Norway Eliteserien_2023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Norway Eliteserien_2023.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="645" uniqueCount="208">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="693" uniqueCount="215">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -475,6 +475,18 @@
     <t>['66', '90+3']</t>
   </si>
   <si>
+    <t>['66', '80']</t>
+  </si>
+  <si>
+    <t>['63', '73']</t>
+  </si>
+  <si>
+    <t>['4', '11', '23', '60', '78']</t>
+  </si>
+  <si>
+    <t>['12', '90+5']</t>
+  </si>
+  <si>
     <t>['79']</t>
   </si>
   <si>
@@ -638,6 +650,15 @@
   </si>
   <si>
     <t>['24', '35']</t>
+  </si>
+  <si>
+    <t>['6', '17']</t>
+  </si>
+  <si>
+    <t>['27', '59']</t>
+  </si>
+  <si>
+    <t>['85', '90+2']</t>
   </si>
 </sst>
 </file>
@@ -999,7 +1020,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BK98"/>
+  <dimension ref="A1:BK106"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1330,7 +1351,7 @@
         <v>0</v>
       </c>
       <c r="AS2">
-        <v>1.43</v>
+        <v>1.25</v>
       </c>
       <c r="AT2">
         <v>1.67</v>
@@ -1434,7 +1455,7 @@
         <v>82</v>
       </c>
       <c r="P3" t="s">
-        <v>153</v>
+        <v>157</v>
       </c>
       <c r="Q3">
         <v>3</v>
@@ -1524,7 +1545,7 @@
         <v>1</v>
       </c>
       <c r="AT3">
-        <v>1.4</v>
+        <v>1.33</v>
       </c>
       <c r="AU3">
         <v>0</v>
@@ -1712,7 +1733,7 @@
         <v>0</v>
       </c>
       <c r="AS4">
-        <v>1.17</v>
+        <v>1.43</v>
       </c>
       <c r="AT4">
         <v>0.29</v>
@@ -1816,7 +1837,7 @@
         <v>82</v>
       </c>
       <c r="P5" t="s">
-        <v>154</v>
+        <v>158</v>
       </c>
       <c r="Q5">
         <v>1</v>
@@ -1906,7 +1927,7 @@
         <v>1.67</v>
       </c>
       <c r="AT5">
-        <v>2.5</v>
+        <v>2.57</v>
       </c>
       <c r="AU5">
         <v>0</v>
@@ -2285,7 +2306,7 @@
         <v>0</v>
       </c>
       <c r="AS7">
-        <v>1.67</v>
+        <v>1.57</v>
       </c>
       <c r="AT7">
         <v>1</v>
@@ -2479,7 +2500,7 @@
         <v>2.43</v>
       </c>
       <c r="AT8">
-        <v>0.67</v>
+        <v>0.57</v>
       </c>
       <c r="AU8">
         <v>0</v>
@@ -2667,10 +2688,10 @@
         <v>0</v>
       </c>
       <c r="AS9">
-        <v>2.17</v>
+        <v>2.29</v>
       </c>
       <c r="AT9">
-        <v>1.6</v>
+        <v>1.83</v>
       </c>
       <c r="AU9">
         <v>0</v>
@@ -2861,7 +2882,7 @@
         <v>2.43</v>
       </c>
       <c r="AT10">
-        <v>0.6</v>
+        <v>0.67</v>
       </c>
       <c r="AU10">
         <v>0</v>
@@ -2962,7 +2983,7 @@
         <v>88</v>
       </c>
       <c r="P11" t="s">
-        <v>155</v>
+        <v>159</v>
       </c>
       <c r="Q11">
         <v>6</v>
@@ -3153,7 +3174,7 @@
         <v>89</v>
       </c>
       <c r="P12" t="s">
-        <v>156</v>
+        <v>160</v>
       </c>
       <c r="Q12">
         <v>7</v>
@@ -3240,7 +3261,7 @@
         <v>0</v>
       </c>
       <c r="AS12">
-        <v>2.17</v>
+        <v>2.29</v>
       </c>
       <c r="AT12">
         <v>0.5</v>
@@ -3431,10 +3452,10 @@
         <v>0</v>
       </c>
       <c r="AS13">
-        <v>1.6</v>
+        <v>1.33</v>
       </c>
       <c r="AT13">
-        <v>1.17</v>
+        <v>1</v>
       </c>
       <c r="AU13">
         <v>0</v>
@@ -3622,7 +3643,7 @@
         <v>0</v>
       </c>
       <c r="AS14">
-        <v>1.75</v>
+        <v>1.6</v>
       </c>
       <c r="AT14">
         <v>2.67</v>
@@ -3813,7 +3834,7 @@
         <v>0</v>
       </c>
       <c r="AS15">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="AT15">
         <v>0</v>
@@ -3917,7 +3938,7 @@
         <v>82</v>
       </c>
       <c r="P16" t="s">
-        <v>157</v>
+        <v>161</v>
       </c>
       <c r="Q16">
         <v>6</v>
@@ -4007,7 +4028,7 @@
         <v>0.5</v>
       </c>
       <c r="AT16">
-        <v>1.83</v>
+        <v>1.57</v>
       </c>
       <c r="AU16">
         <v>0</v>
@@ -4108,7 +4129,7 @@
         <v>92</v>
       </c>
       <c r="P17" t="s">
-        <v>158</v>
+        <v>162</v>
       </c>
       <c r="Q17">
         <v>14</v>
@@ -4299,7 +4320,7 @@
         <v>93</v>
       </c>
       <c r="P18" t="s">
-        <v>159</v>
+        <v>163</v>
       </c>
       <c r="Q18">
         <v>8</v>
@@ -4389,7 +4410,7 @@
         <v>2.43</v>
       </c>
       <c r="AT18">
-        <v>1.4</v>
+        <v>1.33</v>
       </c>
       <c r="AU18">
         <v>2.05</v>
@@ -4490,7 +4511,7 @@
         <v>82</v>
       </c>
       <c r="P19" t="s">
-        <v>160</v>
+        <v>164</v>
       </c>
       <c r="Q19">
         <v>1</v>
@@ -4580,7 +4601,7 @@
         <v>1</v>
       </c>
       <c r="AT19">
-        <v>2.5</v>
+        <v>2.57</v>
       </c>
       <c r="AU19">
         <v>1.23</v>
@@ -4768,7 +4789,7 @@
         <v>0</v>
       </c>
       <c r="AS20">
-        <v>1.17</v>
+        <v>1.43</v>
       </c>
       <c r="AT20">
         <v>1.14</v>
@@ -4872,7 +4893,7 @@
         <v>95</v>
       </c>
       <c r="P21" t="s">
-        <v>161</v>
+        <v>165</v>
       </c>
       <c r="Q21">
         <v>7</v>
@@ -4959,7 +4980,7 @@
         <v>0</v>
       </c>
       <c r="AS21">
-        <v>1.43</v>
+        <v>1.25</v>
       </c>
       <c r="AT21">
         <v>0.29</v>
@@ -5344,7 +5365,7 @@
         <v>1.71</v>
       </c>
       <c r="AT23">
-        <v>0.67</v>
+        <v>0.57</v>
       </c>
       <c r="AU23">
         <v>1.95</v>
@@ -5445,7 +5466,7 @@
         <v>97</v>
       </c>
       <c r="P24" t="s">
-        <v>162</v>
+        <v>166</v>
       </c>
       <c r="Q24">
         <v>5</v>
@@ -5532,7 +5553,7 @@
         <v>0</v>
       </c>
       <c r="AS24">
-        <v>1.67</v>
+        <v>1.57</v>
       </c>
       <c r="AT24">
         <v>1.67</v>
@@ -5636,7 +5657,7 @@
         <v>98</v>
       </c>
       <c r="P25" t="s">
-        <v>163</v>
+        <v>167</v>
       </c>
       <c r="Q25">
         <v>11</v>
@@ -5827,7 +5848,7 @@
         <v>99</v>
       </c>
       <c r="P26" t="s">
-        <v>164</v>
+        <v>168</v>
       </c>
       <c r="Q26">
         <v>7</v>
@@ -5917,7 +5938,7 @@
         <v>2.43</v>
       </c>
       <c r="AT26">
-        <v>1.17</v>
+        <v>1</v>
       </c>
       <c r="AU26">
         <v>2.11</v>
@@ -6018,7 +6039,7 @@
         <v>100</v>
       </c>
       <c r="P27" t="s">
-        <v>165</v>
+        <v>169</v>
       </c>
       <c r="Q27">
         <v>10</v>
@@ -6105,7 +6126,7 @@
         <v>0</v>
       </c>
       <c r="AS27">
-        <v>2.17</v>
+        <v>2.29</v>
       </c>
       <c r="AT27">
         <v>0</v>
@@ -6209,7 +6230,7 @@
         <v>82</v>
       </c>
       <c r="P28" t="s">
-        <v>166</v>
+        <v>170</v>
       </c>
       <c r="Q28">
         <v>12</v>
@@ -6296,7 +6317,7 @@
         <v>1</v>
       </c>
       <c r="AS28">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="AT28">
         <v>2.67</v>
@@ -6490,7 +6511,7 @@
         <v>1.83</v>
       </c>
       <c r="AT29">
-        <v>1.83</v>
+        <v>1.57</v>
       </c>
       <c r="AU29">
         <v>1.16</v>
@@ -6591,7 +6612,7 @@
         <v>101</v>
       </c>
       <c r="P30" t="s">
-        <v>167</v>
+        <v>171</v>
       </c>
       <c r="Q30">
         <v>8</v>
@@ -6678,10 +6699,10 @@
         <v>0</v>
       </c>
       <c r="AS30">
-        <v>2.17</v>
+        <v>2.29</v>
       </c>
       <c r="AT30">
-        <v>0.6</v>
+        <v>0.67</v>
       </c>
       <c r="AU30">
         <v>1.02</v>
@@ -6869,7 +6890,7 @@
         <v>0</v>
       </c>
       <c r="AS31">
-        <v>1.75</v>
+        <v>1.6</v>
       </c>
       <c r="AT31">
         <v>0</v>
@@ -7060,7 +7081,7 @@
         <v>1</v>
       </c>
       <c r="AS32">
-        <v>1.6</v>
+        <v>1.33</v>
       </c>
       <c r="AT32">
         <v>0.5</v>
@@ -7164,7 +7185,7 @@
         <v>103</v>
       </c>
       <c r="P33" t="s">
-        <v>168</v>
+        <v>172</v>
       </c>
       <c r="Q33">
         <v>2</v>
@@ -7254,7 +7275,7 @@
         <v>0.5</v>
       </c>
       <c r="AT33">
-        <v>1.6</v>
+        <v>1.83</v>
       </c>
       <c r="AU33">
         <v>1.55</v>
@@ -7355,7 +7376,7 @@
         <v>82</v>
       </c>
       <c r="P34" t="s">
-        <v>169</v>
+        <v>173</v>
       </c>
       <c r="Q34">
         <v>0</v>
@@ -7442,10 +7463,10 @@
         <v>0.5</v>
       </c>
       <c r="AS34">
-        <v>1.43</v>
+        <v>1.25</v>
       </c>
       <c r="AT34">
-        <v>1.17</v>
+        <v>1</v>
       </c>
       <c r="AU34">
         <v>1.42</v>
@@ -7824,7 +7845,7 @@
         <v>0</v>
       </c>
       <c r="AS36">
-        <v>2.17</v>
+        <v>2.29</v>
       </c>
       <c r="AT36">
         <v>0</v>
@@ -7928,7 +7949,7 @@
         <v>106</v>
       </c>
       <c r="P37" t="s">
-        <v>170</v>
+        <v>174</v>
       </c>
       <c r="Q37">
         <v>4</v>
@@ -8015,10 +8036,10 @@
         <v>1.5</v>
       </c>
       <c r="AS37">
-        <v>1.43</v>
+        <v>1.25</v>
       </c>
       <c r="AT37">
-        <v>1.4</v>
+        <v>1.33</v>
       </c>
       <c r="AU37">
         <v>1.4</v>
@@ -8119,7 +8140,7 @@
         <v>107</v>
       </c>
       <c r="P38" t="s">
-        <v>171</v>
+        <v>175</v>
       </c>
       <c r="Q38">
         <v>6</v>
@@ -8209,7 +8230,7 @@
         <v>1.71</v>
       </c>
       <c r="AT38">
-        <v>1.83</v>
+        <v>1.57</v>
       </c>
       <c r="AU38">
         <v>2.01</v>
@@ -8310,7 +8331,7 @@
         <v>82</v>
       </c>
       <c r="P39" t="s">
-        <v>172</v>
+        <v>176</v>
       </c>
       <c r="Q39">
         <v>8</v>
@@ -8397,7 +8418,7 @@
         <v>0</v>
       </c>
       <c r="AS39">
-        <v>1.17</v>
+        <v>1.43</v>
       </c>
       <c r="AT39">
         <v>1</v>
@@ -8591,7 +8612,7 @@
         <v>1</v>
       </c>
       <c r="AT40">
-        <v>0.67</v>
+        <v>0.57</v>
       </c>
       <c r="AU40">
         <v>1.01</v>
@@ -8692,7 +8713,7 @@
         <v>82</v>
       </c>
       <c r="P41" t="s">
-        <v>173</v>
+        <v>177</v>
       </c>
       <c r="Q41">
         <v>5</v>
@@ -8779,7 +8800,7 @@
         <v>0.67</v>
       </c>
       <c r="AS41">
-        <v>1.67</v>
+        <v>1.57</v>
       </c>
       <c r="AT41">
         <v>1</v>
@@ -8883,7 +8904,7 @@
         <v>108</v>
       </c>
       <c r="P42" t="s">
-        <v>174</v>
+        <v>178</v>
       </c>
       <c r="Q42">
         <v>6</v>
@@ -8970,7 +8991,7 @@
         <v>0</v>
       </c>
       <c r="AS42">
-        <v>2.17</v>
+        <v>2.29</v>
       </c>
       <c r="AT42">
         <v>1.14</v>
@@ -9074,7 +9095,7 @@
         <v>109</v>
       </c>
       <c r="P43" t="s">
-        <v>175</v>
+        <v>179</v>
       </c>
       <c r="Q43">
         <v>5</v>
@@ -9164,7 +9185,7 @@
         <v>1.5</v>
       </c>
       <c r="AT43">
-        <v>2.5</v>
+        <v>2.57</v>
       </c>
       <c r="AU43">
         <v>1.64</v>
@@ -9456,7 +9477,7 @@
         <v>82</v>
       </c>
       <c r="P45" t="s">
-        <v>176</v>
+        <v>180</v>
       </c>
       <c r="Q45">
         <v>5</v>
@@ -9543,10 +9564,10 @@
         <v>1.5</v>
       </c>
       <c r="AS45">
-        <v>1.6</v>
+        <v>1.33</v>
       </c>
       <c r="AT45">
-        <v>1.6</v>
+        <v>1.83</v>
       </c>
       <c r="AU45">
         <v>1.07</v>
@@ -9647,7 +9668,7 @@
         <v>110</v>
       </c>
       <c r="P46" t="s">
-        <v>177</v>
+        <v>181</v>
       </c>
       <c r="Q46">
         <v>4</v>
@@ -9838,7 +9859,7 @@
         <v>111</v>
       </c>
       <c r="P47" t="s">
-        <v>178</v>
+        <v>182</v>
       </c>
       <c r="Q47">
         <v>3</v>
@@ -9925,7 +9946,7 @@
         <v>2</v>
       </c>
       <c r="AS47">
-        <v>1.17</v>
+        <v>1.43</v>
       </c>
       <c r="AT47">
         <v>2.67</v>
@@ -10029,7 +10050,7 @@
         <v>112</v>
       </c>
       <c r="P48" t="s">
-        <v>179</v>
+        <v>183</v>
       </c>
       <c r="Q48">
         <v>6</v>
@@ -10116,7 +10137,7 @@
         <v>0.33</v>
       </c>
       <c r="AS48">
-        <v>2.17</v>
+        <v>2.29</v>
       </c>
       <c r="AT48">
         <v>1.14</v>
@@ -10220,7 +10241,7 @@
         <v>113</v>
       </c>
       <c r="P49" t="s">
-        <v>180</v>
+        <v>184</v>
       </c>
       <c r="Q49">
         <v>7</v>
@@ -10307,7 +10328,7 @@
         <v>0.5</v>
       </c>
       <c r="AS49">
-        <v>1.75</v>
+        <v>1.6</v>
       </c>
       <c r="AT49">
         <v>1.67</v>
@@ -10411,7 +10432,7 @@
         <v>114</v>
       </c>
       <c r="P50" t="s">
-        <v>153</v>
+        <v>157</v>
       </c>
       <c r="Q50">
         <v>3</v>
@@ -10501,7 +10522,7 @@
         <v>1.67</v>
       </c>
       <c r="AT50">
-        <v>1.17</v>
+        <v>1</v>
       </c>
       <c r="AU50">
         <v>1.25</v>
@@ -10793,7 +10814,7 @@
         <v>116</v>
       </c>
       <c r="P52" t="s">
-        <v>181</v>
+        <v>185</v>
       </c>
       <c r="Q52">
         <v>3</v>
@@ -10883,7 +10904,7 @@
         <v>1.83</v>
       </c>
       <c r="AT52">
-        <v>1.4</v>
+        <v>1.33</v>
       </c>
       <c r="AU52">
         <v>0.97</v>
@@ -11071,10 +11092,10 @@
         <v>0.33</v>
       </c>
       <c r="AS53">
-        <v>1.43</v>
+        <v>1.25</v>
       </c>
       <c r="AT53">
-        <v>0.67</v>
+        <v>0.57</v>
       </c>
       <c r="AU53">
         <v>1.31</v>
@@ -11262,7 +11283,7 @@
         <v>0.67</v>
       </c>
       <c r="AS54">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="AT54">
         <v>0.29</v>
@@ -11366,7 +11387,7 @@
         <v>118</v>
       </c>
       <c r="P55" t="s">
-        <v>182</v>
+        <v>186</v>
       </c>
       <c r="Q55">
         <v>3</v>
@@ -11453,10 +11474,10 @@
         <v>3</v>
       </c>
       <c r="AS55">
-        <v>1.67</v>
+        <v>1.57</v>
       </c>
       <c r="AT55">
-        <v>2.5</v>
+        <v>2.57</v>
       </c>
       <c r="AU55">
         <v>1.09</v>
@@ -11557,7 +11578,7 @@
         <v>119</v>
       </c>
       <c r="P56" t="s">
-        <v>183</v>
+        <v>187</v>
       </c>
       <c r="Q56">
         <v>6</v>
@@ -11644,7 +11665,7 @@
         <v>1.25</v>
       </c>
       <c r="AS56">
-        <v>2.17</v>
+        <v>2.29</v>
       </c>
       <c r="AT56">
         <v>1</v>
@@ -12130,7 +12151,7 @@
         <v>95</v>
       </c>
       <c r="P59" t="s">
-        <v>184</v>
+        <v>188</v>
       </c>
       <c r="Q59">
         <v>6</v>
@@ -12220,7 +12241,7 @@
         <v>1.5</v>
       </c>
       <c r="AT59">
-        <v>1.83</v>
+        <v>1.57</v>
       </c>
       <c r="AU59">
         <v>1.58</v>
@@ -12321,7 +12342,7 @@
         <v>122</v>
       </c>
       <c r="P60" t="s">
-        <v>163</v>
+        <v>167</v>
       </c>
       <c r="Q60">
         <v>6</v>
@@ -12411,7 +12432,7 @@
         <v>2.43</v>
       </c>
       <c r="AT60">
-        <v>0.6</v>
+        <v>0.67</v>
       </c>
       <c r="AU60">
         <v>2.3</v>
@@ -12703,7 +12724,7 @@
         <v>124</v>
       </c>
       <c r="P62" t="s">
-        <v>185</v>
+        <v>189</v>
       </c>
       <c r="Q62">
         <v>1</v>
@@ -12793,7 +12814,7 @@
         <v>1.71</v>
       </c>
       <c r="AT62">
-        <v>1.4</v>
+        <v>1.33</v>
       </c>
       <c r="AU62">
         <v>1.74</v>
@@ -12894,7 +12915,7 @@
         <v>109</v>
       </c>
       <c r="P63" t="s">
-        <v>186</v>
+        <v>190</v>
       </c>
       <c r="Q63">
         <v>10</v>
@@ -12981,7 +13002,7 @@
         <v>0.25</v>
       </c>
       <c r="AS63">
-        <v>1.6</v>
+        <v>1.33</v>
       </c>
       <c r="AT63">
         <v>1.14</v>
@@ -13085,7 +13106,7 @@
         <v>125</v>
       </c>
       <c r="P64" t="s">
-        <v>187</v>
+        <v>191</v>
       </c>
       <c r="Q64">
         <v>4</v>
@@ -13363,7 +13384,7 @@
         <v>0.5</v>
       </c>
       <c r="AS65">
-        <v>2.17</v>
+        <v>2.29</v>
       </c>
       <c r="AT65">
         <v>0.29</v>
@@ -13936,10 +13957,10 @@
         <v>2</v>
       </c>
       <c r="AS68">
-        <v>1.17</v>
+        <v>1.43</v>
       </c>
       <c r="AT68">
-        <v>1.6</v>
+        <v>1.83</v>
       </c>
       <c r="AU68">
         <v>1.48</v>
@@ -14040,7 +14061,7 @@
         <v>129</v>
       </c>
       <c r="P69" t="s">
-        <v>188</v>
+        <v>192</v>
       </c>
       <c r="Q69">
         <v>3</v>
@@ -14130,7 +14151,7 @@
         <v>1</v>
       </c>
       <c r="AT69">
-        <v>1.17</v>
+        <v>1</v>
       </c>
       <c r="AU69">
         <v>1.2</v>
@@ -14231,7 +14252,7 @@
         <v>130</v>
       </c>
       <c r="P70" t="s">
-        <v>189</v>
+        <v>193</v>
       </c>
       <c r="Q70">
         <v>6</v>
@@ -14321,7 +14342,7 @@
         <v>1.5</v>
       </c>
       <c r="AT70">
-        <v>0.6</v>
+        <v>0.67</v>
       </c>
       <c r="AU70">
         <v>1.77</v>
@@ -14509,7 +14530,7 @@
         <v>0</v>
       </c>
       <c r="AS71">
-        <v>1.43</v>
+        <v>1.25</v>
       </c>
       <c r="AT71">
         <v>0</v>
@@ -14613,7 +14634,7 @@
         <v>132</v>
       </c>
       <c r="P72" t="s">
-        <v>190</v>
+        <v>194</v>
       </c>
       <c r="Q72">
         <v>3</v>
@@ -14700,7 +14721,7 @@
         <v>1</v>
       </c>
       <c r="AS72">
-        <v>1.75</v>
+        <v>1.6</v>
       </c>
       <c r="AT72">
         <v>1</v>
@@ -14804,7 +14825,7 @@
         <v>133</v>
       </c>
       <c r="P73" t="s">
-        <v>191</v>
+        <v>195</v>
       </c>
       <c r="Q73">
         <v>4</v>
@@ -14891,10 +14912,10 @@
         <v>0.25</v>
       </c>
       <c r="AS73">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="AT73">
-        <v>0.67</v>
+        <v>0.57</v>
       </c>
       <c r="AU73">
         <v>1.78</v>
@@ -15082,10 +15103,10 @@
         <v>2</v>
       </c>
       <c r="AS74">
-        <v>1.67</v>
+        <v>1.57</v>
       </c>
       <c r="AT74">
-        <v>1.83</v>
+        <v>1.57</v>
       </c>
       <c r="AU74">
         <v>1.2</v>
@@ -15186,7 +15207,7 @@
         <v>107</v>
       </c>
       <c r="P75" t="s">
-        <v>192</v>
+        <v>196</v>
       </c>
       <c r="Q75">
         <v>1</v>
@@ -15276,7 +15297,7 @@
         <v>0.5</v>
       </c>
       <c r="AT75">
-        <v>2.5</v>
+        <v>2.57</v>
       </c>
       <c r="AU75">
         <v>1.73</v>
@@ -15377,7 +15398,7 @@
         <v>135</v>
       </c>
       <c r="P76" t="s">
-        <v>193</v>
+        <v>197</v>
       </c>
       <c r="Q76">
         <v>3</v>
@@ -15464,7 +15485,7 @@
         <v>0.75</v>
       </c>
       <c r="AS76">
-        <v>2.17</v>
+        <v>2.29</v>
       </c>
       <c r="AT76">
         <v>1</v>
@@ -15568,7 +15589,7 @@
         <v>82</v>
       </c>
       <c r="P77" t="s">
-        <v>194</v>
+        <v>198</v>
       </c>
       <c r="Q77">
         <v>7</v>
@@ -15759,7 +15780,7 @@
         <v>136</v>
       </c>
       <c r="P78" t="s">
-        <v>195</v>
+        <v>199</v>
       </c>
       <c r="Q78">
         <v>2</v>
@@ -16037,7 +16058,7 @@
         <v>1.2</v>
       </c>
       <c r="AS79">
-        <v>1.6</v>
+        <v>1.33</v>
       </c>
       <c r="AT79">
         <v>1</v>
@@ -16141,7 +16162,7 @@
         <v>138</v>
       </c>
       <c r="P80" t="s">
-        <v>196</v>
+        <v>200</v>
       </c>
       <c r="Q80">
         <v>7</v>
@@ -16332,7 +16353,7 @@
         <v>139</v>
       </c>
       <c r="P81" t="s">
-        <v>197</v>
+        <v>201</v>
       </c>
       <c r="Q81">
         <v>5</v>
@@ -16714,7 +16735,7 @@
         <v>141</v>
       </c>
       <c r="P83" t="s">
-        <v>198</v>
+        <v>202</v>
       </c>
       <c r="Q83">
         <v>4</v>
@@ -16905,7 +16926,7 @@
         <v>142</v>
       </c>
       <c r="P84" t="s">
-        <v>199</v>
+        <v>203</v>
       </c>
       <c r="Q84">
         <v>8</v>
@@ -16995,7 +17016,7 @@
         <v>2.43</v>
       </c>
       <c r="AT84">
-        <v>1.6</v>
+        <v>1.83</v>
       </c>
       <c r="AU84">
         <v>2.04</v>
@@ -17183,10 +17204,10 @@
         <v>1.4</v>
       </c>
       <c r="AS85">
-        <v>2.17</v>
+        <v>2.29</v>
       </c>
       <c r="AT85">
-        <v>1.17</v>
+        <v>1</v>
       </c>
       <c r="AU85">
         <v>2</v>
@@ -17287,7 +17308,7 @@
         <v>82</v>
       </c>
       <c r="P86" t="s">
-        <v>200</v>
+        <v>204</v>
       </c>
       <c r="Q86">
         <v>9</v>
@@ -17374,7 +17395,7 @@
         <v>0.83</v>
       </c>
       <c r="AS86">
-        <v>1.17</v>
+        <v>1.43</v>
       </c>
       <c r="AT86">
         <v>1</v>
@@ -17565,10 +17586,10 @@
         <v>0.8</v>
       </c>
       <c r="AS87">
-        <v>2.17</v>
+        <v>2.29</v>
       </c>
       <c r="AT87">
-        <v>0.67</v>
+        <v>0.57</v>
       </c>
       <c r="AU87">
         <v>2.01</v>
@@ -17669,7 +17690,7 @@
         <v>82</v>
       </c>
       <c r="P88" t="s">
-        <v>201</v>
+        <v>205</v>
       </c>
       <c r="Q88">
         <v>4</v>
@@ -17756,10 +17777,10 @@
         <v>1.6</v>
       </c>
       <c r="AS88">
-        <v>1.43</v>
+        <v>1.25</v>
       </c>
       <c r="AT88">
-        <v>1.83</v>
+        <v>1.57</v>
       </c>
       <c r="AU88">
         <v>1.42</v>
@@ -17860,7 +17881,7 @@
         <v>145</v>
       </c>
       <c r="P89" t="s">
-        <v>202</v>
+        <v>206</v>
       </c>
       <c r="Q89">
         <v>6</v>
@@ -17947,10 +17968,10 @@
         <v>0.75</v>
       </c>
       <c r="AS89">
-        <v>1.67</v>
+        <v>1.57</v>
       </c>
       <c r="AT89">
-        <v>0.6</v>
+        <v>0.67</v>
       </c>
       <c r="AU89">
         <v>1.24</v>
@@ -18138,10 +18159,10 @@
         <v>3</v>
       </c>
       <c r="AS90">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="AT90">
-        <v>2.5</v>
+        <v>2.57</v>
       </c>
       <c r="AU90">
         <v>1.89</v>
@@ -18242,7 +18263,7 @@
         <v>147</v>
       </c>
       <c r="P91" t="s">
-        <v>203</v>
+        <v>207</v>
       </c>
       <c r="Q91">
         <v>5</v>
@@ -18433,7 +18454,7 @@
         <v>148</v>
       </c>
       <c r="P92" t="s">
-        <v>204</v>
+        <v>208</v>
       </c>
       <c r="Q92">
         <v>10</v>
@@ -18624,7 +18645,7 @@
         <v>82</v>
       </c>
       <c r="P93" t="s">
-        <v>205</v>
+        <v>209</v>
       </c>
       <c r="Q93">
         <v>4</v>
@@ -18815,7 +18836,7 @@
         <v>149</v>
       </c>
       <c r="P94" t="s">
-        <v>206</v>
+        <v>210</v>
       </c>
       <c r="Q94">
         <v>9</v>
@@ -19197,7 +19218,7 @@
         <v>151</v>
       </c>
       <c r="P96" t="s">
-        <v>176</v>
+        <v>180</v>
       </c>
       <c r="Q96">
         <v>7</v>
@@ -19388,7 +19409,7 @@
         <v>152</v>
       </c>
       <c r="P97" t="s">
-        <v>207</v>
+        <v>211</v>
       </c>
       <c r="Q97">
         <v>7</v>
@@ -19721,6 +19742,1534 @@
       </c>
       <c r="BK98">
         <v>7</v>
+      </c>
+    </row>
+    <row r="99" spans="1:63">
+      <c r="A99" s="1">
+        <v>98</v>
+      </c>
+      <c r="B99">
+        <v>4869467</v>
+      </c>
+      <c r="C99" t="s">
+        <v>63</v>
+      </c>
+      <c r="D99" t="s">
+        <v>64</v>
+      </c>
+      <c r="E99" s="2">
+        <v>45114.58333333334</v>
+      </c>
+      <c r="F99">
+        <v>13</v>
+      </c>
+      <c r="G99" t="s">
+        <v>67</v>
+      </c>
+      <c r="H99" t="s">
+        <v>66</v>
+      </c>
+      <c r="I99">
+        <v>0</v>
+      </c>
+      <c r="J99">
+        <v>0</v>
+      </c>
+      <c r="K99">
+        <v>0</v>
+      </c>
+      <c r="L99">
+        <v>2</v>
+      </c>
+      <c r="M99">
+        <v>1</v>
+      </c>
+      <c r="N99">
+        <v>3</v>
+      </c>
+      <c r="O99" t="s">
+        <v>153</v>
+      </c>
+      <c r="P99" t="s">
+        <v>133</v>
+      </c>
+      <c r="Q99">
+        <v>12</v>
+      </c>
+      <c r="R99">
+        <v>6</v>
+      </c>
+      <c r="S99">
+        <v>18</v>
+      </c>
+      <c r="T99">
+        <v>2.75</v>
+      </c>
+      <c r="U99">
+        <v>2.1</v>
+      </c>
+      <c r="V99">
+        <v>4</v>
+      </c>
+      <c r="W99">
+        <v>1.44</v>
+      </c>
+      <c r="X99">
+        <v>2.63</v>
+      </c>
+      <c r="Y99">
+        <v>3</v>
+      </c>
+      <c r="Z99">
+        <v>1.36</v>
+      </c>
+      <c r="AA99">
+        <v>9</v>
+      </c>
+      <c r="AB99">
+        <v>1.07</v>
+      </c>
+      <c r="AC99">
+        <v>1.93</v>
+      </c>
+      <c r="AD99">
+        <v>3.4</v>
+      </c>
+      <c r="AE99">
+        <v>3.75</v>
+      </c>
+      <c r="AF99">
+        <v>1.01</v>
+      </c>
+      <c r="AG99">
+        <v>10.75</v>
+      </c>
+      <c r="AH99">
+        <v>1.25</v>
+      </c>
+      <c r="AI99">
+        <v>3.4</v>
+      </c>
+      <c r="AJ99">
+        <v>2</v>
+      </c>
+      <c r="AK99">
+        <v>1.8</v>
+      </c>
+      <c r="AL99">
+        <v>1.8</v>
+      </c>
+      <c r="AM99">
+        <v>1.95</v>
+      </c>
+      <c r="AN99">
+        <v>1.29</v>
+      </c>
+      <c r="AO99">
+        <v>1.28</v>
+      </c>
+      <c r="AP99">
+        <v>1.75</v>
+      </c>
+      <c r="AQ99">
+        <v>1.17</v>
+      </c>
+      <c r="AR99">
+        <v>0</v>
+      </c>
+      <c r="AS99">
+        <v>1.43</v>
+      </c>
+      <c r="AT99">
+        <v>0</v>
+      </c>
+      <c r="AU99">
+        <v>1.51</v>
+      </c>
+      <c r="AV99">
+        <v>1.1</v>
+      </c>
+      <c r="AW99">
+        <v>2.61</v>
+      </c>
+      <c r="AX99">
+        <v>1.67</v>
+      </c>
+      <c r="AY99">
+        <v>8.5</v>
+      </c>
+      <c r="AZ99">
+        <v>2.5</v>
+      </c>
+      <c r="BA99">
+        <v>1.18</v>
+      </c>
+      <c r="BB99">
+        <v>1.35</v>
+      </c>
+      <c r="BC99">
+        <v>1.61</v>
+      </c>
+      <c r="BD99">
+        <v>2.03</v>
+      </c>
+      <c r="BE99">
+        <v>2.65</v>
+      </c>
+      <c r="BF99">
+        <v>5</v>
+      </c>
+      <c r="BG99">
+        <v>4</v>
+      </c>
+      <c r="BH99">
+        <v>5</v>
+      </c>
+      <c r="BI99">
+        <v>7</v>
+      </c>
+      <c r="BJ99">
+        <v>10</v>
+      </c>
+      <c r="BK99">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="100" spans="1:63">
+      <c r="A100" s="1">
+        <v>99</v>
+      </c>
+      <c r="B100">
+        <v>4869468</v>
+      </c>
+      <c r="C100" t="s">
+        <v>63</v>
+      </c>
+      <c r="D100" t="s">
+        <v>64</v>
+      </c>
+      <c r="E100" s="2">
+        <v>45115.54166666666</v>
+      </c>
+      <c r="F100">
+        <v>13</v>
+      </c>
+      <c r="G100" t="s">
+        <v>72</v>
+      </c>
+      <c r="H100" t="s">
+        <v>74</v>
+      </c>
+      <c r="I100">
+        <v>0</v>
+      </c>
+      <c r="J100">
+        <v>0</v>
+      </c>
+      <c r="K100">
+        <v>0</v>
+      </c>
+      <c r="L100">
+        <v>2</v>
+      </c>
+      <c r="M100">
+        <v>0</v>
+      </c>
+      <c r="N100">
+        <v>2</v>
+      </c>
+      <c r="O100" t="s">
+        <v>154</v>
+      </c>
+      <c r="P100" t="s">
+        <v>82</v>
+      </c>
+      <c r="Q100">
+        <v>14</v>
+      </c>
+      <c r="R100">
+        <v>2</v>
+      </c>
+      <c r="S100">
+        <v>16</v>
+      </c>
+      <c r="T100">
+        <v>1.83</v>
+      </c>
+      <c r="U100">
+        <v>2.75</v>
+      </c>
+      <c r="V100">
+        <v>6</v>
+      </c>
+      <c r="W100">
+        <v>1.22</v>
+      </c>
+      <c r="X100">
+        <v>4</v>
+      </c>
+      <c r="Y100">
+        <v>2.1</v>
+      </c>
+      <c r="Z100">
+        <v>1.67</v>
+      </c>
+      <c r="AA100">
+        <v>4.5</v>
+      </c>
+      <c r="AB100">
+        <v>1.18</v>
+      </c>
+      <c r="AC100">
+        <v>1.4</v>
+      </c>
+      <c r="AD100">
+        <v>4.5</v>
+      </c>
+      <c r="AE100">
+        <v>7</v>
+      </c>
+      <c r="AF100">
+        <v>1.01</v>
+      </c>
+      <c r="AG100">
+        <v>18</v>
+      </c>
+      <c r="AH100">
+        <v>1.14</v>
+      </c>
+      <c r="AI100">
+        <v>5.25</v>
+      </c>
+      <c r="AJ100">
+        <v>1.55</v>
+      </c>
+      <c r="AK100">
+        <v>2.26</v>
+      </c>
+      <c r="AL100">
+        <v>1.62</v>
+      </c>
+      <c r="AM100">
+        <v>2.2</v>
+      </c>
+      <c r="AN100">
+        <v>1.11</v>
+      </c>
+      <c r="AO100">
+        <v>1.17</v>
+      </c>
+      <c r="AP100">
+        <v>2.9</v>
+      </c>
+      <c r="AQ100">
+        <v>2.17</v>
+      </c>
+      <c r="AR100">
+        <v>0.67</v>
+      </c>
+      <c r="AS100">
+        <v>2.29</v>
+      </c>
+      <c r="AT100">
+        <v>0.57</v>
+      </c>
+      <c r="AU100">
+        <v>1.97</v>
+      </c>
+      <c r="AV100">
+        <v>0.9</v>
+      </c>
+      <c r="AW100">
+        <v>2.87</v>
+      </c>
+      <c r="AX100">
+        <v>1.18</v>
+      </c>
+      <c r="AY100">
+        <v>11</v>
+      </c>
+      <c r="AZ100">
+        <v>5.5</v>
+      </c>
+      <c r="BA100">
+        <v>1.09</v>
+      </c>
+      <c r="BB100">
+        <v>1.22</v>
+      </c>
+      <c r="BC100">
+        <v>1.42</v>
+      </c>
+      <c r="BD100">
+        <v>1.7</v>
+      </c>
+      <c r="BE100">
+        <v>2.13</v>
+      </c>
+      <c r="BF100">
+        <v>8</v>
+      </c>
+      <c r="BG100">
+        <v>3</v>
+      </c>
+      <c r="BH100">
+        <v>7</v>
+      </c>
+      <c r="BI100">
+        <v>6</v>
+      </c>
+      <c r="BJ100">
+        <v>15</v>
+      </c>
+      <c r="BK100">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="101" spans="1:63">
+      <c r="A101" s="1">
+        <v>100</v>
+      </c>
+      <c r="B101">
+        <v>4869473</v>
+      </c>
+      <c r="C101" t="s">
+        <v>63</v>
+      </c>
+      <c r="D101" t="s">
+        <v>64</v>
+      </c>
+      <c r="E101" s="2">
+        <v>45116.5</v>
+      </c>
+      <c r="F101">
+        <v>13</v>
+      </c>
+      <c r="G101" t="s">
+        <v>70</v>
+      </c>
+      <c r="H101" t="s">
+        <v>79</v>
+      </c>
+      <c r="I101">
+        <v>0</v>
+      </c>
+      <c r="J101">
+        <v>0</v>
+      </c>
+      <c r="K101">
+        <v>0</v>
+      </c>
+      <c r="L101">
+        <v>0</v>
+      </c>
+      <c r="M101">
+        <v>0</v>
+      </c>
+      <c r="N101">
+        <v>0</v>
+      </c>
+      <c r="O101" t="s">
+        <v>82</v>
+      </c>
+      <c r="P101" t="s">
+        <v>82</v>
+      </c>
+      <c r="Q101">
+        <v>6</v>
+      </c>
+      <c r="R101">
+        <v>1</v>
+      </c>
+      <c r="S101">
+        <v>7</v>
+      </c>
+      <c r="T101">
+        <v>3</v>
+      </c>
+      <c r="U101">
+        <v>2.1</v>
+      </c>
+      <c r="V101">
+        <v>3.6</v>
+      </c>
+      <c r="W101">
+        <v>1.44</v>
+      </c>
+      <c r="X101">
+        <v>2.63</v>
+      </c>
+      <c r="Y101">
+        <v>3</v>
+      </c>
+      <c r="Z101">
+        <v>1.36</v>
+      </c>
+      <c r="AA101">
+        <v>9</v>
+      </c>
+      <c r="AB101">
+        <v>1.07</v>
+      </c>
+      <c r="AC101">
+        <v>2.5</v>
+      </c>
+      <c r="AD101">
+        <v>3</v>
+      </c>
+      <c r="AE101">
+        <v>2.62</v>
+      </c>
+      <c r="AF101">
+        <v>1.04</v>
+      </c>
+      <c r="AG101">
+        <v>9.75</v>
+      </c>
+      <c r="AH101">
+        <v>1.28</v>
+      </c>
+      <c r="AI101">
+        <v>3.15</v>
+      </c>
+      <c r="AJ101">
+        <v>2.15</v>
+      </c>
+      <c r="AK101">
+        <v>1.61</v>
+      </c>
+      <c r="AL101">
+        <v>1.8</v>
+      </c>
+      <c r="AM101">
+        <v>1.95</v>
+      </c>
+      <c r="AN101">
+        <v>1.36</v>
+      </c>
+      <c r="AO101">
+        <v>1.3</v>
+      </c>
+      <c r="AP101">
+        <v>1.57</v>
+      </c>
+      <c r="AQ101">
+        <v>1.67</v>
+      </c>
+      <c r="AR101">
+        <v>1.4</v>
+      </c>
+      <c r="AS101">
+        <v>1.57</v>
+      </c>
+      <c r="AT101">
+        <v>1.33</v>
+      </c>
+      <c r="AU101">
+        <v>1.33</v>
+      </c>
+      <c r="AV101">
+        <v>1.41</v>
+      </c>
+      <c r="AW101">
+        <v>2.74</v>
+      </c>
+      <c r="AX101">
+        <v>2.1</v>
+      </c>
+      <c r="AY101">
+        <v>8</v>
+      </c>
+      <c r="AZ101">
+        <v>1.91</v>
+      </c>
+      <c r="BA101">
+        <v>1.21</v>
+      </c>
+      <c r="BB101">
+        <v>1.41</v>
+      </c>
+      <c r="BC101">
+        <v>1.7</v>
+      </c>
+      <c r="BD101">
+        <v>2.17</v>
+      </c>
+      <c r="BE101">
+        <v>2.9</v>
+      </c>
+      <c r="BF101">
+        <v>9</v>
+      </c>
+      <c r="BG101">
+        <v>2</v>
+      </c>
+      <c r="BH101">
+        <v>6</v>
+      </c>
+      <c r="BI101">
+        <v>3</v>
+      </c>
+      <c r="BJ101">
+        <v>15</v>
+      </c>
+      <c r="BK101">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="102" spans="1:63">
+      <c r="A102" s="1">
+        <v>101</v>
+      </c>
+      <c r="B102">
+        <v>4869472</v>
+      </c>
+      <c r="C102" t="s">
+        <v>63</v>
+      </c>
+      <c r="D102" t="s">
+        <v>64</v>
+      </c>
+      <c r="E102" s="2">
+        <v>45116.5</v>
+      </c>
+      <c r="F102">
+        <v>13</v>
+      </c>
+      <c r="G102" t="s">
+        <v>78</v>
+      </c>
+      <c r="H102" t="s">
+        <v>68</v>
+      </c>
+      <c r="I102">
+        <v>3</v>
+      </c>
+      <c r="J102">
+        <v>2</v>
+      </c>
+      <c r="K102">
+        <v>5</v>
+      </c>
+      <c r="L102">
+        <v>5</v>
+      </c>
+      <c r="M102">
+        <v>2</v>
+      </c>
+      <c r="N102">
+        <v>7</v>
+      </c>
+      <c r="O102" t="s">
+        <v>155</v>
+      </c>
+      <c r="P102" t="s">
+        <v>212</v>
+      </c>
+      <c r="Q102">
+        <v>3</v>
+      </c>
+      <c r="R102">
+        <v>11</v>
+      </c>
+      <c r="S102">
+        <v>14</v>
+      </c>
+      <c r="T102">
+        <v>3.2</v>
+      </c>
+      <c r="U102">
+        <v>2.5</v>
+      </c>
+      <c r="V102">
+        <v>2.75</v>
+      </c>
+      <c r="W102">
+        <v>1.25</v>
+      </c>
+      <c r="X102">
+        <v>3.75</v>
+      </c>
+      <c r="Y102">
+        <v>2.2</v>
+      </c>
+      <c r="Z102">
+        <v>1.62</v>
+      </c>
+      <c r="AA102">
+        <v>5</v>
+      </c>
+      <c r="AB102">
+        <v>1.17</v>
+      </c>
+      <c r="AC102">
+        <v>2.8</v>
+      </c>
+      <c r="AD102">
+        <v>3.4</v>
+      </c>
+      <c r="AE102">
+        <v>2.15</v>
+      </c>
+      <c r="AF102">
+        <v>1.01</v>
+      </c>
+      <c r="AG102">
+        <v>21</v>
+      </c>
+      <c r="AH102">
+        <v>1.15</v>
+      </c>
+      <c r="AI102">
+        <v>5</v>
+      </c>
+      <c r="AJ102">
+        <v>1.57</v>
+      </c>
+      <c r="AK102">
+        <v>2.3</v>
+      </c>
+      <c r="AL102">
+        <v>1.44</v>
+      </c>
+      <c r="AM102">
+        <v>2.63</v>
+      </c>
+      <c r="AN102">
+        <v>1.6</v>
+      </c>
+      <c r="AO102">
+        <v>1.25</v>
+      </c>
+      <c r="AP102">
+        <v>1.39</v>
+      </c>
+      <c r="AQ102">
+        <v>1.8</v>
+      </c>
+      <c r="AR102">
+        <v>1.83</v>
+      </c>
+      <c r="AS102">
+        <v>2</v>
+      </c>
+      <c r="AT102">
+        <v>1.57</v>
+      </c>
+      <c r="AU102">
+        <v>1.84</v>
+      </c>
+      <c r="AV102">
+        <v>1.91</v>
+      </c>
+      <c r="AW102">
+        <v>3.75</v>
+      </c>
+      <c r="AX102">
+        <v>2.1</v>
+      </c>
+      <c r="AY102">
+        <v>8.5</v>
+      </c>
+      <c r="AZ102">
+        <v>1.91</v>
+      </c>
+      <c r="BA102">
+        <v>1.12</v>
+      </c>
+      <c r="BB102">
+        <v>1.21</v>
+      </c>
+      <c r="BC102">
+        <v>1.4</v>
+      </c>
+      <c r="BD102">
+        <v>1.67</v>
+      </c>
+      <c r="BE102">
+        <v>2.1</v>
+      </c>
+      <c r="BF102">
+        <v>7</v>
+      </c>
+      <c r="BG102">
+        <v>10</v>
+      </c>
+      <c r="BH102">
+        <v>5</v>
+      </c>
+      <c r="BI102">
+        <v>10</v>
+      </c>
+      <c r="BJ102">
+        <v>12</v>
+      </c>
+      <c r="BK102">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="103" spans="1:63">
+      <c r="A103" s="1">
+        <v>102</v>
+      </c>
+      <c r="B103">
+        <v>4869469</v>
+      </c>
+      <c r="C103" t="s">
+        <v>63</v>
+      </c>
+      <c r="D103" t="s">
+        <v>64</v>
+      </c>
+      <c r="E103" s="2">
+        <v>45116.5</v>
+      </c>
+      <c r="F103">
+        <v>13</v>
+      </c>
+      <c r="G103" t="s">
+        <v>76</v>
+      </c>
+      <c r="H103" t="s">
+        <v>73</v>
+      </c>
+      <c r="I103">
+        <v>0</v>
+      </c>
+      <c r="J103">
+        <v>1</v>
+      </c>
+      <c r="K103">
+        <v>1</v>
+      </c>
+      <c r="L103">
+        <v>0</v>
+      </c>
+      <c r="M103">
+        <v>2</v>
+      </c>
+      <c r="N103">
+        <v>2</v>
+      </c>
+      <c r="O103" t="s">
+        <v>82</v>
+      </c>
+      <c r="P103" t="s">
+        <v>213</v>
+      </c>
+      <c r="Q103">
+        <v>5</v>
+      </c>
+      <c r="R103">
+        <v>5</v>
+      </c>
+      <c r="S103">
+        <v>10</v>
+      </c>
+      <c r="T103">
+        <v>5</v>
+      </c>
+      <c r="U103">
+        <v>2.5</v>
+      </c>
+      <c r="V103">
+        <v>2.05</v>
+      </c>
+      <c r="W103">
+        <v>1.25</v>
+      </c>
+      <c r="X103">
+        <v>3.75</v>
+      </c>
+      <c r="Y103">
+        <v>2.2</v>
+      </c>
+      <c r="Z103">
+        <v>1.62</v>
+      </c>
+      <c r="AA103">
+        <v>5.5</v>
+      </c>
+      <c r="AB103">
+        <v>1.14</v>
+      </c>
+      <c r="AC103">
+        <v>5.5</v>
+      </c>
+      <c r="AD103">
+        <v>4</v>
+      </c>
+      <c r="AE103">
+        <v>1.44</v>
+      </c>
+      <c r="AF103">
+        <v>1.01</v>
+      </c>
+      <c r="AG103">
+        <v>16</v>
+      </c>
+      <c r="AH103">
+        <v>1.14</v>
+      </c>
+      <c r="AI103">
+        <v>4.8</v>
+      </c>
+      <c r="AJ103">
+        <v>1.55</v>
+      </c>
+      <c r="AK103">
+        <v>2.29</v>
+      </c>
+      <c r="AL103">
+        <v>1.62</v>
+      </c>
+      <c r="AM103">
+        <v>2.2</v>
+      </c>
+      <c r="AN103">
+        <v>2.4</v>
+      </c>
+      <c r="AO103">
+        <v>1.2</v>
+      </c>
+      <c r="AP103">
+        <v>1.14</v>
+      </c>
+      <c r="AQ103">
+        <v>1.6</v>
+      </c>
+      <c r="AR103">
+        <v>2.5</v>
+      </c>
+      <c r="AS103">
+        <v>1.33</v>
+      </c>
+      <c r="AT103">
+        <v>2.57</v>
+      </c>
+      <c r="AU103">
+        <v>1.3</v>
+      </c>
+      <c r="AV103">
+        <v>1.97</v>
+      </c>
+      <c r="AW103">
+        <v>3.27</v>
+      </c>
+      <c r="AX103">
+        <v>4</v>
+      </c>
+      <c r="AY103">
+        <v>10</v>
+      </c>
+      <c r="AZ103">
+        <v>1.33</v>
+      </c>
+      <c r="BA103">
+        <v>1.17</v>
+      </c>
+      <c r="BB103">
+        <v>1.28</v>
+      </c>
+      <c r="BC103">
+        <v>1.51</v>
+      </c>
+      <c r="BD103">
+        <v>1.9</v>
+      </c>
+      <c r="BE103">
+        <v>2.45</v>
+      </c>
+      <c r="BF103">
+        <v>2</v>
+      </c>
+      <c r="BG103">
+        <v>6</v>
+      </c>
+      <c r="BH103">
+        <v>8</v>
+      </c>
+      <c r="BI103">
+        <v>3</v>
+      </c>
+      <c r="BJ103">
+        <v>10</v>
+      </c>
+      <c r="BK103">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="104" spans="1:63">
+      <c r="A104" s="1">
+        <v>103</v>
+      </c>
+      <c r="B104">
+        <v>4869470</v>
+      </c>
+      <c r="C104" t="s">
+        <v>63</v>
+      </c>
+      <c r="D104" t="s">
+        <v>64</v>
+      </c>
+      <c r="E104" s="2">
+        <v>45116.5</v>
+      </c>
+      <c r="F104">
+        <v>13</v>
+      </c>
+      <c r="G104" t="s">
+        <v>65</v>
+      </c>
+      <c r="H104" t="s">
+        <v>80</v>
+      </c>
+      <c r="I104">
+        <v>1</v>
+      </c>
+      <c r="J104">
+        <v>0</v>
+      </c>
+      <c r="K104">
+        <v>1</v>
+      </c>
+      <c r="L104">
+        <v>1</v>
+      </c>
+      <c r="M104">
+        <v>2</v>
+      </c>
+      <c r="N104">
+        <v>3</v>
+      </c>
+      <c r="O104" t="s">
+        <v>113</v>
+      </c>
+      <c r="P104" t="s">
+        <v>214</v>
+      </c>
+      <c r="Q104">
+        <v>2</v>
+      </c>
+      <c r="R104">
+        <v>7</v>
+      </c>
+      <c r="S104">
+        <v>9</v>
+      </c>
+      <c r="T104">
+        <v>2.88</v>
+      </c>
+      <c r="U104">
+        <v>2.2</v>
+      </c>
+      <c r="V104">
+        <v>3.6</v>
+      </c>
+      <c r="W104">
+        <v>1.36</v>
+      </c>
+      <c r="X104">
+        <v>3</v>
+      </c>
+      <c r="Y104">
+        <v>2.75</v>
+      </c>
+      <c r="Z104">
+        <v>1.4</v>
+      </c>
+      <c r="AA104">
+        <v>7</v>
+      </c>
+      <c r="AB104">
+        <v>1.1</v>
+      </c>
+      <c r="AC104">
+        <v>2</v>
+      </c>
+      <c r="AD104">
+        <v>3.1</v>
+      </c>
+      <c r="AE104">
+        <v>3.3</v>
+      </c>
+      <c r="AF104">
+        <v>1.03</v>
+      </c>
+      <c r="AG104">
+        <v>12</v>
+      </c>
+      <c r="AH104">
+        <v>1.23</v>
+      </c>
+      <c r="AI104">
+        <v>3.5</v>
+      </c>
+      <c r="AJ104">
+        <v>1.95</v>
+      </c>
+      <c r="AK104">
+        <v>1.75</v>
+      </c>
+      <c r="AL104">
+        <v>1.67</v>
+      </c>
+      <c r="AM104">
+        <v>2.1</v>
+      </c>
+      <c r="AN104">
+        <v>1.34</v>
+      </c>
+      <c r="AO104">
+        <v>1.29</v>
+      </c>
+      <c r="AP104">
+        <v>1.62</v>
+      </c>
+      <c r="AQ104">
+        <v>1.43</v>
+      </c>
+      <c r="AR104">
+        <v>1.6</v>
+      </c>
+      <c r="AS104">
+        <v>1.25</v>
+      </c>
+      <c r="AT104">
+        <v>1.83</v>
+      </c>
+      <c r="AU104">
+        <v>1.36</v>
+      </c>
+      <c r="AV104">
+        <v>1.59</v>
+      </c>
+      <c r="AW104">
+        <v>2.95</v>
+      </c>
+      <c r="AX104">
+        <v>1.91</v>
+      </c>
+      <c r="AY104">
+        <v>8</v>
+      </c>
+      <c r="AZ104">
+        <v>2.1</v>
+      </c>
+      <c r="BA104">
+        <v>1.18</v>
+      </c>
+      <c r="BB104">
+        <v>1.35</v>
+      </c>
+      <c r="BC104">
+        <v>1.61</v>
+      </c>
+      <c r="BD104">
+        <v>2.03</v>
+      </c>
+      <c r="BE104">
+        <v>2.65</v>
+      </c>
+      <c r="BF104">
+        <v>5</v>
+      </c>
+      <c r="BG104">
+        <v>8</v>
+      </c>
+      <c r="BH104">
+        <v>6</v>
+      </c>
+      <c r="BI104">
+        <v>6</v>
+      </c>
+      <c r="BJ104">
+        <v>11</v>
+      </c>
+      <c r="BK104">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="105" spans="1:63">
+      <c r="A105" s="1">
+        <v>104</v>
+      </c>
+      <c r="B105">
+        <v>4869471</v>
+      </c>
+      <c r="C105" t="s">
+        <v>63</v>
+      </c>
+      <c r="D105" t="s">
+        <v>64</v>
+      </c>
+      <c r="E105" s="2">
+        <v>45116.5</v>
+      </c>
+      <c r="F105">
+        <v>13</v>
+      </c>
+      <c r="G105" t="s">
+        <v>77</v>
+      </c>
+      <c r="H105" t="s">
+        <v>69</v>
+      </c>
+      <c r="I105">
+        <v>0</v>
+      </c>
+      <c r="J105">
+        <v>0</v>
+      </c>
+      <c r="K105">
+        <v>0</v>
+      </c>
+      <c r="L105">
+        <v>0</v>
+      </c>
+      <c r="M105">
+        <v>0</v>
+      </c>
+      <c r="N105">
+        <v>0</v>
+      </c>
+      <c r="O105" t="s">
+        <v>82</v>
+      </c>
+      <c r="P105" t="s">
+        <v>82</v>
+      </c>
+      <c r="Q105">
+        <v>4</v>
+      </c>
+      <c r="R105">
+        <v>7</v>
+      </c>
+      <c r="S105">
+        <v>11</v>
+      </c>
+      <c r="T105">
+        <v>3</v>
+      </c>
+      <c r="U105">
+        <v>2.2</v>
+      </c>
+      <c r="V105">
+        <v>3.4</v>
+      </c>
+      <c r="W105">
+        <v>1.36</v>
+      </c>
+      <c r="X105">
+        <v>3</v>
+      </c>
+      <c r="Y105">
+        <v>2.75</v>
+      </c>
+      <c r="Z105">
+        <v>1.4</v>
+      </c>
+      <c r="AA105">
+        <v>7</v>
+      </c>
+      <c r="AB105">
+        <v>1.1</v>
+      </c>
+      <c r="AC105">
+        <v>2.65</v>
+      </c>
+      <c r="AD105">
+        <v>3</v>
+      </c>
+      <c r="AE105">
+        <v>2.4</v>
+      </c>
+      <c r="AF105">
+        <v>1.03</v>
+      </c>
+      <c r="AG105">
+        <v>12</v>
+      </c>
+      <c r="AH105">
+        <v>1.23</v>
+      </c>
+      <c r="AI105">
+        <v>3.5</v>
+      </c>
+      <c r="AJ105">
+        <v>2</v>
+      </c>
+      <c r="AK105">
+        <v>1.73</v>
+      </c>
+      <c r="AL105">
+        <v>1.67</v>
+      </c>
+      <c r="AM105">
+        <v>2.1</v>
+      </c>
+      <c r="AN105">
+        <v>1.4</v>
+      </c>
+      <c r="AO105">
+        <v>1.29</v>
+      </c>
+      <c r="AP105">
+        <v>1.51</v>
+      </c>
+      <c r="AQ105">
+        <v>1.75</v>
+      </c>
+      <c r="AR105">
+        <v>0.6</v>
+      </c>
+      <c r="AS105">
+        <v>1.6</v>
+      </c>
+      <c r="AT105">
+        <v>0.67</v>
+      </c>
+      <c r="AU105">
+        <v>1.73</v>
+      </c>
+      <c r="AV105">
+        <v>0.99</v>
+      </c>
+      <c r="AW105">
+        <v>2.72</v>
+      </c>
+      <c r="AX105">
+        <v>1.8</v>
+      </c>
+      <c r="AY105">
+        <v>8.5</v>
+      </c>
+      <c r="AZ105">
+        <v>2.3</v>
+      </c>
+      <c r="BA105">
+        <v>1.17</v>
+      </c>
+      <c r="BB105">
+        <v>1.32</v>
+      </c>
+      <c r="BC105">
+        <v>1.57</v>
+      </c>
+      <c r="BD105">
+        <v>1.96</v>
+      </c>
+      <c r="BE105">
+        <v>2.55</v>
+      </c>
+      <c r="BF105">
+        <v>4</v>
+      </c>
+      <c r="BG105">
+        <v>4</v>
+      </c>
+      <c r="BH105">
+        <v>3</v>
+      </c>
+      <c r="BI105">
+        <v>7</v>
+      </c>
+      <c r="BJ105">
+        <v>7</v>
+      </c>
+      <c r="BK105">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="106" spans="1:63">
+      <c r="A106" s="1">
+        <v>105</v>
+      </c>
+      <c r="B106">
+        <v>4869474</v>
+      </c>
+      <c r="C106" t="s">
+        <v>63</v>
+      </c>
+      <c r="D106" t="s">
+        <v>64</v>
+      </c>
+      <c r="E106" s="2">
+        <v>45116.59375</v>
+      </c>
+      <c r="F106">
+        <v>13</v>
+      </c>
+      <c r="G106" t="s">
+        <v>75</v>
+      </c>
+      <c r="H106" t="s">
+        <v>71</v>
+      </c>
+      <c r="I106">
+        <v>1</v>
+      </c>
+      <c r="J106">
+        <v>0</v>
+      </c>
+      <c r="K106">
+        <v>1</v>
+      </c>
+      <c r="L106">
+        <v>2</v>
+      </c>
+      <c r="M106">
+        <v>0</v>
+      </c>
+      <c r="N106">
+        <v>2</v>
+      </c>
+      <c r="O106" t="s">
+        <v>156</v>
+      </c>
+      <c r="P106" t="s">
+        <v>82</v>
+      </c>
+      <c r="Q106">
+        <v>8</v>
+      </c>
+      <c r="R106">
+        <v>7</v>
+      </c>
+      <c r="S106">
+        <v>15</v>
+      </c>
+      <c r="T106">
+        <v>2.5</v>
+      </c>
+      <c r="U106">
+        <v>2.4</v>
+      </c>
+      <c r="V106">
+        <v>3.6</v>
+      </c>
+      <c r="W106">
+        <v>1.25</v>
+      </c>
+      <c r="X106">
+        <v>3.75</v>
+      </c>
+      <c r="Y106">
+        <v>2.2</v>
+      </c>
+      <c r="Z106">
+        <v>1.62</v>
+      </c>
+      <c r="AA106">
+        <v>5.5</v>
+      </c>
+      <c r="AB106">
+        <v>1.14</v>
+      </c>
+      <c r="AC106">
+        <v>2</v>
+      </c>
+      <c r="AD106">
+        <v>3.4</v>
+      </c>
+      <c r="AE106">
+        <v>3.1</v>
+      </c>
+      <c r="AF106">
+        <v>1.02</v>
+      </c>
+      <c r="AG106">
+        <v>19</v>
+      </c>
+      <c r="AH106">
+        <v>1.18</v>
+      </c>
+      <c r="AI106">
+        <v>5</v>
+      </c>
+      <c r="AJ106">
+        <v>1.57</v>
+      </c>
+      <c r="AK106">
+        <v>2.3</v>
+      </c>
+      <c r="AL106">
+        <v>1.44</v>
+      </c>
+      <c r="AM106">
+        <v>2.63</v>
+      </c>
+      <c r="AN106">
+        <v>1.33</v>
+      </c>
+      <c r="AO106">
+        <v>1.22</v>
+      </c>
+      <c r="AP106">
+        <v>1.85</v>
+      </c>
+      <c r="AQ106">
+        <v>2.17</v>
+      </c>
+      <c r="AR106">
+        <v>1.17</v>
+      </c>
+      <c r="AS106">
+        <v>2.29</v>
+      </c>
+      <c r="AT106">
+        <v>1</v>
+      </c>
+      <c r="AU106">
+        <v>1.95</v>
+      </c>
+      <c r="AV106">
+        <v>1.87</v>
+      </c>
+      <c r="AW106">
+        <v>3.82</v>
+      </c>
+      <c r="AX106">
+        <v>1.73</v>
+      </c>
+      <c r="AY106">
+        <v>8.5</v>
+      </c>
+      <c r="AZ106">
+        <v>2.38</v>
+      </c>
+      <c r="BA106">
+        <v>1.12</v>
+      </c>
+      <c r="BB106">
+        <v>1.29</v>
+      </c>
+      <c r="BC106">
+        <v>1.51</v>
+      </c>
+      <c r="BD106">
+        <v>1.85</v>
+      </c>
+      <c r="BE106">
+        <v>2.37</v>
+      </c>
+      <c r="BF106">
+        <v>8</v>
+      </c>
+      <c r="BG106">
+        <v>2</v>
+      </c>
+      <c r="BH106">
+        <v>9</v>
+      </c>
+      <c r="BI106">
+        <v>4</v>
+      </c>
+      <c r="BJ106">
+        <v>17</v>
+      </c>
+      <c r="BK106">
+        <v>6</v>
       </c>
     </row>
   </sheetData>
